--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>HLTOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4171000</v>
+        <v>4328100</v>
       </c>
       <c r="E8" s="3">
-        <v>4169000</v>
+        <v>4207400</v>
       </c>
       <c r="F8" s="3">
-        <v>4291100</v>
+        <v>4205400</v>
       </c>
       <c r="G8" s="3">
-        <v>4285400</v>
+        <v>4328600</v>
       </c>
       <c r="H8" s="3">
-        <v>4302400</v>
+        <v>4322900</v>
       </c>
       <c r="I8" s="3">
-        <v>4451400</v>
+        <v>4340000</v>
       </c>
       <c r="J8" s="3">
+        <v>4490300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4754700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5914000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>165400</v>
+        <v>220300</v>
       </c>
       <c r="E9" s="3">
-        <v>179500</v>
+        <v>166800</v>
       </c>
       <c r="F9" s="3">
-        <v>196400</v>
+        <v>181100</v>
       </c>
       <c r="G9" s="3">
-        <v>181100</v>
+        <v>198100</v>
       </c>
       <c r="H9" s="3">
-        <v>142400</v>
+        <v>182600</v>
       </c>
       <c r="I9" s="3">
-        <v>135900</v>
+        <v>143700</v>
       </c>
       <c r="J9" s="3">
+        <v>137100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1009900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1272100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4005600</v>
+        <v>4107800</v>
       </c>
       <c r="E10" s="3">
-        <v>3989500</v>
+        <v>4040600</v>
       </c>
       <c r="F10" s="3">
-        <v>4094700</v>
+        <v>4024400</v>
       </c>
       <c r="G10" s="3">
-        <v>4104300</v>
+        <v>4130500</v>
       </c>
       <c r="H10" s="3">
-        <v>4160000</v>
+        <v>4140200</v>
       </c>
       <c r="I10" s="3">
-        <v>4315500</v>
+        <v>4196400</v>
       </c>
       <c r="J10" s="3">
+        <v>4353200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3744700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4641900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2400</v>
       </c>
-      <c r="E14" s="3">
-        <v>43700</v>
-      </c>
       <c r="F14" s="3">
-        <v>-20100</v>
+        <v>44100</v>
       </c>
       <c r="G14" s="3">
-        <v>21900</v>
+        <v>-20300</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>895400</v>
+        <v>1260700</v>
       </c>
       <c r="E15" s="3">
-        <v>964300</v>
+        <v>903200</v>
       </c>
       <c r="F15" s="3">
-        <v>967800</v>
+        <v>972700</v>
       </c>
       <c r="G15" s="3">
-        <v>910700</v>
+        <v>976200</v>
       </c>
       <c r="H15" s="3">
-        <v>874400</v>
+        <v>918600</v>
       </c>
       <c r="I15" s="3">
-        <v>925100</v>
+        <v>882100</v>
       </c>
       <c r="J15" s="3">
+        <v>933200</v>
+      </c>
+      <c r="K15" s="3">
         <v>898600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1537900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3624800</v>
+        <v>4098000</v>
       </c>
       <c r="E17" s="3">
-        <v>3712600</v>
+        <v>3656500</v>
       </c>
       <c r="F17" s="3">
-        <v>3847600</v>
+        <v>3745000</v>
       </c>
       <c r="G17" s="3">
-        <v>3877800</v>
+        <v>3881300</v>
       </c>
       <c r="H17" s="3">
-        <v>3655600</v>
+        <v>3911700</v>
       </c>
       <c r="I17" s="3">
-        <v>4083000</v>
+        <v>3687500</v>
       </c>
       <c r="J17" s="3">
+        <v>4118700</v>
+      </c>
+      <c r="K17" s="3">
         <v>4123900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>546100</v>
+        <v>230000</v>
       </c>
       <c r="E18" s="3">
-        <v>456400</v>
+        <v>550900</v>
       </c>
       <c r="F18" s="3">
-        <v>443500</v>
+        <v>460400</v>
       </c>
       <c r="G18" s="3">
-        <v>407600</v>
+        <v>447400</v>
       </c>
       <c r="H18" s="3">
-        <v>646800</v>
+        <v>411100</v>
       </c>
       <c r="I18" s="3">
-        <v>368400</v>
+        <v>652500</v>
       </c>
       <c r="J18" s="3">
+        <v>371600</v>
+      </c>
+      <c r="K18" s="3">
         <v>630800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>413900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
-        <v>35900</v>
-      </c>
       <c r="H20" s="3">
-        <v>9900</v>
+        <v>36200</v>
       </c>
       <c r="I20" s="3">
-        <v>250700</v>
+        <v>10000</v>
       </c>
       <c r="J20" s="3">
+        <v>252900</v>
+      </c>
+      <c r="K20" s="3">
         <v>265800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>61700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1379500</v>
+        <v>1579600</v>
       </c>
       <c r="E21" s="3">
-        <v>1375800</v>
+        <v>1384700</v>
       </c>
       <c r="F21" s="3">
-        <v>1410500</v>
+        <v>1380300</v>
       </c>
       <c r="G21" s="3">
-        <v>1355600</v>
+        <v>1414800</v>
       </c>
       <c r="H21" s="3">
-        <v>1532500</v>
+        <v>1359900</v>
       </c>
       <c r="I21" s="3">
-        <v>1545500</v>
+        <v>1538700</v>
       </c>
       <c r="J21" s="3">
+        <v>1551500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1796600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2014600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>94500</v>
+        <v>107000</v>
       </c>
       <c r="E22" s="3">
-        <v>152700</v>
+        <v>95400</v>
       </c>
       <c r="F22" s="3">
-        <v>164000</v>
+        <v>154100</v>
       </c>
       <c r="G22" s="3">
-        <v>172800</v>
+        <v>165500</v>
       </c>
       <c r="H22" s="3">
-        <v>222600</v>
+        <v>174300</v>
       </c>
       <c r="I22" s="3">
-        <v>273400</v>
+        <v>224500</v>
       </c>
       <c r="J22" s="3">
+        <v>275800</v>
+      </c>
+      <c r="K22" s="3">
         <v>271500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>340500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>453900</v>
+        <v>143900</v>
       </c>
       <c r="E23" s="3">
-        <v>299400</v>
+        <v>457900</v>
       </c>
       <c r="F23" s="3">
-        <v>277100</v>
+        <v>302000</v>
       </c>
       <c r="G23" s="3">
-        <v>270700</v>
+        <v>279600</v>
       </c>
       <c r="H23" s="3">
-        <v>434100</v>
+        <v>273000</v>
       </c>
       <c r="I23" s="3">
-        <v>345700</v>
+        <v>437900</v>
       </c>
       <c r="J23" s="3">
+        <v>348700</v>
+      </c>
+      <c r="K23" s="3">
         <v>625100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>135100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>182000</v>
+        <v>102200</v>
       </c>
       <c r="E24" s="3">
-        <v>162100</v>
+        <v>183600</v>
       </c>
       <c r="F24" s="3">
-        <v>184900</v>
+        <v>163500</v>
       </c>
       <c r="G24" s="3">
-        <v>129300</v>
+        <v>186500</v>
       </c>
       <c r="H24" s="3">
-        <v>136000</v>
+        <v>130500</v>
       </c>
       <c r="I24" s="3">
-        <v>22900</v>
+        <v>137200</v>
       </c>
       <c r="J24" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K24" s="3">
         <v>114100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>151100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>271900</v>
+        <v>41600</v>
       </c>
       <c r="E26" s="3">
-        <v>137400</v>
+        <v>274200</v>
       </c>
       <c r="F26" s="3">
-        <v>92200</v>
+        <v>138600</v>
       </c>
       <c r="G26" s="3">
-        <v>141300</v>
+        <v>93000</v>
       </c>
       <c r="H26" s="3">
-        <v>298100</v>
+        <v>142500</v>
       </c>
       <c r="I26" s="3">
-        <v>322700</v>
+        <v>300700</v>
       </c>
       <c r="J26" s="3">
+        <v>325500</v>
+      </c>
+      <c r="K26" s="3">
         <v>511000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>281900</v>
+        <v>221300</v>
       </c>
       <c r="E27" s="3">
-        <v>186100</v>
+        <v>284300</v>
       </c>
       <c r="F27" s="3">
-        <v>153700</v>
+        <v>187700</v>
       </c>
       <c r="G27" s="3">
-        <v>166800</v>
+        <v>155100</v>
       </c>
       <c r="H27" s="3">
-        <v>293600</v>
+        <v>168200</v>
       </c>
       <c r="I27" s="3">
-        <v>316000</v>
+        <v>296200</v>
       </c>
       <c r="J27" s="3">
+        <v>318800</v>
+      </c>
+      <c r="K27" s="3">
         <v>483300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>140500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-89700</v>
+        <v>5900</v>
       </c>
       <c r="E29" s="3">
-        <v>-112300</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>-90500</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-113300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>31700</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K29" s="3">
         <v>34800</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-35900</v>
-      </c>
       <c r="H32" s="3">
-        <v>-9900</v>
+        <v>-36200</v>
       </c>
       <c r="I32" s="3">
-        <v>-250700</v>
+        <v>-10000</v>
       </c>
       <c r="J32" s="3">
+        <v>-252900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-265800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-61700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>192200</v>
+        <v>227200</v>
       </c>
       <c r="E33" s="3">
-        <v>73800</v>
+        <v>193800</v>
       </c>
       <c r="F33" s="3">
-        <v>153700</v>
+        <v>74400</v>
       </c>
       <c r="G33" s="3">
-        <v>166800</v>
+        <v>155100</v>
       </c>
       <c r="H33" s="3">
-        <v>293600</v>
+        <v>168200</v>
       </c>
       <c r="I33" s="3">
-        <v>347700</v>
+        <v>296200</v>
       </c>
       <c r="J33" s="3">
+        <v>350800</v>
+      </c>
+      <c r="K33" s="3">
         <v>518100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>140500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>192200</v>
+        <v>227200</v>
       </c>
       <c r="E35" s="3">
-        <v>73800</v>
+        <v>193800</v>
       </c>
       <c r="F35" s="3">
-        <v>153700</v>
+        <v>74400</v>
       </c>
       <c r="G35" s="3">
-        <v>166800</v>
+        <v>155100</v>
       </c>
       <c r="H35" s="3">
-        <v>293600</v>
+        <v>168200</v>
       </c>
       <c r="I35" s="3">
-        <v>347700</v>
+        <v>296200</v>
       </c>
       <c r="J35" s="3">
+        <v>350800</v>
+      </c>
+      <c r="K35" s="3">
         <v>518100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>140500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1191000</v>
+        <v>1174500</v>
       </c>
       <c r="E41" s="3">
-        <v>1424900</v>
+        <v>1203800</v>
       </c>
       <c r="F41" s="3">
-        <v>1741000</v>
+        <v>1440200</v>
       </c>
       <c r="G41" s="3">
-        <v>1452100</v>
+        <v>1759700</v>
       </c>
       <c r="H41" s="3">
-        <v>1657900</v>
+        <v>1467700</v>
       </c>
       <c r="I41" s="3">
-        <v>3171700</v>
+        <v>1675700</v>
       </c>
       <c r="J41" s="3">
+        <v>3205800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1278500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5600</v>
+        <v>6300</v>
       </c>
       <c r="E42" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F42" s="3">
         <v>6500</v>
       </c>
-      <c r="F42" s="3">
-        <v>6100</v>
-      </c>
       <c r="G42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H42" s="3">
         <v>7500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4100</v>
       </c>
-      <c r="I42" s="3">
-        <v>18100</v>
-      </c>
       <c r="J42" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1286700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1212500</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>795800</v>
+        <v>797300</v>
       </c>
       <c r="E43" s="3">
-        <v>790200</v>
+        <v>804400</v>
       </c>
       <c r="F43" s="3">
-        <v>802100</v>
+        <v>798700</v>
       </c>
       <c r="G43" s="3">
-        <v>800000</v>
+        <v>810700</v>
       </c>
       <c r="H43" s="3">
-        <v>752000</v>
+        <v>808600</v>
       </c>
       <c r="I43" s="3">
-        <v>1544400</v>
+        <v>760100</v>
       </c>
       <c r="J43" s="3">
+        <v>1561000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1007700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1203500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>90000</v>
+        <v>56900</v>
       </c>
       <c r="E44" s="3">
-        <v>100200</v>
+        <v>91000</v>
       </c>
       <c r="F44" s="3">
-        <v>105300</v>
+        <v>101300</v>
       </c>
       <c r="G44" s="3">
-        <v>106700</v>
+        <v>106400</v>
       </c>
       <c r="H44" s="3">
-        <v>96500</v>
+        <v>107900</v>
       </c>
       <c r="I44" s="3">
-        <v>213000</v>
+        <v>97600</v>
       </c>
       <c r="J44" s="3">
+        <v>215300</v>
+      </c>
+      <c r="K44" s="3">
         <v>244600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>146700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>182300</v>
+        <v>159100</v>
       </c>
       <c r="E45" s="3">
-        <v>289400</v>
+        <v>184200</v>
       </c>
       <c r="F45" s="3">
-        <v>341700</v>
+        <v>292500</v>
       </c>
       <c r="G45" s="3">
-        <v>280200</v>
+        <v>345400</v>
       </c>
       <c r="H45" s="3">
-        <v>227800</v>
+        <v>283200</v>
       </c>
       <c r="I45" s="3">
-        <v>506700</v>
+        <v>230300</v>
       </c>
       <c r="J45" s="3">
+        <v>512200</v>
+      </c>
+      <c r="K45" s="3">
         <v>497900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>136600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2264700</v>
+        <v>2194200</v>
       </c>
       <c r="E46" s="3">
-        <v>2611300</v>
+        <v>2289100</v>
       </c>
       <c r="F46" s="3">
-        <v>2996200</v>
+        <v>2639300</v>
       </c>
       <c r="G46" s="3">
-        <v>2646500</v>
+        <v>3028400</v>
       </c>
       <c r="H46" s="3">
-        <v>2738300</v>
+        <v>2675000</v>
       </c>
       <c r="I46" s="3">
-        <v>2738500</v>
+        <v>2767700</v>
       </c>
       <c r="J46" s="3">
+        <v>2768000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2614700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2704000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>180000</v>
+        <v>138800</v>
       </c>
       <c r="E47" s="3">
-        <v>90700</v>
+        <v>181900</v>
       </c>
       <c r="F47" s="3">
-        <v>94100</v>
+        <v>91700</v>
       </c>
       <c r="G47" s="3">
-        <v>97000</v>
+        <v>95100</v>
       </c>
       <c r="H47" s="3">
-        <v>114900</v>
+        <v>98000</v>
       </c>
       <c r="I47" s="3">
-        <v>121900</v>
+        <v>116100</v>
       </c>
       <c r="J47" s="3">
+        <v>123200</v>
+      </c>
+      <c r="K47" s="3">
         <v>243500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>169600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3009700</v>
+        <v>3062900</v>
       </c>
       <c r="E48" s="3">
-        <v>3009500</v>
+        <v>3042100</v>
       </c>
       <c r="F48" s="3">
-        <v>3132000</v>
+        <v>3041900</v>
       </c>
       <c r="G48" s="3">
-        <v>3239800</v>
+        <v>3165700</v>
       </c>
       <c r="H48" s="3">
-        <v>3407400</v>
+        <v>3274600</v>
       </c>
       <c r="I48" s="3">
-        <v>7200500</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>3444000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7277800</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5080200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1457700</v>
+        <v>1252000</v>
       </c>
       <c r="E49" s="3">
-        <v>1619400</v>
+        <v>1473400</v>
       </c>
       <c r="F49" s="3">
-        <v>1634600</v>
+        <v>1636800</v>
       </c>
       <c r="G49" s="3">
-        <v>1737900</v>
+        <v>1652200</v>
       </c>
       <c r="H49" s="3">
-        <v>1811200</v>
+        <v>1756600</v>
       </c>
       <c r="I49" s="3">
-        <v>2710700</v>
+        <v>1830600</v>
       </c>
       <c r="J49" s="3">
+        <v>2739900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3338100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1767200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>444400</v>
+        <v>406000</v>
       </c>
       <c r="E52" s="3">
-        <v>467300</v>
+        <v>449100</v>
       </c>
       <c r="F52" s="3">
-        <v>456700</v>
+        <v>472300</v>
       </c>
       <c r="G52" s="3">
-        <v>470200</v>
+        <v>461600</v>
       </c>
       <c r="H52" s="3">
-        <v>497400</v>
+        <v>475200</v>
       </c>
       <c r="I52" s="3">
-        <v>518100</v>
+        <v>502700</v>
       </c>
       <c r="J52" s="3">
+        <v>523700</v>
+      </c>
+      <c r="K52" s="3">
         <v>676100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>950000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7356500</v>
+        <v>7053900</v>
       </c>
       <c r="E54" s="3">
-        <v>7798200</v>
+        <v>7435500</v>
       </c>
       <c r="F54" s="3">
-        <v>8313600</v>
+        <v>7882000</v>
       </c>
       <c r="G54" s="3">
-        <v>8191300</v>
+        <v>8403000</v>
       </c>
       <c r="H54" s="3">
-        <v>8569100</v>
+        <v>8279300</v>
       </c>
       <c r="I54" s="3">
-        <v>8611900</v>
+        <v>8661200</v>
       </c>
       <c r="J54" s="3">
+        <v>8704500</v>
+      </c>
+      <c r="K54" s="3">
         <v>9185900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10671000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1135300</v>
+        <v>1038800</v>
       </c>
       <c r="E57" s="3">
-        <v>1276300</v>
+        <v>1147500</v>
       </c>
       <c r="F57" s="3">
-        <v>1497800</v>
+        <v>1290000</v>
       </c>
       <c r="G57" s="3">
-        <v>1320300</v>
+        <v>1513900</v>
       </c>
       <c r="H57" s="3">
-        <v>1070700</v>
+        <v>1334500</v>
       </c>
       <c r="I57" s="3">
-        <v>1014200</v>
+        <v>1082200</v>
       </c>
       <c r="J57" s="3">
+        <v>1025100</v>
+      </c>
+      <c r="K57" s="3">
         <v>861400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>879900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>601700</v>
+        <v>864900</v>
       </c>
       <c r="E58" s="3">
-        <v>839400</v>
+        <v>608200</v>
       </c>
       <c r="F58" s="3">
-        <v>202100</v>
+        <v>848400</v>
       </c>
       <c r="G58" s="3">
-        <v>476000</v>
+        <v>204300</v>
       </c>
       <c r="H58" s="3">
-        <v>511000</v>
+        <v>481100</v>
       </c>
       <c r="I58" s="3">
-        <v>439100</v>
+        <v>516500</v>
       </c>
       <c r="J58" s="3">
+        <v>443800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1554300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>895500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>827700</v>
+        <v>780300</v>
       </c>
       <c r="E59" s="3">
-        <v>871900</v>
+        <v>836600</v>
       </c>
       <c r="F59" s="3">
-        <v>979400</v>
+        <v>881300</v>
       </c>
       <c r="G59" s="3">
-        <v>936500</v>
+        <v>989900</v>
       </c>
       <c r="H59" s="3">
-        <v>1091900</v>
+        <v>946500</v>
       </c>
       <c r="I59" s="3">
-        <v>1190200</v>
+        <v>1103600</v>
       </c>
       <c r="J59" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1550400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1110200</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2564700</v>
+        <v>2683900</v>
       </c>
       <c r="E60" s="3">
-        <v>2987700</v>
+        <v>2592300</v>
       </c>
       <c r="F60" s="3">
-        <v>2679300</v>
+        <v>3019800</v>
       </c>
       <c r="G60" s="3">
-        <v>2732800</v>
+        <v>2708100</v>
       </c>
       <c r="H60" s="3">
-        <v>2673500</v>
+        <v>2762200</v>
       </c>
       <c r="I60" s="3">
-        <v>2643500</v>
+        <v>2702300</v>
       </c>
       <c r="J60" s="3">
+        <v>2672000</v>
+      </c>
+      <c r="K60" s="3">
         <v>3367700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2885600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1406100</v>
+        <v>1477000</v>
       </c>
       <c r="E61" s="3">
-        <v>1401300</v>
+        <v>1421200</v>
       </c>
       <c r="F61" s="3">
-        <v>2131200</v>
+        <v>1416300</v>
       </c>
       <c r="G61" s="3">
-        <v>1927600</v>
+        <v>2154100</v>
       </c>
       <c r="H61" s="3">
-        <v>2386100</v>
+        <v>1948400</v>
       </c>
       <c r="I61" s="3">
-        <v>2807000</v>
+        <v>2411700</v>
       </c>
       <c r="J61" s="3">
+        <v>2837200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2893400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4858500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>516200</v>
+        <v>470100</v>
       </c>
       <c r="E62" s="3">
-        <v>566100</v>
+        <v>521700</v>
       </c>
       <c r="F62" s="3">
-        <v>591500</v>
+        <v>572200</v>
       </c>
       <c r="G62" s="3">
-        <v>665900</v>
+        <v>597800</v>
       </c>
       <c r="H62" s="3">
-        <v>766300</v>
+        <v>673100</v>
       </c>
       <c r="I62" s="3">
-        <v>787600</v>
+        <v>774500</v>
       </c>
       <c r="J62" s="3">
+        <v>796100</v>
+      </c>
+      <c r="K62" s="3">
         <v>868400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>864200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4794600</v>
+        <v>4776600</v>
       </c>
       <c r="E66" s="3">
-        <v>5224100</v>
+        <v>4846200</v>
       </c>
       <c r="F66" s="3">
-        <v>5726700</v>
+        <v>5280200</v>
       </c>
       <c r="G66" s="3">
-        <v>5713100</v>
+        <v>5788300</v>
       </c>
       <c r="H66" s="3">
-        <v>6239200</v>
+        <v>5774500</v>
       </c>
       <c r="I66" s="3">
-        <v>6503500</v>
+        <v>6306200</v>
       </c>
       <c r="J66" s="3">
+        <v>6573300</v>
+      </c>
+      <c r="K66" s="3">
         <v>7430400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9047000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4372700</v>
+        <v>4187900</v>
       </c>
       <c r="E72" s="3">
-        <v>4160900</v>
+        <v>4419700</v>
       </c>
       <c r="F72" s="3">
-        <v>4173600</v>
+        <v>4205600</v>
       </c>
       <c r="G72" s="3">
-        <v>4065200</v>
+        <v>4218500</v>
       </c>
       <c r="H72" s="3">
-        <v>3916700</v>
+        <v>4108900</v>
       </c>
       <c r="I72" s="3">
-        <v>3675800</v>
+        <v>3958800</v>
       </c>
       <c r="J72" s="3">
+        <v>3715300</v>
+      </c>
+      <c r="K72" s="3">
         <v>6941000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3466400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2561900</v>
+        <v>2277300</v>
       </c>
       <c r="E76" s="3">
-        <v>2574200</v>
+        <v>2589400</v>
       </c>
       <c r="F76" s="3">
-        <v>2586900</v>
+        <v>2601800</v>
       </c>
       <c r="G76" s="3">
-        <v>2478200</v>
+        <v>2614700</v>
       </c>
       <c r="H76" s="3">
-        <v>2330000</v>
+        <v>2504800</v>
       </c>
       <c r="I76" s="3">
-        <v>2108500</v>
+        <v>2355000</v>
       </c>
       <c r="J76" s="3">
+        <v>2131100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1755500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1624000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>192200</v>
+        <v>227200</v>
       </c>
       <c r="E81" s="3">
-        <v>73800</v>
+        <v>193800</v>
       </c>
       <c r="F81" s="3">
-        <v>153700</v>
+        <v>74400</v>
       </c>
       <c r="G81" s="3">
-        <v>166800</v>
+        <v>155100</v>
       </c>
       <c r="H81" s="3">
-        <v>293600</v>
+        <v>168200</v>
       </c>
       <c r="I81" s="3">
-        <v>347700</v>
+        <v>296200</v>
       </c>
       <c r="J81" s="3">
+        <v>350800</v>
+      </c>
+      <c r="K81" s="3">
         <v>518100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>140500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>829800</v>
+        <v>1337500</v>
       </c>
       <c r="E83" s="3">
-        <v>922200</v>
+        <v>837000</v>
       </c>
       <c r="F83" s="3">
-        <v>967800</v>
+        <v>930300</v>
       </c>
       <c r="G83" s="3">
-        <v>910700</v>
+        <v>976200</v>
       </c>
       <c r="H83" s="3">
-        <v>874400</v>
+        <v>918600</v>
       </c>
       <c r="I83" s="3">
-        <v>925100</v>
+        <v>882100</v>
       </c>
       <c r="J83" s="3">
+        <v>933200</v>
+      </c>
+      <c r="K83" s="3">
         <v>898600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1537900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1084800</v>
+        <v>1285100</v>
       </c>
       <c r="E89" s="3">
-        <v>879100</v>
+        <v>1094300</v>
       </c>
       <c r="F89" s="3">
-        <v>1125600</v>
+        <v>886700</v>
       </c>
       <c r="G89" s="3">
-        <v>1035600</v>
+        <v>1135400</v>
       </c>
       <c r="H89" s="3">
-        <v>1097700</v>
+        <v>1044700</v>
       </c>
       <c r="I89" s="3">
-        <v>1198900</v>
+        <v>1107300</v>
       </c>
       <c r="J89" s="3">
+        <v>1209400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1281300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1418200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-790500</v>
+        <v>-733000</v>
       </c>
       <c r="E91" s="3">
-        <v>-992800</v>
+        <v>-797400</v>
       </c>
       <c r="F91" s="3">
-        <v>-717000</v>
+        <v>-1001500</v>
       </c>
       <c r="G91" s="3">
-        <v>-722900</v>
+        <v>-723300</v>
       </c>
       <c r="H91" s="3">
-        <v>-663100</v>
+        <v>-729200</v>
       </c>
       <c r="I91" s="3">
-        <v>-664000</v>
+        <v>-668900</v>
       </c>
       <c r="J91" s="3">
+        <v>-669800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1166300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-841000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-792000</v>
+        <v>-698500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1002100</v>
+        <v>-798900</v>
       </c>
       <c r="F94" s="3">
-        <v>-710400</v>
+        <v>-1010900</v>
       </c>
       <c r="G94" s="3">
-        <v>-708600</v>
+        <v>-716600</v>
       </c>
       <c r="H94" s="3">
-        <v>-632400</v>
+        <v>-714800</v>
       </c>
       <c r="I94" s="3">
-        <v>176000</v>
+        <v>-638000</v>
       </c>
       <c r="J94" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K94" s="3">
         <v>165100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1210200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-527000</v>
+        <v>-613700</v>
       </c>
       <c r="E100" s="3">
-        <v>-187900</v>
+        <v>-531600</v>
       </c>
       <c r="F100" s="3">
-        <v>-125600</v>
+        <v>-189500</v>
       </c>
       <c r="G100" s="3">
-        <v>-538100</v>
+        <v>-126700</v>
       </c>
       <c r="H100" s="3">
-        <v>-392500</v>
+        <v>-542800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1060900</v>
+        <v>-396000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1070200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-914600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-581200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
-        <v>-3600</v>
-      </c>
       <c r="J101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3500</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-233900</v>
+        <v>-29200</v>
       </c>
       <c r="E102" s="3">
-        <v>-316100</v>
+        <v>-235900</v>
       </c>
       <c r="F102" s="3">
-        <v>288900</v>
+        <v>-318900</v>
       </c>
       <c r="G102" s="3">
-        <v>-205800</v>
+        <v>291400</v>
       </c>
       <c r="H102" s="3">
-        <v>72000</v>
+        <v>-207600</v>
       </c>
       <c r="I102" s="3">
-        <v>310400</v>
+        <v>72700</v>
       </c>
       <c r="J102" s="3">
+        <v>313100</v>
+      </c>
+      <c r="K102" s="3">
         <v>525100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-376700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4328100</v>
+        <v>4622300</v>
       </c>
       <c r="E8" s="3">
-        <v>4207400</v>
+        <v>4493500</v>
       </c>
       <c r="F8" s="3">
-        <v>4205400</v>
+        <v>4491400</v>
       </c>
       <c r="G8" s="3">
-        <v>4328600</v>
+        <v>4622900</v>
       </c>
       <c r="H8" s="3">
-        <v>4322900</v>
+        <v>4616700</v>
       </c>
       <c r="I8" s="3">
-        <v>4340000</v>
+        <v>4635100</v>
       </c>
       <c r="J8" s="3">
-        <v>4490300</v>
+        <v>4795600</v>
       </c>
       <c r="K8" s="3">
         <v>4754700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>220300</v>
+        <v>235300</v>
       </c>
       <c r="E9" s="3">
-        <v>166800</v>
+        <v>178100</v>
       </c>
       <c r="F9" s="3">
-        <v>181100</v>
+        <v>193400</v>
       </c>
       <c r="G9" s="3">
-        <v>198100</v>
+        <v>211600</v>
       </c>
       <c r="H9" s="3">
-        <v>182600</v>
+        <v>195100</v>
       </c>
       <c r="I9" s="3">
-        <v>143700</v>
+        <v>153400</v>
       </c>
       <c r="J9" s="3">
-        <v>137100</v>
+        <v>146400</v>
       </c>
       <c r="K9" s="3">
         <v>1009900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4107800</v>
+        <v>4387000</v>
       </c>
       <c r="E10" s="3">
-        <v>4040600</v>
+        <v>4315300</v>
       </c>
       <c r="F10" s="3">
-        <v>4024400</v>
+        <v>4297900</v>
       </c>
       <c r="G10" s="3">
-        <v>4130500</v>
+        <v>4411300</v>
       </c>
       <c r="H10" s="3">
-        <v>4140200</v>
+        <v>4421700</v>
       </c>
       <c r="I10" s="3">
-        <v>4196400</v>
+        <v>4481700</v>
       </c>
       <c r="J10" s="3">
-        <v>4353200</v>
+        <v>4649200</v>
       </c>
       <c r="K10" s="3">
         <v>3744700</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>46300</v>
+        <v>49400</v>
       </c>
       <c r="E14" s="3">
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
       <c r="F14" s="3">
-        <v>44100</v>
+        <v>47100</v>
       </c>
       <c r="G14" s="3">
-        <v>-20300</v>
+        <v>-21600</v>
       </c>
       <c r="H14" s="3">
-        <v>22000</v>
+        <v>23500</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1260700</v>
+        <v>1346400</v>
       </c>
       <c r="E15" s="3">
-        <v>903200</v>
+        <v>964700</v>
       </c>
       <c r="F15" s="3">
-        <v>972700</v>
+        <v>1038800</v>
       </c>
       <c r="G15" s="3">
-        <v>976200</v>
+        <v>1042600</v>
       </c>
       <c r="H15" s="3">
-        <v>918600</v>
+        <v>981100</v>
       </c>
       <c r="I15" s="3">
-        <v>882100</v>
+        <v>942100</v>
       </c>
       <c r="J15" s="3">
-        <v>933200</v>
+        <v>996600</v>
       </c>
       <c r="K15" s="3">
         <v>898600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4098000</v>
+        <v>4376600</v>
       </c>
       <c r="E17" s="3">
-        <v>3656500</v>
+        <v>3905100</v>
       </c>
       <c r="F17" s="3">
-        <v>3745000</v>
+        <v>3999600</v>
       </c>
       <c r="G17" s="3">
-        <v>3881300</v>
+        <v>4145100</v>
       </c>
       <c r="H17" s="3">
-        <v>3911700</v>
+        <v>4177600</v>
       </c>
       <c r="I17" s="3">
-        <v>3687500</v>
+        <v>3938200</v>
       </c>
       <c r="J17" s="3">
-        <v>4118700</v>
+        <v>4398700</v>
       </c>
       <c r="K17" s="3">
         <v>4123900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>230000</v>
+        <v>245700</v>
       </c>
       <c r="E18" s="3">
-        <v>550900</v>
+        <v>588400</v>
       </c>
       <c r="F18" s="3">
-        <v>460400</v>
+        <v>491700</v>
       </c>
       <c r="G18" s="3">
-        <v>447400</v>
+        <v>477800</v>
       </c>
       <c r="H18" s="3">
-        <v>411100</v>
+        <v>439100</v>
       </c>
       <c r="I18" s="3">
-        <v>652500</v>
+        <v>696800</v>
       </c>
       <c r="J18" s="3">
-        <v>371600</v>
+        <v>396900</v>
       </c>
       <c r="K18" s="3">
         <v>630800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20800</v>
+        <v>22200</v>
       </c>
       <c r="E20" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="F20" s="3">
-        <v>-4300</v>
+        <v>-4600</v>
       </c>
       <c r="G20" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="H20" s="3">
-        <v>36200</v>
+        <v>38700</v>
       </c>
       <c r="I20" s="3">
-        <v>10000</v>
+        <v>10600</v>
       </c>
       <c r="J20" s="3">
-        <v>252900</v>
+        <v>270100</v>
       </c>
       <c r="K20" s="3">
         <v>265800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1579600</v>
+        <v>1696900</v>
       </c>
       <c r="E21" s="3">
-        <v>1384700</v>
+        <v>1485100</v>
       </c>
       <c r="F21" s="3">
-        <v>1380300</v>
+        <v>1481000</v>
       </c>
       <c r="G21" s="3">
-        <v>1414800</v>
+        <v>1518300</v>
       </c>
       <c r="H21" s="3">
-        <v>1359900</v>
+        <v>1459200</v>
       </c>
       <c r="I21" s="3">
-        <v>1538700</v>
+        <v>1649900</v>
       </c>
       <c r="J21" s="3">
-        <v>1551500</v>
+        <v>1663900</v>
       </c>
       <c r="K21" s="3">
         <v>1796600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>107000</v>
+        <v>114300</v>
       </c>
       <c r="E22" s="3">
-        <v>95400</v>
+        <v>101800</v>
       </c>
       <c r="F22" s="3">
-        <v>154100</v>
+        <v>164500</v>
       </c>
       <c r="G22" s="3">
-        <v>165500</v>
+        <v>176700</v>
       </c>
       <c r="H22" s="3">
-        <v>174300</v>
+        <v>186200</v>
       </c>
       <c r="I22" s="3">
-        <v>224500</v>
+        <v>239800</v>
       </c>
       <c r="J22" s="3">
-        <v>275800</v>
+        <v>294500</v>
       </c>
       <c r="K22" s="3">
         <v>271500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>143900</v>
+        <v>153700</v>
       </c>
       <c r="E23" s="3">
-        <v>457900</v>
+        <v>489000</v>
       </c>
       <c r="F23" s="3">
-        <v>302000</v>
+        <v>322600</v>
       </c>
       <c r="G23" s="3">
-        <v>279600</v>
+        <v>298600</v>
       </c>
       <c r="H23" s="3">
-        <v>273000</v>
+        <v>291600</v>
       </c>
       <c r="I23" s="3">
-        <v>437900</v>
+        <v>467700</v>
       </c>
       <c r="J23" s="3">
-        <v>348700</v>
+        <v>372400</v>
       </c>
       <c r="K23" s="3">
         <v>625100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>102200</v>
+        <v>109200</v>
       </c>
       <c r="E24" s="3">
-        <v>183600</v>
+        <v>196100</v>
       </c>
       <c r="F24" s="3">
-        <v>163500</v>
+        <v>174600</v>
       </c>
       <c r="G24" s="3">
-        <v>186500</v>
+        <v>199200</v>
       </c>
       <c r="H24" s="3">
-        <v>130500</v>
+        <v>139300</v>
       </c>
       <c r="I24" s="3">
-        <v>137200</v>
+        <v>146600</v>
       </c>
       <c r="J24" s="3">
-        <v>23100</v>
+        <v>24700</v>
       </c>
       <c r="K24" s="3">
         <v>114100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>41600</v>
+        <v>44500</v>
       </c>
       <c r="E26" s="3">
-        <v>274200</v>
+        <v>292900</v>
       </c>
       <c r="F26" s="3">
-        <v>138600</v>
+        <v>148000</v>
       </c>
       <c r="G26" s="3">
-        <v>93000</v>
+        <v>99400</v>
       </c>
       <c r="H26" s="3">
-        <v>142500</v>
+        <v>152200</v>
       </c>
       <c r="I26" s="3">
-        <v>300700</v>
+        <v>321200</v>
       </c>
       <c r="J26" s="3">
-        <v>325500</v>
+        <v>347700</v>
       </c>
       <c r="K26" s="3">
         <v>511000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>221300</v>
+        <v>236300</v>
       </c>
       <c r="E27" s="3">
-        <v>284300</v>
+        <v>303700</v>
       </c>
       <c r="F27" s="3">
-        <v>187700</v>
+        <v>200500</v>
       </c>
       <c r="G27" s="3">
-        <v>155100</v>
+        <v>165600</v>
       </c>
       <c r="H27" s="3">
-        <v>168200</v>
+        <v>179700</v>
       </c>
       <c r="I27" s="3">
-        <v>296200</v>
+        <v>316300</v>
       </c>
       <c r="J27" s="3">
-        <v>318800</v>
+        <v>340400</v>
       </c>
       <c r="K27" s="3">
         <v>483300</v>
@@ -1353,13 +1353,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="E29" s="3">
-        <v>-90500</v>
+        <v>-96600</v>
       </c>
       <c r="F29" s="3">
-        <v>-113300</v>
+        <v>-121000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>32000</v>
+        <v>34200</v>
       </c>
       <c r="K29" s="3">
         <v>34800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20800</v>
+        <v>-22200</v>
       </c>
       <c r="E32" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="F32" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="G32" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="H32" s="3">
-        <v>-36200</v>
+        <v>-38700</v>
       </c>
       <c r="I32" s="3">
-        <v>-10000</v>
+        <v>-10600</v>
       </c>
       <c r="J32" s="3">
-        <v>-252900</v>
+        <v>-270100</v>
       </c>
       <c r="K32" s="3">
         <v>-265800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>227200</v>
+        <v>242600</v>
       </c>
       <c r="E33" s="3">
-        <v>193800</v>
+        <v>207000</v>
       </c>
       <c r="F33" s="3">
-        <v>74400</v>
+        <v>79500</v>
       </c>
       <c r="G33" s="3">
-        <v>155100</v>
+        <v>165600</v>
       </c>
       <c r="H33" s="3">
-        <v>168200</v>
+        <v>179700</v>
       </c>
       <c r="I33" s="3">
-        <v>296200</v>
+        <v>316300</v>
       </c>
       <c r="J33" s="3">
-        <v>350800</v>
+        <v>374600</v>
       </c>
       <c r="K33" s="3">
         <v>518100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>227200</v>
+        <v>242600</v>
       </c>
       <c r="E35" s="3">
-        <v>193800</v>
+        <v>207000</v>
       </c>
       <c r="F35" s="3">
-        <v>74400</v>
+        <v>79500</v>
       </c>
       <c r="G35" s="3">
-        <v>155100</v>
+        <v>165600</v>
       </c>
       <c r="H35" s="3">
-        <v>168200</v>
+        <v>179700</v>
       </c>
       <c r="I35" s="3">
-        <v>296200</v>
+        <v>316300</v>
       </c>
       <c r="J35" s="3">
-        <v>350800</v>
+        <v>374600</v>
       </c>
       <c r="K35" s="3">
         <v>518100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1174500</v>
+        <v>1251900</v>
       </c>
       <c r="E41" s="3">
-        <v>1203800</v>
+        <v>1283100</v>
       </c>
       <c r="F41" s="3">
-        <v>1440200</v>
+        <v>1535000</v>
       </c>
       <c r="G41" s="3">
-        <v>1759700</v>
+        <v>1875600</v>
       </c>
       <c r="H41" s="3">
-        <v>1467700</v>
+        <v>1564400</v>
       </c>
       <c r="I41" s="3">
-        <v>1675700</v>
+        <v>1786100</v>
       </c>
       <c r="J41" s="3">
-        <v>3205800</v>
+        <v>3416900</v>
       </c>
       <c r="K41" s="3">
         <v>1278500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6300</v>
+        <v>6700</v>
       </c>
       <c r="E42" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="F42" s="3">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="G42" s="3">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="H42" s="3">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="I42" s="3">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="J42" s="3">
-        <v>18300</v>
+        <v>19500</v>
       </c>
       <c r="K42" s="3">
         <v>1286700</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>797300</v>
+        <v>849800</v>
       </c>
       <c r="E43" s="3">
-        <v>804400</v>
+        <v>857400</v>
       </c>
       <c r="F43" s="3">
-        <v>798700</v>
+        <v>851300</v>
       </c>
       <c r="G43" s="3">
-        <v>810700</v>
+        <v>864100</v>
       </c>
       <c r="H43" s="3">
-        <v>808600</v>
+        <v>861900</v>
       </c>
       <c r="I43" s="3">
-        <v>760100</v>
+        <v>810200</v>
       </c>
       <c r="J43" s="3">
-        <v>1561000</v>
+        <v>1663900</v>
       </c>
       <c r="K43" s="3">
         <v>1007700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>56900</v>
+        <v>60700</v>
       </c>
       <c r="E44" s="3">
-        <v>91000</v>
+        <v>97000</v>
       </c>
       <c r="F44" s="3">
-        <v>101300</v>
+        <v>108000</v>
       </c>
       <c r="G44" s="3">
-        <v>106400</v>
+        <v>113400</v>
       </c>
       <c r="H44" s="3">
-        <v>107900</v>
+        <v>115000</v>
       </c>
       <c r="I44" s="3">
-        <v>97600</v>
+        <v>104000</v>
       </c>
       <c r="J44" s="3">
-        <v>215300</v>
+        <v>229500</v>
       </c>
       <c r="K44" s="3">
         <v>244600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>159100</v>
+        <v>169600</v>
       </c>
       <c r="E45" s="3">
-        <v>184200</v>
+        <v>196400</v>
       </c>
       <c r="F45" s="3">
-        <v>292500</v>
+        <v>311800</v>
       </c>
       <c r="G45" s="3">
-        <v>345400</v>
+        <v>368100</v>
       </c>
       <c r="H45" s="3">
-        <v>283200</v>
+        <v>301900</v>
       </c>
       <c r="I45" s="3">
-        <v>230300</v>
+        <v>245500</v>
       </c>
       <c r="J45" s="3">
-        <v>512200</v>
+        <v>545900</v>
       </c>
       <c r="K45" s="3">
         <v>497900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2194200</v>
+        <v>2338700</v>
       </c>
       <c r="E46" s="3">
-        <v>2289100</v>
+        <v>2439800</v>
       </c>
       <c r="F46" s="3">
-        <v>2639300</v>
+        <v>2813200</v>
       </c>
       <c r="G46" s="3">
-        <v>3028400</v>
+        <v>3227900</v>
       </c>
       <c r="H46" s="3">
-        <v>2675000</v>
+        <v>2851100</v>
       </c>
       <c r="I46" s="3">
-        <v>2767700</v>
+        <v>2950000</v>
       </c>
       <c r="J46" s="3">
-        <v>2768000</v>
+        <v>2950300</v>
       </c>
       <c r="K46" s="3">
         <v>2614700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>138800</v>
+        <v>148000</v>
       </c>
       <c r="E47" s="3">
-        <v>181900</v>
+        <v>193900</v>
       </c>
       <c r="F47" s="3">
-        <v>91700</v>
+        <v>97700</v>
       </c>
       <c r="G47" s="3">
-        <v>95100</v>
+        <v>101400</v>
       </c>
       <c r="H47" s="3">
-        <v>98000</v>
+        <v>104500</v>
       </c>
       <c r="I47" s="3">
-        <v>116100</v>
+        <v>123700</v>
       </c>
       <c r="J47" s="3">
-        <v>123200</v>
+        <v>131300</v>
       </c>
       <c r="K47" s="3">
         <v>243500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3062900</v>
+        <v>3264700</v>
       </c>
       <c r="E48" s="3">
-        <v>3042100</v>
+        <v>3242400</v>
       </c>
       <c r="F48" s="3">
-        <v>3041900</v>
+        <v>3242200</v>
       </c>
       <c r="G48" s="3">
-        <v>3165700</v>
+        <v>3374200</v>
       </c>
       <c r="H48" s="3">
-        <v>3274600</v>
+        <v>3490300</v>
       </c>
       <c r="I48" s="3">
-        <v>3444000</v>
+        <v>3670900</v>
       </c>
       <c r="J48" s="3">
-        <v>7277800</v>
+        <v>7757200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1252000</v>
+        <v>1334400</v>
       </c>
       <c r="E49" s="3">
-        <v>1473400</v>
+        <v>1570400</v>
       </c>
       <c r="F49" s="3">
-        <v>1636800</v>
+        <v>1744700</v>
       </c>
       <c r="G49" s="3">
-        <v>1652200</v>
+        <v>1761000</v>
       </c>
       <c r="H49" s="3">
-        <v>1756600</v>
+        <v>1872300</v>
       </c>
       <c r="I49" s="3">
-        <v>1830600</v>
+        <v>1951200</v>
       </c>
       <c r="J49" s="3">
-        <v>2739900</v>
+        <v>2920300</v>
       </c>
       <c r="K49" s="3">
         <v>3338100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>406000</v>
+        <v>432700</v>
       </c>
       <c r="E52" s="3">
-        <v>449100</v>
+        <v>478700</v>
       </c>
       <c r="F52" s="3">
-        <v>472300</v>
+        <v>503400</v>
       </c>
       <c r="G52" s="3">
-        <v>461600</v>
+        <v>492000</v>
       </c>
       <c r="H52" s="3">
-        <v>475200</v>
+        <v>506500</v>
       </c>
       <c r="I52" s="3">
-        <v>502700</v>
+        <v>535900</v>
       </c>
       <c r="J52" s="3">
-        <v>523700</v>
+        <v>558200</v>
       </c>
       <c r="K52" s="3">
         <v>676100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7053900</v>
+        <v>7518500</v>
       </c>
       <c r="E54" s="3">
-        <v>7435500</v>
+        <v>7925300</v>
       </c>
       <c r="F54" s="3">
-        <v>7882000</v>
+        <v>8401200</v>
       </c>
       <c r="G54" s="3">
-        <v>8403000</v>
+        <v>8956400</v>
       </c>
       <c r="H54" s="3">
-        <v>8279300</v>
+        <v>8824700</v>
       </c>
       <c r="I54" s="3">
-        <v>8661200</v>
+        <v>9231700</v>
       </c>
       <c r="J54" s="3">
-        <v>8704500</v>
+        <v>9277800</v>
       </c>
       <c r="K54" s="3">
         <v>9185900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1038800</v>
+        <v>1107200</v>
       </c>
       <c r="E57" s="3">
-        <v>1147500</v>
+        <v>1223100</v>
       </c>
       <c r="F57" s="3">
-        <v>1290000</v>
+        <v>1375000</v>
       </c>
       <c r="G57" s="3">
-        <v>1513900</v>
+        <v>1613600</v>
       </c>
       <c r="H57" s="3">
-        <v>1334500</v>
+        <v>1422400</v>
       </c>
       <c r="I57" s="3">
-        <v>1082200</v>
+        <v>1153400</v>
       </c>
       <c r="J57" s="3">
-        <v>1025100</v>
+        <v>1092600</v>
       </c>
       <c r="K57" s="3">
         <v>861400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>864900</v>
+        <v>921800</v>
       </c>
       <c r="E58" s="3">
-        <v>608200</v>
+        <v>648200</v>
       </c>
       <c r="F58" s="3">
-        <v>848400</v>
+        <v>904300</v>
       </c>
       <c r="G58" s="3">
-        <v>204300</v>
+        <v>217800</v>
       </c>
       <c r="H58" s="3">
-        <v>481100</v>
+        <v>512800</v>
       </c>
       <c r="I58" s="3">
-        <v>516500</v>
+        <v>550500</v>
       </c>
       <c r="J58" s="3">
-        <v>443800</v>
+        <v>473000</v>
       </c>
       <c r="K58" s="3">
         <v>1554300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>780300</v>
+        <v>831700</v>
       </c>
       <c r="E59" s="3">
-        <v>836600</v>
+        <v>891700</v>
       </c>
       <c r="F59" s="3">
-        <v>881300</v>
+        <v>939300</v>
       </c>
       <c r="G59" s="3">
-        <v>989900</v>
+        <v>1055100</v>
       </c>
       <c r="H59" s="3">
-        <v>946500</v>
+        <v>1008900</v>
       </c>
       <c r="I59" s="3">
-        <v>1103600</v>
+        <v>1176300</v>
       </c>
       <c r="J59" s="3">
-        <v>1203000</v>
+        <v>1282300</v>
       </c>
       <c r="K59" s="3">
         <v>1550400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2683900</v>
+        <v>2860700</v>
       </c>
       <c r="E60" s="3">
-        <v>2592300</v>
+        <v>2763000</v>
       </c>
       <c r="F60" s="3">
-        <v>3019800</v>
+        <v>3218700</v>
       </c>
       <c r="G60" s="3">
-        <v>2708100</v>
+        <v>2886500</v>
       </c>
       <c r="H60" s="3">
-        <v>2762200</v>
+        <v>2944100</v>
       </c>
       <c r="I60" s="3">
-        <v>2702300</v>
+        <v>2880200</v>
       </c>
       <c r="J60" s="3">
-        <v>2672000</v>
+        <v>2848000</v>
       </c>
       <c r="K60" s="3">
         <v>3367700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1477000</v>
+        <v>1574300</v>
       </c>
       <c r="E61" s="3">
-        <v>1421200</v>
+        <v>1514800</v>
       </c>
       <c r="F61" s="3">
-        <v>1416300</v>
+        <v>1509600</v>
       </c>
       <c r="G61" s="3">
-        <v>2154100</v>
+        <v>2296000</v>
       </c>
       <c r="H61" s="3">
-        <v>1948400</v>
+        <v>2076700</v>
       </c>
       <c r="I61" s="3">
-        <v>2411700</v>
+        <v>2570600</v>
       </c>
       <c r="J61" s="3">
-        <v>2837200</v>
+        <v>3024100</v>
       </c>
       <c r="K61" s="3">
         <v>2893400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>470100</v>
+        <v>501100</v>
       </c>
       <c r="E62" s="3">
-        <v>521700</v>
+        <v>556100</v>
       </c>
       <c r="F62" s="3">
-        <v>572200</v>
+        <v>609900</v>
       </c>
       <c r="G62" s="3">
-        <v>597800</v>
+        <v>637200</v>
       </c>
       <c r="H62" s="3">
-        <v>673100</v>
+        <v>717400</v>
       </c>
       <c r="I62" s="3">
-        <v>774500</v>
+        <v>825500</v>
       </c>
       <c r="J62" s="3">
-        <v>796100</v>
+        <v>848500</v>
       </c>
       <c r="K62" s="3">
         <v>868400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4776600</v>
+        <v>5091200</v>
       </c>
       <c r="E66" s="3">
-        <v>4846200</v>
+        <v>5165400</v>
       </c>
       <c r="F66" s="3">
-        <v>5280200</v>
+        <v>5628000</v>
       </c>
       <c r="G66" s="3">
-        <v>5788300</v>
+        <v>6169500</v>
       </c>
       <c r="H66" s="3">
-        <v>5774500</v>
+        <v>6154900</v>
       </c>
       <c r="I66" s="3">
-        <v>6306200</v>
+        <v>6721600</v>
       </c>
       <c r="J66" s="3">
-        <v>6573300</v>
+        <v>7006300</v>
       </c>
       <c r="K66" s="3">
         <v>7430400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4187900</v>
+        <v>4463800</v>
       </c>
       <c r="E72" s="3">
-        <v>4419700</v>
+        <v>4710800</v>
       </c>
       <c r="F72" s="3">
-        <v>4205600</v>
+        <v>4482600</v>
       </c>
       <c r="G72" s="3">
-        <v>4218500</v>
+        <v>4496300</v>
       </c>
       <c r="H72" s="3">
-        <v>4108900</v>
+        <v>4379600</v>
       </c>
       <c r="I72" s="3">
-        <v>3958800</v>
+        <v>4219500</v>
       </c>
       <c r="J72" s="3">
-        <v>3715300</v>
+        <v>3960000</v>
       </c>
       <c r="K72" s="3">
         <v>6941000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2277300</v>
+        <v>2427300</v>
       </c>
       <c r="E76" s="3">
-        <v>2589400</v>
+        <v>2759900</v>
       </c>
       <c r="F76" s="3">
-        <v>2601800</v>
+        <v>2773200</v>
       </c>
       <c r="G76" s="3">
-        <v>2614700</v>
+        <v>2786900</v>
       </c>
       <c r="H76" s="3">
-        <v>2504800</v>
+        <v>2669800</v>
       </c>
       <c r="I76" s="3">
-        <v>2355000</v>
+        <v>2510100</v>
       </c>
       <c r="J76" s="3">
-        <v>2131100</v>
+        <v>2271500</v>
       </c>
       <c r="K76" s="3">
         <v>1755500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>227200</v>
+        <v>242600</v>
       </c>
       <c r="E81" s="3">
-        <v>193800</v>
+        <v>207000</v>
       </c>
       <c r="F81" s="3">
-        <v>74400</v>
+        <v>79500</v>
       </c>
       <c r="G81" s="3">
-        <v>155100</v>
+        <v>165600</v>
       </c>
       <c r="H81" s="3">
-        <v>168200</v>
+        <v>179700</v>
       </c>
       <c r="I81" s="3">
-        <v>296200</v>
+        <v>316300</v>
       </c>
       <c r="J81" s="3">
-        <v>350800</v>
+        <v>374600</v>
       </c>
       <c r="K81" s="3">
         <v>518100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1337500</v>
+        <v>1428500</v>
       </c>
       <c r="E83" s="3">
-        <v>837000</v>
+        <v>893900</v>
       </c>
       <c r="F83" s="3">
-        <v>930300</v>
+        <v>993500</v>
       </c>
       <c r="G83" s="3">
-        <v>976200</v>
+        <v>1042600</v>
       </c>
       <c r="H83" s="3">
-        <v>918600</v>
+        <v>981100</v>
       </c>
       <c r="I83" s="3">
-        <v>882100</v>
+        <v>942100</v>
       </c>
       <c r="J83" s="3">
-        <v>933200</v>
+        <v>996600</v>
       </c>
       <c r="K83" s="3">
         <v>898600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1285100</v>
+        <v>1372500</v>
       </c>
       <c r="E89" s="3">
-        <v>1094300</v>
+        <v>1168700</v>
       </c>
       <c r="F89" s="3">
-        <v>886700</v>
+        <v>947000</v>
       </c>
       <c r="G89" s="3">
-        <v>1135400</v>
+        <v>1212600</v>
       </c>
       <c r="H89" s="3">
-        <v>1044700</v>
+        <v>1115700</v>
       </c>
       <c r="I89" s="3">
-        <v>1107300</v>
+        <v>1182500</v>
       </c>
       <c r="J89" s="3">
-        <v>1209400</v>
+        <v>1291600</v>
       </c>
       <c r="K89" s="3">
         <v>1281300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-733000</v>
+        <v>-782800</v>
       </c>
       <c r="E91" s="3">
-        <v>-797400</v>
+        <v>-851600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1001500</v>
+        <v>-1069600</v>
       </c>
       <c r="G91" s="3">
-        <v>-723300</v>
+        <v>-772400</v>
       </c>
       <c r="H91" s="3">
-        <v>-729200</v>
+        <v>-778800</v>
       </c>
       <c r="I91" s="3">
-        <v>-668900</v>
+        <v>-714400</v>
       </c>
       <c r="J91" s="3">
-        <v>-669800</v>
+        <v>-715300</v>
       </c>
       <c r="K91" s="3">
         <v>-1166300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-698500</v>
+        <v>-745900</v>
       </c>
       <c r="E94" s="3">
-        <v>-798900</v>
+        <v>-853200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1010900</v>
+        <v>-1079600</v>
       </c>
       <c r="G94" s="3">
-        <v>-716600</v>
+        <v>-765300</v>
       </c>
       <c r="H94" s="3">
-        <v>-714800</v>
+        <v>-763400</v>
       </c>
       <c r="I94" s="3">
-        <v>-638000</v>
+        <v>-681400</v>
       </c>
       <c r="J94" s="3">
-        <v>177500</v>
+        <v>189600</v>
       </c>
       <c r="K94" s="3">
         <v>165100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-613700</v>
+        <v>-655400</v>
       </c>
       <c r="E100" s="3">
-        <v>-531600</v>
+        <v>-567800</v>
       </c>
       <c r="F100" s="3">
-        <v>-189500</v>
+        <v>-202400</v>
       </c>
       <c r="G100" s="3">
-        <v>-126700</v>
+        <v>-135300</v>
       </c>
       <c r="H100" s="3">
-        <v>-542800</v>
+        <v>-579700</v>
       </c>
       <c r="I100" s="3">
-        <v>-396000</v>
+        <v>-422900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1070200</v>
+        <v>-1142900</v>
       </c>
       <c r="K100" s="3">
         <v>-914600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="E101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F101" s="3">
-        <v>-5200</v>
+        <v>-5600</v>
       </c>
       <c r="G101" s="3">
         <v>-700</v>
       </c>
       <c r="H101" s="3">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="I101" s="3">
         <v>-700</v>
       </c>
       <c r="J101" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="K101" s="3">
         <v>-6700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-29200</v>
+        <v>-31200</v>
       </c>
       <c r="E102" s="3">
-        <v>-235900</v>
+        <v>-252000</v>
       </c>
       <c r="F102" s="3">
-        <v>-318900</v>
+        <v>-340600</v>
       </c>
       <c r="G102" s="3">
-        <v>291400</v>
+        <v>311200</v>
       </c>
       <c r="H102" s="3">
-        <v>-207600</v>
+        <v>-221700</v>
       </c>
       <c r="I102" s="3">
-        <v>72700</v>
+        <v>77600</v>
       </c>
       <c r="J102" s="3">
-        <v>313100</v>
+        <v>334400</v>
       </c>
       <c r="K102" s="3">
         <v>525100</v>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4622300</v>
+        <v>4674300</v>
       </c>
       <c r="E8" s="3">
-        <v>4493500</v>
+        <v>4544000</v>
       </c>
       <c r="F8" s="3">
-        <v>4491400</v>
+        <v>4541900</v>
       </c>
       <c r="G8" s="3">
-        <v>4622900</v>
+        <v>4674900</v>
       </c>
       <c r="H8" s="3">
-        <v>4616700</v>
+        <v>4668600</v>
       </c>
       <c r="I8" s="3">
-        <v>4635100</v>
+        <v>4687200</v>
       </c>
       <c r="J8" s="3">
-        <v>4795600</v>
+        <v>4849500</v>
       </c>
       <c r="K8" s="3">
         <v>4754700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>235300</v>
+        <v>237900</v>
       </c>
       <c r="E9" s="3">
-        <v>178100</v>
+        <v>180100</v>
       </c>
       <c r="F9" s="3">
-        <v>193400</v>
+        <v>195600</v>
       </c>
       <c r="G9" s="3">
-        <v>211600</v>
+        <v>214000</v>
       </c>
       <c r="H9" s="3">
-        <v>195100</v>
+        <v>197300</v>
       </c>
       <c r="I9" s="3">
-        <v>153400</v>
+        <v>155100</v>
       </c>
       <c r="J9" s="3">
-        <v>146400</v>
+        <v>148100</v>
       </c>
       <c r="K9" s="3">
         <v>1009900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4387000</v>
+        <v>4436300</v>
       </c>
       <c r="E10" s="3">
-        <v>4315300</v>
+        <v>4363900</v>
       </c>
       <c r="F10" s="3">
-        <v>4297900</v>
+        <v>4346300</v>
       </c>
       <c r="G10" s="3">
-        <v>4411300</v>
+        <v>4460900</v>
       </c>
       <c r="H10" s="3">
-        <v>4421700</v>
+        <v>4471400</v>
       </c>
       <c r="I10" s="3">
-        <v>4481700</v>
+        <v>4532000</v>
       </c>
       <c r="J10" s="3">
-        <v>4649200</v>
+        <v>4701400</v>
       </c>
       <c r="K10" s="3">
         <v>3744700</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>49400</v>
+        <v>50000</v>
       </c>
       <c r="E14" s="3">
         <v>-2600</v>
       </c>
       <c r="F14" s="3">
-        <v>47100</v>
+        <v>47600</v>
       </c>
       <c r="G14" s="3">
-        <v>-21600</v>
+        <v>-21900</v>
       </c>
       <c r="H14" s="3">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1346400</v>
+        <v>1361500</v>
       </c>
       <c r="E15" s="3">
-        <v>964700</v>
+        <v>975500</v>
       </c>
       <c r="F15" s="3">
-        <v>1038800</v>
+        <v>1050500</v>
       </c>
       <c r="G15" s="3">
-        <v>1042600</v>
+        <v>1054300</v>
       </c>
       <c r="H15" s="3">
-        <v>981100</v>
+        <v>992100</v>
       </c>
       <c r="I15" s="3">
-        <v>942100</v>
+        <v>952700</v>
       </c>
       <c r="J15" s="3">
-        <v>996600</v>
+        <v>1007800</v>
       </c>
       <c r="K15" s="3">
         <v>898600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4376600</v>
+        <v>4425800</v>
       </c>
       <c r="E17" s="3">
-        <v>3905100</v>
+        <v>3949000</v>
       </c>
       <c r="F17" s="3">
-        <v>3999600</v>
+        <v>4044600</v>
       </c>
       <c r="G17" s="3">
-        <v>4145100</v>
+        <v>4191700</v>
       </c>
       <c r="H17" s="3">
-        <v>4177600</v>
+        <v>4224600</v>
       </c>
       <c r="I17" s="3">
-        <v>3938200</v>
+        <v>3982500</v>
       </c>
       <c r="J17" s="3">
-        <v>4398700</v>
+        <v>4448200</v>
       </c>
       <c r="K17" s="3">
         <v>4123900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>245700</v>
+        <v>248500</v>
       </c>
       <c r="E18" s="3">
-        <v>588400</v>
+        <v>595000</v>
       </c>
       <c r="F18" s="3">
-        <v>491700</v>
+        <v>497300</v>
       </c>
       <c r="G18" s="3">
-        <v>477800</v>
+        <v>483100</v>
       </c>
       <c r="H18" s="3">
-        <v>439100</v>
+        <v>444000</v>
       </c>
       <c r="I18" s="3">
-        <v>696800</v>
+        <v>704700</v>
       </c>
       <c r="J18" s="3">
-        <v>396900</v>
+        <v>401300</v>
       </c>
       <c r="K18" s="3">
         <v>630800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22200</v>
+        <v>22500</v>
       </c>
       <c r="E20" s="3">
         <v>2500</v>
       </c>
       <c r="F20" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="G20" s="3">
         <v>-2500</v>
       </c>
       <c r="H20" s="3">
-        <v>38700</v>
+        <v>39100</v>
       </c>
       <c r="I20" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="J20" s="3">
-        <v>270100</v>
+        <v>273100</v>
       </c>
       <c r="K20" s="3">
         <v>265800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1696900</v>
+        <v>1709600</v>
       </c>
       <c r="E21" s="3">
-        <v>1485100</v>
+        <v>1497800</v>
       </c>
       <c r="F21" s="3">
-        <v>1481000</v>
+        <v>1493200</v>
       </c>
       <c r="G21" s="3">
-        <v>1518300</v>
+        <v>1530600</v>
       </c>
       <c r="H21" s="3">
-        <v>1459200</v>
+        <v>1471200</v>
       </c>
       <c r="I21" s="3">
-        <v>1649900</v>
+        <v>1664200</v>
       </c>
       <c r="J21" s="3">
-        <v>1663900</v>
+        <v>1678100</v>
       </c>
       <c r="K21" s="3">
         <v>1796600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>114300</v>
+        <v>115600</v>
       </c>
       <c r="E22" s="3">
-        <v>101800</v>
+        <v>103000</v>
       </c>
       <c r="F22" s="3">
-        <v>164500</v>
+        <v>166400</v>
       </c>
       <c r="G22" s="3">
-        <v>176700</v>
+        <v>178700</v>
       </c>
       <c r="H22" s="3">
-        <v>186200</v>
+        <v>188300</v>
       </c>
       <c r="I22" s="3">
-        <v>239800</v>
+        <v>242500</v>
       </c>
       <c r="J22" s="3">
-        <v>294500</v>
+        <v>297900</v>
       </c>
       <c r="K22" s="3">
         <v>271500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>153700</v>
+        <v>155400</v>
       </c>
       <c r="E23" s="3">
-        <v>489000</v>
+        <v>494500</v>
       </c>
       <c r="F23" s="3">
-        <v>322600</v>
+        <v>326200</v>
       </c>
       <c r="G23" s="3">
-        <v>298600</v>
+        <v>301900</v>
       </c>
       <c r="H23" s="3">
-        <v>291600</v>
+        <v>294900</v>
       </c>
       <c r="I23" s="3">
-        <v>467700</v>
+        <v>473000</v>
       </c>
       <c r="J23" s="3">
-        <v>372400</v>
+        <v>376600</v>
       </c>
       <c r="K23" s="3">
         <v>625100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>109200</v>
+        <v>110400</v>
       </c>
       <c r="E24" s="3">
-        <v>196100</v>
+        <v>198300</v>
       </c>
       <c r="F24" s="3">
-        <v>174600</v>
+        <v>176600</v>
       </c>
       <c r="G24" s="3">
-        <v>199200</v>
+        <v>201400</v>
       </c>
       <c r="H24" s="3">
-        <v>139300</v>
+        <v>140900</v>
       </c>
       <c r="I24" s="3">
-        <v>146600</v>
+        <v>148200</v>
       </c>
       <c r="J24" s="3">
-        <v>24700</v>
+        <v>25000</v>
       </c>
       <c r="K24" s="3">
         <v>114100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>44500</v>
+        <v>45000</v>
       </c>
       <c r="E26" s="3">
-        <v>292900</v>
+        <v>296200</v>
       </c>
       <c r="F26" s="3">
-        <v>148000</v>
+        <v>149600</v>
       </c>
       <c r="G26" s="3">
-        <v>99400</v>
+        <v>100500</v>
       </c>
       <c r="H26" s="3">
-        <v>152200</v>
+        <v>154000</v>
       </c>
       <c r="I26" s="3">
-        <v>321200</v>
+        <v>324800</v>
       </c>
       <c r="J26" s="3">
-        <v>347700</v>
+        <v>351600</v>
       </c>
       <c r="K26" s="3">
         <v>511000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>236300</v>
+        <v>239000</v>
       </c>
       <c r="E27" s="3">
-        <v>303700</v>
+        <v>307100</v>
       </c>
       <c r="F27" s="3">
-        <v>200500</v>
+        <v>202800</v>
       </c>
       <c r="G27" s="3">
-        <v>165600</v>
+        <v>167500</v>
       </c>
       <c r="H27" s="3">
-        <v>179700</v>
+        <v>181700</v>
       </c>
       <c r="I27" s="3">
-        <v>316300</v>
+        <v>319900</v>
       </c>
       <c r="J27" s="3">
-        <v>340400</v>
+        <v>344300</v>
       </c>
       <c r="K27" s="3">
         <v>483300</v>
@@ -1356,10 +1356,10 @@
         <v>6300</v>
       </c>
       <c r="E29" s="3">
-        <v>-96600</v>
+        <v>-97700</v>
       </c>
       <c r="F29" s="3">
-        <v>-121000</v>
+        <v>-122400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>34200</v>
+        <v>34600</v>
       </c>
       <c r="K29" s="3">
         <v>34800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22200</v>
+        <v>-22500</v>
       </c>
       <c r="E32" s="3">
         <v>-2500</v>
       </c>
       <c r="F32" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G32" s="3">
         <v>2500</v>
       </c>
       <c r="H32" s="3">
-        <v>-38700</v>
+        <v>-39100</v>
       </c>
       <c r="I32" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="J32" s="3">
-        <v>-270100</v>
+        <v>-273100</v>
       </c>
       <c r="K32" s="3">
         <v>-265800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>242600</v>
+        <v>245300</v>
       </c>
       <c r="E33" s="3">
-        <v>207000</v>
+        <v>209300</v>
       </c>
       <c r="F33" s="3">
-        <v>79500</v>
+        <v>80400</v>
       </c>
       <c r="G33" s="3">
-        <v>165600</v>
+        <v>167500</v>
       </c>
       <c r="H33" s="3">
-        <v>179700</v>
+        <v>181700</v>
       </c>
       <c r="I33" s="3">
-        <v>316300</v>
+        <v>319900</v>
       </c>
       <c r="J33" s="3">
-        <v>374600</v>
+        <v>378800</v>
       </c>
       <c r="K33" s="3">
         <v>518100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>242600</v>
+        <v>245300</v>
       </c>
       <c r="E35" s="3">
-        <v>207000</v>
+        <v>209300</v>
       </c>
       <c r="F35" s="3">
-        <v>79500</v>
+        <v>80400</v>
       </c>
       <c r="G35" s="3">
-        <v>165600</v>
+        <v>167500</v>
       </c>
       <c r="H35" s="3">
-        <v>179700</v>
+        <v>181700</v>
       </c>
       <c r="I35" s="3">
-        <v>316300</v>
+        <v>319900</v>
       </c>
       <c r="J35" s="3">
-        <v>374600</v>
+        <v>378800</v>
       </c>
       <c r="K35" s="3">
         <v>518100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1251900</v>
+        <v>1265900</v>
       </c>
       <c r="E41" s="3">
-        <v>1283100</v>
+        <v>1297500</v>
       </c>
       <c r="F41" s="3">
-        <v>1535000</v>
+        <v>1552300</v>
       </c>
       <c r="G41" s="3">
-        <v>1875600</v>
+        <v>1896700</v>
       </c>
       <c r="H41" s="3">
-        <v>1564400</v>
+        <v>1582000</v>
       </c>
       <c r="I41" s="3">
-        <v>1786100</v>
+        <v>1806100</v>
       </c>
       <c r="J41" s="3">
-        <v>3416900</v>
+        <v>3455300</v>
       </c>
       <c r="K41" s="3">
         <v>1278500</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G42" s="3">
         <v>6700</v>
       </c>
-      <c r="E42" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F42" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6600</v>
-      </c>
       <c r="H42" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="I42" s="3">
         <v>4400</v>
       </c>
       <c r="J42" s="3">
-        <v>19500</v>
+        <v>19700</v>
       </c>
       <c r="K42" s="3">
         <v>1286700</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>849800</v>
+        <v>859400</v>
       </c>
       <c r="E43" s="3">
-        <v>857400</v>
+        <v>867000</v>
       </c>
       <c r="F43" s="3">
-        <v>851300</v>
+        <v>860900</v>
       </c>
       <c r="G43" s="3">
-        <v>864100</v>
+        <v>873800</v>
       </c>
       <c r="H43" s="3">
-        <v>861900</v>
+        <v>871600</v>
       </c>
       <c r="I43" s="3">
-        <v>810200</v>
+        <v>819300</v>
       </c>
       <c r="J43" s="3">
-        <v>1663900</v>
+        <v>1682600</v>
       </c>
       <c r="K43" s="3">
         <v>1007700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>60700</v>
+        <v>61400</v>
       </c>
       <c r="E44" s="3">
-        <v>97000</v>
+        <v>98100</v>
       </c>
       <c r="F44" s="3">
-        <v>108000</v>
+        <v>109200</v>
       </c>
       <c r="G44" s="3">
-        <v>113400</v>
+        <v>114700</v>
       </c>
       <c r="H44" s="3">
-        <v>115000</v>
+        <v>116300</v>
       </c>
       <c r="I44" s="3">
-        <v>104000</v>
+        <v>105100</v>
       </c>
       <c r="J44" s="3">
-        <v>229500</v>
+        <v>232100</v>
       </c>
       <c r="K44" s="3">
         <v>244600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>169600</v>
+        <v>171500</v>
       </c>
       <c r="E45" s="3">
-        <v>196400</v>
+        <v>198600</v>
       </c>
       <c r="F45" s="3">
-        <v>311800</v>
+        <v>315300</v>
       </c>
       <c r="G45" s="3">
-        <v>368100</v>
+        <v>372300</v>
       </c>
       <c r="H45" s="3">
-        <v>301900</v>
+        <v>305300</v>
       </c>
       <c r="I45" s="3">
-        <v>245500</v>
+        <v>248200</v>
       </c>
       <c r="J45" s="3">
-        <v>545900</v>
+        <v>552000</v>
       </c>
       <c r="K45" s="3">
         <v>497900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2338700</v>
+        <v>2365000</v>
       </c>
       <c r="E46" s="3">
-        <v>2439800</v>
+        <v>2467300</v>
       </c>
       <c r="F46" s="3">
-        <v>2813200</v>
+        <v>2844800</v>
       </c>
       <c r="G46" s="3">
-        <v>3227900</v>
+        <v>3264200</v>
       </c>
       <c r="H46" s="3">
-        <v>2851100</v>
+        <v>2883200</v>
       </c>
       <c r="I46" s="3">
-        <v>2950000</v>
+        <v>2983200</v>
       </c>
       <c r="J46" s="3">
-        <v>2950300</v>
+        <v>2983400</v>
       </c>
       <c r="K46" s="3">
         <v>2614700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>148000</v>
+        <v>149600</v>
       </c>
       <c r="E47" s="3">
-        <v>193900</v>
+        <v>196100</v>
       </c>
       <c r="F47" s="3">
-        <v>97700</v>
+        <v>98800</v>
       </c>
       <c r="G47" s="3">
-        <v>101400</v>
+        <v>102500</v>
       </c>
       <c r="H47" s="3">
-        <v>104500</v>
+        <v>105600</v>
       </c>
       <c r="I47" s="3">
-        <v>123700</v>
+        <v>125100</v>
       </c>
       <c r="J47" s="3">
-        <v>131300</v>
+        <v>132800</v>
       </c>
       <c r="K47" s="3">
         <v>243500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3264700</v>
+        <v>3301400</v>
       </c>
       <c r="E48" s="3">
-        <v>3242400</v>
+        <v>3278900</v>
       </c>
       <c r="F48" s="3">
-        <v>3242200</v>
+        <v>3278700</v>
       </c>
       <c r="G48" s="3">
-        <v>3374200</v>
+        <v>3412200</v>
       </c>
       <c r="H48" s="3">
-        <v>3490300</v>
+        <v>3529500</v>
       </c>
       <c r="I48" s="3">
-        <v>3670900</v>
+        <v>3712200</v>
       </c>
       <c r="J48" s="3">
-        <v>7757200</v>
+        <v>7844400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1334400</v>
+        <v>1349400</v>
       </c>
       <c r="E49" s="3">
-        <v>1570400</v>
+        <v>1588100</v>
       </c>
       <c r="F49" s="3">
-        <v>1744700</v>
+        <v>1764300</v>
       </c>
       <c r="G49" s="3">
-        <v>1761000</v>
+        <v>1780800</v>
       </c>
       <c r="H49" s="3">
-        <v>1872300</v>
+        <v>1893300</v>
       </c>
       <c r="I49" s="3">
-        <v>1951200</v>
+        <v>1973100</v>
       </c>
       <c r="J49" s="3">
-        <v>2920300</v>
+        <v>2953200</v>
       </c>
       <c r="K49" s="3">
         <v>3338100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>432700</v>
+        <v>437600</v>
       </c>
       <c r="E52" s="3">
-        <v>478700</v>
+        <v>484100</v>
       </c>
       <c r="F52" s="3">
-        <v>503400</v>
+        <v>509100</v>
       </c>
       <c r="G52" s="3">
-        <v>492000</v>
+        <v>497500</v>
       </c>
       <c r="H52" s="3">
-        <v>506500</v>
+        <v>512200</v>
       </c>
       <c r="I52" s="3">
-        <v>535900</v>
+        <v>541900</v>
       </c>
       <c r="J52" s="3">
-        <v>558200</v>
+        <v>564500</v>
       </c>
       <c r="K52" s="3">
         <v>676100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7518500</v>
+        <v>7603000</v>
       </c>
       <c r="E54" s="3">
-        <v>7925300</v>
+        <v>8014400</v>
       </c>
       <c r="F54" s="3">
-        <v>8401200</v>
+        <v>8495700</v>
       </c>
       <c r="G54" s="3">
-        <v>8956400</v>
+        <v>9057100</v>
       </c>
       <c r="H54" s="3">
-        <v>8824700</v>
+        <v>8923900</v>
       </c>
       <c r="I54" s="3">
-        <v>9231700</v>
+        <v>9335500</v>
       </c>
       <c r="J54" s="3">
-        <v>9277800</v>
+        <v>9382200</v>
       </c>
       <c r="K54" s="3">
         <v>9185900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1107200</v>
+        <v>1119600</v>
       </c>
       <c r="E57" s="3">
-        <v>1223100</v>
+        <v>1236900</v>
       </c>
       <c r="F57" s="3">
-        <v>1375000</v>
+        <v>1390500</v>
       </c>
       <c r="G57" s="3">
-        <v>1613600</v>
+        <v>1631700</v>
       </c>
       <c r="H57" s="3">
-        <v>1422400</v>
+        <v>1438400</v>
       </c>
       <c r="I57" s="3">
-        <v>1153400</v>
+        <v>1166400</v>
       </c>
       <c r="J57" s="3">
-        <v>1092600</v>
+        <v>1104900</v>
       </c>
       <c r="K57" s="3">
         <v>861400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>921800</v>
+        <v>932200</v>
       </c>
       <c r="E58" s="3">
-        <v>648200</v>
+        <v>655500</v>
       </c>
       <c r="F58" s="3">
-        <v>904300</v>
+        <v>914500</v>
       </c>
       <c r="G58" s="3">
-        <v>217800</v>
+        <v>220200</v>
       </c>
       <c r="H58" s="3">
-        <v>512800</v>
+        <v>518600</v>
       </c>
       <c r="I58" s="3">
-        <v>550500</v>
+        <v>556700</v>
       </c>
       <c r="J58" s="3">
-        <v>473000</v>
+        <v>478400</v>
       </c>
       <c r="K58" s="3">
         <v>1554300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>831700</v>
+        <v>841000</v>
       </c>
       <c r="E59" s="3">
-        <v>891700</v>
+        <v>901700</v>
       </c>
       <c r="F59" s="3">
-        <v>939300</v>
+        <v>949900</v>
       </c>
       <c r="G59" s="3">
-        <v>1055100</v>
+        <v>1067000</v>
       </c>
       <c r="H59" s="3">
-        <v>1008900</v>
+        <v>1020200</v>
       </c>
       <c r="I59" s="3">
-        <v>1176300</v>
+        <v>1189500</v>
       </c>
       <c r="J59" s="3">
-        <v>1282300</v>
+        <v>1296700</v>
       </c>
       <c r="K59" s="3">
         <v>1550400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2860700</v>
+        <v>2892900</v>
       </c>
       <c r="E60" s="3">
-        <v>2763000</v>
+        <v>2794100</v>
       </c>
       <c r="F60" s="3">
-        <v>3218700</v>
+        <v>3254900</v>
       </c>
       <c r="G60" s="3">
-        <v>2886500</v>
+        <v>2919000</v>
       </c>
       <c r="H60" s="3">
-        <v>2944100</v>
+        <v>2977200</v>
       </c>
       <c r="I60" s="3">
-        <v>2880200</v>
+        <v>2912600</v>
       </c>
       <c r="J60" s="3">
-        <v>2848000</v>
+        <v>2880000</v>
       </c>
       <c r="K60" s="3">
         <v>3367700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1574300</v>
+        <v>1592000</v>
       </c>
       <c r="E61" s="3">
-        <v>1514800</v>
+        <v>1531900</v>
       </c>
       <c r="F61" s="3">
-        <v>1509600</v>
+        <v>1526600</v>
       </c>
       <c r="G61" s="3">
-        <v>2296000</v>
+        <v>2321800</v>
       </c>
       <c r="H61" s="3">
-        <v>2076700</v>
+        <v>2100000</v>
       </c>
       <c r="I61" s="3">
-        <v>2570600</v>
+        <v>2599500</v>
       </c>
       <c r="J61" s="3">
-        <v>3024100</v>
+        <v>3058100</v>
       </c>
       <c r="K61" s="3">
         <v>2893400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>501100</v>
+        <v>506700</v>
       </c>
       <c r="E62" s="3">
-        <v>556100</v>
+        <v>562300</v>
       </c>
       <c r="F62" s="3">
-        <v>609900</v>
+        <v>616800</v>
       </c>
       <c r="G62" s="3">
-        <v>637200</v>
+        <v>644400</v>
       </c>
       <c r="H62" s="3">
-        <v>717400</v>
+        <v>725500</v>
       </c>
       <c r="I62" s="3">
-        <v>825500</v>
+        <v>834800</v>
       </c>
       <c r="J62" s="3">
-        <v>848500</v>
+        <v>858000</v>
       </c>
       <c r="K62" s="3">
         <v>868400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5091200</v>
+        <v>5148400</v>
       </c>
       <c r="E66" s="3">
-        <v>5165400</v>
+        <v>5223400</v>
       </c>
       <c r="F66" s="3">
-        <v>5628000</v>
+        <v>5691300</v>
       </c>
       <c r="G66" s="3">
-        <v>6169500</v>
+        <v>6238900</v>
       </c>
       <c r="H66" s="3">
-        <v>6154900</v>
+        <v>6224100</v>
       </c>
       <c r="I66" s="3">
-        <v>6721600</v>
+        <v>6797200</v>
       </c>
       <c r="J66" s="3">
-        <v>7006300</v>
+        <v>7085100</v>
       </c>
       <c r="K66" s="3">
         <v>7430400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4463800</v>
+        <v>4514000</v>
       </c>
       <c r="E72" s="3">
-        <v>4710800</v>
+        <v>4763700</v>
       </c>
       <c r="F72" s="3">
-        <v>4482600</v>
+        <v>4533000</v>
       </c>
       <c r="G72" s="3">
-        <v>4496300</v>
+        <v>4546900</v>
       </c>
       <c r="H72" s="3">
-        <v>4379600</v>
+        <v>4428800</v>
       </c>
       <c r="I72" s="3">
-        <v>4219500</v>
+        <v>4267000</v>
       </c>
       <c r="J72" s="3">
-        <v>3960000</v>
+        <v>4004500</v>
       </c>
       <c r="K72" s="3">
         <v>6941000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2427300</v>
+        <v>2454600</v>
       </c>
       <c r="E76" s="3">
-        <v>2759900</v>
+        <v>2791000</v>
       </c>
       <c r="F76" s="3">
-        <v>2773200</v>
+        <v>2804400</v>
       </c>
       <c r="G76" s="3">
-        <v>2786900</v>
+        <v>2818200</v>
       </c>
       <c r="H76" s="3">
-        <v>2669800</v>
+        <v>2699800</v>
       </c>
       <c r="I76" s="3">
-        <v>2510100</v>
+        <v>2538300</v>
       </c>
       <c r="J76" s="3">
-        <v>2271500</v>
+        <v>2297100</v>
       </c>
       <c r="K76" s="3">
         <v>1755500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>242600</v>
+        <v>245300</v>
       </c>
       <c r="E81" s="3">
-        <v>207000</v>
+        <v>209300</v>
       </c>
       <c r="F81" s="3">
-        <v>79500</v>
+        <v>80400</v>
       </c>
       <c r="G81" s="3">
-        <v>165600</v>
+        <v>167500</v>
       </c>
       <c r="H81" s="3">
-        <v>179700</v>
+        <v>181700</v>
       </c>
       <c r="I81" s="3">
-        <v>316300</v>
+        <v>319900</v>
       </c>
       <c r="J81" s="3">
-        <v>374600</v>
+        <v>378800</v>
       </c>
       <c r="K81" s="3">
         <v>518100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1428500</v>
+        <v>1444500</v>
       </c>
       <c r="E83" s="3">
-        <v>893900</v>
+        <v>904000</v>
       </c>
       <c r="F83" s="3">
-        <v>993500</v>
+        <v>1004700</v>
       </c>
       <c r="G83" s="3">
-        <v>1042600</v>
+        <v>1054300</v>
       </c>
       <c r="H83" s="3">
-        <v>981100</v>
+        <v>992100</v>
       </c>
       <c r="I83" s="3">
-        <v>942100</v>
+        <v>952700</v>
       </c>
       <c r="J83" s="3">
-        <v>996600</v>
+        <v>1007800</v>
       </c>
       <c r="K83" s="3">
         <v>898600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1372500</v>
+        <v>1388000</v>
       </c>
       <c r="E89" s="3">
-        <v>1168700</v>
+        <v>1181800</v>
       </c>
       <c r="F89" s="3">
-        <v>947000</v>
+        <v>957700</v>
       </c>
       <c r="G89" s="3">
-        <v>1212600</v>
+        <v>1226200</v>
       </c>
       <c r="H89" s="3">
-        <v>1115700</v>
+        <v>1128300</v>
       </c>
       <c r="I89" s="3">
-        <v>1182500</v>
+        <v>1195800</v>
       </c>
       <c r="J89" s="3">
-        <v>1291600</v>
+        <v>1306100</v>
       </c>
       <c r="K89" s="3">
         <v>1281300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-782800</v>
+        <v>-791600</v>
       </c>
       <c r="E91" s="3">
-        <v>-851600</v>
+        <v>-861100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1069600</v>
+        <v>-1081600</v>
       </c>
       <c r="G91" s="3">
-        <v>-772400</v>
+        <v>-781100</v>
       </c>
       <c r="H91" s="3">
-        <v>-778800</v>
+        <v>-787600</v>
       </c>
       <c r="I91" s="3">
-        <v>-714400</v>
+        <v>-722400</v>
       </c>
       <c r="J91" s="3">
-        <v>-715300</v>
+        <v>-723300</v>
       </c>
       <c r="K91" s="3">
         <v>-1166300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-745900</v>
+        <v>-754300</v>
       </c>
       <c r="E94" s="3">
-        <v>-853200</v>
+        <v>-862800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1079600</v>
+        <v>-1091800</v>
       </c>
       <c r="G94" s="3">
-        <v>-765300</v>
+        <v>-773900</v>
       </c>
       <c r="H94" s="3">
-        <v>-763400</v>
+        <v>-772000</v>
       </c>
       <c r="I94" s="3">
-        <v>-681400</v>
+        <v>-689000</v>
       </c>
       <c r="J94" s="3">
-        <v>189600</v>
+        <v>191800</v>
       </c>
       <c r="K94" s="3">
         <v>165100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-655400</v>
+        <v>-662800</v>
       </c>
       <c r="E100" s="3">
-        <v>-567800</v>
+        <v>-574200</v>
       </c>
       <c r="F100" s="3">
-        <v>-202400</v>
+        <v>-204700</v>
       </c>
       <c r="G100" s="3">
-        <v>-135300</v>
+        <v>-136800</v>
       </c>
       <c r="H100" s="3">
-        <v>-579700</v>
+        <v>-586300</v>
       </c>
       <c r="I100" s="3">
-        <v>-422900</v>
+        <v>-427600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1142900</v>
+        <v>-1155800</v>
       </c>
       <c r="K100" s="3">
         <v>-914600</v>
@@ -3475,7 +3475,7 @@
         <v>-700</v>
       </c>
       <c r="H101" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I101" s="3">
         <v>-700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-31200</v>
+        <v>-31600</v>
       </c>
       <c r="E102" s="3">
-        <v>-252000</v>
+        <v>-254800</v>
       </c>
       <c r="F102" s="3">
-        <v>-340600</v>
+        <v>-344400</v>
       </c>
       <c r="G102" s="3">
-        <v>311200</v>
+        <v>314700</v>
       </c>
       <c r="H102" s="3">
-        <v>-221700</v>
+        <v>-224200</v>
       </c>
       <c r="I102" s="3">
-        <v>77600</v>
+        <v>78500</v>
       </c>
       <c r="J102" s="3">
-        <v>334400</v>
+        <v>338200</v>
       </c>
       <c r="K102" s="3">
         <v>525100</v>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>HLTOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4674300</v>
+        <v>3833800</v>
       </c>
       <c r="E8" s="3">
-        <v>4544000</v>
+        <v>3885600</v>
       </c>
       <c r="F8" s="3">
-        <v>4541900</v>
+        <v>4468800</v>
       </c>
       <c r="G8" s="3">
-        <v>4674900</v>
+        <v>4466700</v>
       </c>
       <c r="H8" s="3">
-        <v>4668600</v>
+        <v>4597500</v>
       </c>
       <c r="I8" s="3">
-        <v>4687200</v>
+        <v>4591400</v>
       </c>
       <c r="J8" s="3">
+        <v>4609600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4849500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4754700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5914000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>237900</v>
+        <v>193500</v>
       </c>
       <c r="E9" s="3">
-        <v>180100</v>
+        <v>164600</v>
       </c>
       <c r="F9" s="3">
-        <v>195600</v>
+        <v>177200</v>
       </c>
       <c r="G9" s="3">
-        <v>214000</v>
+        <v>192300</v>
       </c>
       <c r="H9" s="3">
-        <v>197300</v>
+        <v>210500</v>
       </c>
       <c r="I9" s="3">
-        <v>155100</v>
+        <v>194000</v>
       </c>
       <c r="J9" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K9" s="3">
         <v>148100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1009900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1272100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4436300</v>
+        <v>3640300</v>
       </c>
       <c r="E10" s="3">
-        <v>4363900</v>
+        <v>3721100</v>
       </c>
       <c r="F10" s="3">
-        <v>4346300</v>
+        <v>4291600</v>
       </c>
       <c r="G10" s="3">
-        <v>4460900</v>
+        <v>4274300</v>
       </c>
       <c r="H10" s="3">
-        <v>4471400</v>
+        <v>4387000</v>
       </c>
       <c r="I10" s="3">
-        <v>4532000</v>
+        <v>4397400</v>
       </c>
       <c r="J10" s="3">
+        <v>4457000</v>
+      </c>
+      <c r="K10" s="3">
         <v>4701400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3744700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4641900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>50000</v>
+        <v>-11500</v>
       </c>
       <c r="E14" s="3">
+        <v>49200</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2600</v>
       </c>
-      <c r="F14" s="3">
-        <v>47600</v>
-      </c>
       <c r="G14" s="3">
-        <v>-21900</v>
+        <v>46800</v>
       </c>
       <c r="H14" s="3">
-        <v>23800</v>
+        <v>-21500</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1361500</v>
+        <v>955400</v>
       </c>
       <c r="E15" s="3">
-        <v>975500</v>
+        <v>1341800</v>
       </c>
       <c r="F15" s="3">
-        <v>1050500</v>
+        <v>959400</v>
       </c>
       <c r="G15" s="3">
-        <v>1054300</v>
+        <v>1033100</v>
       </c>
       <c r="H15" s="3">
-        <v>992100</v>
+        <v>1036900</v>
       </c>
       <c r="I15" s="3">
-        <v>952700</v>
+        <v>975700</v>
       </c>
       <c r="J15" s="3">
+        <v>936900</v>
+      </c>
+      <c r="K15" s="3">
         <v>1007800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>898600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1537900</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4425800</v>
+        <v>3432400</v>
       </c>
       <c r="E17" s="3">
-        <v>3949000</v>
+        <v>3315900</v>
       </c>
       <c r="F17" s="3">
-        <v>4044600</v>
+        <v>3883600</v>
       </c>
       <c r="G17" s="3">
-        <v>4191700</v>
+        <v>3977600</v>
       </c>
       <c r="H17" s="3">
-        <v>4224600</v>
+        <v>4122300</v>
       </c>
       <c r="I17" s="3">
-        <v>3982500</v>
+        <v>4154700</v>
       </c>
       <c r="J17" s="3">
+        <v>3916600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4448200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4123900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>248500</v>
+        <v>401400</v>
       </c>
       <c r="E18" s="3">
-        <v>595000</v>
+        <v>569700</v>
       </c>
       <c r="F18" s="3">
-        <v>497300</v>
+        <v>585100</v>
       </c>
       <c r="G18" s="3">
-        <v>483100</v>
+        <v>489000</v>
       </c>
       <c r="H18" s="3">
-        <v>444000</v>
+        <v>475100</v>
       </c>
       <c r="I18" s="3">
-        <v>704700</v>
+        <v>436700</v>
       </c>
       <c r="J18" s="3">
+        <v>693000</v>
+      </c>
+      <c r="K18" s="3">
         <v>401300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>630800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>413900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22500</v>
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-4700</v>
-      </c>
       <c r="G20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2500</v>
       </c>
-      <c r="H20" s="3">
-        <v>39100</v>
-      </c>
       <c r="I20" s="3">
-        <v>10800</v>
+        <v>38500</v>
       </c>
       <c r="J20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K20" s="3">
         <v>273100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>265800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>61700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1709600</v>
+        <v>1383300</v>
       </c>
       <c r="E21" s="3">
-        <v>1497800</v>
+        <v>2017200</v>
       </c>
       <c r="F21" s="3">
-        <v>1493200</v>
+        <v>1480200</v>
       </c>
       <c r="G21" s="3">
-        <v>1530600</v>
+        <v>1476500</v>
       </c>
       <c r="H21" s="3">
-        <v>1471200</v>
+        <v>1513800</v>
       </c>
       <c r="I21" s="3">
-        <v>1664200</v>
+        <v>1454800</v>
       </c>
       <c r="J21" s="3">
+        <v>1644300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1678100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1796600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2014600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>115600</v>
+        <v>66100</v>
       </c>
       <c r="E22" s="3">
-        <v>103000</v>
+        <v>109200</v>
       </c>
       <c r="F22" s="3">
-        <v>166400</v>
+        <v>101300</v>
       </c>
       <c r="G22" s="3">
-        <v>178700</v>
+        <v>163600</v>
       </c>
       <c r="H22" s="3">
-        <v>188300</v>
+        <v>175800</v>
       </c>
       <c r="I22" s="3">
-        <v>242500</v>
+        <v>185200</v>
       </c>
       <c r="J22" s="3">
+        <v>238500</v>
+      </c>
+      <c r="K22" s="3">
         <v>297900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>271500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>340500</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>155400</v>
+        <v>333000</v>
       </c>
       <c r="E23" s="3">
-        <v>494500</v>
+        <v>481600</v>
       </c>
       <c r="F23" s="3">
-        <v>326200</v>
+        <v>486300</v>
       </c>
       <c r="G23" s="3">
-        <v>301900</v>
+        <v>320800</v>
       </c>
       <c r="H23" s="3">
-        <v>294900</v>
+        <v>296900</v>
       </c>
       <c r="I23" s="3">
-        <v>473000</v>
+        <v>290000</v>
       </c>
       <c r="J23" s="3">
+        <v>465100</v>
+      </c>
+      <c r="K23" s="3">
         <v>376600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>625100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>135100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>110400</v>
+        <v>54000</v>
       </c>
       <c r="E24" s="3">
-        <v>198300</v>
+        <v>108600</v>
       </c>
       <c r="F24" s="3">
-        <v>176600</v>
+        <v>195000</v>
       </c>
       <c r="G24" s="3">
-        <v>201400</v>
+        <v>173600</v>
       </c>
       <c r="H24" s="3">
-        <v>140900</v>
+        <v>198100</v>
       </c>
       <c r="I24" s="3">
-        <v>148200</v>
+        <v>138600</v>
       </c>
       <c r="J24" s="3">
+        <v>145800</v>
+      </c>
+      <c r="K24" s="3">
         <v>25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>114100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>151100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>45000</v>
+        <v>279000</v>
       </c>
       <c r="E26" s="3">
-        <v>296200</v>
+        <v>373000</v>
       </c>
       <c r="F26" s="3">
-        <v>149600</v>
+        <v>291300</v>
       </c>
       <c r="G26" s="3">
-        <v>100500</v>
+        <v>147200</v>
       </c>
       <c r="H26" s="3">
-        <v>154000</v>
+        <v>98800</v>
       </c>
       <c r="I26" s="3">
-        <v>324800</v>
+        <v>151400</v>
       </c>
       <c r="J26" s="3">
+        <v>319400</v>
+      </c>
+      <c r="K26" s="3">
         <v>351600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>511000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>239000</v>
+        <v>260500</v>
       </c>
       <c r="E27" s="3">
-        <v>307100</v>
+        <v>563800</v>
       </c>
       <c r="F27" s="3">
-        <v>202800</v>
+        <v>302000</v>
       </c>
       <c r="G27" s="3">
-        <v>167500</v>
+        <v>199400</v>
       </c>
       <c r="H27" s="3">
-        <v>181700</v>
+        <v>164700</v>
       </c>
       <c r="I27" s="3">
-        <v>319900</v>
+        <v>178700</v>
       </c>
       <c r="J27" s="3">
+        <v>314600</v>
+      </c>
+      <c r="K27" s="3">
         <v>344300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>483300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>140500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>6300</v>
+        <v>162900</v>
       </c>
       <c r="E29" s="3">
-        <v>-97700</v>
+        <v>-322600</v>
       </c>
       <c r="F29" s="3">
-        <v>-122400</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>-96100</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-120300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>34600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>34800</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22500</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
-        <v>4700</v>
-      </c>
       <c r="G32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H32" s="3">
         <v>2500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-39100</v>
-      </c>
       <c r="I32" s="3">
-        <v>-10800</v>
+        <v>-38500</v>
       </c>
       <c r="J32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-273100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-265800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-61700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>245300</v>
+        <v>423400</v>
       </c>
       <c r="E33" s="3">
-        <v>209300</v>
+        <v>241300</v>
       </c>
       <c r="F33" s="3">
-        <v>80400</v>
+        <v>205900</v>
       </c>
       <c r="G33" s="3">
-        <v>167500</v>
+        <v>79100</v>
       </c>
       <c r="H33" s="3">
-        <v>181700</v>
+        <v>164700</v>
       </c>
       <c r="I33" s="3">
-        <v>319900</v>
+        <v>178700</v>
       </c>
       <c r="J33" s="3">
+        <v>314600</v>
+      </c>
+      <c r="K33" s="3">
         <v>378800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>518100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>140500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>245300</v>
+        <v>423400</v>
       </c>
       <c r="E35" s="3">
-        <v>209300</v>
+        <v>241300</v>
       </c>
       <c r="F35" s="3">
-        <v>80400</v>
+        <v>205900</v>
       </c>
       <c r="G35" s="3">
-        <v>167500</v>
+        <v>79100</v>
       </c>
       <c r="H35" s="3">
-        <v>181700</v>
+        <v>164700</v>
       </c>
       <c r="I35" s="3">
-        <v>319900</v>
+        <v>178700</v>
       </c>
       <c r="J35" s="3">
+        <v>314600</v>
+      </c>
+      <c r="K35" s="3">
         <v>378800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>518100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>140500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1265900</v>
+        <v>607300</v>
       </c>
       <c r="E41" s="3">
-        <v>1297500</v>
+        <v>1245000</v>
       </c>
       <c r="F41" s="3">
-        <v>1552300</v>
+        <v>1276000</v>
       </c>
       <c r="G41" s="3">
-        <v>1896700</v>
+        <v>1526600</v>
       </c>
       <c r="H41" s="3">
-        <v>1582000</v>
+        <v>1865300</v>
       </c>
       <c r="I41" s="3">
-        <v>1806100</v>
+        <v>1555800</v>
       </c>
       <c r="J41" s="3">
+        <v>1776200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3455300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1278500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="E42" s="3">
-        <v>6100</v>
+        <v>6700</v>
       </c>
       <c r="F42" s="3">
-        <v>7100</v>
+        <v>6000</v>
       </c>
       <c r="G42" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="H42" s="3">
-        <v>8100</v>
+        <v>6600</v>
       </c>
       <c r="I42" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J42" s="3">
         <v>4400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1286700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1212500</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>603100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>845100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>852700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>846700</v>
+      </c>
+      <c r="H43" s="3">
         <v>859400</v>
       </c>
-      <c r="E43" s="3">
-        <v>867000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>860900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>873800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>871600</v>
-      </c>
       <c r="I43" s="3">
-        <v>819300</v>
+        <v>857100</v>
       </c>
       <c r="J43" s="3">
+        <v>805700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1682600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1007700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1203500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61400</v>
+        <v>31600</v>
       </c>
       <c r="E44" s="3">
-        <v>98100</v>
+        <v>60300</v>
       </c>
       <c r="F44" s="3">
-        <v>109200</v>
+        <v>96500</v>
       </c>
       <c r="G44" s="3">
-        <v>114700</v>
+        <v>107400</v>
       </c>
       <c r="H44" s="3">
-        <v>116300</v>
+        <v>112800</v>
       </c>
       <c r="I44" s="3">
-        <v>105100</v>
+        <v>114300</v>
       </c>
       <c r="J44" s="3">
+        <v>103400</v>
+      </c>
+      <c r="K44" s="3">
         <v>232100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>244600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>146700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>171500</v>
+        <v>112000</v>
       </c>
       <c r="E45" s="3">
-        <v>198600</v>
+        <v>168700</v>
       </c>
       <c r="F45" s="3">
-        <v>315300</v>
+        <v>195300</v>
       </c>
       <c r="G45" s="3">
-        <v>372300</v>
+        <v>310100</v>
       </c>
       <c r="H45" s="3">
-        <v>305300</v>
+        <v>366100</v>
       </c>
       <c r="I45" s="3">
-        <v>248200</v>
+        <v>300200</v>
       </c>
       <c r="J45" s="3">
+        <v>244100</v>
+      </c>
+      <c r="K45" s="3">
         <v>552000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>497900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>136600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2365000</v>
+        <v>1360400</v>
       </c>
       <c r="E46" s="3">
-        <v>2467300</v>
+        <v>2325900</v>
       </c>
       <c r="F46" s="3">
-        <v>2844800</v>
+        <v>2426400</v>
       </c>
       <c r="G46" s="3">
-        <v>3264200</v>
+        <v>2797700</v>
       </c>
       <c r="H46" s="3">
-        <v>2883200</v>
+        <v>3210200</v>
       </c>
       <c r="I46" s="3">
-        <v>2983200</v>
+        <v>2835500</v>
       </c>
       <c r="J46" s="3">
+        <v>2933800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2983400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2614700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2704000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>149600</v>
+        <v>114300</v>
       </c>
       <c r="E47" s="3">
-        <v>196100</v>
+        <v>147200</v>
       </c>
       <c r="F47" s="3">
-        <v>98800</v>
+        <v>192800</v>
       </c>
       <c r="G47" s="3">
-        <v>102500</v>
+        <v>97200</v>
       </c>
       <c r="H47" s="3">
-        <v>105600</v>
+        <v>100800</v>
       </c>
       <c r="I47" s="3">
-        <v>125100</v>
+        <v>103900</v>
       </c>
       <c r="J47" s="3">
+        <v>123100</v>
+      </c>
+      <c r="K47" s="3">
         <v>132800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>243500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>169600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3301400</v>
+        <v>2850100</v>
       </c>
       <c r="E48" s="3">
-        <v>3278900</v>
+        <v>3246700</v>
       </c>
       <c r="F48" s="3">
-        <v>3278700</v>
+        <v>3224600</v>
       </c>
       <c r="G48" s="3">
-        <v>3412200</v>
+        <v>3224400</v>
       </c>
       <c r="H48" s="3">
-        <v>3529500</v>
+        <v>3355700</v>
       </c>
       <c r="I48" s="3">
-        <v>3712200</v>
+        <v>3471100</v>
       </c>
       <c r="J48" s="3">
+        <v>3650700</v>
+      </c>
+      <c r="K48" s="3">
         <v>7844400</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5080200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1349400</v>
+        <v>1347700</v>
       </c>
       <c r="E49" s="3">
-        <v>1588100</v>
+        <v>1327100</v>
       </c>
       <c r="F49" s="3">
-        <v>1764300</v>
+        <v>1561800</v>
       </c>
       <c r="G49" s="3">
-        <v>1780800</v>
+        <v>1735100</v>
       </c>
       <c r="H49" s="3">
-        <v>1893300</v>
+        <v>1751300</v>
       </c>
       <c r="I49" s="3">
-        <v>1973100</v>
+        <v>1862000</v>
       </c>
       <c r="J49" s="3">
+        <v>1940500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2953200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3338100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1767200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>437600</v>
+        <v>1230500</v>
       </c>
       <c r="E52" s="3">
-        <v>484100</v>
+        <v>430300</v>
       </c>
       <c r="F52" s="3">
-        <v>509100</v>
+        <v>476100</v>
       </c>
       <c r="G52" s="3">
-        <v>497500</v>
+        <v>500700</v>
       </c>
       <c r="H52" s="3">
-        <v>512200</v>
+        <v>489300</v>
       </c>
       <c r="I52" s="3">
-        <v>541900</v>
+        <v>503700</v>
       </c>
       <c r="J52" s="3">
+        <v>532900</v>
+      </c>
+      <c r="K52" s="3">
         <v>564500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>676100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>950000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7603000</v>
+        <v>6903000</v>
       </c>
       <c r="E54" s="3">
-        <v>8014400</v>
+        <v>7477200</v>
       </c>
       <c r="F54" s="3">
-        <v>8495700</v>
+        <v>7881800</v>
       </c>
       <c r="G54" s="3">
-        <v>9057100</v>
+        <v>8355000</v>
       </c>
       <c r="H54" s="3">
-        <v>8923900</v>
+        <v>8907200</v>
       </c>
       <c r="I54" s="3">
-        <v>9335500</v>
+        <v>8776200</v>
       </c>
       <c r="J54" s="3">
+        <v>9181000</v>
+      </c>
+      <c r="K54" s="3">
         <v>9382200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9185900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10671000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1119600</v>
+        <v>846800</v>
       </c>
       <c r="E57" s="3">
-        <v>1236900</v>
+        <v>1101100</v>
       </c>
       <c r="F57" s="3">
-        <v>1390500</v>
+        <v>1216400</v>
       </c>
       <c r="G57" s="3">
-        <v>1631700</v>
+        <v>1367400</v>
       </c>
       <c r="H57" s="3">
-        <v>1438400</v>
+        <v>1604700</v>
       </c>
       <c r="I57" s="3">
-        <v>1166400</v>
+        <v>1414600</v>
       </c>
       <c r="J57" s="3">
+        <v>1147100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1104900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>861400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>879900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>932200</v>
+        <v>341400</v>
       </c>
       <c r="E58" s="3">
-        <v>655500</v>
+        <v>916800</v>
       </c>
       <c r="F58" s="3">
-        <v>914500</v>
+        <v>644700</v>
       </c>
       <c r="G58" s="3">
-        <v>220200</v>
+        <v>899400</v>
       </c>
       <c r="H58" s="3">
-        <v>518600</v>
+        <v>216600</v>
       </c>
       <c r="I58" s="3">
-        <v>556700</v>
+        <v>510000</v>
       </c>
       <c r="J58" s="3">
+        <v>547500</v>
+      </c>
+      <c r="K58" s="3">
         <v>478400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1554300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>895500</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>841000</v>
+        <v>874800</v>
       </c>
       <c r="E59" s="3">
-        <v>901700</v>
+        <v>827100</v>
       </c>
       <c r="F59" s="3">
-        <v>949900</v>
+        <v>886800</v>
       </c>
       <c r="G59" s="3">
-        <v>1067000</v>
+        <v>934200</v>
       </c>
       <c r="H59" s="3">
-        <v>1020200</v>
+        <v>1049300</v>
       </c>
       <c r="I59" s="3">
-        <v>1189500</v>
+        <v>1003400</v>
       </c>
       <c r="J59" s="3">
+        <v>1169800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1296700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1550400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1110200</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2892900</v>
+        <v>2062900</v>
       </c>
       <c r="E60" s="3">
-        <v>2794100</v>
+        <v>2845000</v>
       </c>
       <c r="F60" s="3">
-        <v>3254900</v>
+        <v>2747800</v>
       </c>
       <c r="G60" s="3">
-        <v>2919000</v>
+        <v>3201000</v>
       </c>
       <c r="H60" s="3">
-        <v>2977200</v>
+        <v>2870700</v>
       </c>
       <c r="I60" s="3">
-        <v>2912600</v>
+        <v>2927900</v>
       </c>
       <c r="J60" s="3">
+        <v>2864400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2880000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3367700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2885600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1592000</v>
+        <v>1488600</v>
       </c>
       <c r="E61" s="3">
-        <v>1531900</v>
+        <v>1565700</v>
       </c>
       <c r="F61" s="3">
-        <v>1526600</v>
+        <v>1506500</v>
       </c>
       <c r="G61" s="3">
-        <v>2321800</v>
+        <v>1501300</v>
       </c>
       <c r="H61" s="3">
-        <v>2100000</v>
+        <v>2283400</v>
       </c>
       <c r="I61" s="3">
-        <v>2599500</v>
+        <v>2065300</v>
       </c>
       <c r="J61" s="3">
+        <v>2556400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3058100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2893400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4858500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>506700</v>
+        <v>468100</v>
       </c>
       <c r="E62" s="3">
-        <v>562300</v>
+        <v>498300</v>
       </c>
       <c r="F62" s="3">
-        <v>616800</v>
+        <v>553000</v>
       </c>
       <c r="G62" s="3">
-        <v>644400</v>
+        <v>606600</v>
       </c>
       <c r="H62" s="3">
-        <v>725500</v>
+        <v>633700</v>
       </c>
       <c r="I62" s="3">
-        <v>834800</v>
+        <v>713500</v>
       </c>
       <c r="J62" s="3">
+        <v>821000</v>
+      </c>
+      <c r="K62" s="3">
         <v>858000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>868400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>864200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5148400</v>
+        <v>4555100</v>
       </c>
       <c r="E66" s="3">
-        <v>5223400</v>
+        <v>5063200</v>
       </c>
       <c r="F66" s="3">
-        <v>5691300</v>
+        <v>5137000</v>
       </c>
       <c r="G66" s="3">
-        <v>6238900</v>
+        <v>5597100</v>
       </c>
       <c r="H66" s="3">
-        <v>6224100</v>
+        <v>6135600</v>
       </c>
       <c r="I66" s="3">
-        <v>6797200</v>
+        <v>6121000</v>
       </c>
       <c r="J66" s="3">
+        <v>6684700</v>
+      </c>
+      <c r="K66" s="3">
         <v>7085100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7430400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9047000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4514000</v>
+        <v>4478400</v>
       </c>
       <c r="E72" s="3">
-        <v>4763700</v>
+        <v>4439300</v>
       </c>
       <c r="F72" s="3">
-        <v>4533000</v>
+        <v>4684900</v>
       </c>
       <c r="G72" s="3">
-        <v>4546900</v>
+        <v>4458000</v>
       </c>
       <c r="H72" s="3">
-        <v>4428800</v>
+        <v>4471600</v>
       </c>
       <c r="I72" s="3">
-        <v>4267000</v>
+        <v>4355500</v>
       </c>
       <c r="J72" s="3">
+        <v>4196300</v>
+      </c>
+      <c r="K72" s="3">
         <v>4004500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6941000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3466400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2454600</v>
+        <v>2347900</v>
       </c>
       <c r="E76" s="3">
-        <v>2791000</v>
+        <v>2414000</v>
       </c>
       <c r="F76" s="3">
-        <v>2804400</v>
+        <v>2744800</v>
       </c>
       <c r="G76" s="3">
-        <v>2818200</v>
+        <v>2758000</v>
       </c>
       <c r="H76" s="3">
-        <v>2699800</v>
+        <v>2771600</v>
       </c>
       <c r="I76" s="3">
-        <v>2538300</v>
+        <v>2655100</v>
       </c>
       <c r="J76" s="3">
+        <v>2496300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2297100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1755500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1624000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>245300</v>
+        <v>423400</v>
       </c>
       <c r="E81" s="3">
-        <v>209300</v>
+        <v>241300</v>
       </c>
       <c r="F81" s="3">
-        <v>80400</v>
+        <v>205900</v>
       </c>
       <c r="G81" s="3">
-        <v>167500</v>
+        <v>79100</v>
       </c>
       <c r="H81" s="3">
-        <v>181700</v>
+        <v>164700</v>
       </c>
       <c r="I81" s="3">
-        <v>319900</v>
+        <v>178700</v>
       </c>
       <c r="J81" s="3">
+        <v>314600</v>
+      </c>
+      <c r="K81" s="3">
         <v>378800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>518100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>140500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1444500</v>
+        <v>980200</v>
       </c>
       <c r="E83" s="3">
-        <v>904000</v>
+        <v>1420600</v>
       </c>
       <c r="F83" s="3">
-        <v>1004700</v>
+        <v>889000</v>
       </c>
       <c r="G83" s="3">
-        <v>1054300</v>
+        <v>988100</v>
       </c>
       <c r="H83" s="3">
-        <v>992100</v>
+        <v>1036900</v>
       </c>
       <c r="I83" s="3">
-        <v>952700</v>
+        <v>975700</v>
       </c>
       <c r="J83" s="3">
+        <v>936900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1007800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>898600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1537900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1388000</v>
+        <v>1381800</v>
       </c>
       <c r="E89" s="3">
-        <v>1181800</v>
+        <v>1365000</v>
       </c>
       <c r="F89" s="3">
-        <v>957700</v>
+        <v>1162300</v>
       </c>
       <c r="G89" s="3">
-        <v>1226200</v>
+        <v>941800</v>
       </c>
       <c r="H89" s="3">
-        <v>1128300</v>
+        <v>1205900</v>
       </c>
       <c r="I89" s="3">
-        <v>1195800</v>
+        <v>1109600</v>
       </c>
       <c r="J89" s="3">
+        <v>1176000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1306100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1281300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1418200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-791600</v>
+        <v>-785600</v>
       </c>
       <c r="E91" s="3">
-        <v>-861100</v>
+        <v>-778500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1081600</v>
+        <v>-846900</v>
       </c>
       <c r="G91" s="3">
-        <v>-781100</v>
+        <v>-1063700</v>
       </c>
       <c r="H91" s="3">
-        <v>-787600</v>
+        <v>-768200</v>
       </c>
       <c r="I91" s="3">
-        <v>-722400</v>
+        <v>-774500</v>
       </c>
       <c r="J91" s="3">
+        <v>-710400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-723300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1166300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-841000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-754300</v>
+        <v>-858900</v>
       </c>
       <c r="E94" s="3">
-        <v>-862800</v>
+        <v>-741800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1091800</v>
+        <v>-848500</v>
       </c>
       <c r="G94" s="3">
-        <v>-773900</v>
+        <v>-1073700</v>
       </c>
       <c r="H94" s="3">
-        <v>-772000</v>
+        <v>-761100</v>
       </c>
       <c r="I94" s="3">
-        <v>-689000</v>
+        <v>-759200</v>
       </c>
       <c r="J94" s="3">
+        <v>-677600</v>
+      </c>
+      <c r="K94" s="3">
         <v>191800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>165100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1210200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-662800</v>
+        <v>-1157300</v>
       </c>
       <c r="E100" s="3">
-        <v>-574200</v>
+        <v>-651800</v>
       </c>
       <c r="F100" s="3">
-        <v>-204700</v>
+        <v>-564700</v>
       </c>
       <c r="G100" s="3">
-        <v>-136800</v>
+        <v>-201300</v>
       </c>
       <c r="H100" s="3">
-        <v>-586300</v>
+        <v>-134600</v>
       </c>
       <c r="I100" s="3">
-        <v>-427600</v>
+        <v>-576600</v>
       </c>
       <c r="J100" s="3">
+        <v>-420600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1155800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-914600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-581200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-5600</v>
-      </c>
       <c r="G101" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
-        <v>5900</v>
-      </c>
       <c r="I101" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3500</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-31600</v>
+        <v>-637700</v>
       </c>
       <c r="E102" s="3">
-        <v>-254800</v>
+        <v>-31100</v>
       </c>
       <c r="F102" s="3">
-        <v>-344400</v>
+        <v>-250600</v>
       </c>
       <c r="G102" s="3">
-        <v>314700</v>
+        <v>-338700</v>
       </c>
       <c r="H102" s="3">
-        <v>-224200</v>
+        <v>309500</v>
       </c>
       <c r="I102" s="3">
-        <v>78500</v>
+        <v>-220500</v>
       </c>
       <c r="J102" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K102" s="3">
         <v>338200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>525100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-376700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3833800</v>
+        <v>3992100</v>
       </c>
       <c r="E8" s="3">
-        <v>3885600</v>
+        <v>4046100</v>
       </c>
       <c r="F8" s="3">
-        <v>4468800</v>
+        <v>4653400</v>
       </c>
       <c r="G8" s="3">
-        <v>4466700</v>
+        <v>4651200</v>
       </c>
       <c r="H8" s="3">
-        <v>4597500</v>
+        <v>4787400</v>
       </c>
       <c r="I8" s="3">
-        <v>4591400</v>
+        <v>4781000</v>
       </c>
       <c r="J8" s="3">
-        <v>4609600</v>
+        <v>4800000</v>
       </c>
       <c r="K8" s="3">
         <v>4849500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>193500</v>
+        <v>201500</v>
       </c>
       <c r="E9" s="3">
-        <v>164600</v>
+        <v>171400</v>
       </c>
       <c r="F9" s="3">
-        <v>177200</v>
+        <v>184500</v>
       </c>
       <c r="G9" s="3">
-        <v>192300</v>
+        <v>200300</v>
       </c>
       <c r="H9" s="3">
-        <v>210500</v>
+        <v>219200</v>
       </c>
       <c r="I9" s="3">
-        <v>194000</v>
+        <v>202000</v>
       </c>
       <c r="J9" s="3">
-        <v>152600</v>
+        <v>158900</v>
       </c>
       <c r="K9" s="3">
         <v>148100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3640300</v>
+        <v>3790600</v>
       </c>
       <c r="E10" s="3">
-        <v>3721100</v>
+        <v>3874800</v>
       </c>
       <c r="F10" s="3">
-        <v>4291600</v>
+        <v>4468900</v>
       </c>
       <c r="G10" s="3">
-        <v>4274300</v>
+        <v>4450900</v>
       </c>
       <c r="H10" s="3">
-        <v>4387000</v>
+        <v>4568200</v>
       </c>
       <c r="I10" s="3">
-        <v>4397400</v>
+        <v>4579000</v>
       </c>
       <c r="J10" s="3">
-        <v>4457000</v>
+        <v>4641100</v>
       </c>
       <c r="K10" s="3">
         <v>4701400</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-11500</v>
+        <v>-12000</v>
       </c>
       <c r="E14" s="3">
-        <v>49200</v>
+        <v>51200</v>
       </c>
       <c r="F14" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G14" s="3">
-        <v>46800</v>
+        <v>48800</v>
       </c>
       <c r="H14" s="3">
-        <v>-21500</v>
+        <v>-22400</v>
       </c>
       <c r="I14" s="3">
-        <v>23400</v>
+        <v>24400</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>955400</v>
+        <v>994800</v>
       </c>
       <c r="E15" s="3">
-        <v>1341800</v>
+        <v>1397200</v>
       </c>
       <c r="F15" s="3">
-        <v>959400</v>
+        <v>999000</v>
       </c>
       <c r="G15" s="3">
-        <v>1033100</v>
+        <v>1075800</v>
       </c>
       <c r="H15" s="3">
-        <v>1036900</v>
+        <v>1079700</v>
       </c>
       <c r="I15" s="3">
-        <v>975700</v>
+        <v>1016000</v>
       </c>
       <c r="J15" s="3">
-        <v>936900</v>
+        <v>975600</v>
       </c>
       <c r="K15" s="3">
         <v>1007800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3432400</v>
+        <v>3574200</v>
       </c>
       <c r="E17" s="3">
-        <v>3315900</v>
+        <v>3452900</v>
       </c>
       <c r="F17" s="3">
-        <v>3883600</v>
+        <v>4044100</v>
       </c>
       <c r="G17" s="3">
-        <v>3977600</v>
+        <v>4141900</v>
       </c>
       <c r="H17" s="3">
-        <v>4122300</v>
+        <v>4292600</v>
       </c>
       <c r="I17" s="3">
-        <v>4154700</v>
+        <v>4326300</v>
       </c>
       <c r="J17" s="3">
-        <v>3916600</v>
+        <v>4078400</v>
       </c>
       <c r="K17" s="3">
         <v>4448200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>401400</v>
+        <v>418000</v>
       </c>
       <c r="E18" s="3">
-        <v>569700</v>
+        <v>593300</v>
       </c>
       <c r="F18" s="3">
-        <v>585100</v>
+        <v>609300</v>
       </c>
       <c r="G18" s="3">
-        <v>489000</v>
+        <v>509200</v>
       </c>
       <c r="H18" s="3">
-        <v>475100</v>
+        <v>494800</v>
       </c>
       <c r="I18" s="3">
-        <v>436700</v>
+        <v>454700</v>
       </c>
       <c r="J18" s="3">
-        <v>693000</v>
+        <v>721600</v>
       </c>
       <c r="K18" s="3">
         <v>401300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E20" s="3">
-        <v>21100</v>
+        <v>21900</v>
       </c>
       <c r="F20" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G20" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I20" s="3">
-        <v>38500</v>
+        <v>40100</v>
       </c>
       <c r="J20" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="K20" s="3">
         <v>273100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1383300</v>
+        <v>1433400</v>
       </c>
       <c r="E21" s="3">
-        <v>2017200</v>
+        <v>2090300</v>
       </c>
       <c r="F21" s="3">
-        <v>1480200</v>
+        <v>1535000</v>
       </c>
       <c r="G21" s="3">
-        <v>1476500</v>
+        <v>1530400</v>
       </c>
       <c r="H21" s="3">
-        <v>1513800</v>
+        <v>1568800</v>
       </c>
       <c r="I21" s="3">
-        <v>1454800</v>
+        <v>1507900</v>
       </c>
       <c r="J21" s="3">
-        <v>1644300</v>
+        <v>1705500</v>
       </c>
       <c r="K21" s="3">
         <v>1678100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66100</v>
+        <v>68800</v>
       </c>
       <c r="E22" s="3">
-        <v>109200</v>
+        <v>113700</v>
       </c>
       <c r="F22" s="3">
-        <v>101300</v>
+        <v>105500</v>
       </c>
       <c r="G22" s="3">
-        <v>163600</v>
+        <v>170400</v>
       </c>
       <c r="H22" s="3">
-        <v>175800</v>
+        <v>183000</v>
       </c>
       <c r="I22" s="3">
-        <v>185200</v>
+        <v>192800</v>
       </c>
       <c r="J22" s="3">
-        <v>238500</v>
+        <v>248300</v>
       </c>
       <c r="K22" s="3">
         <v>297900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>333000</v>
+        <v>346800</v>
       </c>
       <c r="E23" s="3">
-        <v>481600</v>
+        <v>501500</v>
       </c>
       <c r="F23" s="3">
-        <v>486300</v>
+        <v>506400</v>
       </c>
       <c r="G23" s="3">
-        <v>320800</v>
+        <v>334100</v>
       </c>
       <c r="H23" s="3">
-        <v>296900</v>
+        <v>309200</v>
       </c>
       <c r="I23" s="3">
-        <v>290000</v>
+        <v>302000</v>
       </c>
       <c r="J23" s="3">
-        <v>465100</v>
+        <v>484400</v>
       </c>
       <c r="K23" s="3">
         <v>376600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54000</v>
+        <v>56200</v>
       </c>
       <c r="E24" s="3">
-        <v>108600</v>
+        <v>113100</v>
       </c>
       <c r="F24" s="3">
-        <v>195000</v>
+        <v>203100</v>
       </c>
       <c r="G24" s="3">
-        <v>173600</v>
+        <v>180800</v>
       </c>
       <c r="H24" s="3">
-        <v>198100</v>
+        <v>206300</v>
       </c>
       <c r="I24" s="3">
-        <v>138600</v>
+        <v>144300</v>
       </c>
       <c r="J24" s="3">
-        <v>145800</v>
+        <v>151800</v>
       </c>
       <c r="K24" s="3">
         <v>25000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>279000</v>
+        <v>290600</v>
       </c>
       <c r="E26" s="3">
-        <v>373000</v>
+        <v>388400</v>
       </c>
       <c r="F26" s="3">
-        <v>291300</v>
+        <v>303300</v>
       </c>
       <c r="G26" s="3">
-        <v>147200</v>
+        <v>153200</v>
       </c>
       <c r="H26" s="3">
-        <v>98800</v>
+        <v>102900</v>
       </c>
       <c r="I26" s="3">
-        <v>151400</v>
+        <v>157700</v>
       </c>
       <c r="J26" s="3">
-        <v>319400</v>
+        <v>332600</v>
       </c>
       <c r="K26" s="3">
         <v>351600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>260500</v>
+        <v>271200</v>
       </c>
       <c r="E27" s="3">
-        <v>563800</v>
+        <v>587100</v>
       </c>
       <c r="F27" s="3">
-        <v>302000</v>
+        <v>314500</v>
       </c>
       <c r="G27" s="3">
-        <v>199400</v>
+        <v>207600</v>
       </c>
       <c r="H27" s="3">
-        <v>164700</v>
+        <v>171500</v>
       </c>
       <c r="I27" s="3">
-        <v>178700</v>
+        <v>186100</v>
       </c>
       <c r="J27" s="3">
-        <v>314600</v>
+        <v>327600</v>
       </c>
       <c r="K27" s="3">
         <v>344300</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>162900</v>
+        <v>169700</v>
       </c>
       <c r="E29" s="3">
-        <v>-322600</v>
+        <v>-335900</v>
       </c>
       <c r="F29" s="3">
-        <v>-96100</v>
+        <v>-100100</v>
       </c>
       <c r="G29" s="3">
-        <v>-120300</v>
+        <v>-125300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E32" s="3">
-        <v>-21100</v>
+        <v>-21900</v>
       </c>
       <c r="F32" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="G32" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="H32" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I32" s="3">
-        <v>-38500</v>
+        <v>-40100</v>
       </c>
       <c r="J32" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="K32" s="3">
         <v>-273100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>423400</v>
+        <v>440900</v>
       </c>
       <c r="E33" s="3">
-        <v>241300</v>
+        <v>251200</v>
       </c>
       <c r="F33" s="3">
-        <v>205900</v>
+        <v>214400</v>
       </c>
       <c r="G33" s="3">
-        <v>79100</v>
+        <v>82300</v>
       </c>
       <c r="H33" s="3">
-        <v>164700</v>
+        <v>171500</v>
       </c>
       <c r="I33" s="3">
-        <v>178700</v>
+        <v>186100</v>
       </c>
       <c r="J33" s="3">
-        <v>314600</v>
+        <v>327600</v>
       </c>
       <c r="K33" s="3">
         <v>378800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>423400</v>
+        <v>440900</v>
       </c>
       <c r="E35" s="3">
-        <v>241300</v>
+        <v>251200</v>
       </c>
       <c r="F35" s="3">
-        <v>205900</v>
+        <v>214400</v>
       </c>
       <c r="G35" s="3">
-        <v>79100</v>
+        <v>82300</v>
       </c>
       <c r="H35" s="3">
-        <v>164700</v>
+        <v>171500</v>
       </c>
       <c r="I35" s="3">
-        <v>178700</v>
+        <v>186100</v>
       </c>
       <c r="J35" s="3">
-        <v>314600</v>
+        <v>327600</v>
       </c>
       <c r="K35" s="3">
         <v>378800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>607300</v>
+        <v>632300</v>
       </c>
       <c r="E41" s="3">
-        <v>1245000</v>
+        <v>1296400</v>
       </c>
       <c r="F41" s="3">
-        <v>1276000</v>
+        <v>1328700</v>
       </c>
       <c r="G41" s="3">
-        <v>1526600</v>
+        <v>1589700</v>
       </c>
       <c r="H41" s="3">
-        <v>1865300</v>
+        <v>1942300</v>
       </c>
       <c r="I41" s="3">
-        <v>1555800</v>
+        <v>1620000</v>
       </c>
       <c r="J41" s="3">
-        <v>1776200</v>
+        <v>1849600</v>
       </c>
       <c r="K41" s="3">
         <v>3455300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E42" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="F42" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G42" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H42" s="3">
         <v>6900</v>
       </c>
-      <c r="H42" s="3">
-        <v>6600</v>
-      </c>
       <c r="I42" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="J42" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K42" s="3">
         <v>19700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>603100</v>
+        <v>628100</v>
       </c>
       <c r="E43" s="3">
-        <v>845100</v>
+        <v>880000</v>
       </c>
       <c r="F43" s="3">
-        <v>852700</v>
+        <v>887900</v>
       </c>
       <c r="G43" s="3">
-        <v>846700</v>
+        <v>881600</v>
       </c>
       <c r="H43" s="3">
-        <v>859400</v>
+        <v>894900</v>
       </c>
       <c r="I43" s="3">
-        <v>857100</v>
+        <v>892500</v>
       </c>
       <c r="J43" s="3">
-        <v>805700</v>
+        <v>839000</v>
       </c>
       <c r="K43" s="3">
         <v>1682600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>31600</v>
+        <v>33000</v>
       </c>
       <c r="E44" s="3">
-        <v>60300</v>
+        <v>62800</v>
       </c>
       <c r="F44" s="3">
-        <v>96500</v>
+        <v>100400</v>
       </c>
       <c r="G44" s="3">
-        <v>107400</v>
+        <v>111800</v>
       </c>
       <c r="H44" s="3">
-        <v>112800</v>
+        <v>117500</v>
       </c>
       <c r="I44" s="3">
-        <v>114300</v>
+        <v>119100</v>
       </c>
       <c r="J44" s="3">
-        <v>103400</v>
+        <v>107700</v>
       </c>
       <c r="K44" s="3">
         <v>232100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>112000</v>
+        <v>116600</v>
       </c>
       <c r="E45" s="3">
-        <v>168700</v>
+        <v>175700</v>
       </c>
       <c r="F45" s="3">
-        <v>195300</v>
+        <v>203300</v>
       </c>
       <c r="G45" s="3">
-        <v>310100</v>
+        <v>322900</v>
       </c>
       <c r="H45" s="3">
-        <v>366100</v>
+        <v>381200</v>
       </c>
       <c r="I45" s="3">
-        <v>300200</v>
+        <v>312600</v>
       </c>
       <c r="J45" s="3">
-        <v>244100</v>
+        <v>254200</v>
       </c>
       <c r="K45" s="3">
         <v>552000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1360400</v>
+        <v>1416600</v>
       </c>
       <c r="E46" s="3">
-        <v>2325900</v>
+        <v>2421900</v>
       </c>
       <c r="F46" s="3">
-        <v>2426400</v>
+        <v>2526700</v>
       </c>
       <c r="G46" s="3">
-        <v>2797700</v>
+        <v>2913300</v>
       </c>
       <c r="H46" s="3">
-        <v>3210200</v>
+        <v>3342800</v>
       </c>
       <c r="I46" s="3">
-        <v>2835500</v>
+        <v>2952600</v>
       </c>
       <c r="J46" s="3">
-        <v>2933800</v>
+        <v>3055000</v>
       </c>
       <c r="K46" s="3">
         <v>2983400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>114300</v>
+        <v>119100</v>
       </c>
       <c r="E47" s="3">
-        <v>147200</v>
+        <v>153200</v>
       </c>
       <c r="F47" s="3">
-        <v>192800</v>
+        <v>200800</v>
       </c>
       <c r="G47" s="3">
-        <v>97200</v>
+        <v>101200</v>
       </c>
       <c r="H47" s="3">
-        <v>100800</v>
+        <v>105000</v>
       </c>
       <c r="I47" s="3">
-        <v>103900</v>
+        <v>108200</v>
       </c>
       <c r="J47" s="3">
-        <v>123100</v>
+        <v>128100</v>
       </c>
       <c r="K47" s="3">
         <v>132800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2850100</v>
+        <v>2967800</v>
       </c>
       <c r="E48" s="3">
-        <v>3246700</v>
+        <v>3380800</v>
       </c>
       <c r="F48" s="3">
-        <v>3224600</v>
+        <v>3357800</v>
       </c>
       <c r="G48" s="3">
-        <v>3224400</v>
+        <v>3357600</v>
       </c>
       <c r="H48" s="3">
-        <v>3355700</v>
+        <v>3494300</v>
       </c>
       <c r="I48" s="3">
-        <v>3471100</v>
+        <v>3614500</v>
       </c>
       <c r="J48" s="3">
-        <v>3650700</v>
+        <v>3801500</v>
       </c>
       <c r="K48" s="3">
         <v>7844400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1347700</v>
+        <v>1403300</v>
       </c>
       <c r="E49" s="3">
-        <v>1327100</v>
+        <v>1381900</v>
       </c>
       <c r="F49" s="3">
-        <v>1561800</v>
+        <v>1626300</v>
       </c>
       <c r="G49" s="3">
-        <v>1735100</v>
+        <v>1806700</v>
       </c>
       <c r="H49" s="3">
-        <v>1751300</v>
+        <v>1823600</v>
       </c>
       <c r="I49" s="3">
-        <v>1862000</v>
+        <v>1938900</v>
       </c>
       <c r="J49" s="3">
-        <v>1940500</v>
+        <v>2020600</v>
       </c>
       <c r="K49" s="3">
         <v>2953200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1230500</v>
+        <v>1281300</v>
       </c>
       <c r="E52" s="3">
-        <v>430300</v>
+        <v>448100</v>
       </c>
       <c r="F52" s="3">
-        <v>476100</v>
+        <v>495800</v>
       </c>
       <c r="G52" s="3">
-        <v>500700</v>
+        <v>521400</v>
       </c>
       <c r="H52" s="3">
-        <v>489300</v>
+        <v>509500</v>
       </c>
       <c r="I52" s="3">
-        <v>503700</v>
+        <v>524500</v>
       </c>
       <c r="J52" s="3">
-        <v>532900</v>
+        <v>554900</v>
       </c>
       <c r="K52" s="3">
         <v>564500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6903000</v>
+        <v>7188100</v>
       </c>
       <c r="E54" s="3">
-        <v>7477200</v>
+        <v>7786000</v>
       </c>
       <c r="F54" s="3">
-        <v>7881800</v>
+        <v>8207300</v>
       </c>
       <c r="G54" s="3">
-        <v>8355000</v>
+        <v>8700100</v>
       </c>
       <c r="H54" s="3">
-        <v>8907200</v>
+        <v>9275100</v>
       </c>
       <c r="I54" s="3">
-        <v>8776200</v>
+        <v>9138700</v>
       </c>
       <c r="J54" s="3">
-        <v>9181000</v>
+        <v>9560200</v>
       </c>
       <c r="K54" s="3">
         <v>9382200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>846800</v>
+        <v>881700</v>
       </c>
       <c r="E57" s="3">
-        <v>1101100</v>
+        <v>1146600</v>
       </c>
       <c r="F57" s="3">
-        <v>1216400</v>
+        <v>1266600</v>
       </c>
       <c r="G57" s="3">
-        <v>1367400</v>
+        <v>1423900</v>
       </c>
       <c r="H57" s="3">
-        <v>1604700</v>
+        <v>1671000</v>
       </c>
       <c r="I57" s="3">
-        <v>1414600</v>
+        <v>1473100</v>
       </c>
       <c r="J57" s="3">
-        <v>1147100</v>
+        <v>1194500</v>
       </c>
       <c r="K57" s="3">
         <v>1104900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>341400</v>
+        <v>355500</v>
       </c>
       <c r="E58" s="3">
-        <v>916800</v>
+        <v>954600</v>
       </c>
       <c r="F58" s="3">
-        <v>644700</v>
+        <v>671300</v>
       </c>
       <c r="G58" s="3">
-        <v>899400</v>
+        <v>936500</v>
       </c>
       <c r="H58" s="3">
-        <v>216600</v>
+        <v>225500</v>
       </c>
       <c r="I58" s="3">
-        <v>510000</v>
+        <v>531000</v>
       </c>
       <c r="J58" s="3">
-        <v>547500</v>
+        <v>570100</v>
       </c>
       <c r="K58" s="3">
         <v>478400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>874800</v>
+        <v>910900</v>
       </c>
       <c r="E59" s="3">
-        <v>827100</v>
+        <v>861300</v>
       </c>
       <c r="F59" s="3">
-        <v>886800</v>
+        <v>923400</v>
       </c>
       <c r="G59" s="3">
-        <v>934200</v>
+        <v>972800</v>
       </c>
       <c r="H59" s="3">
-        <v>1049300</v>
+        <v>1092700</v>
       </c>
       <c r="I59" s="3">
-        <v>1003400</v>
+        <v>1044800</v>
       </c>
       <c r="J59" s="3">
-        <v>1169800</v>
+        <v>1218100</v>
       </c>
       <c r="K59" s="3">
         <v>1296700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2062900</v>
+        <v>2148100</v>
       </c>
       <c r="E60" s="3">
-        <v>2845000</v>
+        <v>2962500</v>
       </c>
       <c r="F60" s="3">
-        <v>2747800</v>
+        <v>2861300</v>
       </c>
       <c r="G60" s="3">
-        <v>3201000</v>
+        <v>3333200</v>
       </c>
       <c r="H60" s="3">
-        <v>2870700</v>
+        <v>2989200</v>
       </c>
       <c r="I60" s="3">
-        <v>2927900</v>
+        <v>3048900</v>
       </c>
       <c r="J60" s="3">
-        <v>2864400</v>
+        <v>2982700</v>
       </c>
       <c r="K60" s="3">
         <v>2880000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1488600</v>
+        <v>1550100</v>
       </c>
       <c r="E61" s="3">
-        <v>1565700</v>
+        <v>1630300</v>
       </c>
       <c r="F61" s="3">
-        <v>1506500</v>
+        <v>1568700</v>
       </c>
       <c r="G61" s="3">
-        <v>1501300</v>
+        <v>1563300</v>
       </c>
       <c r="H61" s="3">
-        <v>2283400</v>
+        <v>2377700</v>
       </c>
       <c r="I61" s="3">
-        <v>2065300</v>
+        <v>2150600</v>
       </c>
       <c r="J61" s="3">
-        <v>2556400</v>
+        <v>2662000</v>
       </c>
       <c r="K61" s="3">
         <v>3058100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>468100</v>
+        <v>487400</v>
       </c>
       <c r="E62" s="3">
-        <v>498300</v>
+        <v>518900</v>
       </c>
       <c r="F62" s="3">
-        <v>553000</v>
+        <v>575900</v>
       </c>
       <c r="G62" s="3">
-        <v>606600</v>
+        <v>631600</v>
       </c>
       <c r="H62" s="3">
-        <v>633700</v>
+        <v>659900</v>
       </c>
       <c r="I62" s="3">
-        <v>713500</v>
+        <v>743000</v>
       </c>
       <c r="J62" s="3">
-        <v>821000</v>
+        <v>854900</v>
       </c>
       <c r="K62" s="3">
         <v>858000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4555100</v>
+        <v>4743300</v>
       </c>
       <c r="E66" s="3">
-        <v>5063200</v>
+        <v>5272400</v>
       </c>
       <c r="F66" s="3">
-        <v>5137000</v>
+        <v>5349200</v>
       </c>
       <c r="G66" s="3">
-        <v>5597100</v>
+        <v>5828300</v>
       </c>
       <c r="H66" s="3">
-        <v>6135600</v>
+        <v>6389100</v>
       </c>
       <c r="I66" s="3">
-        <v>6121000</v>
+        <v>6373900</v>
       </c>
       <c r="J66" s="3">
-        <v>6684700</v>
+        <v>6960800</v>
       </c>
       <c r="K66" s="3">
         <v>7085100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4478400</v>
+        <v>4663400</v>
       </c>
       <c r="E72" s="3">
-        <v>4439300</v>
+        <v>4622600</v>
       </c>
       <c r="F72" s="3">
-        <v>4684900</v>
+        <v>4878400</v>
       </c>
       <c r="G72" s="3">
-        <v>4458000</v>
+        <v>4642100</v>
       </c>
       <c r="H72" s="3">
-        <v>4471600</v>
+        <v>4656300</v>
       </c>
       <c r="I72" s="3">
-        <v>4355500</v>
+        <v>4535400</v>
       </c>
       <c r="J72" s="3">
-        <v>4196300</v>
+        <v>4369700</v>
       </c>
       <c r="K72" s="3">
         <v>4004500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2347900</v>
+        <v>2444800</v>
       </c>
       <c r="E76" s="3">
-        <v>2414000</v>
+        <v>2513700</v>
       </c>
       <c r="F76" s="3">
-        <v>2744800</v>
+        <v>2858100</v>
       </c>
       <c r="G76" s="3">
-        <v>2758000</v>
+        <v>2871900</v>
       </c>
       <c r="H76" s="3">
-        <v>2771600</v>
+        <v>2886100</v>
       </c>
       <c r="I76" s="3">
-        <v>2655100</v>
+        <v>2764800</v>
       </c>
       <c r="J76" s="3">
-        <v>2496300</v>
+        <v>2599400</v>
       </c>
       <c r="K76" s="3">
         <v>2297100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>423400</v>
+        <v>440900</v>
       </c>
       <c r="E81" s="3">
-        <v>241300</v>
+        <v>251200</v>
       </c>
       <c r="F81" s="3">
-        <v>205900</v>
+        <v>214400</v>
       </c>
       <c r="G81" s="3">
-        <v>79100</v>
+        <v>82300</v>
       </c>
       <c r="H81" s="3">
-        <v>164700</v>
+        <v>171500</v>
       </c>
       <c r="I81" s="3">
-        <v>178700</v>
+        <v>186100</v>
       </c>
       <c r="J81" s="3">
-        <v>314600</v>
+        <v>327600</v>
       </c>
       <c r="K81" s="3">
         <v>378800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>980200</v>
+        <v>1020700</v>
       </c>
       <c r="E83" s="3">
-        <v>1420600</v>
+        <v>1479300</v>
       </c>
       <c r="F83" s="3">
-        <v>889000</v>
+        <v>925700</v>
       </c>
       <c r="G83" s="3">
-        <v>988100</v>
+        <v>1028900</v>
       </c>
       <c r="H83" s="3">
-        <v>1036900</v>
+        <v>1079700</v>
       </c>
       <c r="I83" s="3">
-        <v>975700</v>
+        <v>1016000</v>
       </c>
       <c r="J83" s="3">
-        <v>936900</v>
+        <v>975600</v>
       </c>
       <c r="K83" s="3">
         <v>1007800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1381800</v>
+        <v>1438900</v>
       </c>
       <c r="E89" s="3">
-        <v>1365000</v>
+        <v>1421400</v>
       </c>
       <c r="F89" s="3">
-        <v>1162300</v>
+        <v>1210300</v>
       </c>
       <c r="G89" s="3">
-        <v>941800</v>
+        <v>980700</v>
       </c>
       <c r="H89" s="3">
-        <v>1205900</v>
+        <v>1255700</v>
       </c>
       <c r="I89" s="3">
-        <v>1109600</v>
+        <v>1155400</v>
       </c>
       <c r="J89" s="3">
-        <v>1176000</v>
+        <v>1224600</v>
       </c>
       <c r="K89" s="3">
         <v>1306100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-785600</v>
+        <v>-818000</v>
       </c>
       <c r="E91" s="3">
-        <v>-778500</v>
+        <v>-810700</v>
       </c>
       <c r="F91" s="3">
-        <v>-846900</v>
+        <v>-881900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1063700</v>
+        <v>-1107600</v>
       </c>
       <c r="H91" s="3">
-        <v>-768200</v>
+        <v>-799900</v>
       </c>
       <c r="I91" s="3">
-        <v>-774500</v>
+        <v>-806500</v>
       </c>
       <c r="J91" s="3">
-        <v>-710400</v>
+        <v>-739800</v>
       </c>
       <c r="K91" s="3">
         <v>-723300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-858900</v>
+        <v>-894400</v>
       </c>
       <c r="E94" s="3">
-        <v>-741800</v>
+        <v>-772500</v>
       </c>
       <c r="F94" s="3">
-        <v>-848500</v>
+        <v>-883600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1073700</v>
+        <v>-1118000</v>
       </c>
       <c r="H94" s="3">
-        <v>-761100</v>
+        <v>-792600</v>
       </c>
       <c r="I94" s="3">
-        <v>-759200</v>
+        <v>-790600</v>
       </c>
       <c r="J94" s="3">
-        <v>-677600</v>
+        <v>-705600</v>
       </c>
       <c r="K94" s="3">
         <v>191800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1157300</v>
+        <v>-1205100</v>
       </c>
       <c r="E100" s="3">
-        <v>-651800</v>
+        <v>-678800</v>
       </c>
       <c r="F100" s="3">
-        <v>-564700</v>
+        <v>-588000</v>
       </c>
       <c r="G100" s="3">
-        <v>-201300</v>
+        <v>-209600</v>
       </c>
       <c r="H100" s="3">
-        <v>-134600</v>
+        <v>-140100</v>
       </c>
       <c r="I100" s="3">
-        <v>-576600</v>
+        <v>-600400</v>
       </c>
       <c r="J100" s="3">
-        <v>-420600</v>
+        <v>-437900</v>
       </c>
       <c r="K100" s="3">
         <v>-1155800</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="E101" s="3">
         <v>-2400</v>
@@ -3720,13 +3720,13 @@
         <v>400</v>
       </c>
       <c r="G101" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="H101" s="3">
         <v>-700</v>
       </c>
       <c r="I101" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="J101" s="3">
         <v>-700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-637700</v>
+        <v>-664100</v>
       </c>
       <c r="E102" s="3">
-        <v>-31100</v>
+        <v>-32300</v>
       </c>
       <c r="F102" s="3">
-        <v>-250600</v>
+        <v>-260900</v>
       </c>
       <c r="G102" s="3">
-        <v>-338700</v>
+        <v>-352700</v>
       </c>
       <c r="H102" s="3">
-        <v>309500</v>
+        <v>322300</v>
       </c>
       <c r="I102" s="3">
-        <v>-220500</v>
+        <v>-229600</v>
       </c>
       <c r="J102" s="3">
-        <v>77200</v>
+        <v>80400</v>
       </c>
       <c r="K102" s="3">
         <v>338200</v>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3992100</v>
+        <v>3804500</v>
       </c>
       <c r="E8" s="3">
-        <v>4046100</v>
+        <v>3856000</v>
       </c>
       <c r="F8" s="3">
-        <v>4653400</v>
+        <v>4434600</v>
       </c>
       <c r="G8" s="3">
-        <v>4651200</v>
+        <v>4432500</v>
       </c>
       <c r="H8" s="3">
-        <v>4787400</v>
+        <v>4562400</v>
       </c>
       <c r="I8" s="3">
-        <v>4781000</v>
+        <v>4556300</v>
       </c>
       <c r="J8" s="3">
-        <v>4800000</v>
+        <v>4574400</v>
       </c>
       <c r="K8" s="3">
         <v>4849500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>201500</v>
+        <v>192000</v>
       </c>
       <c r="E9" s="3">
-        <v>171400</v>
+        <v>163300</v>
       </c>
       <c r="F9" s="3">
-        <v>184500</v>
+        <v>175800</v>
       </c>
       <c r="G9" s="3">
-        <v>200300</v>
+        <v>190900</v>
       </c>
       <c r="H9" s="3">
-        <v>219200</v>
+        <v>208800</v>
       </c>
       <c r="I9" s="3">
-        <v>202000</v>
+        <v>192500</v>
       </c>
       <c r="J9" s="3">
-        <v>158900</v>
+        <v>151400</v>
       </c>
       <c r="K9" s="3">
         <v>148100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3790600</v>
+        <v>3612400</v>
       </c>
       <c r="E10" s="3">
-        <v>3874800</v>
+        <v>3692600</v>
       </c>
       <c r="F10" s="3">
-        <v>4468900</v>
+        <v>4258800</v>
       </c>
       <c r="G10" s="3">
-        <v>4450900</v>
+        <v>4241700</v>
       </c>
       <c r="H10" s="3">
-        <v>4568200</v>
+        <v>4353500</v>
       </c>
       <c r="I10" s="3">
-        <v>4579000</v>
+        <v>4363800</v>
       </c>
       <c r="J10" s="3">
-        <v>4641100</v>
+        <v>4423000</v>
       </c>
       <c r="K10" s="3">
         <v>4701400</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-12000</v>
+        <v>-11400</v>
       </c>
       <c r="E14" s="3">
-        <v>51200</v>
+        <v>48800</v>
       </c>
       <c r="F14" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G14" s="3">
-        <v>48800</v>
+        <v>46500</v>
       </c>
       <c r="H14" s="3">
-        <v>-22400</v>
+        <v>-21400</v>
       </c>
       <c r="I14" s="3">
-        <v>24400</v>
+        <v>23200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>994800</v>
+        <v>948100</v>
       </c>
       <c r="E15" s="3">
-        <v>1397200</v>
+        <v>1331500</v>
       </c>
       <c r="F15" s="3">
-        <v>999000</v>
+        <v>952000</v>
       </c>
       <c r="G15" s="3">
-        <v>1075800</v>
+        <v>1025200</v>
       </c>
       <c r="H15" s="3">
-        <v>1079700</v>
+        <v>1029000</v>
       </c>
       <c r="I15" s="3">
-        <v>1016000</v>
+        <v>968200</v>
       </c>
       <c r="J15" s="3">
-        <v>975600</v>
+        <v>929700</v>
       </c>
       <c r="K15" s="3">
         <v>1007800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3574200</v>
+        <v>3406200</v>
       </c>
       <c r="E17" s="3">
-        <v>3452900</v>
+        <v>3290600</v>
       </c>
       <c r="F17" s="3">
-        <v>4044100</v>
+        <v>3854000</v>
       </c>
       <c r="G17" s="3">
-        <v>4141900</v>
+        <v>3947200</v>
       </c>
       <c r="H17" s="3">
-        <v>4292600</v>
+        <v>4090800</v>
       </c>
       <c r="I17" s="3">
-        <v>4326300</v>
+        <v>4122900</v>
       </c>
       <c r="J17" s="3">
-        <v>4078400</v>
+        <v>3886700</v>
       </c>
       <c r="K17" s="3">
         <v>4448200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>418000</v>
+        <v>398300</v>
       </c>
       <c r="E18" s="3">
-        <v>593300</v>
+        <v>565400</v>
       </c>
       <c r="F18" s="3">
-        <v>609300</v>
+        <v>580700</v>
       </c>
       <c r="G18" s="3">
-        <v>509200</v>
+        <v>485300</v>
       </c>
       <c r="H18" s="3">
-        <v>494800</v>
+        <v>471500</v>
       </c>
       <c r="I18" s="3">
-        <v>454700</v>
+        <v>433300</v>
       </c>
       <c r="J18" s="3">
-        <v>721600</v>
+        <v>687700</v>
       </c>
       <c r="K18" s="3">
         <v>401300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="F20" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G20" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="H20" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="I20" s="3">
-        <v>40100</v>
+        <v>38200</v>
       </c>
       <c r="J20" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="K20" s="3">
         <v>273100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1433400</v>
+        <v>1371800</v>
       </c>
       <c r="E21" s="3">
-        <v>2090300</v>
+        <v>2000400</v>
       </c>
       <c r="F21" s="3">
-        <v>1535000</v>
+        <v>1468000</v>
       </c>
       <c r="G21" s="3">
-        <v>1530400</v>
+        <v>1464300</v>
       </c>
       <c r="H21" s="3">
-        <v>1568800</v>
+        <v>1501200</v>
       </c>
       <c r="I21" s="3">
-        <v>1507900</v>
+        <v>1442700</v>
       </c>
       <c r="J21" s="3">
-        <v>1705500</v>
+        <v>1630800</v>
       </c>
       <c r="K21" s="3">
         <v>1678100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>68800</v>
+        <v>65600</v>
       </c>
       <c r="E22" s="3">
-        <v>113700</v>
+        <v>108300</v>
       </c>
       <c r="F22" s="3">
-        <v>105500</v>
+        <v>100500</v>
       </c>
       <c r="G22" s="3">
-        <v>170400</v>
+        <v>162400</v>
       </c>
       <c r="H22" s="3">
-        <v>183000</v>
+        <v>174400</v>
       </c>
       <c r="I22" s="3">
-        <v>192800</v>
+        <v>183800</v>
       </c>
       <c r="J22" s="3">
-        <v>248300</v>
+        <v>236600</v>
       </c>
       <c r="K22" s="3">
         <v>297900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>346800</v>
+        <v>330500</v>
       </c>
       <c r="E23" s="3">
-        <v>501500</v>
+        <v>477900</v>
       </c>
       <c r="F23" s="3">
-        <v>506400</v>
+        <v>482600</v>
       </c>
       <c r="G23" s="3">
-        <v>334100</v>
+        <v>318400</v>
       </c>
       <c r="H23" s="3">
-        <v>309200</v>
+        <v>294700</v>
       </c>
       <c r="I23" s="3">
-        <v>302000</v>
+        <v>287800</v>
       </c>
       <c r="J23" s="3">
-        <v>484400</v>
+        <v>461600</v>
       </c>
       <c r="K23" s="3">
         <v>376600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56200</v>
+        <v>53600</v>
       </c>
       <c r="E24" s="3">
-        <v>113100</v>
+        <v>107800</v>
       </c>
       <c r="F24" s="3">
-        <v>203100</v>
+        <v>193600</v>
       </c>
       <c r="G24" s="3">
-        <v>180800</v>
+        <v>172300</v>
       </c>
       <c r="H24" s="3">
-        <v>206300</v>
+        <v>196600</v>
       </c>
       <c r="I24" s="3">
-        <v>144300</v>
+        <v>137500</v>
       </c>
       <c r="J24" s="3">
-        <v>151800</v>
+        <v>144600</v>
       </c>
       <c r="K24" s="3">
         <v>25000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>290600</v>
+        <v>276900</v>
       </c>
       <c r="E26" s="3">
-        <v>388400</v>
+        <v>370200</v>
       </c>
       <c r="F26" s="3">
-        <v>303300</v>
+        <v>289100</v>
       </c>
       <c r="G26" s="3">
-        <v>153200</v>
+        <v>146000</v>
       </c>
       <c r="H26" s="3">
-        <v>102900</v>
+        <v>98100</v>
       </c>
       <c r="I26" s="3">
-        <v>157700</v>
+        <v>150200</v>
       </c>
       <c r="J26" s="3">
-        <v>332600</v>
+        <v>317000</v>
       </c>
       <c r="K26" s="3">
         <v>351600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>271200</v>
+        <v>258500</v>
       </c>
       <c r="E27" s="3">
-        <v>587100</v>
+        <v>559500</v>
       </c>
       <c r="F27" s="3">
-        <v>314500</v>
+        <v>299700</v>
       </c>
       <c r="G27" s="3">
-        <v>207600</v>
+        <v>197900</v>
       </c>
       <c r="H27" s="3">
-        <v>171500</v>
+        <v>163400</v>
       </c>
       <c r="I27" s="3">
-        <v>186100</v>
+        <v>177300</v>
       </c>
       <c r="J27" s="3">
-        <v>327600</v>
+        <v>312200</v>
       </c>
       <c r="K27" s="3">
         <v>344300</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>169700</v>
+        <v>161700</v>
       </c>
       <c r="E29" s="3">
-        <v>-335900</v>
+        <v>-320100</v>
       </c>
       <c r="F29" s="3">
-        <v>-100100</v>
+        <v>-95400</v>
       </c>
       <c r="G29" s="3">
-        <v>-125300</v>
+        <v>-119400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>-21900</v>
+        <v>-20900</v>
       </c>
       <c r="F32" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="G32" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="H32" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I32" s="3">
-        <v>-40100</v>
+        <v>-38200</v>
       </c>
       <c r="J32" s="3">
-        <v>-11000</v>
+        <v>-10500</v>
       </c>
       <c r="K32" s="3">
         <v>-273100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>440900</v>
+        <v>420200</v>
       </c>
       <c r="E33" s="3">
-        <v>251200</v>
+        <v>239400</v>
       </c>
       <c r="F33" s="3">
-        <v>214400</v>
+        <v>204300</v>
       </c>
       <c r="G33" s="3">
-        <v>82300</v>
+        <v>78400</v>
       </c>
       <c r="H33" s="3">
-        <v>171500</v>
+        <v>163400</v>
       </c>
       <c r="I33" s="3">
-        <v>186100</v>
+        <v>177300</v>
       </c>
       <c r="J33" s="3">
-        <v>327600</v>
+        <v>312200</v>
       </c>
       <c r="K33" s="3">
         <v>378800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>440900</v>
+        <v>420200</v>
       </c>
       <c r="E35" s="3">
-        <v>251200</v>
+        <v>239400</v>
       </c>
       <c r="F35" s="3">
-        <v>214400</v>
+        <v>204300</v>
       </c>
       <c r="G35" s="3">
-        <v>82300</v>
+        <v>78400</v>
       </c>
       <c r="H35" s="3">
-        <v>171500</v>
+        <v>163400</v>
       </c>
       <c r="I35" s="3">
-        <v>186100</v>
+        <v>177300</v>
       </c>
       <c r="J35" s="3">
-        <v>327600</v>
+        <v>312200</v>
       </c>
       <c r="K35" s="3">
         <v>378800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>632300</v>
+        <v>602600</v>
       </c>
       <c r="E41" s="3">
-        <v>1296400</v>
+        <v>1235500</v>
       </c>
       <c r="F41" s="3">
-        <v>1328700</v>
+        <v>1266300</v>
       </c>
       <c r="G41" s="3">
-        <v>1589700</v>
+        <v>1514900</v>
       </c>
       <c r="H41" s="3">
-        <v>1942300</v>
+        <v>1851000</v>
       </c>
       <c r="I41" s="3">
-        <v>1620000</v>
+        <v>1543900</v>
       </c>
       <c r="J41" s="3">
-        <v>1849600</v>
+        <v>1762700</v>
       </c>
       <c r="K41" s="3">
         <v>3455300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="E42" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F42" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="G42" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="H42" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="I42" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="J42" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="K42" s="3">
         <v>19700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>628100</v>
+        <v>598500</v>
       </c>
       <c r="E43" s="3">
-        <v>880000</v>
+        <v>838700</v>
       </c>
       <c r="F43" s="3">
-        <v>887900</v>
+        <v>846100</v>
       </c>
       <c r="G43" s="3">
-        <v>881600</v>
+        <v>840200</v>
       </c>
       <c r="H43" s="3">
-        <v>894900</v>
+        <v>852800</v>
       </c>
       <c r="I43" s="3">
-        <v>892500</v>
+        <v>850600</v>
       </c>
       <c r="J43" s="3">
-        <v>839000</v>
+        <v>799600</v>
       </c>
       <c r="K43" s="3">
         <v>1682600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33000</v>
+        <v>31400</v>
       </c>
       <c r="E44" s="3">
-        <v>62800</v>
+        <v>59900</v>
       </c>
       <c r="F44" s="3">
-        <v>100400</v>
+        <v>95700</v>
       </c>
       <c r="G44" s="3">
-        <v>111800</v>
+        <v>106600</v>
       </c>
       <c r="H44" s="3">
-        <v>117500</v>
+        <v>112000</v>
       </c>
       <c r="I44" s="3">
-        <v>119100</v>
+        <v>113500</v>
       </c>
       <c r="J44" s="3">
-        <v>107700</v>
+        <v>102600</v>
       </c>
       <c r="K44" s="3">
         <v>232100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>116600</v>
+        <v>111100</v>
       </c>
       <c r="E45" s="3">
-        <v>175700</v>
+        <v>167400</v>
       </c>
       <c r="F45" s="3">
-        <v>203300</v>
+        <v>193800</v>
       </c>
       <c r="G45" s="3">
-        <v>322900</v>
+        <v>307700</v>
       </c>
       <c r="H45" s="3">
-        <v>381200</v>
+        <v>363300</v>
       </c>
       <c r="I45" s="3">
-        <v>312600</v>
+        <v>297900</v>
       </c>
       <c r="J45" s="3">
-        <v>254200</v>
+        <v>242200</v>
       </c>
       <c r="K45" s="3">
         <v>552000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1416600</v>
+        <v>1350000</v>
       </c>
       <c r="E46" s="3">
-        <v>2421900</v>
+        <v>2308100</v>
       </c>
       <c r="F46" s="3">
-        <v>2526700</v>
+        <v>2407900</v>
       </c>
       <c r="G46" s="3">
-        <v>2913300</v>
+        <v>2776300</v>
       </c>
       <c r="H46" s="3">
-        <v>3342800</v>
+        <v>3185600</v>
       </c>
       <c r="I46" s="3">
-        <v>2952600</v>
+        <v>2813800</v>
       </c>
       <c r="J46" s="3">
-        <v>3055000</v>
+        <v>2911400</v>
       </c>
       <c r="K46" s="3">
         <v>2983400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>119100</v>
+        <v>113500</v>
       </c>
       <c r="E47" s="3">
-        <v>153200</v>
+        <v>146000</v>
       </c>
       <c r="F47" s="3">
-        <v>200800</v>
+        <v>191300</v>
       </c>
       <c r="G47" s="3">
-        <v>101200</v>
+        <v>96400</v>
       </c>
       <c r="H47" s="3">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="I47" s="3">
-        <v>108200</v>
+        <v>103100</v>
       </c>
       <c r="J47" s="3">
-        <v>128100</v>
+        <v>122100</v>
       </c>
       <c r="K47" s="3">
         <v>132800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2967800</v>
+        <v>2828300</v>
       </c>
       <c r="E48" s="3">
-        <v>3380800</v>
+        <v>3221900</v>
       </c>
       <c r="F48" s="3">
-        <v>3357800</v>
+        <v>3200000</v>
       </c>
       <c r="G48" s="3">
-        <v>3357600</v>
+        <v>3199800</v>
       </c>
       <c r="H48" s="3">
-        <v>3494300</v>
+        <v>3330000</v>
       </c>
       <c r="I48" s="3">
-        <v>3614500</v>
+        <v>3444600</v>
       </c>
       <c r="J48" s="3">
-        <v>3801500</v>
+        <v>3622800</v>
       </c>
       <c r="K48" s="3">
         <v>7844400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1403300</v>
+        <v>1337400</v>
       </c>
       <c r="E49" s="3">
-        <v>1381900</v>
+        <v>1317000</v>
       </c>
       <c r="F49" s="3">
-        <v>1626300</v>
+        <v>1549900</v>
       </c>
       <c r="G49" s="3">
-        <v>1806700</v>
+        <v>1721800</v>
       </c>
       <c r="H49" s="3">
-        <v>1823600</v>
+        <v>1737900</v>
       </c>
       <c r="I49" s="3">
-        <v>1938900</v>
+        <v>1847800</v>
       </c>
       <c r="J49" s="3">
-        <v>2020600</v>
+        <v>1925600</v>
       </c>
       <c r="K49" s="3">
         <v>2953200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1281300</v>
+        <v>1221100</v>
       </c>
       <c r="E52" s="3">
-        <v>448100</v>
+        <v>427000</v>
       </c>
       <c r="F52" s="3">
-        <v>495800</v>
+        <v>472500</v>
       </c>
       <c r="G52" s="3">
-        <v>521400</v>
+        <v>496800</v>
       </c>
       <c r="H52" s="3">
-        <v>509500</v>
+        <v>485500</v>
       </c>
       <c r="I52" s="3">
-        <v>524500</v>
+        <v>499900</v>
       </c>
       <c r="J52" s="3">
-        <v>554900</v>
+        <v>528800</v>
       </c>
       <c r="K52" s="3">
         <v>564500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7188100</v>
+        <v>6850200</v>
       </c>
       <c r="E54" s="3">
-        <v>7786000</v>
+        <v>7420100</v>
       </c>
       <c r="F54" s="3">
-        <v>8207300</v>
+        <v>7821500</v>
       </c>
       <c r="G54" s="3">
-        <v>8700100</v>
+        <v>8291200</v>
       </c>
       <c r="H54" s="3">
-        <v>9275100</v>
+        <v>8839200</v>
       </c>
       <c r="I54" s="3">
-        <v>9138700</v>
+        <v>8709100</v>
       </c>
       <c r="J54" s="3">
-        <v>9560200</v>
+        <v>9110800</v>
       </c>
       <c r="K54" s="3">
         <v>9382200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>881700</v>
+        <v>840300</v>
       </c>
       <c r="E57" s="3">
-        <v>1146600</v>
+        <v>1092700</v>
       </c>
       <c r="F57" s="3">
-        <v>1266600</v>
+        <v>1207100</v>
       </c>
       <c r="G57" s="3">
-        <v>1423900</v>
+        <v>1357000</v>
       </c>
       <c r="H57" s="3">
-        <v>1671000</v>
+        <v>1592500</v>
       </c>
       <c r="I57" s="3">
-        <v>1473100</v>
+        <v>1403800</v>
       </c>
       <c r="J57" s="3">
-        <v>1194500</v>
+        <v>1138300</v>
       </c>
       <c r="K57" s="3">
         <v>1104900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>355500</v>
+        <v>338800</v>
       </c>
       <c r="E58" s="3">
-        <v>954600</v>
+        <v>909800</v>
       </c>
       <c r="F58" s="3">
-        <v>671300</v>
+        <v>639700</v>
       </c>
       <c r="G58" s="3">
-        <v>936500</v>
+        <v>892500</v>
       </c>
       <c r="H58" s="3">
-        <v>225500</v>
+        <v>214900</v>
       </c>
       <c r="I58" s="3">
-        <v>531000</v>
+        <v>506100</v>
       </c>
       <c r="J58" s="3">
-        <v>570100</v>
+        <v>543300</v>
       </c>
       <c r="K58" s="3">
         <v>478400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>910900</v>
+        <v>868100</v>
       </c>
       <c r="E59" s="3">
-        <v>861300</v>
+        <v>820800</v>
       </c>
       <c r="F59" s="3">
-        <v>923400</v>
+        <v>880000</v>
       </c>
       <c r="G59" s="3">
-        <v>972800</v>
+        <v>927000</v>
       </c>
       <c r="H59" s="3">
-        <v>1092700</v>
+        <v>1041300</v>
       </c>
       <c r="I59" s="3">
-        <v>1044800</v>
+        <v>995700</v>
       </c>
       <c r="J59" s="3">
-        <v>1218100</v>
+        <v>1160900</v>
       </c>
       <c r="K59" s="3">
         <v>1296700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2148100</v>
+        <v>2047200</v>
       </c>
       <c r="E60" s="3">
-        <v>2962500</v>
+        <v>2823300</v>
       </c>
       <c r="F60" s="3">
-        <v>2861300</v>
+        <v>2726800</v>
       </c>
       <c r="G60" s="3">
-        <v>3333200</v>
+        <v>3176500</v>
       </c>
       <c r="H60" s="3">
-        <v>2989200</v>
+        <v>2848700</v>
       </c>
       <c r="I60" s="3">
-        <v>3048900</v>
+        <v>2905600</v>
       </c>
       <c r="J60" s="3">
-        <v>2982700</v>
+        <v>2842500</v>
       </c>
       <c r="K60" s="3">
         <v>2880000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1550100</v>
+        <v>1477200</v>
       </c>
       <c r="E61" s="3">
-        <v>1630300</v>
+        <v>1553700</v>
       </c>
       <c r="F61" s="3">
-        <v>1568700</v>
+        <v>1495000</v>
       </c>
       <c r="G61" s="3">
-        <v>1563300</v>
+        <v>1489800</v>
       </c>
       <c r="H61" s="3">
-        <v>2377700</v>
+        <v>2265900</v>
       </c>
       <c r="I61" s="3">
-        <v>2150600</v>
+        <v>2049500</v>
       </c>
       <c r="J61" s="3">
-        <v>2662000</v>
+        <v>2536900</v>
       </c>
       <c r="K61" s="3">
         <v>3058100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>487400</v>
+        <v>464500</v>
       </c>
       <c r="E62" s="3">
-        <v>518900</v>
+        <v>494500</v>
       </c>
       <c r="F62" s="3">
-        <v>575900</v>
+        <v>548800</v>
       </c>
       <c r="G62" s="3">
-        <v>631600</v>
+        <v>601900</v>
       </c>
       <c r="H62" s="3">
-        <v>659900</v>
+        <v>628900</v>
       </c>
       <c r="I62" s="3">
-        <v>743000</v>
+        <v>708000</v>
       </c>
       <c r="J62" s="3">
-        <v>854900</v>
+        <v>814700</v>
       </c>
       <c r="K62" s="3">
         <v>858000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4743300</v>
+        <v>4520300</v>
       </c>
       <c r="E66" s="3">
-        <v>5272400</v>
+        <v>5024500</v>
       </c>
       <c r="F66" s="3">
-        <v>5349200</v>
+        <v>5097700</v>
       </c>
       <c r="G66" s="3">
-        <v>5828300</v>
+        <v>5554300</v>
       </c>
       <c r="H66" s="3">
-        <v>6389100</v>
+        <v>6088700</v>
       </c>
       <c r="I66" s="3">
-        <v>6373900</v>
+        <v>6074300</v>
       </c>
       <c r="J66" s="3">
-        <v>6960800</v>
+        <v>6633600</v>
       </c>
       <c r="K66" s="3">
         <v>7085100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4663400</v>
+        <v>4444200</v>
       </c>
       <c r="E72" s="3">
-        <v>4622600</v>
+        <v>4405300</v>
       </c>
       <c r="F72" s="3">
-        <v>4878400</v>
+        <v>4649100</v>
       </c>
       <c r="G72" s="3">
-        <v>4642100</v>
+        <v>4423900</v>
       </c>
       <c r="H72" s="3">
-        <v>4656300</v>
+        <v>4437400</v>
       </c>
       <c r="I72" s="3">
-        <v>4535400</v>
+        <v>4322200</v>
       </c>
       <c r="J72" s="3">
-        <v>4369700</v>
+        <v>4164300</v>
       </c>
       <c r="K72" s="3">
         <v>4004500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2444800</v>
+        <v>2329900</v>
       </c>
       <c r="E76" s="3">
-        <v>2513700</v>
+        <v>2395500</v>
       </c>
       <c r="F76" s="3">
-        <v>2858100</v>
+        <v>2723800</v>
       </c>
       <c r="G76" s="3">
-        <v>2871900</v>
+        <v>2736900</v>
       </c>
       <c r="H76" s="3">
-        <v>2886100</v>
+        <v>2750400</v>
       </c>
       <c r="I76" s="3">
-        <v>2764800</v>
+        <v>2634800</v>
       </c>
       <c r="J76" s="3">
-        <v>2599400</v>
+        <v>2477200</v>
       </c>
       <c r="K76" s="3">
         <v>2297100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>440900</v>
+        <v>420200</v>
       </c>
       <c r="E81" s="3">
-        <v>251200</v>
+        <v>239400</v>
       </c>
       <c r="F81" s="3">
-        <v>214400</v>
+        <v>204300</v>
       </c>
       <c r="G81" s="3">
-        <v>82300</v>
+        <v>78400</v>
       </c>
       <c r="H81" s="3">
-        <v>171500</v>
+        <v>163400</v>
       </c>
       <c r="I81" s="3">
-        <v>186100</v>
+        <v>177300</v>
       </c>
       <c r="J81" s="3">
-        <v>327600</v>
+        <v>312200</v>
       </c>
       <c r="K81" s="3">
         <v>378800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1020700</v>
+        <v>972700</v>
       </c>
       <c r="E83" s="3">
-        <v>1479300</v>
+        <v>1409800</v>
       </c>
       <c r="F83" s="3">
-        <v>925700</v>
+        <v>882200</v>
       </c>
       <c r="G83" s="3">
-        <v>1028900</v>
+        <v>980500</v>
       </c>
       <c r="H83" s="3">
-        <v>1079700</v>
+        <v>1029000</v>
       </c>
       <c r="I83" s="3">
-        <v>1016000</v>
+        <v>968200</v>
       </c>
       <c r="J83" s="3">
-        <v>975600</v>
+        <v>929700</v>
       </c>
       <c r="K83" s="3">
         <v>1007800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1438900</v>
+        <v>1371200</v>
       </c>
       <c r="E89" s="3">
-        <v>1421400</v>
+        <v>1354500</v>
       </c>
       <c r="F89" s="3">
-        <v>1210300</v>
+        <v>1153400</v>
       </c>
       <c r="G89" s="3">
-        <v>980700</v>
+        <v>934600</v>
       </c>
       <c r="H89" s="3">
-        <v>1255700</v>
+        <v>1196700</v>
       </c>
       <c r="I89" s="3">
-        <v>1155400</v>
+        <v>1101100</v>
       </c>
       <c r="J89" s="3">
-        <v>1224600</v>
+        <v>1167100</v>
       </c>
       <c r="K89" s="3">
         <v>1306100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-818000</v>
+        <v>-779600</v>
       </c>
       <c r="E91" s="3">
-        <v>-810700</v>
+        <v>-772600</v>
       </c>
       <c r="F91" s="3">
-        <v>-881900</v>
+        <v>-840400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1107600</v>
+        <v>-1055600</v>
       </c>
       <c r="H91" s="3">
-        <v>-799900</v>
+        <v>-762300</v>
       </c>
       <c r="I91" s="3">
-        <v>-806500</v>
+        <v>-768600</v>
       </c>
       <c r="J91" s="3">
-        <v>-739800</v>
+        <v>-705000</v>
       </c>
       <c r="K91" s="3">
         <v>-723300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-894400</v>
+        <v>-852300</v>
       </c>
       <c r="E94" s="3">
-        <v>-772500</v>
+        <v>-736200</v>
       </c>
       <c r="F94" s="3">
-        <v>-883600</v>
+        <v>-842100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1118000</v>
+        <v>-1065500</v>
       </c>
       <c r="H94" s="3">
-        <v>-792600</v>
+        <v>-755300</v>
       </c>
       <c r="I94" s="3">
-        <v>-790600</v>
+        <v>-753400</v>
       </c>
       <c r="J94" s="3">
-        <v>-705600</v>
+        <v>-672400</v>
       </c>
       <c r="K94" s="3">
         <v>191800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1205100</v>
+        <v>-1148500</v>
       </c>
       <c r="E100" s="3">
-        <v>-678800</v>
+        <v>-646900</v>
       </c>
       <c r="F100" s="3">
-        <v>-588000</v>
+        <v>-560400</v>
       </c>
       <c r="G100" s="3">
-        <v>-209600</v>
+        <v>-199700</v>
       </c>
       <c r="H100" s="3">
-        <v>-140100</v>
+        <v>-133600</v>
       </c>
       <c r="I100" s="3">
-        <v>-600400</v>
+        <v>-572100</v>
       </c>
       <c r="J100" s="3">
-        <v>-437900</v>
+        <v>-417300</v>
       </c>
       <c r="K100" s="3">
         <v>-1155800</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F101" s="3">
         <v>400</v>
       </c>
       <c r="G101" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="H101" s="3">
         <v>-700</v>
       </c>
       <c r="I101" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="J101" s="3">
         <v>-700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-664100</v>
+        <v>-632900</v>
       </c>
       <c r="E102" s="3">
-        <v>-32300</v>
+        <v>-30800</v>
       </c>
       <c r="F102" s="3">
-        <v>-260900</v>
+        <v>-248700</v>
       </c>
       <c r="G102" s="3">
-        <v>-352700</v>
+        <v>-336100</v>
       </c>
       <c r="H102" s="3">
-        <v>322300</v>
+        <v>307100</v>
       </c>
       <c r="I102" s="3">
-        <v>-229600</v>
+        <v>-218800</v>
       </c>
       <c r="J102" s="3">
-        <v>80400</v>
+        <v>76600</v>
       </c>
       <c r="K102" s="3">
         <v>338200</v>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3804500</v>
+        <v>3679600</v>
       </c>
       <c r="E8" s="3">
-        <v>3856000</v>
+        <v>3729400</v>
       </c>
       <c r="F8" s="3">
-        <v>4434600</v>
+        <v>4289100</v>
       </c>
       <c r="G8" s="3">
-        <v>4432500</v>
+        <v>4287100</v>
       </c>
       <c r="H8" s="3">
-        <v>4562400</v>
+        <v>4412600</v>
       </c>
       <c r="I8" s="3">
-        <v>4556300</v>
+        <v>4406800</v>
       </c>
       <c r="J8" s="3">
-        <v>4574400</v>
+        <v>4424300</v>
       </c>
       <c r="K8" s="3">
         <v>4849500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>192000</v>
+        <v>185700</v>
       </c>
       <c r="E9" s="3">
-        <v>163300</v>
+        <v>158000</v>
       </c>
       <c r="F9" s="3">
-        <v>175800</v>
+        <v>170000</v>
       </c>
       <c r="G9" s="3">
-        <v>190900</v>
+        <v>184600</v>
       </c>
       <c r="H9" s="3">
-        <v>208800</v>
+        <v>202000</v>
       </c>
       <c r="I9" s="3">
-        <v>192500</v>
+        <v>186200</v>
       </c>
       <c r="J9" s="3">
-        <v>151400</v>
+        <v>146400</v>
       </c>
       <c r="K9" s="3">
         <v>148100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3612400</v>
+        <v>3493900</v>
       </c>
       <c r="E10" s="3">
-        <v>3692600</v>
+        <v>3571500</v>
       </c>
       <c r="F10" s="3">
-        <v>4258800</v>
+        <v>4119100</v>
       </c>
       <c r="G10" s="3">
-        <v>4241700</v>
+        <v>4102500</v>
       </c>
       <c r="H10" s="3">
-        <v>4353500</v>
+        <v>4210600</v>
       </c>
       <c r="I10" s="3">
-        <v>4363800</v>
+        <v>4220600</v>
       </c>
       <c r="J10" s="3">
-        <v>4423000</v>
+        <v>4277800</v>
       </c>
       <c r="K10" s="3">
         <v>4701400</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-11400</v>
+        <v>-11100</v>
       </c>
       <c r="E14" s="3">
-        <v>48800</v>
+        <v>47200</v>
       </c>
       <c r="F14" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="G14" s="3">
-        <v>46500</v>
+        <v>44900</v>
       </c>
       <c r="H14" s="3">
-        <v>-21400</v>
+        <v>-20700</v>
       </c>
       <c r="I14" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>948100</v>
+        <v>916900</v>
       </c>
       <c r="E15" s="3">
-        <v>1331500</v>
+        <v>1287900</v>
       </c>
       <c r="F15" s="3">
-        <v>952000</v>
+        <v>920800</v>
       </c>
       <c r="G15" s="3">
-        <v>1025200</v>
+        <v>991600</v>
       </c>
       <c r="H15" s="3">
-        <v>1029000</v>
+        <v>995200</v>
       </c>
       <c r="I15" s="3">
-        <v>968200</v>
+        <v>936500</v>
       </c>
       <c r="J15" s="3">
-        <v>929700</v>
+        <v>899200</v>
       </c>
       <c r="K15" s="3">
         <v>1007800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3406200</v>
+        <v>3294400</v>
       </c>
       <c r="E17" s="3">
-        <v>3290600</v>
+        <v>3182600</v>
       </c>
       <c r="F17" s="3">
-        <v>3854000</v>
+        <v>3727500</v>
       </c>
       <c r="G17" s="3">
-        <v>3947200</v>
+        <v>3817700</v>
       </c>
       <c r="H17" s="3">
-        <v>4090800</v>
+        <v>3956600</v>
       </c>
       <c r="I17" s="3">
-        <v>4122900</v>
+        <v>3987600</v>
       </c>
       <c r="J17" s="3">
-        <v>3886700</v>
+        <v>3759100</v>
       </c>
       <c r="K17" s="3">
         <v>4448200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>398300</v>
+        <v>385200</v>
       </c>
       <c r="E18" s="3">
-        <v>565400</v>
+        <v>546800</v>
       </c>
       <c r="F18" s="3">
-        <v>580700</v>
+        <v>561600</v>
       </c>
       <c r="G18" s="3">
-        <v>485300</v>
+        <v>469400</v>
       </c>
       <c r="H18" s="3">
-        <v>471500</v>
+        <v>456000</v>
       </c>
       <c r="I18" s="3">
-        <v>433300</v>
+        <v>419100</v>
       </c>
       <c r="J18" s="3">
-        <v>687700</v>
+        <v>665200</v>
       </c>
       <c r="K18" s="3">
         <v>401300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="F20" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G20" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="H20" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I20" s="3">
-        <v>38200</v>
+        <v>36900</v>
       </c>
       <c r="J20" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="K20" s="3">
         <v>273100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1371800</v>
+        <v>1326000</v>
       </c>
       <c r="E21" s="3">
-        <v>2000400</v>
+        <v>1933700</v>
       </c>
       <c r="F21" s="3">
-        <v>1468000</v>
+        <v>1419200</v>
       </c>
       <c r="G21" s="3">
-        <v>1464300</v>
+        <v>1415500</v>
       </c>
       <c r="H21" s="3">
-        <v>1501200</v>
+        <v>1451200</v>
       </c>
       <c r="I21" s="3">
-        <v>1442700</v>
+        <v>1394700</v>
       </c>
       <c r="J21" s="3">
-        <v>1630800</v>
+        <v>1576600</v>
       </c>
       <c r="K21" s="3">
         <v>1678100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65600</v>
+        <v>63500</v>
       </c>
       <c r="E22" s="3">
-        <v>108300</v>
+        <v>104800</v>
       </c>
       <c r="F22" s="3">
-        <v>100500</v>
+        <v>97200</v>
       </c>
       <c r="G22" s="3">
-        <v>162400</v>
+        <v>157100</v>
       </c>
       <c r="H22" s="3">
-        <v>174400</v>
+        <v>168700</v>
       </c>
       <c r="I22" s="3">
-        <v>183800</v>
+        <v>177700</v>
       </c>
       <c r="J22" s="3">
-        <v>236600</v>
+        <v>228900</v>
       </c>
       <c r="K22" s="3">
         <v>297900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>330500</v>
+        <v>319600</v>
       </c>
       <c r="E23" s="3">
-        <v>477900</v>
+        <v>462300</v>
       </c>
       <c r="F23" s="3">
-        <v>482600</v>
+        <v>466800</v>
       </c>
       <c r="G23" s="3">
-        <v>318400</v>
+        <v>307900</v>
       </c>
       <c r="H23" s="3">
-        <v>294700</v>
+        <v>285000</v>
       </c>
       <c r="I23" s="3">
-        <v>287800</v>
+        <v>278300</v>
       </c>
       <c r="J23" s="3">
-        <v>461600</v>
+        <v>446400</v>
       </c>
       <c r="K23" s="3">
         <v>376600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53600</v>
+        <v>51800</v>
       </c>
       <c r="E24" s="3">
-        <v>107800</v>
+        <v>104200</v>
       </c>
       <c r="F24" s="3">
-        <v>193600</v>
+        <v>187200</v>
       </c>
       <c r="G24" s="3">
-        <v>172300</v>
+        <v>166700</v>
       </c>
       <c r="H24" s="3">
-        <v>196600</v>
+        <v>190100</v>
       </c>
       <c r="I24" s="3">
-        <v>137500</v>
+        <v>133000</v>
       </c>
       <c r="J24" s="3">
-        <v>144600</v>
+        <v>139900</v>
       </c>
       <c r="K24" s="3">
         <v>25000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>276900</v>
+        <v>267800</v>
       </c>
       <c r="E26" s="3">
-        <v>370200</v>
+        <v>358000</v>
       </c>
       <c r="F26" s="3">
-        <v>289100</v>
+        <v>279600</v>
       </c>
       <c r="G26" s="3">
-        <v>146000</v>
+        <v>141300</v>
       </c>
       <c r="H26" s="3">
-        <v>98100</v>
+        <v>94800</v>
       </c>
       <c r="I26" s="3">
-        <v>150200</v>
+        <v>145300</v>
       </c>
       <c r="J26" s="3">
-        <v>317000</v>
+        <v>306600</v>
       </c>
       <c r="K26" s="3">
         <v>351600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>258500</v>
+        <v>250000</v>
       </c>
       <c r="E27" s="3">
-        <v>559500</v>
+        <v>541200</v>
       </c>
       <c r="F27" s="3">
-        <v>299700</v>
+        <v>289800</v>
       </c>
       <c r="G27" s="3">
-        <v>197900</v>
+        <v>191400</v>
       </c>
       <c r="H27" s="3">
-        <v>163400</v>
+        <v>158100</v>
       </c>
       <c r="I27" s="3">
-        <v>177300</v>
+        <v>171500</v>
       </c>
       <c r="J27" s="3">
-        <v>312200</v>
+        <v>301900</v>
       </c>
       <c r="K27" s="3">
         <v>344300</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>161700</v>
+        <v>156400</v>
       </c>
       <c r="E29" s="3">
-        <v>-320100</v>
+        <v>-309600</v>
       </c>
       <c r="F29" s="3">
-        <v>-95400</v>
+        <v>-92200</v>
       </c>
       <c r="G29" s="3">
-        <v>-119400</v>
+        <v>-115500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>-20900</v>
+        <v>-20200</v>
       </c>
       <c r="F32" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G32" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="H32" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I32" s="3">
-        <v>-38200</v>
+        <v>-36900</v>
       </c>
       <c r="J32" s="3">
-        <v>-10500</v>
+        <v>-10200</v>
       </c>
       <c r="K32" s="3">
         <v>-273100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>420200</v>
+        <v>406400</v>
       </c>
       <c r="E33" s="3">
-        <v>239400</v>
+        <v>231600</v>
       </c>
       <c r="F33" s="3">
-        <v>204300</v>
+        <v>197600</v>
       </c>
       <c r="G33" s="3">
-        <v>78400</v>
+        <v>75900</v>
       </c>
       <c r="H33" s="3">
-        <v>163400</v>
+        <v>158100</v>
       </c>
       <c r="I33" s="3">
-        <v>177300</v>
+        <v>171500</v>
       </c>
       <c r="J33" s="3">
-        <v>312200</v>
+        <v>301900</v>
       </c>
       <c r="K33" s="3">
         <v>378800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>420200</v>
+        <v>406400</v>
       </c>
       <c r="E35" s="3">
-        <v>239400</v>
+        <v>231600</v>
       </c>
       <c r="F35" s="3">
-        <v>204300</v>
+        <v>197600</v>
       </c>
       <c r="G35" s="3">
-        <v>78400</v>
+        <v>75900</v>
       </c>
       <c r="H35" s="3">
-        <v>163400</v>
+        <v>158100</v>
       </c>
       <c r="I35" s="3">
-        <v>177300</v>
+        <v>171500</v>
       </c>
       <c r="J35" s="3">
-        <v>312200</v>
+        <v>301900</v>
       </c>
       <c r="K35" s="3">
         <v>378800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>602600</v>
+        <v>582800</v>
       </c>
       <c r="E41" s="3">
-        <v>1235500</v>
+        <v>1194900</v>
       </c>
       <c r="F41" s="3">
-        <v>1266300</v>
+        <v>1224700</v>
       </c>
       <c r="G41" s="3">
-        <v>1514900</v>
+        <v>1465200</v>
       </c>
       <c r="H41" s="3">
-        <v>1851000</v>
+        <v>1790300</v>
       </c>
       <c r="I41" s="3">
-        <v>1543900</v>
+        <v>1493200</v>
       </c>
       <c r="J41" s="3">
-        <v>1762700</v>
+        <v>1704800</v>
       </c>
       <c r="K41" s="3">
         <v>3455300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H42" s="3">
         <v>6300</v>
       </c>
-      <c r="E42" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F42" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>6500</v>
-      </c>
       <c r="I42" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="J42" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K42" s="3">
         <v>19700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>598500</v>
+        <v>578900</v>
       </c>
       <c r="E43" s="3">
-        <v>838700</v>
+        <v>811100</v>
       </c>
       <c r="F43" s="3">
-        <v>846100</v>
+        <v>818400</v>
       </c>
       <c r="G43" s="3">
-        <v>840200</v>
+        <v>812600</v>
       </c>
       <c r="H43" s="3">
-        <v>852800</v>
+        <v>824800</v>
       </c>
       <c r="I43" s="3">
-        <v>850600</v>
+        <v>822700</v>
       </c>
       <c r="J43" s="3">
-        <v>799600</v>
+        <v>773300</v>
       </c>
       <c r="K43" s="3">
         <v>1682600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>31400</v>
+        <v>30400</v>
       </c>
       <c r="E44" s="3">
-        <v>59900</v>
+        <v>57900</v>
       </c>
       <c r="F44" s="3">
-        <v>95700</v>
+        <v>92600</v>
       </c>
       <c r="G44" s="3">
-        <v>106600</v>
+        <v>103100</v>
       </c>
       <c r="H44" s="3">
-        <v>112000</v>
+        <v>108300</v>
       </c>
       <c r="I44" s="3">
-        <v>113500</v>
+        <v>109700</v>
       </c>
       <c r="J44" s="3">
-        <v>102600</v>
+        <v>99200</v>
       </c>
       <c r="K44" s="3">
         <v>232100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>111100</v>
+        <v>107500</v>
       </c>
       <c r="E45" s="3">
-        <v>167400</v>
+        <v>161900</v>
       </c>
       <c r="F45" s="3">
-        <v>193800</v>
+        <v>187400</v>
       </c>
       <c r="G45" s="3">
-        <v>307700</v>
+        <v>297600</v>
       </c>
       <c r="H45" s="3">
-        <v>363300</v>
+        <v>351400</v>
       </c>
       <c r="I45" s="3">
-        <v>297900</v>
+        <v>288100</v>
       </c>
       <c r="J45" s="3">
-        <v>242200</v>
+        <v>234300</v>
       </c>
       <c r="K45" s="3">
         <v>552000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1350000</v>
+        <v>1305700</v>
       </c>
       <c r="E46" s="3">
-        <v>2308100</v>
+        <v>2232300</v>
       </c>
       <c r="F46" s="3">
-        <v>2407900</v>
+        <v>2328900</v>
       </c>
       <c r="G46" s="3">
-        <v>2776300</v>
+        <v>2685200</v>
       </c>
       <c r="H46" s="3">
-        <v>3185600</v>
+        <v>3081100</v>
       </c>
       <c r="I46" s="3">
-        <v>2813800</v>
+        <v>2721500</v>
       </c>
       <c r="J46" s="3">
-        <v>2911400</v>
+        <v>2815900</v>
       </c>
       <c r="K46" s="3">
         <v>2983400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>113500</v>
+        <v>109700</v>
       </c>
       <c r="E47" s="3">
-        <v>146000</v>
+        <v>141300</v>
       </c>
       <c r="F47" s="3">
-        <v>191300</v>
+        <v>185100</v>
       </c>
       <c r="G47" s="3">
-        <v>96400</v>
+        <v>93300</v>
       </c>
       <c r="H47" s="3">
-        <v>100000</v>
+        <v>96800</v>
       </c>
       <c r="I47" s="3">
-        <v>103100</v>
+        <v>99700</v>
       </c>
       <c r="J47" s="3">
-        <v>122100</v>
+        <v>118100</v>
       </c>
       <c r="K47" s="3">
         <v>132800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2828300</v>
+        <v>2735500</v>
       </c>
       <c r="E48" s="3">
-        <v>3221900</v>
+        <v>3116200</v>
       </c>
       <c r="F48" s="3">
-        <v>3200000</v>
+        <v>3095000</v>
       </c>
       <c r="G48" s="3">
-        <v>3199800</v>
+        <v>3094800</v>
       </c>
       <c r="H48" s="3">
-        <v>3330000</v>
+        <v>3220800</v>
       </c>
       <c r="I48" s="3">
-        <v>3444600</v>
+        <v>3331500</v>
       </c>
       <c r="J48" s="3">
-        <v>3622800</v>
+        <v>3503900</v>
       </c>
       <c r="K48" s="3">
         <v>7844400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1337400</v>
+        <v>1293500</v>
       </c>
       <c r="E49" s="3">
-        <v>1317000</v>
+        <v>1273700</v>
       </c>
       <c r="F49" s="3">
-        <v>1549900</v>
+        <v>1499000</v>
       </c>
       <c r="G49" s="3">
-        <v>1721800</v>
+        <v>1665300</v>
       </c>
       <c r="H49" s="3">
-        <v>1737900</v>
+        <v>1680900</v>
       </c>
       <c r="I49" s="3">
-        <v>1847800</v>
+        <v>1787100</v>
       </c>
       <c r="J49" s="3">
-        <v>1925600</v>
+        <v>1862500</v>
       </c>
       <c r="K49" s="3">
         <v>2953200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1221100</v>
+        <v>1181000</v>
       </c>
       <c r="E52" s="3">
-        <v>427000</v>
+        <v>413000</v>
       </c>
       <c r="F52" s="3">
-        <v>472500</v>
+        <v>456900</v>
       </c>
       <c r="G52" s="3">
-        <v>496800</v>
+        <v>480500</v>
       </c>
       <c r="H52" s="3">
-        <v>485500</v>
+        <v>469600</v>
       </c>
       <c r="I52" s="3">
-        <v>499900</v>
+        <v>483500</v>
       </c>
       <c r="J52" s="3">
-        <v>528800</v>
+        <v>511500</v>
       </c>
       <c r="K52" s="3">
         <v>564500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6850200</v>
+        <v>6625400</v>
       </c>
       <c r="E54" s="3">
-        <v>7420100</v>
+        <v>7176600</v>
       </c>
       <c r="F54" s="3">
-        <v>7821500</v>
+        <v>7564900</v>
       </c>
       <c r="G54" s="3">
-        <v>8291200</v>
+        <v>8019100</v>
       </c>
       <c r="H54" s="3">
-        <v>8839200</v>
+        <v>8549100</v>
       </c>
       <c r="I54" s="3">
-        <v>8709100</v>
+        <v>8423300</v>
       </c>
       <c r="J54" s="3">
-        <v>9110800</v>
+        <v>8811800</v>
       </c>
       <c r="K54" s="3">
         <v>9382200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>840300</v>
+        <v>812700</v>
       </c>
       <c r="E57" s="3">
-        <v>1092700</v>
+        <v>1056800</v>
       </c>
       <c r="F57" s="3">
-        <v>1207100</v>
+        <v>1167500</v>
       </c>
       <c r="G57" s="3">
-        <v>1357000</v>
+        <v>1312500</v>
       </c>
       <c r="H57" s="3">
-        <v>1592500</v>
+        <v>1540200</v>
       </c>
       <c r="I57" s="3">
-        <v>1403800</v>
+        <v>1357700</v>
       </c>
       <c r="J57" s="3">
-        <v>1138300</v>
+        <v>1101000</v>
       </c>
       <c r="K57" s="3">
         <v>1104900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>338800</v>
+        <v>327700</v>
       </c>
       <c r="E58" s="3">
-        <v>909800</v>
+        <v>879900</v>
       </c>
       <c r="F58" s="3">
-        <v>639700</v>
+        <v>618700</v>
       </c>
       <c r="G58" s="3">
-        <v>892500</v>
+        <v>863200</v>
       </c>
       <c r="H58" s="3">
-        <v>214900</v>
+        <v>207900</v>
       </c>
       <c r="I58" s="3">
-        <v>506100</v>
+        <v>489500</v>
       </c>
       <c r="J58" s="3">
-        <v>543300</v>
+        <v>525500</v>
       </c>
       <c r="K58" s="3">
         <v>478400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>868100</v>
+        <v>839600</v>
       </c>
       <c r="E59" s="3">
-        <v>820800</v>
+        <v>793900</v>
       </c>
       <c r="F59" s="3">
-        <v>880000</v>
+        <v>851100</v>
       </c>
       <c r="G59" s="3">
-        <v>927000</v>
+        <v>896600</v>
       </c>
       <c r="H59" s="3">
-        <v>1041300</v>
+        <v>1007200</v>
       </c>
       <c r="I59" s="3">
-        <v>995700</v>
+        <v>963000</v>
       </c>
       <c r="J59" s="3">
-        <v>1160900</v>
+        <v>1122800</v>
       </c>
       <c r="K59" s="3">
         <v>1296700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2047200</v>
+        <v>1980000</v>
       </c>
       <c r="E60" s="3">
-        <v>2823300</v>
+        <v>2730600</v>
       </c>
       <c r="F60" s="3">
-        <v>2726800</v>
+        <v>2637400</v>
       </c>
       <c r="G60" s="3">
-        <v>3176500</v>
+        <v>3072300</v>
       </c>
       <c r="H60" s="3">
-        <v>2848700</v>
+        <v>2755200</v>
       </c>
       <c r="I60" s="3">
-        <v>2905600</v>
+        <v>2810200</v>
       </c>
       <c r="J60" s="3">
-        <v>2842500</v>
+        <v>2749200</v>
       </c>
       <c r="K60" s="3">
         <v>2880000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1477200</v>
+        <v>1428800</v>
       </c>
       <c r="E61" s="3">
-        <v>1553700</v>
+        <v>1502700</v>
       </c>
       <c r="F61" s="3">
-        <v>1495000</v>
+        <v>1445900</v>
       </c>
       <c r="G61" s="3">
-        <v>1489800</v>
+        <v>1441000</v>
       </c>
       <c r="H61" s="3">
-        <v>2265900</v>
+        <v>2191600</v>
       </c>
       <c r="I61" s="3">
-        <v>2049500</v>
+        <v>1982200</v>
       </c>
       <c r="J61" s="3">
-        <v>2536900</v>
+        <v>2453600</v>
       </c>
       <c r="K61" s="3">
         <v>3058100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>464500</v>
+        <v>449300</v>
       </c>
       <c r="E62" s="3">
-        <v>494500</v>
+        <v>478300</v>
       </c>
       <c r="F62" s="3">
-        <v>548800</v>
+        <v>530800</v>
       </c>
       <c r="G62" s="3">
-        <v>601900</v>
+        <v>582200</v>
       </c>
       <c r="H62" s="3">
-        <v>628900</v>
+        <v>608200</v>
       </c>
       <c r="I62" s="3">
-        <v>708000</v>
+        <v>684800</v>
       </c>
       <c r="J62" s="3">
-        <v>814700</v>
+        <v>788000</v>
       </c>
       <c r="K62" s="3">
         <v>858000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4520300</v>
+        <v>4372000</v>
       </c>
       <c r="E66" s="3">
-        <v>5024500</v>
+        <v>4859600</v>
       </c>
       <c r="F66" s="3">
-        <v>5097700</v>
+        <v>4930400</v>
       </c>
       <c r="G66" s="3">
-        <v>5554300</v>
+        <v>5372000</v>
       </c>
       <c r="H66" s="3">
-        <v>6088700</v>
+        <v>5888900</v>
       </c>
       <c r="I66" s="3">
-        <v>6074300</v>
+        <v>5874900</v>
       </c>
       <c r="J66" s="3">
-        <v>6633600</v>
+        <v>6415900</v>
       </c>
       <c r="K66" s="3">
         <v>7085100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4444200</v>
+        <v>4298400</v>
       </c>
       <c r="E72" s="3">
-        <v>4405300</v>
+        <v>4260800</v>
       </c>
       <c r="F72" s="3">
-        <v>4649100</v>
+        <v>4496500</v>
       </c>
       <c r="G72" s="3">
-        <v>4423900</v>
+        <v>4278700</v>
       </c>
       <c r="H72" s="3">
-        <v>4437400</v>
+        <v>4291800</v>
       </c>
       <c r="I72" s="3">
-        <v>4322200</v>
+        <v>4180400</v>
       </c>
       <c r="J72" s="3">
-        <v>4164300</v>
+        <v>4027600</v>
       </c>
       <c r="K72" s="3">
         <v>4004500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2329900</v>
+        <v>2253500</v>
       </c>
       <c r="E76" s="3">
-        <v>2395500</v>
+        <v>2316900</v>
       </c>
       <c r="F76" s="3">
-        <v>2723800</v>
+        <v>2634400</v>
       </c>
       <c r="G76" s="3">
-        <v>2736900</v>
+        <v>2647100</v>
       </c>
       <c r="H76" s="3">
-        <v>2750400</v>
+        <v>2660200</v>
       </c>
       <c r="I76" s="3">
-        <v>2634800</v>
+        <v>2548400</v>
       </c>
       <c r="J76" s="3">
-        <v>2477200</v>
+        <v>2396000</v>
       </c>
       <c r="K76" s="3">
         <v>2297100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>420200</v>
+        <v>406400</v>
       </c>
       <c r="E81" s="3">
-        <v>239400</v>
+        <v>231600</v>
       </c>
       <c r="F81" s="3">
-        <v>204300</v>
+        <v>197600</v>
       </c>
       <c r="G81" s="3">
-        <v>78400</v>
+        <v>75900</v>
       </c>
       <c r="H81" s="3">
-        <v>163400</v>
+        <v>158100</v>
       </c>
       <c r="I81" s="3">
-        <v>177300</v>
+        <v>171500</v>
       </c>
       <c r="J81" s="3">
-        <v>312200</v>
+        <v>301900</v>
       </c>
       <c r="K81" s="3">
         <v>378800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>972700</v>
+        <v>940800</v>
       </c>
       <c r="E83" s="3">
-        <v>1409800</v>
+        <v>1363500</v>
       </c>
       <c r="F83" s="3">
-        <v>882200</v>
+        <v>853300</v>
       </c>
       <c r="G83" s="3">
-        <v>980500</v>
+        <v>948300</v>
       </c>
       <c r="H83" s="3">
-        <v>1029000</v>
+        <v>995200</v>
       </c>
       <c r="I83" s="3">
-        <v>968200</v>
+        <v>936500</v>
       </c>
       <c r="J83" s="3">
-        <v>929700</v>
+        <v>899200</v>
       </c>
       <c r="K83" s="3">
         <v>1007800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1371200</v>
+        <v>1326200</v>
       </c>
       <c r="E89" s="3">
-        <v>1354500</v>
+        <v>1310100</v>
       </c>
       <c r="F89" s="3">
-        <v>1153400</v>
+        <v>1115600</v>
       </c>
       <c r="G89" s="3">
-        <v>934600</v>
+        <v>904000</v>
       </c>
       <c r="H89" s="3">
-        <v>1196700</v>
+        <v>1157400</v>
       </c>
       <c r="I89" s="3">
-        <v>1101100</v>
+        <v>1065000</v>
       </c>
       <c r="J89" s="3">
-        <v>1167100</v>
+        <v>1128800</v>
       </c>
       <c r="K89" s="3">
         <v>1306100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-779600</v>
+        <v>-754000</v>
       </c>
       <c r="E91" s="3">
-        <v>-772600</v>
+        <v>-747200</v>
       </c>
       <c r="F91" s="3">
-        <v>-840400</v>
+        <v>-812800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1055600</v>
+        <v>-1020900</v>
       </c>
       <c r="H91" s="3">
-        <v>-762300</v>
+        <v>-737300</v>
       </c>
       <c r="I91" s="3">
-        <v>-768600</v>
+        <v>-743400</v>
       </c>
       <c r="J91" s="3">
-        <v>-705000</v>
+        <v>-681900</v>
       </c>
       <c r="K91" s="3">
         <v>-723300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-852300</v>
+        <v>-824400</v>
       </c>
       <c r="E94" s="3">
-        <v>-736200</v>
+        <v>-712000</v>
       </c>
       <c r="F94" s="3">
-        <v>-842100</v>
+        <v>-814400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1065500</v>
+        <v>-1030500</v>
       </c>
       <c r="H94" s="3">
-        <v>-755300</v>
+        <v>-730500</v>
       </c>
       <c r="I94" s="3">
-        <v>-753400</v>
+        <v>-728700</v>
       </c>
       <c r="J94" s="3">
-        <v>-672400</v>
+        <v>-650400</v>
       </c>
       <c r="K94" s="3">
         <v>191800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1148500</v>
+        <v>-1110800</v>
       </c>
       <c r="E100" s="3">
-        <v>-646900</v>
+        <v>-625600</v>
       </c>
       <c r="F100" s="3">
-        <v>-560400</v>
+        <v>-542000</v>
       </c>
       <c r="G100" s="3">
-        <v>-199700</v>
+        <v>-193200</v>
       </c>
       <c r="H100" s="3">
-        <v>-133600</v>
+        <v>-129200</v>
       </c>
       <c r="I100" s="3">
-        <v>-572100</v>
+        <v>-553400</v>
       </c>
       <c r="J100" s="3">
-        <v>-417300</v>
+        <v>-403700</v>
       </c>
       <c r="K100" s="3">
         <v>-1155800</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="E101" s="3">
         <v>-2300</v>
       </c>
       <c r="F101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="H101" s="3">
         <v>-700</v>
       </c>
       <c r="I101" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="J101" s="3">
         <v>-700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-632900</v>
+        <v>-612100</v>
       </c>
       <c r="E102" s="3">
-        <v>-30800</v>
+        <v>-29800</v>
       </c>
       <c r="F102" s="3">
-        <v>-248700</v>
+        <v>-240500</v>
       </c>
       <c r="G102" s="3">
-        <v>-336100</v>
+        <v>-325100</v>
       </c>
       <c r="H102" s="3">
-        <v>307100</v>
+        <v>297100</v>
       </c>
       <c r="I102" s="3">
-        <v>-218800</v>
+        <v>-211600</v>
       </c>
       <c r="J102" s="3">
-        <v>76600</v>
+        <v>74100</v>
       </c>
       <c r="K102" s="3">
         <v>338200</v>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>HLTOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3679600</v>
+        <v>3674500</v>
       </c>
       <c r="E8" s="3">
-        <v>3729400</v>
+        <v>3555200</v>
       </c>
       <c r="F8" s="3">
-        <v>4289100</v>
+        <v>3603300</v>
       </c>
       <c r="G8" s="3">
-        <v>4287100</v>
+        <v>4144000</v>
       </c>
       <c r="H8" s="3">
-        <v>4412600</v>
+        <v>4142100</v>
       </c>
       <c r="I8" s="3">
-        <v>4406800</v>
+        <v>4263400</v>
       </c>
       <c r="J8" s="3">
+        <v>4257700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4424300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4849500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4754700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5914000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>185700</v>
+        <v>193700</v>
       </c>
       <c r="E9" s="3">
-        <v>158000</v>
+        <v>179500</v>
       </c>
       <c r="F9" s="3">
-        <v>170000</v>
+        <v>152600</v>
       </c>
       <c r="G9" s="3">
-        <v>184600</v>
+        <v>164300</v>
       </c>
       <c r="H9" s="3">
-        <v>202000</v>
+        <v>178400</v>
       </c>
       <c r="I9" s="3">
-        <v>186200</v>
+        <v>195200</v>
       </c>
       <c r="J9" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K9" s="3">
         <v>146400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>148100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1009900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1272100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3493900</v>
+        <v>3480800</v>
       </c>
       <c r="E10" s="3">
-        <v>3571500</v>
+        <v>3375700</v>
       </c>
       <c r="F10" s="3">
-        <v>4119100</v>
+        <v>3450700</v>
       </c>
       <c r="G10" s="3">
-        <v>4102500</v>
+        <v>3979700</v>
       </c>
       <c r="H10" s="3">
-        <v>4210600</v>
+        <v>3963700</v>
       </c>
       <c r="I10" s="3">
-        <v>4220600</v>
+        <v>4068200</v>
       </c>
       <c r="J10" s="3">
+        <v>4077800</v>
+      </c>
+      <c r="K10" s="3">
         <v>4277800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4701400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3744700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4641900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-11100</v>
+        <v>55000</v>
       </c>
       <c r="E14" s="3">
-        <v>47200</v>
+        <v>-10700</v>
       </c>
       <c r="F14" s="3">
-        <v>-2500</v>
+        <v>45600</v>
       </c>
       <c r="G14" s="3">
-        <v>44900</v>
+        <v>-2400</v>
       </c>
       <c r="H14" s="3">
-        <v>-20700</v>
+        <v>43400</v>
       </c>
       <c r="I14" s="3">
-        <v>22500</v>
+        <v>-20000</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>21700</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>916900</v>
+        <v>728300</v>
       </c>
       <c r="E15" s="3">
-        <v>1287900</v>
+        <v>885900</v>
       </c>
       <c r="F15" s="3">
-        <v>920800</v>
+        <v>1244300</v>
       </c>
       <c r="G15" s="3">
-        <v>991600</v>
+        <v>889600</v>
       </c>
       <c r="H15" s="3">
-        <v>995200</v>
+        <v>958000</v>
       </c>
       <c r="I15" s="3">
-        <v>936500</v>
+        <v>961500</v>
       </c>
       <c r="J15" s="3">
+        <v>904800</v>
+      </c>
+      <c r="K15" s="3">
         <v>899200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1007800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>898600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1537900</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3294400</v>
+        <v>2843300</v>
       </c>
       <c r="E17" s="3">
-        <v>3182600</v>
+        <v>3182900</v>
       </c>
       <c r="F17" s="3">
-        <v>3727500</v>
+        <v>3074900</v>
       </c>
       <c r="G17" s="3">
-        <v>3817700</v>
+        <v>3601400</v>
       </c>
       <c r="H17" s="3">
-        <v>3956600</v>
+        <v>3688600</v>
       </c>
       <c r="I17" s="3">
-        <v>3987600</v>
+        <v>3822800</v>
       </c>
       <c r="J17" s="3">
+        <v>3852800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3759100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4448200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4123900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>385200</v>
+        <v>831200</v>
       </c>
       <c r="E18" s="3">
-        <v>546800</v>
+        <v>372200</v>
       </c>
       <c r="F18" s="3">
-        <v>561600</v>
+        <v>528300</v>
       </c>
       <c r="G18" s="3">
-        <v>469400</v>
+        <v>542600</v>
       </c>
       <c r="H18" s="3">
-        <v>456000</v>
+        <v>453500</v>
       </c>
       <c r="I18" s="3">
-        <v>419100</v>
+        <v>440600</v>
       </c>
       <c r="J18" s="3">
+        <v>404900</v>
+      </c>
+      <c r="K18" s="3">
         <v>665200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>401300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>630800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>413900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
-        <v>20200</v>
-      </c>
       <c r="F20" s="3">
-        <v>2400</v>
+        <v>19500</v>
       </c>
       <c r="G20" s="3">
-        <v>-4400</v>
+        <v>2300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2400</v>
+        <v>-4300</v>
       </c>
       <c r="I20" s="3">
-        <v>36900</v>
+        <v>-2300</v>
       </c>
       <c r="J20" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K20" s="3">
         <v>10200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>273100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>265800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>61700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1326000</v>
+        <v>1573300</v>
       </c>
       <c r="E21" s="3">
-        <v>1933700</v>
+        <v>1292900</v>
       </c>
       <c r="F21" s="3">
-        <v>1419200</v>
+        <v>1885300</v>
       </c>
       <c r="G21" s="3">
-        <v>1415500</v>
+        <v>1381900</v>
       </c>
       <c r="H21" s="3">
-        <v>1451200</v>
+        <v>1379400</v>
       </c>
       <c r="I21" s="3">
-        <v>1394700</v>
+        <v>1414500</v>
       </c>
       <c r="J21" s="3">
+        <v>1359200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1576600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1678100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1796600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2014600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>63500</v>
+        <v>49100</v>
       </c>
       <c r="E22" s="3">
-        <v>104800</v>
+        <v>61300</v>
       </c>
       <c r="F22" s="3">
-        <v>97200</v>
+        <v>101200</v>
       </c>
       <c r="G22" s="3">
-        <v>157100</v>
+        <v>93900</v>
       </c>
       <c r="H22" s="3">
-        <v>168700</v>
+        <v>151700</v>
       </c>
       <c r="I22" s="3">
-        <v>177700</v>
+        <v>163000</v>
       </c>
       <c r="J22" s="3">
+        <v>171700</v>
+      </c>
+      <c r="K22" s="3">
         <v>228900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>297900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>271500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>340500</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>319600</v>
+        <v>784800</v>
       </c>
       <c r="E23" s="3">
-        <v>462300</v>
+        <v>308800</v>
       </c>
       <c r="F23" s="3">
-        <v>466800</v>
+        <v>446600</v>
       </c>
       <c r="G23" s="3">
-        <v>307900</v>
+        <v>451000</v>
       </c>
       <c r="H23" s="3">
-        <v>285000</v>
+        <v>297500</v>
       </c>
       <c r="I23" s="3">
-        <v>278300</v>
+        <v>275300</v>
       </c>
       <c r="J23" s="3">
+        <v>268900</v>
+      </c>
+      <c r="K23" s="3">
         <v>446400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>376600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>625100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>135100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51800</v>
+        <v>254800</v>
       </c>
       <c r="E24" s="3">
-        <v>104200</v>
+        <v>50100</v>
       </c>
       <c r="F24" s="3">
-        <v>187200</v>
+        <v>100700</v>
       </c>
       <c r="G24" s="3">
-        <v>166700</v>
+        <v>180900</v>
       </c>
       <c r="H24" s="3">
-        <v>190100</v>
+        <v>161000</v>
       </c>
       <c r="I24" s="3">
-        <v>133000</v>
+        <v>183700</v>
       </c>
       <c r="J24" s="3">
+        <v>128500</v>
+      </c>
+      <c r="K24" s="3">
         <v>139900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>114100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>151100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>267800</v>
+        <v>530000</v>
       </c>
       <c r="E26" s="3">
-        <v>358000</v>
+        <v>258800</v>
       </c>
       <c r="F26" s="3">
-        <v>279600</v>
+        <v>345900</v>
       </c>
       <c r="G26" s="3">
-        <v>141300</v>
+        <v>270100</v>
       </c>
       <c r="H26" s="3">
-        <v>94800</v>
+        <v>136500</v>
       </c>
       <c r="I26" s="3">
-        <v>145300</v>
+        <v>91600</v>
       </c>
       <c r="J26" s="3">
+        <v>140400</v>
+      </c>
+      <c r="K26" s="3">
         <v>306600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>351600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>511000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>250000</v>
+        <v>494900</v>
       </c>
       <c r="E27" s="3">
-        <v>541200</v>
+        <v>241500</v>
       </c>
       <c r="F27" s="3">
-        <v>289800</v>
+        <v>522900</v>
       </c>
       <c r="G27" s="3">
-        <v>191400</v>
+        <v>280000</v>
       </c>
       <c r="H27" s="3">
-        <v>158100</v>
+        <v>184900</v>
       </c>
       <c r="I27" s="3">
-        <v>171500</v>
+        <v>152700</v>
       </c>
       <c r="J27" s="3">
+        <v>165700</v>
+      </c>
+      <c r="K27" s="3">
         <v>301900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>344300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>483300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>140500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>156400</v>
+        <v>113300</v>
       </c>
       <c r="E29" s="3">
-        <v>-309600</v>
+        <v>151100</v>
       </c>
       <c r="F29" s="3">
-        <v>-92200</v>
+        <v>-299100</v>
       </c>
       <c r="G29" s="3">
-        <v>-115500</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>-89100</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-111600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>34600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>34800</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-20200</v>
-      </c>
       <c r="F32" s="3">
-        <v>-2400</v>
+        <v>-19500</v>
       </c>
       <c r="G32" s="3">
-        <v>4400</v>
+        <v>-2300</v>
       </c>
       <c r="H32" s="3">
-        <v>2400</v>
+        <v>4300</v>
       </c>
       <c r="I32" s="3">
-        <v>-36900</v>
+        <v>2300</v>
       </c>
       <c r="J32" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-273100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-265800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-61700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>406400</v>
+        <v>608300</v>
       </c>
       <c r="E33" s="3">
-        <v>231600</v>
+        <v>392600</v>
       </c>
       <c r="F33" s="3">
-        <v>197600</v>
+        <v>223700</v>
       </c>
       <c r="G33" s="3">
-        <v>75900</v>
+        <v>190900</v>
       </c>
       <c r="H33" s="3">
-        <v>158100</v>
+        <v>73300</v>
       </c>
       <c r="I33" s="3">
-        <v>171500</v>
+        <v>152700</v>
       </c>
       <c r="J33" s="3">
+        <v>165700</v>
+      </c>
+      <c r="K33" s="3">
         <v>301900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>378800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>518100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>140500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>406400</v>
+        <v>608300</v>
       </c>
       <c r="E35" s="3">
-        <v>231600</v>
+        <v>392600</v>
       </c>
       <c r="F35" s="3">
-        <v>197600</v>
+        <v>223700</v>
       </c>
       <c r="G35" s="3">
-        <v>75900</v>
+        <v>190900</v>
       </c>
       <c r="H35" s="3">
-        <v>158100</v>
+        <v>73300</v>
       </c>
       <c r="I35" s="3">
-        <v>171500</v>
+        <v>152700</v>
       </c>
       <c r="J35" s="3">
+        <v>165700</v>
+      </c>
+      <c r="K35" s="3">
         <v>301900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>378800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>518100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>140500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>582800</v>
+        <v>688000</v>
       </c>
       <c r="E41" s="3">
-        <v>1194900</v>
+        <v>563100</v>
       </c>
       <c r="F41" s="3">
-        <v>1224700</v>
+        <v>1154500</v>
       </c>
       <c r="G41" s="3">
-        <v>1465200</v>
+        <v>1183300</v>
       </c>
       <c r="H41" s="3">
-        <v>1790300</v>
+        <v>1415700</v>
       </c>
       <c r="I41" s="3">
-        <v>1493200</v>
+        <v>1729700</v>
       </c>
       <c r="J41" s="3">
+        <v>1442700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1704800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3455300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1278500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,287 +1866,311 @@
         <v>6100</v>
       </c>
       <c r="E42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H42" s="3">
         <v>6400</v>
       </c>
-      <c r="F42" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>6300</v>
-      </c>
       <c r="I42" s="3">
-        <v>7700</v>
+        <v>6100</v>
       </c>
       <c r="J42" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K42" s="3">
         <v>4200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1286700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1212500</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>578900</v>
+        <v>657700</v>
       </c>
       <c r="E43" s="3">
-        <v>811100</v>
+        <v>559300</v>
       </c>
       <c r="F43" s="3">
-        <v>818400</v>
+        <v>783700</v>
       </c>
       <c r="G43" s="3">
-        <v>812600</v>
+        <v>790700</v>
       </c>
       <c r="H43" s="3">
-        <v>824800</v>
+        <v>785100</v>
       </c>
       <c r="I43" s="3">
-        <v>822700</v>
+        <v>796900</v>
       </c>
       <c r="J43" s="3">
+        <v>794800</v>
+      </c>
+      <c r="K43" s="3">
         <v>773300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1682600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1007700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1203500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30400</v>
+        <v>41500</v>
       </c>
       <c r="E44" s="3">
-        <v>57900</v>
+        <v>29300</v>
       </c>
       <c r="F44" s="3">
-        <v>92600</v>
+        <v>56000</v>
       </c>
       <c r="G44" s="3">
-        <v>103100</v>
+        <v>89500</v>
       </c>
       <c r="H44" s="3">
-        <v>108300</v>
+        <v>99600</v>
       </c>
       <c r="I44" s="3">
-        <v>109700</v>
+        <v>104600</v>
       </c>
       <c r="J44" s="3">
+        <v>106000</v>
+      </c>
+      <c r="K44" s="3">
         <v>99200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>232100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>244600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>146700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>107500</v>
+        <v>125200</v>
       </c>
       <c r="E45" s="3">
-        <v>161900</v>
+        <v>103900</v>
       </c>
       <c r="F45" s="3">
-        <v>187400</v>
+        <v>156400</v>
       </c>
       <c r="G45" s="3">
-        <v>297600</v>
+        <v>181100</v>
       </c>
       <c r="H45" s="3">
-        <v>351400</v>
+        <v>287600</v>
       </c>
       <c r="I45" s="3">
-        <v>288100</v>
+        <v>339500</v>
       </c>
       <c r="J45" s="3">
+        <v>278400</v>
+      </c>
+      <c r="K45" s="3">
         <v>234300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>552000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>497900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>136600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1305700</v>
+        <v>1518500</v>
       </c>
       <c r="E46" s="3">
-        <v>2232300</v>
+        <v>1261500</v>
       </c>
       <c r="F46" s="3">
-        <v>2328900</v>
+        <v>2156800</v>
       </c>
       <c r="G46" s="3">
-        <v>2685200</v>
+        <v>2250100</v>
       </c>
       <c r="H46" s="3">
-        <v>3081100</v>
+        <v>2594400</v>
       </c>
       <c r="I46" s="3">
-        <v>2721500</v>
+        <v>2976900</v>
       </c>
       <c r="J46" s="3">
+        <v>2629400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2815900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2983400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2614700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2704000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>109700</v>
+        <v>101600</v>
       </c>
       <c r="E47" s="3">
-        <v>141300</v>
+        <v>106000</v>
       </c>
       <c r="F47" s="3">
-        <v>185100</v>
+        <v>136500</v>
       </c>
       <c r="G47" s="3">
-        <v>93300</v>
+        <v>178800</v>
       </c>
       <c r="H47" s="3">
-        <v>96800</v>
+        <v>90100</v>
       </c>
       <c r="I47" s="3">
-        <v>99700</v>
+        <v>93500</v>
       </c>
       <c r="J47" s="3">
+        <v>96300</v>
+      </c>
+      <c r="K47" s="3">
         <v>118100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>132800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>243500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>169600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2735500</v>
+        <v>2558200</v>
       </c>
       <c r="E48" s="3">
-        <v>3116200</v>
+        <v>2642900</v>
       </c>
       <c r="F48" s="3">
-        <v>3095000</v>
+        <v>3010800</v>
       </c>
       <c r="G48" s="3">
-        <v>3094800</v>
+        <v>2990300</v>
       </c>
       <c r="H48" s="3">
-        <v>3220800</v>
+        <v>2990100</v>
       </c>
       <c r="I48" s="3">
-        <v>3331500</v>
+        <v>3111800</v>
       </c>
       <c r="J48" s="3">
+        <v>3218800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3503900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7844400</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5080200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1293500</v>
+        <v>1214400</v>
       </c>
       <c r="E49" s="3">
-        <v>1273700</v>
+        <v>1249700</v>
       </c>
       <c r="F49" s="3">
-        <v>1499000</v>
+        <v>1230700</v>
       </c>
       <c r="G49" s="3">
-        <v>1665300</v>
+        <v>1448300</v>
       </c>
       <c r="H49" s="3">
-        <v>1680900</v>
+        <v>1609000</v>
       </c>
       <c r="I49" s="3">
-        <v>1787100</v>
+        <v>1624000</v>
       </c>
       <c r="J49" s="3">
+        <v>1726700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1862500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2953200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3338100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1767200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1181000</v>
+        <v>298600</v>
       </c>
       <c r="E52" s="3">
-        <v>413000</v>
+        <v>1141100</v>
       </c>
       <c r="F52" s="3">
-        <v>456900</v>
+        <v>399100</v>
       </c>
       <c r="G52" s="3">
-        <v>480500</v>
+        <v>441500</v>
       </c>
       <c r="H52" s="3">
-        <v>469600</v>
+        <v>464300</v>
       </c>
       <c r="I52" s="3">
-        <v>483500</v>
+        <v>453700</v>
       </c>
       <c r="J52" s="3">
+        <v>467100</v>
+      </c>
+      <c r="K52" s="3">
         <v>511500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>564500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>676100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>950000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6625400</v>
+        <v>5691300</v>
       </c>
       <c r="E54" s="3">
-        <v>7176600</v>
+        <v>6401400</v>
       </c>
       <c r="F54" s="3">
-        <v>7564900</v>
+        <v>6933800</v>
       </c>
       <c r="G54" s="3">
-        <v>8019100</v>
+        <v>7309000</v>
       </c>
       <c r="H54" s="3">
-        <v>8549100</v>
+        <v>7747900</v>
       </c>
       <c r="I54" s="3">
-        <v>8423300</v>
+        <v>8259900</v>
       </c>
       <c r="J54" s="3">
+        <v>8138400</v>
+      </c>
+      <c r="K54" s="3">
         <v>8811800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9382200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9185900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10671000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>812700</v>
+        <v>892900</v>
       </c>
       <c r="E57" s="3">
-        <v>1056800</v>
+        <v>785200</v>
       </c>
       <c r="F57" s="3">
-        <v>1167500</v>
+        <v>1021100</v>
       </c>
       <c r="G57" s="3">
-        <v>1312500</v>
+        <v>1128000</v>
       </c>
       <c r="H57" s="3">
-        <v>1540200</v>
+        <v>1268100</v>
       </c>
       <c r="I57" s="3">
-        <v>1357700</v>
+        <v>1488100</v>
       </c>
       <c r="J57" s="3">
+        <v>1311800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1101000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1104900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>861400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>879900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>327700</v>
+        <v>511600</v>
       </c>
       <c r="E58" s="3">
-        <v>879900</v>
+        <v>316600</v>
       </c>
       <c r="F58" s="3">
-        <v>618700</v>
+        <v>850100</v>
       </c>
       <c r="G58" s="3">
-        <v>863200</v>
+        <v>597800</v>
       </c>
       <c r="H58" s="3">
-        <v>207900</v>
+        <v>834000</v>
       </c>
       <c r="I58" s="3">
-        <v>489500</v>
+        <v>200800</v>
       </c>
       <c r="J58" s="3">
+        <v>472900</v>
+      </c>
+      <c r="K58" s="3">
         <v>525500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>478400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1554300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>895500</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>839600</v>
+        <v>709400</v>
       </c>
       <c r="E59" s="3">
-        <v>793900</v>
+        <v>811200</v>
       </c>
       <c r="F59" s="3">
-        <v>851100</v>
+        <v>767000</v>
       </c>
       <c r="G59" s="3">
-        <v>896600</v>
+        <v>822300</v>
       </c>
       <c r="H59" s="3">
-        <v>1007200</v>
+        <v>866300</v>
       </c>
       <c r="I59" s="3">
-        <v>963000</v>
+        <v>973100</v>
       </c>
       <c r="J59" s="3">
+        <v>930400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1122800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1296700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1550400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1110200</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1980000</v>
+        <v>2114000</v>
       </c>
       <c r="E60" s="3">
-        <v>2730600</v>
+        <v>1913000</v>
       </c>
       <c r="F60" s="3">
-        <v>2637400</v>
+        <v>2638300</v>
       </c>
       <c r="G60" s="3">
-        <v>3072300</v>
+        <v>2548100</v>
       </c>
       <c r="H60" s="3">
-        <v>2755200</v>
+        <v>2968400</v>
       </c>
       <c r="I60" s="3">
-        <v>2810200</v>
+        <v>2662000</v>
       </c>
       <c r="J60" s="3">
+        <v>2715200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2749200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2880000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3367700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2885600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1428800</v>
+        <v>1028600</v>
       </c>
       <c r="E61" s="3">
-        <v>1502700</v>
+        <v>1380400</v>
       </c>
       <c r="F61" s="3">
-        <v>1445900</v>
+        <v>1451900</v>
       </c>
       <c r="G61" s="3">
-        <v>1441000</v>
+        <v>1397000</v>
       </c>
       <c r="H61" s="3">
-        <v>2191600</v>
+        <v>1392200</v>
       </c>
       <c r="I61" s="3">
-        <v>1982200</v>
+        <v>2117500</v>
       </c>
       <c r="J61" s="3">
+        <v>1915200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2453600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3058100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2893400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4858500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>449300</v>
+        <v>397200</v>
       </c>
       <c r="E62" s="3">
-        <v>478300</v>
+        <v>434100</v>
       </c>
       <c r="F62" s="3">
-        <v>530800</v>
+        <v>462100</v>
       </c>
       <c r="G62" s="3">
-        <v>582200</v>
+        <v>512800</v>
       </c>
       <c r="H62" s="3">
-        <v>608200</v>
+        <v>562500</v>
       </c>
       <c r="I62" s="3">
-        <v>684800</v>
+        <v>587700</v>
       </c>
       <c r="J62" s="3">
+        <v>661600</v>
+      </c>
+      <c r="K62" s="3">
         <v>788000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>858000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>868400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>864200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4372000</v>
+        <v>3541600</v>
       </c>
       <c r="E66" s="3">
-        <v>4859600</v>
+        <v>4224100</v>
       </c>
       <c r="F66" s="3">
-        <v>4930400</v>
+        <v>4695300</v>
       </c>
       <c r="G66" s="3">
-        <v>5372000</v>
+        <v>4763700</v>
       </c>
       <c r="H66" s="3">
-        <v>5888900</v>
+        <v>5190300</v>
       </c>
       <c r="I66" s="3">
-        <v>5874900</v>
+        <v>5689800</v>
       </c>
       <c r="J66" s="3">
+        <v>5676200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6415900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7085100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7430400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9047000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4298400</v>
+        <v>4166800</v>
       </c>
       <c r="E72" s="3">
-        <v>4260800</v>
+        <v>4153000</v>
       </c>
       <c r="F72" s="3">
-        <v>4496500</v>
+        <v>4116700</v>
       </c>
       <c r="G72" s="3">
-        <v>4278700</v>
+        <v>4344400</v>
       </c>
       <c r="H72" s="3">
-        <v>4291800</v>
+        <v>4134000</v>
       </c>
       <c r="I72" s="3">
-        <v>4180400</v>
+        <v>4146700</v>
       </c>
       <c r="J72" s="3">
+        <v>4039000</v>
+      </c>
+      <c r="K72" s="3">
         <v>4027600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4004500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6941000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3466400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2253500</v>
+        <v>2149600</v>
       </c>
       <c r="E76" s="3">
-        <v>2316900</v>
+        <v>2177200</v>
       </c>
       <c r="F76" s="3">
-        <v>2634400</v>
+        <v>2238500</v>
       </c>
       <c r="G76" s="3">
-        <v>2647100</v>
+        <v>2545300</v>
       </c>
       <c r="H76" s="3">
-        <v>2660200</v>
+        <v>2557500</v>
       </c>
       <c r="I76" s="3">
-        <v>2548400</v>
+        <v>2570200</v>
       </c>
       <c r="J76" s="3">
+        <v>2462200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2396000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2297100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1755500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1624000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>406400</v>
+        <v>608300</v>
       </c>
       <c r="E81" s="3">
-        <v>231600</v>
+        <v>392600</v>
       </c>
       <c r="F81" s="3">
-        <v>197600</v>
+        <v>223700</v>
       </c>
       <c r="G81" s="3">
-        <v>75900</v>
+        <v>190900</v>
       </c>
       <c r="H81" s="3">
-        <v>158100</v>
+        <v>73300</v>
       </c>
       <c r="I81" s="3">
-        <v>171500</v>
+        <v>152700</v>
       </c>
       <c r="J81" s="3">
+        <v>165700</v>
+      </c>
+      <c r="K81" s="3">
         <v>301900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>378800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>518100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>140500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>940800</v>
+        <v>728300</v>
       </c>
       <c r="E83" s="3">
-        <v>1363500</v>
+        <v>908900</v>
       </c>
       <c r="F83" s="3">
-        <v>853300</v>
+        <v>1317400</v>
       </c>
       <c r="G83" s="3">
-        <v>948300</v>
+        <v>824400</v>
       </c>
       <c r="H83" s="3">
-        <v>995200</v>
+        <v>916300</v>
       </c>
       <c r="I83" s="3">
-        <v>936500</v>
+        <v>961500</v>
       </c>
       <c r="J83" s="3">
+        <v>904800</v>
+      </c>
+      <c r="K83" s="3">
         <v>899200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1007800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>898600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1537900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1326200</v>
+        <v>1415500</v>
       </c>
       <c r="E89" s="3">
-        <v>1310100</v>
+        <v>1281400</v>
       </c>
       <c r="F89" s="3">
-        <v>1115600</v>
+        <v>1265800</v>
       </c>
       <c r="G89" s="3">
-        <v>904000</v>
+        <v>1077800</v>
       </c>
       <c r="H89" s="3">
-        <v>1157400</v>
+        <v>873400</v>
       </c>
       <c r="I89" s="3">
-        <v>1065000</v>
+        <v>1118300</v>
       </c>
       <c r="J89" s="3">
+        <v>1028900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1128800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1306100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1281300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1418200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-754000</v>
+        <v>-639300</v>
       </c>
       <c r="E91" s="3">
-        <v>-747200</v>
+        <v>-728500</v>
       </c>
       <c r="F91" s="3">
-        <v>-812800</v>
+        <v>-722000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1020900</v>
+        <v>-785300</v>
       </c>
       <c r="H91" s="3">
-        <v>-737300</v>
+        <v>-986400</v>
       </c>
       <c r="I91" s="3">
-        <v>-743400</v>
+        <v>-712400</v>
       </c>
       <c r="J91" s="3">
+        <v>-718300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-681900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-723300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1166300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-841000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-824400</v>
+        <v>-475100</v>
       </c>
       <c r="E94" s="3">
-        <v>-712000</v>
+        <v>-796500</v>
       </c>
       <c r="F94" s="3">
-        <v>-814400</v>
+        <v>-687900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1030500</v>
+        <v>-786900</v>
       </c>
       <c r="H94" s="3">
-        <v>-730500</v>
+        <v>-995700</v>
       </c>
       <c r="I94" s="3">
-        <v>-728700</v>
+        <v>-705800</v>
       </c>
       <c r="J94" s="3">
+        <v>-704100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-650400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>191800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>165100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1210200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1110800</v>
+        <v>-814400</v>
       </c>
       <c r="E100" s="3">
-        <v>-625600</v>
+        <v>-1073200</v>
       </c>
       <c r="F100" s="3">
-        <v>-542000</v>
+        <v>-604500</v>
       </c>
       <c r="G100" s="3">
-        <v>-193200</v>
+        <v>-523600</v>
       </c>
       <c r="H100" s="3">
-        <v>-129200</v>
+        <v>-186700</v>
       </c>
       <c r="I100" s="3">
-        <v>-553400</v>
+        <v>-124800</v>
       </c>
       <c r="J100" s="3">
+        <v>-534700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-403700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1155800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-914600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-581200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3200</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
-        <v>-2300</v>
+        <v>-3100</v>
       </c>
       <c r="F101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
-        <v>5500</v>
-      </c>
       <c r="J101" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3500</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-612100</v>
+        <v>124900</v>
       </c>
       <c r="E102" s="3">
-        <v>-29800</v>
+        <v>-591400</v>
       </c>
       <c r="F102" s="3">
-        <v>-240500</v>
+        <v>-28800</v>
       </c>
       <c r="G102" s="3">
-        <v>-325100</v>
+        <v>-232400</v>
       </c>
       <c r="H102" s="3">
-        <v>297100</v>
+        <v>-314100</v>
       </c>
       <c r="I102" s="3">
-        <v>-211600</v>
+        <v>287000</v>
       </c>
       <c r="J102" s="3">
+        <v>-204400</v>
+      </c>
+      <c r="K102" s="3">
         <v>74100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>338200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>525100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-376700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3674500</v>
+        <v>3496000</v>
       </c>
       <c r="E8" s="3">
-        <v>3555200</v>
+        <v>3382400</v>
       </c>
       <c r="F8" s="3">
-        <v>3603300</v>
+        <v>3428200</v>
       </c>
       <c r="G8" s="3">
-        <v>4144000</v>
+        <v>3942700</v>
       </c>
       <c r="H8" s="3">
-        <v>4142100</v>
+        <v>3940800</v>
       </c>
       <c r="I8" s="3">
-        <v>4263400</v>
+        <v>4056200</v>
       </c>
       <c r="J8" s="3">
-        <v>4257700</v>
+        <v>4050800</v>
       </c>
       <c r="K8" s="3">
         <v>4424300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>193700</v>
+        <v>184300</v>
       </c>
       <c r="E9" s="3">
-        <v>179500</v>
+        <v>170700</v>
       </c>
       <c r="F9" s="3">
-        <v>152600</v>
+        <v>145200</v>
       </c>
       <c r="G9" s="3">
-        <v>164300</v>
+        <v>156300</v>
       </c>
       <c r="H9" s="3">
-        <v>178400</v>
+        <v>169700</v>
       </c>
       <c r="I9" s="3">
-        <v>195200</v>
+        <v>185700</v>
       </c>
       <c r="J9" s="3">
-        <v>179900</v>
+        <v>171100</v>
       </c>
       <c r="K9" s="3">
         <v>146400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3480800</v>
+        <v>3311600</v>
       </c>
       <c r="E10" s="3">
-        <v>3375700</v>
+        <v>3211700</v>
       </c>
       <c r="F10" s="3">
-        <v>3450700</v>
+        <v>3283000</v>
       </c>
       <c r="G10" s="3">
-        <v>3979700</v>
+        <v>3786400</v>
       </c>
       <c r="H10" s="3">
-        <v>3963700</v>
+        <v>3771100</v>
       </c>
       <c r="I10" s="3">
-        <v>4068200</v>
+        <v>3870500</v>
       </c>
       <c r="J10" s="3">
-        <v>4077800</v>
+        <v>3879700</v>
       </c>
       <c r="K10" s="3">
         <v>4277800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>55000</v>
+        <v>52300</v>
       </c>
       <c r="E14" s="3">
-        <v>-10700</v>
+        <v>-10200</v>
       </c>
       <c r="F14" s="3">
-        <v>45600</v>
+        <v>43400</v>
       </c>
       <c r="G14" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="H14" s="3">
-        <v>43400</v>
+        <v>41300</v>
       </c>
       <c r="I14" s="3">
-        <v>-20000</v>
+        <v>-19000</v>
       </c>
       <c r="J14" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>728300</v>
+        <v>692900</v>
       </c>
       <c r="E15" s="3">
-        <v>885900</v>
+        <v>842900</v>
       </c>
       <c r="F15" s="3">
-        <v>1244300</v>
+        <v>1183800</v>
       </c>
       <c r="G15" s="3">
-        <v>889600</v>
+        <v>846400</v>
       </c>
       <c r="H15" s="3">
-        <v>958000</v>
+        <v>911500</v>
       </c>
       <c r="I15" s="3">
-        <v>961500</v>
+        <v>914800</v>
       </c>
       <c r="J15" s="3">
-        <v>904800</v>
+        <v>860800</v>
       </c>
       <c r="K15" s="3">
         <v>899200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2843300</v>
+        <v>2705200</v>
       </c>
       <c r="E17" s="3">
-        <v>3182900</v>
+        <v>3028300</v>
       </c>
       <c r="F17" s="3">
-        <v>3074900</v>
+        <v>2925500</v>
       </c>
       <c r="G17" s="3">
-        <v>3601400</v>
+        <v>3426400</v>
       </c>
       <c r="H17" s="3">
-        <v>3688600</v>
+        <v>3509300</v>
       </c>
       <c r="I17" s="3">
-        <v>3822800</v>
+        <v>3637000</v>
       </c>
       <c r="J17" s="3">
-        <v>3852800</v>
+        <v>3665600</v>
       </c>
       <c r="K17" s="3">
         <v>3759100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>831200</v>
+        <v>790800</v>
       </c>
       <c r="E18" s="3">
-        <v>372200</v>
+        <v>354100</v>
       </c>
       <c r="F18" s="3">
-        <v>528300</v>
+        <v>502700</v>
       </c>
       <c r="G18" s="3">
-        <v>542600</v>
+        <v>516300</v>
       </c>
       <c r="H18" s="3">
-        <v>453500</v>
+        <v>431500</v>
       </c>
       <c r="I18" s="3">
-        <v>440600</v>
+        <v>419200</v>
       </c>
       <c r="J18" s="3">
-        <v>404900</v>
+        <v>385300</v>
       </c>
       <c r="K18" s="3">
         <v>665200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3">
-        <v>19500</v>
+        <v>18600</v>
       </c>
       <c r="G20" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H20" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="I20" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J20" s="3">
-        <v>35700</v>
+        <v>33900</v>
       </c>
       <c r="K20" s="3">
         <v>10200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1573300</v>
+        <v>1495100</v>
       </c>
       <c r="E21" s="3">
-        <v>1292900</v>
+        <v>1227900</v>
       </c>
       <c r="F21" s="3">
-        <v>1885300</v>
+        <v>1790500</v>
       </c>
       <c r="G21" s="3">
-        <v>1381900</v>
+        <v>1312700</v>
       </c>
       <c r="H21" s="3">
-        <v>1379400</v>
+        <v>1310200</v>
       </c>
       <c r="I21" s="3">
-        <v>1414500</v>
+        <v>1343500</v>
       </c>
       <c r="J21" s="3">
-        <v>1359200</v>
+        <v>1291000</v>
       </c>
       <c r="K21" s="3">
         <v>1576600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>49100</v>
+        <v>46700</v>
       </c>
       <c r="E22" s="3">
-        <v>61300</v>
+        <v>58300</v>
       </c>
       <c r="F22" s="3">
-        <v>101200</v>
+        <v>96300</v>
       </c>
       <c r="G22" s="3">
-        <v>93900</v>
+        <v>89400</v>
       </c>
       <c r="H22" s="3">
-        <v>151700</v>
+        <v>144400</v>
       </c>
       <c r="I22" s="3">
-        <v>163000</v>
+        <v>155100</v>
       </c>
       <c r="J22" s="3">
-        <v>171700</v>
+        <v>163400</v>
       </c>
       <c r="K22" s="3">
         <v>228900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>784800</v>
+        <v>746700</v>
       </c>
       <c r="E23" s="3">
-        <v>308800</v>
+        <v>293800</v>
       </c>
       <c r="F23" s="3">
-        <v>446600</v>
+        <v>424900</v>
       </c>
       <c r="G23" s="3">
-        <v>451000</v>
+        <v>429100</v>
       </c>
       <c r="H23" s="3">
-        <v>297500</v>
+        <v>283000</v>
       </c>
       <c r="I23" s="3">
-        <v>275300</v>
+        <v>262000</v>
       </c>
       <c r="J23" s="3">
-        <v>268900</v>
+        <v>255800</v>
       </c>
       <c r="K23" s="3">
         <v>446400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>254800</v>
+        <v>242500</v>
       </c>
       <c r="E24" s="3">
-        <v>50100</v>
+        <v>47600</v>
       </c>
       <c r="F24" s="3">
-        <v>100700</v>
+        <v>95800</v>
       </c>
       <c r="G24" s="3">
-        <v>180900</v>
+        <v>172100</v>
       </c>
       <c r="H24" s="3">
-        <v>161000</v>
+        <v>153200</v>
       </c>
       <c r="I24" s="3">
-        <v>183700</v>
+        <v>174800</v>
       </c>
       <c r="J24" s="3">
-        <v>128500</v>
+        <v>122300</v>
       </c>
       <c r="K24" s="3">
         <v>139900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>530000</v>
+        <v>504200</v>
       </c>
       <c r="E26" s="3">
-        <v>258800</v>
+        <v>246200</v>
       </c>
       <c r="F26" s="3">
-        <v>345900</v>
+        <v>329100</v>
       </c>
       <c r="G26" s="3">
-        <v>270100</v>
+        <v>257000</v>
       </c>
       <c r="H26" s="3">
-        <v>136500</v>
+        <v>129800</v>
       </c>
       <c r="I26" s="3">
-        <v>91600</v>
+        <v>87200</v>
       </c>
       <c r="J26" s="3">
-        <v>140400</v>
+        <v>133600</v>
       </c>
       <c r="K26" s="3">
         <v>306600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>494900</v>
+        <v>470900</v>
       </c>
       <c r="E27" s="3">
-        <v>241500</v>
+        <v>229800</v>
       </c>
       <c r="F27" s="3">
-        <v>522900</v>
+        <v>497500</v>
       </c>
       <c r="G27" s="3">
-        <v>280000</v>
+        <v>266400</v>
       </c>
       <c r="H27" s="3">
-        <v>184900</v>
+        <v>175900</v>
       </c>
       <c r="I27" s="3">
-        <v>152700</v>
+        <v>145300</v>
       </c>
       <c r="J27" s="3">
-        <v>165700</v>
+        <v>157700</v>
       </c>
       <c r="K27" s="3">
         <v>301900</v>
@@ -1473,19 +1473,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>113300</v>
+        <v>107800</v>
       </c>
       <c r="E29" s="3">
-        <v>151100</v>
+        <v>143700</v>
       </c>
       <c r="F29" s="3">
-        <v>-299100</v>
+        <v>-284600</v>
       </c>
       <c r="G29" s="3">
-        <v>-89100</v>
+        <v>-84800</v>
       </c>
       <c r="H29" s="3">
-        <v>-111600</v>
+        <v>-106200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="E32" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3">
-        <v>-19500</v>
+        <v>-18600</v>
       </c>
       <c r="G32" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="H32" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="I32" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J32" s="3">
-        <v>-35700</v>
+        <v>-33900</v>
       </c>
       <c r="K32" s="3">
         <v>-10200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>608300</v>
+        <v>578700</v>
       </c>
       <c r="E33" s="3">
-        <v>392600</v>
+        <v>373500</v>
       </c>
       <c r="F33" s="3">
-        <v>223700</v>
+        <v>212900</v>
       </c>
       <c r="G33" s="3">
-        <v>190900</v>
+        <v>181600</v>
       </c>
       <c r="H33" s="3">
-        <v>73300</v>
+        <v>69700</v>
       </c>
       <c r="I33" s="3">
-        <v>152700</v>
+        <v>145300</v>
       </c>
       <c r="J33" s="3">
-        <v>165700</v>
+        <v>157700</v>
       </c>
       <c r="K33" s="3">
         <v>301900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>608300</v>
+        <v>578700</v>
       </c>
       <c r="E35" s="3">
-        <v>392600</v>
+        <v>373500</v>
       </c>
       <c r="F35" s="3">
-        <v>223700</v>
+        <v>212900</v>
       </c>
       <c r="G35" s="3">
-        <v>190900</v>
+        <v>181600</v>
       </c>
       <c r="H35" s="3">
-        <v>73300</v>
+        <v>69700</v>
       </c>
       <c r="I35" s="3">
-        <v>152700</v>
+        <v>145300</v>
       </c>
       <c r="J35" s="3">
-        <v>165700</v>
+        <v>157700</v>
       </c>
       <c r="K35" s="3">
         <v>301900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>688000</v>
+        <v>654600</v>
       </c>
       <c r="E41" s="3">
-        <v>563100</v>
+        <v>535800</v>
       </c>
       <c r="F41" s="3">
-        <v>1154500</v>
+        <v>1098400</v>
       </c>
       <c r="G41" s="3">
-        <v>1183300</v>
+        <v>1125800</v>
       </c>
       <c r="H41" s="3">
-        <v>1415700</v>
+        <v>1346900</v>
       </c>
       <c r="I41" s="3">
-        <v>1729700</v>
+        <v>1645700</v>
       </c>
       <c r="J41" s="3">
-        <v>1442700</v>
+        <v>1372600</v>
       </c>
       <c r="K41" s="3">
         <v>1704800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H42" s="3">
         <v>6100</v>
       </c>
-      <c r="E42" s="3">
-        <v>5900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>6400</v>
-      </c>
       <c r="I42" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="J42" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="K42" s="3">
         <v>4200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>657700</v>
+        <v>625700</v>
       </c>
       <c r="E43" s="3">
-        <v>559300</v>
+        <v>532100</v>
       </c>
       <c r="F43" s="3">
-        <v>783700</v>
+        <v>745600</v>
       </c>
       <c r="G43" s="3">
-        <v>790700</v>
+        <v>752300</v>
       </c>
       <c r="H43" s="3">
-        <v>785100</v>
+        <v>747000</v>
       </c>
       <c r="I43" s="3">
-        <v>796900</v>
+        <v>758200</v>
       </c>
       <c r="J43" s="3">
-        <v>794800</v>
+        <v>756200</v>
       </c>
       <c r="K43" s="3">
         <v>773300</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41500</v>
+        <v>39400</v>
       </c>
       <c r="E44" s="3">
-        <v>29300</v>
+        <v>27900</v>
       </c>
       <c r="F44" s="3">
-        <v>56000</v>
+        <v>53200</v>
       </c>
       <c r="G44" s="3">
-        <v>89500</v>
+        <v>85100</v>
       </c>
       <c r="H44" s="3">
-        <v>99600</v>
+        <v>94800</v>
       </c>
       <c r="I44" s="3">
-        <v>104600</v>
+        <v>99500</v>
       </c>
       <c r="J44" s="3">
-        <v>106000</v>
+        <v>100900</v>
       </c>
       <c r="K44" s="3">
         <v>99200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>125200</v>
+        <v>119200</v>
       </c>
       <c r="E45" s="3">
-        <v>103900</v>
+        <v>98800</v>
       </c>
       <c r="F45" s="3">
-        <v>156400</v>
+        <v>148800</v>
       </c>
       <c r="G45" s="3">
-        <v>181100</v>
+        <v>172300</v>
       </c>
       <c r="H45" s="3">
-        <v>287600</v>
+        <v>273600</v>
       </c>
       <c r="I45" s="3">
-        <v>339500</v>
+        <v>323000</v>
       </c>
       <c r="J45" s="3">
-        <v>278400</v>
+        <v>264900</v>
       </c>
       <c r="K45" s="3">
         <v>234300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1518500</v>
+        <v>1444800</v>
       </c>
       <c r="E46" s="3">
-        <v>1261500</v>
+        <v>1200200</v>
       </c>
       <c r="F46" s="3">
-        <v>2156800</v>
+        <v>2052000</v>
       </c>
       <c r="G46" s="3">
-        <v>2250100</v>
+        <v>2140800</v>
       </c>
       <c r="H46" s="3">
-        <v>2594400</v>
+        <v>2468300</v>
       </c>
       <c r="I46" s="3">
-        <v>2976900</v>
+        <v>2832200</v>
       </c>
       <c r="J46" s="3">
-        <v>2629400</v>
+        <v>2501700</v>
       </c>
       <c r="K46" s="3">
         <v>2815900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>101600</v>
+        <v>96600</v>
       </c>
       <c r="E47" s="3">
-        <v>106000</v>
+        <v>100900</v>
       </c>
       <c r="F47" s="3">
-        <v>136500</v>
+        <v>129800</v>
       </c>
       <c r="G47" s="3">
-        <v>178800</v>
+        <v>170100</v>
       </c>
       <c r="H47" s="3">
-        <v>90100</v>
+        <v>85700</v>
       </c>
       <c r="I47" s="3">
-        <v>93500</v>
+        <v>88900</v>
       </c>
       <c r="J47" s="3">
-        <v>96300</v>
+        <v>91600</v>
       </c>
       <c r="K47" s="3">
         <v>118100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2558200</v>
+        <v>2433900</v>
       </c>
       <c r="E48" s="3">
-        <v>2642900</v>
+        <v>2514500</v>
       </c>
       <c r="F48" s="3">
-        <v>3010800</v>
+        <v>2864500</v>
       </c>
       <c r="G48" s="3">
-        <v>2990300</v>
+        <v>2845000</v>
       </c>
       <c r="H48" s="3">
-        <v>2990100</v>
+        <v>2844800</v>
       </c>
       <c r="I48" s="3">
-        <v>3111800</v>
+        <v>2960600</v>
       </c>
       <c r="J48" s="3">
-        <v>3218800</v>
+        <v>3062400</v>
       </c>
       <c r="K48" s="3">
         <v>3503900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1214400</v>
+        <v>1155400</v>
       </c>
       <c r="E49" s="3">
-        <v>1249700</v>
+        <v>1189000</v>
       </c>
       <c r="F49" s="3">
-        <v>1230700</v>
+        <v>1170900</v>
       </c>
       <c r="G49" s="3">
-        <v>1448300</v>
+        <v>1377900</v>
       </c>
       <c r="H49" s="3">
-        <v>1609000</v>
+        <v>1530800</v>
       </c>
       <c r="I49" s="3">
-        <v>1624000</v>
+        <v>1545100</v>
       </c>
       <c r="J49" s="3">
-        <v>1726700</v>
+        <v>1642800</v>
       </c>
       <c r="K49" s="3">
         <v>1862500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>298600</v>
+        <v>284100</v>
       </c>
       <c r="E52" s="3">
-        <v>1141100</v>
+        <v>1085600</v>
       </c>
       <c r="F52" s="3">
-        <v>399100</v>
+        <v>379700</v>
       </c>
       <c r="G52" s="3">
-        <v>441500</v>
+        <v>420000</v>
       </c>
       <c r="H52" s="3">
-        <v>464300</v>
+        <v>441700</v>
       </c>
       <c r="I52" s="3">
-        <v>453700</v>
+        <v>431700</v>
       </c>
       <c r="J52" s="3">
-        <v>467100</v>
+        <v>444400</v>
       </c>
       <c r="K52" s="3">
         <v>511500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5691300</v>
+        <v>5414700</v>
       </c>
       <c r="E54" s="3">
-        <v>6401400</v>
+        <v>6090300</v>
       </c>
       <c r="F54" s="3">
-        <v>6933800</v>
+        <v>6596900</v>
       </c>
       <c r="G54" s="3">
-        <v>7309000</v>
+        <v>6953800</v>
       </c>
       <c r="H54" s="3">
-        <v>7747900</v>
+        <v>7371400</v>
       </c>
       <c r="I54" s="3">
-        <v>8259900</v>
+        <v>7858600</v>
       </c>
       <c r="J54" s="3">
-        <v>8138400</v>
+        <v>7742900</v>
       </c>
       <c r="K54" s="3">
         <v>8811800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>892900</v>
+        <v>849500</v>
       </c>
       <c r="E57" s="3">
-        <v>785200</v>
+        <v>747100</v>
       </c>
       <c r="F57" s="3">
-        <v>1021100</v>
+        <v>971500</v>
       </c>
       <c r="G57" s="3">
-        <v>1128000</v>
+        <v>1073200</v>
       </c>
       <c r="H57" s="3">
-        <v>1268100</v>
+        <v>1206500</v>
       </c>
       <c r="I57" s="3">
-        <v>1488100</v>
+        <v>1415800</v>
       </c>
       <c r="J57" s="3">
-        <v>1311800</v>
+        <v>1248100</v>
       </c>
       <c r="K57" s="3">
         <v>1101000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>511600</v>
+        <v>486800</v>
       </c>
       <c r="E58" s="3">
-        <v>316600</v>
+        <v>301200</v>
       </c>
       <c r="F58" s="3">
-        <v>850100</v>
+        <v>808800</v>
       </c>
       <c r="G58" s="3">
-        <v>597800</v>
+        <v>568800</v>
       </c>
       <c r="H58" s="3">
-        <v>834000</v>
+        <v>793500</v>
       </c>
       <c r="I58" s="3">
-        <v>200800</v>
+        <v>191100</v>
       </c>
       <c r="J58" s="3">
-        <v>472900</v>
+        <v>449900</v>
       </c>
       <c r="K58" s="3">
         <v>525500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>709400</v>
+        <v>674900</v>
       </c>
       <c r="E59" s="3">
-        <v>811200</v>
+        <v>771800</v>
       </c>
       <c r="F59" s="3">
-        <v>767000</v>
+        <v>729700</v>
       </c>
       <c r="G59" s="3">
-        <v>822300</v>
+        <v>782400</v>
       </c>
       <c r="H59" s="3">
-        <v>866300</v>
+        <v>824200</v>
       </c>
       <c r="I59" s="3">
-        <v>973100</v>
+        <v>925800</v>
       </c>
       <c r="J59" s="3">
-        <v>930400</v>
+        <v>885200</v>
       </c>
       <c r="K59" s="3">
         <v>1122800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2114000</v>
+        <v>2011200</v>
       </c>
       <c r="E60" s="3">
-        <v>1913000</v>
+        <v>1820100</v>
       </c>
       <c r="F60" s="3">
-        <v>2638300</v>
+        <v>2510100</v>
       </c>
       <c r="G60" s="3">
-        <v>2548100</v>
+        <v>2424300</v>
       </c>
       <c r="H60" s="3">
-        <v>2968400</v>
+        <v>2824100</v>
       </c>
       <c r="I60" s="3">
-        <v>2662000</v>
+        <v>2532700</v>
       </c>
       <c r="J60" s="3">
-        <v>2715200</v>
+        <v>2583200</v>
       </c>
       <c r="K60" s="3">
         <v>2749200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1028600</v>
+        <v>978600</v>
       </c>
       <c r="E61" s="3">
-        <v>1380400</v>
+        <v>1313400</v>
       </c>
       <c r="F61" s="3">
-        <v>1451900</v>
+        <v>1381300</v>
       </c>
       <c r="G61" s="3">
-        <v>1397000</v>
+        <v>1329100</v>
       </c>
       <c r="H61" s="3">
-        <v>1392200</v>
+        <v>1324600</v>
       </c>
       <c r="I61" s="3">
-        <v>2117500</v>
+        <v>2014600</v>
       </c>
       <c r="J61" s="3">
-        <v>1915200</v>
+        <v>1822100</v>
       </c>
       <c r="K61" s="3">
         <v>2453600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>397200</v>
+        <v>377900</v>
       </c>
       <c r="E62" s="3">
-        <v>434100</v>
+        <v>413000</v>
       </c>
       <c r="F62" s="3">
-        <v>462100</v>
+        <v>439700</v>
       </c>
       <c r="G62" s="3">
-        <v>512800</v>
+        <v>487900</v>
       </c>
       <c r="H62" s="3">
-        <v>562500</v>
+        <v>535100</v>
       </c>
       <c r="I62" s="3">
-        <v>587700</v>
+        <v>559100</v>
       </c>
       <c r="J62" s="3">
-        <v>661600</v>
+        <v>629500</v>
       </c>
       <c r="K62" s="3">
         <v>788000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3541600</v>
+        <v>3369500</v>
       </c>
       <c r="E66" s="3">
-        <v>4224100</v>
+        <v>4018900</v>
       </c>
       <c r="F66" s="3">
-        <v>4695300</v>
+        <v>4467100</v>
       </c>
       <c r="G66" s="3">
-        <v>4763700</v>
+        <v>4532200</v>
       </c>
       <c r="H66" s="3">
-        <v>5190300</v>
+        <v>4938100</v>
       </c>
       <c r="I66" s="3">
-        <v>5689800</v>
+        <v>5413300</v>
       </c>
       <c r="J66" s="3">
-        <v>5676200</v>
+        <v>5400400</v>
       </c>
       <c r="K66" s="3">
         <v>6415900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4166800</v>
+        <v>3964400</v>
       </c>
       <c r="E72" s="3">
-        <v>4153000</v>
+        <v>3951200</v>
       </c>
       <c r="F72" s="3">
-        <v>4116700</v>
+        <v>3916600</v>
       </c>
       <c r="G72" s="3">
-        <v>4344400</v>
+        <v>4133300</v>
       </c>
       <c r="H72" s="3">
-        <v>4134000</v>
+        <v>3933100</v>
       </c>
       <c r="I72" s="3">
-        <v>4146700</v>
+        <v>3945200</v>
       </c>
       <c r="J72" s="3">
-        <v>4039000</v>
+        <v>3842700</v>
       </c>
       <c r="K72" s="3">
         <v>4027600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2149600</v>
+        <v>2045200</v>
       </c>
       <c r="E76" s="3">
-        <v>2177200</v>
+        <v>2071400</v>
       </c>
       <c r="F76" s="3">
-        <v>2238500</v>
+        <v>2129800</v>
       </c>
       <c r="G76" s="3">
-        <v>2545300</v>
+        <v>2421600</v>
       </c>
       <c r="H76" s="3">
-        <v>2557500</v>
+        <v>2433300</v>
       </c>
       <c r="I76" s="3">
-        <v>2570200</v>
+        <v>2445300</v>
       </c>
       <c r="J76" s="3">
-        <v>2462200</v>
+        <v>2342500</v>
       </c>
       <c r="K76" s="3">
         <v>2396000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>608300</v>
+        <v>578700</v>
       </c>
       <c r="E81" s="3">
-        <v>392600</v>
+        <v>373500</v>
       </c>
       <c r="F81" s="3">
-        <v>223700</v>
+        <v>212900</v>
       </c>
       <c r="G81" s="3">
-        <v>190900</v>
+        <v>181600</v>
       </c>
       <c r="H81" s="3">
-        <v>73300</v>
+        <v>69700</v>
       </c>
       <c r="I81" s="3">
-        <v>152700</v>
+        <v>145300</v>
       </c>
       <c r="J81" s="3">
-        <v>165700</v>
+        <v>157700</v>
       </c>
       <c r="K81" s="3">
         <v>301900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>728300</v>
+        <v>692900</v>
       </c>
       <c r="E83" s="3">
-        <v>908900</v>
+        <v>864800</v>
       </c>
       <c r="F83" s="3">
-        <v>1317400</v>
+        <v>1253400</v>
       </c>
       <c r="G83" s="3">
-        <v>824400</v>
+        <v>784300</v>
       </c>
       <c r="H83" s="3">
-        <v>916300</v>
+        <v>871700</v>
       </c>
       <c r="I83" s="3">
-        <v>961500</v>
+        <v>914800</v>
       </c>
       <c r="J83" s="3">
-        <v>904800</v>
+        <v>860800</v>
       </c>
       <c r="K83" s="3">
         <v>899200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1415500</v>
+        <v>1346700</v>
       </c>
       <c r="E89" s="3">
-        <v>1281400</v>
+        <v>1219100</v>
       </c>
       <c r="F89" s="3">
-        <v>1265800</v>
+        <v>1204300</v>
       </c>
       <c r="G89" s="3">
-        <v>1077800</v>
+        <v>1025400</v>
       </c>
       <c r="H89" s="3">
-        <v>873400</v>
+        <v>830900</v>
       </c>
       <c r="I89" s="3">
-        <v>1118300</v>
+        <v>1064000</v>
       </c>
       <c r="J89" s="3">
-        <v>1028900</v>
+        <v>978900</v>
       </c>
       <c r="K89" s="3">
         <v>1128800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-639300</v>
+        <v>-608200</v>
       </c>
       <c r="E91" s="3">
-        <v>-728500</v>
+        <v>-693100</v>
       </c>
       <c r="F91" s="3">
-        <v>-722000</v>
+        <v>-686900</v>
       </c>
       <c r="G91" s="3">
-        <v>-785300</v>
+        <v>-747200</v>
       </c>
       <c r="H91" s="3">
-        <v>-986400</v>
+        <v>-938500</v>
       </c>
       <c r="I91" s="3">
-        <v>-712400</v>
+        <v>-677700</v>
       </c>
       <c r="J91" s="3">
-        <v>-718300</v>
+        <v>-683400</v>
       </c>
       <c r="K91" s="3">
         <v>-681900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-475100</v>
+        <v>-452000</v>
       </c>
       <c r="E94" s="3">
-        <v>-796500</v>
+        <v>-757800</v>
       </c>
       <c r="F94" s="3">
-        <v>-687900</v>
+        <v>-654500</v>
       </c>
       <c r="G94" s="3">
-        <v>-786900</v>
+        <v>-748600</v>
       </c>
       <c r="H94" s="3">
-        <v>-995700</v>
+        <v>-947300</v>
       </c>
       <c r="I94" s="3">
-        <v>-705800</v>
+        <v>-671500</v>
       </c>
       <c r="J94" s="3">
-        <v>-704100</v>
+        <v>-669900</v>
       </c>
       <c r="K94" s="3">
         <v>-650400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-814400</v>
+        <v>-774800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1073200</v>
+        <v>-1021100</v>
       </c>
       <c r="F100" s="3">
-        <v>-604500</v>
+        <v>-575100</v>
       </c>
       <c r="G100" s="3">
-        <v>-523600</v>
+        <v>-498200</v>
       </c>
       <c r="H100" s="3">
-        <v>-186700</v>
+        <v>-177600</v>
       </c>
       <c r="I100" s="3">
-        <v>-124800</v>
+        <v>-118700</v>
       </c>
       <c r="J100" s="3">
-        <v>-534700</v>
+        <v>-508700</v>
       </c>
       <c r="K100" s="3">
         <v>-403700</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
       </c>
       <c r="H101" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="I101" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J101" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K101" s="3">
         <v>-700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>124900</v>
+        <v>118800</v>
       </c>
       <c r="E102" s="3">
-        <v>-591400</v>
+        <v>-562600</v>
       </c>
       <c r="F102" s="3">
-        <v>-28800</v>
+        <v>-27400</v>
       </c>
       <c r="G102" s="3">
-        <v>-232400</v>
+        <v>-221100</v>
       </c>
       <c r="H102" s="3">
-        <v>-314100</v>
+        <v>-298800</v>
       </c>
       <c r="I102" s="3">
-        <v>287000</v>
+        <v>273100</v>
       </c>
       <c r="J102" s="3">
-        <v>-204400</v>
+        <v>-194500</v>
       </c>
       <c r="K102" s="3">
         <v>74100</v>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3496000</v>
+        <v>3359500</v>
       </c>
       <c r="E8" s="3">
-        <v>3382400</v>
+        <v>3250400</v>
       </c>
       <c r="F8" s="3">
-        <v>3428200</v>
+        <v>3294400</v>
       </c>
       <c r="G8" s="3">
-        <v>3942700</v>
+        <v>3788800</v>
       </c>
       <c r="H8" s="3">
-        <v>3940800</v>
+        <v>3787000</v>
       </c>
       <c r="I8" s="3">
-        <v>4056200</v>
+        <v>3897900</v>
       </c>
       <c r="J8" s="3">
-        <v>4050800</v>
+        <v>3892800</v>
       </c>
       <c r="K8" s="3">
         <v>4424300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>184300</v>
+        <v>177100</v>
       </c>
       <c r="E9" s="3">
-        <v>170700</v>
+        <v>164100</v>
       </c>
       <c r="F9" s="3">
-        <v>145200</v>
+        <v>139500</v>
       </c>
       <c r="G9" s="3">
-        <v>156300</v>
+        <v>150200</v>
       </c>
       <c r="H9" s="3">
-        <v>169700</v>
+        <v>163100</v>
       </c>
       <c r="I9" s="3">
-        <v>185700</v>
+        <v>178400</v>
       </c>
       <c r="J9" s="3">
-        <v>171100</v>
+        <v>164500</v>
       </c>
       <c r="K9" s="3">
         <v>146400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3311600</v>
+        <v>3182400</v>
       </c>
       <c r="E10" s="3">
-        <v>3211700</v>
+        <v>3086400</v>
       </c>
       <c r="F10" s="3">
-        <v>3283000</v>
+        <v>3154900</v>
       </c>
       <c r="G10" s="3">
-        <v>3786400</v>
+        <v>3638600</v>
       </c>
       <c r="H10" s="3">
-        <v>3771100</v>
+        <v>3624000</v>
       </c>
       <c r="I10" s="3">
-        <v>3870500</v>
+        <v>3719500</v>
       </c>
       <c r="J10" s="3">
-        <v>3879700</v>
+        <v>3728300</v>
       </c>
       <c r="K10" s="3">
         <v>4277800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>52300</v>
+        <v>50300</v>
       </c>
       <c r="E14" s="3">
-        <v>-10200</v>
+        <v>-9800</v>
       </c>
       <c r="F14" s="3">
-        <v>43400</v>
+        <v>41700</v>
       </c>
       <c r="G14" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="H14" s="3">
-        <v>41300</v>
+        <v>39700</v>
       </c>
       <c r="I14" s="3">
-        <v>-19000</v>
+        <v>-18300</v>
       </c>
       <c r="J14" s="3">
-        <v>20700</v>
+        <v>19800</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>692900</v>
+        <v>665900</v>
       </c>
       <c r="E15" s="3">
-        <v>842900</v>
+        <v>810000</v>
       </c>
       <c r="F15" s="3">
-        <v>1183800</v>
+        <v>1137600</v>
       </c>
       <c r="G15" s="3">
-        <v>846400</v>
+        <v>813400</v>
       </c>
       <c r="H15" s="3">
-        <v>911500</v>
+        <v>875900</v>
       </c>
       <c r="I15" s="3">
-        <v>914800</v>
+        <v>879100</v>
       </c>
       <c r="J15" s="3">
-        <v>860800</v>
+        <v>827200</v>
       </c>
       <c r="K15" s="3">
         <v>899200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2705200</v>
+        <v>2599600</v>
       </c>
       <c r="E17" s="3">
-        <v>3028300</v>
+        <v>2910100</v>
       </c>
       <c r="F17" s="3">
-        <v>2925500</v>
+        <v>2811400</v>
       </c>
       <c r="G17" s="3">
-        <v>3426400</v>
+        <v>3292700</v>
       </c>
       <c r="H17" s="3">
-        <v>3509300</v>
+        <v>3372400</v>
       </c>
       <c r="I17" s="3">
-        <v>3637000</v>
+        <v>3495100</v>
       </c>
       <c r="J17" s="3">
-        <v>3665600</v>
+        <v>3522500</v>
       </c>
       <c r="K17" s="3">
         <v>3759100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>790800</v>
+        <v>759900</v>
       </c>
       <c r="E18" s="3">
-        <v>354100</v>
+        <v>340300</v>
       </c>
       <c r="F18" s="3">
-        <v>502700</v>
+        <v>483000</v>
       </c>
       <c r="G18" s="3">
-        <v>516300</v>
+        <v>496100</v>
       </c>
       <c r="H18" s="3">
-        <v>431500</v>
+        <v>414600</v>
       </c>
       <c r="I18" s="3">
-        <v>419200</v>
+        <v>402800</v>
       </c>
       <c r="J18" s="3">
-        <v>385300</v>
+        <v>370200</v>
       </c>
       <c r="K18" s="3">
         <v>665200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F20" s="3">
-        <v>18600</v>
+        <v>17900</v>
       </c>
       <c r="G20" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H20" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J20" s="3">
-        <v>33900</v>
+        <v>32600</v>
       </c>
       <c r="K20" s="3">
         <v>10200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1495100</v>
+        <v>1427700</v>
       </c>
       <c r="E21" s="3">
-        <v>1227900</v>
+        <v>1168700</v>
       </c>
       <c r="F21" s="3">
-        <v>1790500</v>
+        <v>1704300</v>
       </c>
       <c r="G21" s="3">
-        <v>1312700</v>
+        <v>1251300</v>
       </c>
       <c r="H21" s="3">
-        <v>1310200</v>
+        <v>1247700</v>
       </c>
       <c r="I21" s="3">
-        <v>1343500</v>
+        <v>1279100</v>
       </c>
       <c r="J21" s="3">
-        <v>1291000</v>
+        <v>1229300</v>
       </c>
       <c r="K21" s="3">
         <v>1576600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46700</v>
+        <v>44900</v>
       </c>
       <c r="E22" s="3">
-        <v>58300</v>
+        <v>56100</v>
       </c>
       <c r="F22" s="3">
-        <v>96300</v>
+        <v>92600</v>
       </c>
       <c r="G22" s="3">
-        <v>89400</v>
+        <v>85900</v>
       </c>
       <c r="H22" s="3">
-        <v>144400</v>
+        <v>138700</v>
       </c>
       <c r="I22" s="3">
-        <v>155100</v>
+        <v>149000</v>
       </c>
       <c r="J22" s="3">
-        <v>163400</v>
+        <v>157000</v>
       </c>
       <c r="K22" s="3">
         <v>228900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>746700</v>
+        <v>717500</v>
       </c>
       <c r="E23" s="3">
-        <v>293800</v>
+        <v>282400</v>
       </c>
       <c r="F23" s="3">
-        <v>424900</v>
+        <v>408300</v>
       </c>
       <c r="G23" s="3">
-        <v>429100</v>
+        <v>412300</v>
       </c>
       <c r="H23" s="3">
-        <v>283000</v>
+        <v>272000</v>
       </c>
       <c r="I23" s="3">
-        <v>262000</v>
+        <v>251700</v>
       </c>
       <c r="J23" s="3">
-        <v>255800</v>
+        <v>245900</v>
       </c>
       <c r="K23" s="3">
         <v>446400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>242500</v>
+        <v>233000</v>
       </c>
       <c r="E24" s="3">
-        <v>47600</v>
+        <v>45800</v>
       </c>
       <c r="F24" s="3">
-        <v>95800</v>
+        <v>92100</v>
       </c>
       <c r="G24" s="3">
-        <v>172100</v>
+        <v>165400</v>
       </c>
       <c r="H24" s="3">
-        <v>153200</v>
+        <v>147200</v>
       </c>
       <c r="I24" s="3">
-        <v>174800</v>
+        <v>168000</v>
       </c>
       <c r="J24" s="3">
-        <v>122300</v>
+        <v>117500</v>
       </c>
       <c r="K24" s="3">
         <v>139900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>504200</v>
+        <v>484500</v>
       </c>
       <c r="E26" s="3">
-        <v>246200</v>
+        <v>236600</v>
       </c>
       <c r="F26" s="3">
-        <v>329100</v>
+        <v>316300</v>
       </c>
       <c r="G26" s="3">
-        <v>257000</v>
+        <v>247000</v>
       </c>
       <c r="H26" s="3">
-        <v>129800</v>
+        <v>124800</v>
       </c>
       <c r="I26" s="3">
-        <v>87200</v>
+        <v>83800</v>
       </c>
       <c r="J26" s="3">
-        <v>133600</v>
+        <v>128400</v>
       </c>
       <c r="K26" s="3">
         <v>306600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>470900</v>
+        <v>452500</v>
       </c>
       <c r="E27" s="3">
-        <v>229800</v>
+        <v>220800</v>
       </c>
       <c r="F27" s="3">
-        <v>497500</v>
+        <v>478100</v>
       </c>
       <c r="G27" s="3">
-        <v>266400</v>
+        <v>256000</v>
       </c>
       <c r="H27" s="3">
-        <v>175900</v>
+        <v>169100</v>
       </c>
       <c r="I27" s="3">
-        <v>145300</v>
+        <v>139600</v>
       </c>
       <c r="J27" s="3">
-        <v>157700</v>
+        <v>151500</v>
       </c>
       <c r="K27" s="3">
         <v>301900</v>
@@ -1473,19 +1473,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>107800</v>
+        <v>103600</v>
       </c>
       <c r="E29" s="3">
-        <v>143700</v>
+        <v>138100</v>
       </c>
       <c r="F29" s="3">
-        <v>-284600</v>
+        <v>-273500</v>
       </c>
       <c r="G29" s="3">
-        <v>-84800</v>
+        <v>-81500</v>
       </c>
       <c r="H29" s="3">
-        <v>-106200</v>
+        <v>-102000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F32" s="3">
-        <v>-18600</v>
+        <v>-17900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H32" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I32" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J32" s="3">
-        <v>-33900</v>
+        <v>-32600</v>
       </c>
       <c r="K32" s="3">
         <v>-10200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>578700</v>
+        <v>556200</v>
       </c>
       <c r="E33" s="3">
-        <v>373500</v>
+        <v>359000</v>
       </c>
       <c r="F33" s="3">
-        <v>212900</v>
+        <v>204600</v>
       </c>
       <c r="G33" s="3">
-        <v>181600</v>
+        <v>174500</v>
       </c>
       <c r="H33" s="3">
-        <v>69700</v>
+        <v>67000</v>
       </c>
       <c r="I33" s="3">
-        <v>145300</v>
+        <v>139600</v>
       </c>
       <c r="J33" s="3">
-        <v>157700</v>
+        <v>151500</v>
       </c>
       <c r="K33" s="3">
         <v>301900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>578700</v>
+        <v>556200</v>
       </c>
       <c r="E35" s="3">
-        <v>373500</v>
+        <v>359000</v>
       </c>
       <c r="F35" s="3">
-        <v>212900</v>
+        <v>204600</v>
       </c>
       <c r="G35" s="3">
-        <v>181600</v>
+        <v>174500</v>
       </c>
       <c r="H35" s="3">
-        <v>69700</v>
+        <v>67000</v>
       </c>
       <c r="I35" s="3">
-        <v>145300</v>
+        <v>139600</v>
       </c>
       <c r="J35" s="3">
-        <v>157700</v>
+        <v>151500</v>
       </c>
       <c r="K35" s="3">
         <v>301900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>654600</v>
+        <v>629100</v>
       </c>
       <c r="E41" s="3">
-        <v>535800</v>
+        <v>514900</v>
       </c>
       <c r="F41" s="3">
-        <v>1098400</v>
+        <v>1055500</v>
       </c>
       <c r="G41" s="3">
-        <v>1125800</v>
+        <v>1081900</v>
       </c>
       <c r="H41" s="3">
-        <v>1346900</v>
+        <v>1294300</v>
       </c>
       <c r="I41" s="3">
-        <v>1645700</v>
+        <v>1581500</v>
       </c>
       <c r="J41" s="3">
-        <v>1372600</v>
+        <v>1319100</v>
       </c>
       <c r="K41" s="3">
         <v>1704800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="E42" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I42" s="3">
         <v>5600</v>
       </c>
-      <c r="F42" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I42" s="3">
-        <v>5800</v>
-      </c>
       <c r="J42" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="K42" s="3">
         <v>4200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>625700</v>
+        <v>601300</v>
       </c>
       <c r="E43" s="3">
-        <v>532100</v>
+        <v>511400</v>
       </c>
       <c r="F43" s="3">
-        <v>745600</v>
+        <v>716500</v>
       </c>
       <c r="G43" s="3">
-        <v>752300</v>
+        <v>722900</v>
       </c>
       <c r="H43" s="3">
-        <v>747000</v>
+        <v>717800</v>
       </c>
       <c r="I43" s="3">
-        <v>758200</v>
+        <v>728600</v>
       </c>
       <c r="J43" s="3">
-        <v>756200</v>
+        <v>726700</v>
       </c>
       <c r="K43" s="3">
         <v>773300</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>39400</v>
+        <v>37900</v>
       </c>
       <c r="E44" s="3">
-        <v>27900</v>
+        <v>26800</v>
       </c>
       <c r="F44" s="3">
-        <v>53200</v>
+        <v>51200</v>
       </c>
       <c r="G44" s="3">
-        <v>85100</v>
+        <v>81800</v>
       </c>
       <c r="H44" s="3">
-        <v>94800</v>
+        <v>91100</v>
       </c>
       <c r="I44" s="3">
-        <v>99500</v>
+        <v>95700</v>
       </c>
       <c r="J44" s="3">
-        <v>100900</v>
+        <v>96900</v>
       </c>
       <c r="K44" s="3">
         <v>99200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>119200</v>
+        <v>114500</v>
       </c>
       <c r="E45" s="3">
-        <v>98800</v>
+        <v>95000</v>
       </c>
       <c r="F45" s="3">
-        <v>148800</v>
+        <v>143000</v>
       </c>
       <c r="G45" s="3">
-        <v>172300</v>
+        <v>165600</v>
       </c>
       <c r="H45" s="3">
-        <v>273600</v>
+        <v>262900</v>
       </c>
       <c r="I45" s="3">
-        <v>323000</v>
+        <v>310400</v>
       </c>
       <c r="J45" s="3">
-        <v>264900</v>
+        <v>254500</v>
       </c>
       <c r="K45" s="3">
         <v>234300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1444800</v>
+        <v>1388400</v>
       </c>
       <c r="E46" s="3">
-        <v>1200200</v>
+        <v>1153400</v>
       </c>
       <c r="F46" s="3">
-        <v>2052000</v>
+        <v>1972000</v>
       </c>
       <c r="G46" s="3">
-        <v>2140800</v>
+        <v>2057200</v>
       </c>
       <c r="H46" s="3">
-        <v>2468300</v>
+        <v>2372000</v>
       </c>
       <c r="I46" s="3">
-        <v>2832200</v>
+        <v>2721700</v>
       </c>
       <c r="J46" s="3">
-        <v>2501700</v>
+        <v>2404000</v>
       </c>
       <c r="K46" s="3">
         <v>2815900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>96600</v>
+        <v>92900</v>
       </c>
       <c r="E47" s="3">
-        <v>100900</v>
+        <v>96900</v>
       </c>
       <c r="F47" s="3">
-        <v>129800</v>
+        <v>124800</v>
       </c>
       <c r="G47" s="3">
-        <v>170100</v>
+        <v>163500</v>
       </c>
       <c r="H47" s="3">
-        <v>85700</v>
+        <v>82400</v>
       </c>
       <c r="I47" s="3">
-        <v>88900</v>
+        <v>85500</v>
       </c>
       <c r="J47" s="3">
-        <v>91600</v>
+        <v>88100</v>
       </c>
       <c r="K47" s="3">
         <v>118100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2433900</v>
+        <v>2338900</v>
       </c>
       <c r="E48" s="3">
-        <v>2514500</v>
+        <v>2416400</v>
       </c>
       <c r="F48" s="3">
-        <v>2864500</v>
+        <v>2752700</v>
       </c>
       <c r="G48" s="3">
-        <v>2845000</v>
+        <v>2734000</v>
       </c>
       <c r="H48" s="3">
-        <v>2844800</v>
+        <v>2733800</v>
       </c>
       <c r="I48" s="3">
-        <v>2960600</v>
+        <v>2845100</v>
       </c>
       <c r="J48" s="3">
-        <v>3062400</v>
+        <v>2942900</v>
       </c>
       <c r="K48" s="3">
         <v>3503900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1155400</v>
+        <v>1110300</v>
       </c>
       <c r="E49" s="3">
-        <v>1189000</v>
+        <v>1142600</v>
       </c>
       <c r="F49" s="3">
-        <v>1170900</v>
+        <v>1125200</v>
       </c>
       <c r="G49" s="3">
-        <v>1377900</v>
+        <v>1324100</v>
       </c>
       <c r="H49" s="3">
-        <v>1530800</v>
+        <v>1471100</v>
       </c>
       <c r="I49" s="3">
-        <v>1545100</v>
+        <v>1484800</v>
       </c>
       <c r="J49" s="3">
-        <v>1642800</v>
+        <v>1578700</v>
       </c>
       <c r="K49" s="3">
         <v>1862500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>284100</v>
+        <v>273000</v>
       </c>
       <c r="E52" s="3">
-        <v>1085600</v>
+        <v>1043300</v>
       </c>
       <c r="F52" s="3">
-        <v>379700</v>
+        <v>364800</v>
       </c>
       <c r="G52" s="3">
-        <v>420000</v>
+        <v>403600</v>
       </c>
       <c r="H52" s="3">
-        <v>441700</v>
+        <v>424500</v>
       </c>
       <c r="I52" s="3">
-        <v>431700</v>
+        <v>414800</v>
       </c>
       <c r="J52" s="3">
-        <v>444400</v>
+        <v>427100</v>
       </c>
       <c r="K52" s="3">
         <v>511500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5414700</v>
+        <v>5203400</v>
       </c>
       <c r="E54" s="3">
-        <v>6090300</v>
+        <v>5852600</v>
       </c>
       <c r="F54" s="3">
-        <v>6596900</v>
+        <v>6339500</v>
       </c>
       <c r="G54" s="3">
-        <v>6953800</v>
+        <v>6682500</v>
       </c>
       <c r="H54" s="3">
-        <v>7371400</v>
+        <v>7083700</v>
       </c>
       <c r="I54" s="3">
-        <v>7858600</v>
+        <v>7551900</v>
       </c>
       <c r="J54" s="3">
-        <v>7742900</v>
+        <v>7440800</v>
       </c>
       <c r="K54" s="3">
         <v>8811800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>849500</v>
+        <v>816400</v>
       </c>
       <c r="E57" s="3">
-        <v>747100</v>
+        <v>717900</v>
       </c>
       <c r="F57" s="3">
-        <v>971500</v>
+        <v>933600</v>
       </c>
       <c r="G57" s="3">
-        <v>1073200</v>
+        <v>1031300</v>
       </c>
       <c r="H57" s="3">
-        <v>1206500</v>
+        <v>1159400</v>
       </c>
       <c r="I57" s="3">
-        <v>1415800</v>
+        <v>1360600</v>
       </c>
       <c r="J57" s="3">
-        <v>1248100</v>
+        <v>1199400</v>
       </c>
       <c r="K57" s="3">
         <v>1101000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>486800</v>
+        <v>467800</v>
       </c>
       <c r="E58" s="3">
-        <v>301200</v>
+        <v>289400</v>
       </c>
       <c r="F58" s="3">
-        <v>808800</v>
+        <v>777300</v>
       </c>
       <c r="G58" s="3">
-        <v>568800</v>
+        <v>546600</v>
       </c>
       <c r="H58" s="3">
-        <v>793500</v>
+        <v>762500</v>
       </c>
       <c r="I58" s="3">
-        <v>191100</v>
+        <v>183600</v>
       </c>
       <c r="J58" s="3">
-        <v>449900</v>
+        <v>432400</v>
       </c>
       <c r="K58" s="3">
         <v>525500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>674900</v>
+        <v>648600</v>
       </c>
       <c r="E59" s="3">
-        <v>771800</v>
+        <v>741700</v>
       </c>
       <c r="F59" s="3">
-        <v>729700</v>
+        <v>701300</v>
       </c>
       <c r="G59" s="3">
-        <v>782400</v>
+        <v>751800</v>
       </c>
       <c r="H59" s="3">
-        <v>824200</v>
+        <v>792000</v>
       </c>
       <c r="I59" s="3">
-        <v>925800</v>
+        <v>889700</v>
       </c>
       <c r="J59" s="3">
-        <v>885200</v>
+        <v>850700</v>
       </c>
       <c r="K59" s="3">
         <v>1122800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2011200</v>
+        <v>1932800</v>
       </c>
       <c r="E60" s="3">
-        <v>1820100</v>
+        <v>1749000</v>
       </c>
       <c r="F60" s="3">
-        <v>2510100</v>
+        <v>2412100</v>
       </c>
       <c r="G60" s="3">
-        <v>2424300</v>
+        <v>2329700</v>
       </c>
       <c r="H60" s="3">
-        <v>2824100</v>
+        <v>2713900</v>
       </c>
       <c r="I60" s="3">
-        <v>2532700</v>
+        <v>2433900</v>
       </c>
       <c r="J60" s="3">
-        <v>2583200</v>
+        <v>2482400</v>
       </c>
       <c r="K60" s="3">
         <v>2749200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>978600</v>
+        <v>940400</v>
       </c>
       <c r="E61" s="3">
-        <v>1313400</v>
+        <v>1262100</v>
       </c>
       <c r="F61" s="3">
-        <v>1381300</v>
+        <v>1327400</v>
       </c>
       <c r="G61" s="3">
-        <v>1329100</v>
+        <v>1277300</v>
       </c>
       <c r="H61" s="3">
-        <v>1324600</v>
+        <v>1272900</v>
       </c>
       <c r="I61" s="3">
-        <v>2014600</v>
+        <v>1936000</v>
       </c>
       <c r="J61" s="3">
-        <v>1822100</v>
+        <v>1751000</v>
       </c>
       <c r="K61" s="3">
         <v>2453600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>377900</v>
+        <v>363200</v>
       </c>
       <c r="E62" s="3">
-        <v>413000</v>
+        <v>396900</v>
       </c>
       <c r="F62" s="3">
-        <v>439700</v>
+        <v>422500</v>
       </c>
       <c r="G62" s="3">
-        <v>487900</v>
+        <v>468900</v>
       </c>
       <c r="H62" s="3">
-        <v>535100</v>
+        <v>514300</v>
       </c>
       <c r="I62" s="3">
-        <v>559100</v>
+        <v>537300</v>
       </c>
       <c r="J62" s="3">
-        <v>629500</v>
+        <v>604900</v>
       </c>
       <c r="K62" s="3">
         <v>788000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3369500</v>
+        <v>3238100</v>
       </c>
       <c r="E66" s="3">
-        <v>4018900</v>
+        <v>3862000</v>
       </c>
       <c r="F66" s="3">
-        <v>4467100</v>
+        <v>4292800</v>
       </c>
       <c r="G66" s="3">
-        <v>4532200</v>
+        <v>4355300</v>
       </c>
       <c r="H66" s="3">
-        <v>4938100</v>
+        <v>4745400</v>
       </c>
       <c r="I66" s="3">
-        <v>5413300</v>
+        <v>5202000</v>
       </c>
       <c r="J66" s="3">
-        <v>5400400</v>
+        <v>5189700</v>
       </c>
       <c r="K66" s="3">
         <v>6415900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3964400</v>
+        <v>3809700</v>
       </c>
       <c r="E72" s="3">
-        <v>3951200</v>
+        <v>3797000</v>
       </c>
       <c r="F72" s="3">
-        <v>3916600</v>
+        <v>3763800</v>
       </c>
       <c r="G72" s="3">
-        <v>4133300</v>
+        <v>3972000</v>
       </c>
       <c r="H72" s="3">
-        <v>3933100</v>
+        <v>3779600</v>
       </c>
       <c r="I72" s="3">
-        <v>3945200</v>
+        <v>3791200</v>
       </c>
       <c r="J72" s="3">
-        <v>3842700</v>
+        <v>3692800</v>
       </c>
       <c r="K72" s="3">
         <v>4027600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2045200</v>
+        <v>1965400</v>
       </c>
       <c r="E76" s="3">
-        <v>2071400</v>
+        <v>1990600</v>
       </c>
       <c r="F76" s="3">
-        <v>2129800</v>
+        <v>2046700</v>
       </c>
       <c r="G76" s="3">
-        <v>2421600</v>
+        <v>2327100</v>
       </c>
       <c r="H76" s="3">
-        <v>2433300</v>
+        <v>2338300</v>
       </c>
       <c r="I76" s="3">
-        <v>2445300</v>
+        <v>2349900</v>
       </c>
       <c r="J76" s="3">
-        <v>2342500</v>
+        <v>2251100</v>
       </c>
       <c r="K76" s="3">
         <v>2396000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>578700</v>
+        <v>556200</v>
       </c>
       <c r="E81" s="3">
-        <v>373500</v>
+        <v>359000</v>
       </c>
       <c r="F81" s="3">
-        <v>212900</v>
+        <v>204600</v>
       </c>
       <c r="G81" s="3">
-        <v>181600</v>
+        <v>174500</v>
       </c>
       <c r="H81" s="3">
-        <v>69700</v>
+        <v>67000</v>
       </c>
       <c r="I81" s="3">
-        <v>145300</v>
+        <v>139600</v>
       </c>
       <c r="J81" s="3">
-        <v>157700</v>
+        <v>151500</v>
       </c>
       <c r="K81" s="3">
         <v>301900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>692900</v>
+        <v>665900</v>
       </c>
       <c r="E83" s="3">
-        <v>864800</v>
+        <v>831000</v>
       </c>
       <c r="F83" s="3">
-        <v>1253400</v>
+        <v>1204500</v>
       </c>
       <c r="G83" s="3">
-        <v>784300</v>
+        <v>753700</v>
       </c>
       <c r="H83" s="3">
-        <v>871700</v>
+        <v>837700</v>
       </c>
       <c r="I83" s="3">
-        <v>914800</v>
+        <v>879100</v>
       </c>
       <c r="J83" s="3">
-        <v>860800</v>
+        <v>827200</v>
       </c>
       <c r="K83" s="3">
         <v>899200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1346700</v>
+        <v>1294100</v>
       </c>
       <c r="E89" s="3">
-        <v>1219100</v>
+        <v>1171500</v>
       </c>
       <c r="F89" s="3">
-        <v>1204300</v>
+        <v>1157300</v>
       </c>
       <c r="G89" s="3">
-        <v>1025400</v>
+        <v>985400</v>
       </c>
       <c r="H89" s="3">
-        <v>830900</v>
+        <v>798500</v>
       </c>
       <c r="I89" s="3">
-        <v>1064000</v>
+        <v>1022400</v>
       </c>
       <c r="J89" s="3">
-        <v>978900</v>
+        <v>940700</v>
       </c>
       <c r="K89" s="3">
         <v>1128800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-608200</v>
+        <v>-584500</v>
       </c>
       <c r="E91" s="3">
-        <v>-693100</v>
+        <v>-666100</v>
       </c>
       <c r="F91" s="3">
-        <v>-686900</v>
+        <v>-660100</v>
       </c>
       <c r="G91" s="3">
-        <v>-747200</v>
+        <v>-718000</v>
       </c>
       <c r="H91" s="3">
-        <v>-938500</v>
+        <v>-901800</v>
       </c>
       <c r="I91" s="3">
-        <v>-677700</v>
+        <v>-651300</v>
       </c>
       <c r="J91" s="3">
-        <v>-683400</v>
+        <v>-656700</v>
       </c>
       <c r="K91" s="3">
         <v>-681900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-452000</v>
+        <v>-434400</v>
       </c>
       <c r="E94" s="3">
-        <v>-757800</v>
+        <v>-728200</v>
       </c>
       <c r="F94" s="3">
-        <v>-654500</v>
+        <v>-629000</v>
       </c>
       <c r="G94" s="3">
-        <v>-748600</v>
+        <v>-719400</v>
       </c>
       <c r="H94" s="3">
-        <v>-947300</v>
+        <v>-910300</v>
       </c>
       <c r="I94" s="3">
-        <v>-671500</v>
+        <v>-645300</v>
       </c>
       <c r="J94" s="3">
-        <v>-669900</v>
+        <v>-643700</v>
       </c>
       <c r="K94" s="3">
         <v>-650400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-774800</v>
+        <v>-744600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1021100</v>
+        <v>-981200</v>
       </c>
       <c r="F100" s="3">
-        <v>-575100</v>
+        <v>-552700</v>
       </c>
       <c r="G100" s="3">
-        <v>-498200</v>
+        <v>-478800</v>
       </c>
       <c r="H100" s="3">
-        <v>-177600</v>
+        <v>-170700</v>
       </c>
       <c r="I100" s="3">
-        <v>-118700</v>
+        <v>-114100</v>
       </c>
       <c r="J100" s="3">
-        <v>-508700</v>
+        <v>-488800</v>
       </c>
       <c r="K100" s="3">
         <v>-403700</v>
@@ -3962,22 +3962,22 @@
         <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="F101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
       </c>
       <c r="H101" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="I101" s="3">
         <v>-600</v>
       </c>
       <c r="J101" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="K101" s="3">
         <v>-700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>118800</v>
+        <v>114200</v>
       </c>
       <c r="E102" s="3">
-        <v>-562600</v>
+        <v>-540700</v>
       </c>
       <c r="F102" s="3">
-        <v>-27400</v>
+        <v>-26300</v>
       </c>
       <c r="G102" s="3">
-        <v>-221100</v>
+        <v>-212400</v>
       </c>
       <c r="H102" s="3">
-        <v>-298800</v>
+        <v>-287200</v>
       </c>
       <c r="I102" s="3">
-        <v>273100</v>
+        <v>262400</v>
       </c>
       <c r="J102" s="3">
-        <v>-194500</v>
+        <v>-186900</v>
       </c>
       <c r="K102" s="3">
         <v>74100</v>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3359500</v>
+        <v>3438400</v>
       </c>
       <c r="E8" s="3">
-        <v>3250400</v>
+        <v>3326700</v>
       </c>
       <c r="F8" s="3">
-        <v>3294400</v>
+        <v>3371700</v>
       </c>
       <c r="G8" s="3">
-        <v>3788800</v>
+        <v>3877700</v>
       </c>
       <c r="H8" s="3">
-        <v>3787000</v>
+        <v>3875900</v>
       </c>
       <c r="I8" s="3">
-        <v>3897900</v>
+        <v>3989400</v>
       </c>
       <c r="J8" s="3">
-        <v>3892800</v>
+        <v>3984100</v>
       </c>
       <c r="K8" s="3">
         <v>4424300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>177100</v>
+        <v>181300</v>
       </c>
       <c r="E9" s="3">
-        <v>164100</v>
+        <v>167900</v>
       </c>
       <c r="F9" s="3">
-        <v>139500</v>
+        <v>142800</v>
       </c>
       <c r="G9" s="3">
-        <v>150200</v>
+        <v>153700</v>
       </c>
       <c r="H9" s="3">
-        <v>163100</v>
+        <v>166900</v>
       </c>
       <c r="I9" s="3">
-        <v>178400</v>
+        <v>182600</v>
       </c>
       <c r="J9" s="3">
-        <v>164500</v>
+        <v>168300</v>
       </c>
       <c r="K9" s="3">
         <v>146400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3182400</v>
+        <v>3257100</v>
       </c>
       <c r="E10" s="3">
-        <v>3086400</v>
+        <v>3158800</v>
       </c>
       <c r="F10" s="3">
-        <v>3154900</v>
+        <v>3228900</v>
       </c>
       <c r="G10" s="3">
-        <v>3638600</v>
+        <v>3724000</v>
       </c>
       <c r="H10" s="3">
-        <v>3624000</v>
+        <v>3709000</v>
       </c>
       <c r="I10" s="3">
-        <v>3719500</v>
+        <v>3806800</v>
       </c>
       <c r="J10" s="3">
-        <v>3728300</v>
+        <v>3815800</v>
       </c>
       <c r="K10" s="3">
         <v>4277800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>50300</v>
+        <v>51400</v>
       </c>
       <c r="E14" s="3">
-        <v>-9800</v>
+        <v>-10000</v>
       </c>
       <c r="F14" s="3">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="G14" s="3">
         <v>-2200</v>
       </c>
       <c r="H14" s="3">
-        <v>39700</v>
+        <v>40600</v>
       </c>
       <c r="I14" s="3">
-        <v>-18300</v>
+        <v>-18700</v>
       </c>
       <c r="J14" s="3">
-        <v>19800</v>
+        <v>20300</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>665900</v>
+        <v>681500</v>
       </c>
       <c r="E15" s="3">
-        <v>810000</v>
+        <v>829000</v>
       </c>
       <c r="F15" s="3">
-        <v>1137600</v>
+        <v>1164300</v>
       </c>
       <c r="G15" s="3">
-        <v>813400</v>
+        <v>832500</v>
       </c>
       <c r="H15" s="3">
-        <v>875900</v>
+        <v>896500</v>
       </c>
       <c r="I15" s="3">
-        <v>879100</v>
+        <v>899700</v>
       </c>
       <c r="J15" s="3">
-        <v>827200</v>
+        <v>846700</v>
       </c>
       <c r="K15" s="3">
         <v>899200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2599600</v>
+        <v>2660600</v>
       </c>
       <c r="E17" s="3">
-        <v>2910100</v>
+        <v>2978400</v>
       </c>
       <c r="F17" s="3">
-        <v>2811400</v>
+        <v>2877300</v>
       </c>
       <c r="G17" s="3">
-        <v>3292700</v>
+        <v>3370000</v>
       </c>
       <c r="H17" s="3">
-        <v>3372400</v>
+        <v>3451500</v>
       </c>
       <c r="I17" s="3">
-        <v>3495100</v>
+        <v>3577100</v>
       </c>
       <c r="J17" s="3">
-        <v>3522500</v>
+        <v>3605200</v>
       </c>
       <c r="K17" s="3">
         <v>3759100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>759900</v>
+        <v>777700</v>
       </c>
       <c r="E18" s="3">
-        <v>340300</v>
+        <v>348300</v>
       </c>
       <c r="F18" s="3">
-        <v>483000</v>
+        <v>494400</v>
       </c>
       <c r="G18" s="3">
-        <v>496100</v>
+        <v>507700</v>
       </c>
       <c r="H18" s="3">
-        <v>414600</v>
+        <v>424300</v>
       </c>
       <c r="I18" s="3">
-        <v>402800</v>
+        <v>412300</v>
       </c>
       <c r="J18" s="3">
-        <v>370200</v>
+        <v>378900</v>
       </c>
       <c r="K18" s="3">
         <v>665200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E20" s="3">
         <v>-1900</v>
       </c>
       <c r="F20" s="3">
-        <v>17900</v>
+        <v>18300</v>
       </c>
       <c r="G20" s="3">
         <v>2100</v>
       </c>
       <c r="H20" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="I20" s="3">
         <v>-2100</v>
       </c>
       <c r="J20" s="3">
-        <v>32600</v>
+        <v>33400</v>
       </c>
       <c r="K20" s="3">
         <v>10200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1427700</v>
+        <v>1448600</v>
       </c>
       <c r="E21" s="3">
-        <v>1168700</v>
+        <v>1180500</v>
       </c>
       <c r="F21" s="3">
-        <v>1704300</v>
+        <v>1721600</v>
       </c>
       <c r="G21" s="3">
-        <v>1251300</v>
+        <v>1266400</v>
       </c>
       <c r="H21" s="3">
-        <v>1247700</v>
+        <v>1261200</v>
       </c>
       <c r="I21" s="3">
-        <v>1279100</v>
+        <v>1292500</v>
       </c>
       <c r="J21" s="3">
-        <v>1229300</v>
+        <v>1242600</v>
       </c>
       <c r="K21" s="3">
         <v>1576600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44900</v>
+        <v>45900</v>
       </c>
       <c r="E22" s="3">
-        <v>56100</v>
+        <v>57400</v>
       </c>
       <c r="F22" s="3">
-        <v>92600</v>
+        <v>94700</v>
       </c>
       <c r="G22" s="3">
-        <v>85900</v>
+        <v>87900</v>
       </c>
       <c r="H22" s="3">
-        <v>138700</v>
+        <v>142000</v>
       </c>
       <c r="I22" s="3">
-        <v>149000</v>
+        <v>152500</v>
       </c>
       <c r="J22" s="3">
-        <v>157000</v>
+        <v>160700</v>
       </c>
       <c r="K22" s="3">
         <v>228900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>717500</v>
+        <v>734400</v>
       </c>
       <c r="E23" s="3">
-        <v>282400</v>
+        <v>289000</v>
       </c>
       <c r="F23" s="3">
-        <v>408300</v>
+        <v>417900</v>
       </c>
       <c r="G23" s="3">
-        <v>412300</v>
+        <v>422000</v>
       </c>
       <c r="H23" s="3">
-        <v>272000</v>
+        <v>278400</v>
       </c>
       <c r="I23" s="3">
-        <v>251700</v>
+        <v>257600</v>
       </c>
       <c r="J23" s="3">
-        <v>245900</v>
+        <v>251600</v>
       </c>
       <c r="K23" s="3">
         <v>446400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>233000</v>
+        <v>238500</v>
       </c>
       <c r="E24" s="3">
-        <v>45800</v>
+        <v>46900</v>
       </c>
       <c r="F24" s="3">
-        <v>92100</v>
+        <v>94200</v>
       </c>
       <c r="G24" s="3">
-        <v>165400</v>
+        <v>169200</v>
       </c>
       <c r="H24" s="3">
-        <v>147200</v>
+        <v>150700</v>
       </c>
       <c r="I24" s="3">
-        <v>168000</v>
+        <v>171900</v>
       </c>
       <c r="J24" s="3">
-        <v>117500</v>
+        <v>120300</v>
       </c>
       <c r="K24" s="3">
         <v>139900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>484500</v>
+        <v>495900</v>
       </c>
       <c r="E26" s="3">
-        <v>236600</v>
+        <v>242100</v>
       </c>
       <c r="F26" s="3">
-        <v>316300</v>
+        <v>323700</v>
       </c>
       <c r="G26" s="3">
-        <v>247000</v>
+        <v>252800</v>
       </c>
       <c r="H26" s="3">
-        <v>124800</v>
+        <v>127700</v>
       </c>
       <c r="I26" s="3">
-        <v>83800</v>
+        <v>85700</v>
       </c>
       <c r="J26" s="3">
-        <v>128400</v>
+        <v>131400</v>
       </c>
       <c r="K26" s="3">
         <v>306600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>452500</v>
+        <v>463100</v>
       </c>
       <c r="E27" s="3">
-        <v>220800</v>
+        <v>226000</v>
       </c>
       <c r="F27" s="3">
-        <v>478100</v>
+        <v>489300</v>
       </c>
       <c r="G27" s="3">
-        <v>256000</v>
+        <v>262000</v>
       </c>
       <c r="H27" s="3">
-        <v>169100</v>
+        <v>173000</v>
       </c>
       <c r="I27" s="3">
-        <v>139600</v>
+        <v>142900</v>
       </c>
       <c r="J27" s="3">
-        <v>151500</v>
+        <v>155100</v>
       </c>
       <c r="K27" s="3">
         <v>301900</v>
@@ -1473,19 +1473,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>103600</v>
+        <v>106100</v>
       </c>
       <c r="E29" s="3">
-        <v>138100</v>
+        <v>141400</v>
       </c>
       <c r="F29" s="3">
-        <v>-273500</v>
+        <v>-279900</v>
       </c>
       <c r="G29" s="3">
-        <v>-81500</v>
+        <v>-83400</v>
       </c>
       <c r="H29" s="3">
-        <v>-102000</v>
+        <v>-104400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="E32" s="3">
         <v>1900</v>
       </c>
       <c r="F32" s="3">
-        <v>-17900</v>
+        <v>-18300</v>
       </c>
       <c r="G32" s="3">
         <v>-2100</v>
       </c>
       <c r="H32" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I32" s="3">
         <v>2100</v>
       </c>
       <c r="J32" s="3">
-        <v>-32600</v>
+        <v>-33400</v>
       </c>
       <c r="K32" s="3">
         <v>-10200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>556200</v>
+        <v>569200</v>
       </c>
       <c r="E33" s="3">
-        <v>359000</v>
+        <v>367400</v>
       </c>
       <c r="F33" s="3">
-        <v>204600</v>
+        <v>209400</v>
       </c>
       <c r="G33" s="3">
-        <v>174500</v>
+        <v>178600</v>
       </c>
       <c r="H33" s="3">
-        <v>67000</v>
+        <v>68600</v>
       </c>
       <c r="I33" s="3">
-        <v>139600</v>
+        <v>142900</v>
       </c>
       <c r="J33" s="3">
-        <v>151500</v>
+        <v>155100</v>
       </c>
       <c r="K33" s="3">
         <v>301900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>556200</v>
+        <v>569200</v>
       </c>
       <c r="E35" s="3">
-        <v>359000</v>
+        <v>367400</v>
       </c>
       <c r="F35" s="3">
-        <v>204600</v>
+        <v>209400</v>
       </c>
       <c r="G35" s="3">
-        <v>174500</v>
+        <v>178600</v>
       </c>
       <c r="H35" s="3">
-        <v>67000</v>
+        <v>68600</v>
       </c>
       <c r="I35" s="3">
-        <v>139600</v>
+        <v>142900</v>
       </c>
       <c r="J35" s="3">
-        <v>151500</v>
+        <v>155100</v>
       </c>
       <c r="K35" s="3">
         <v>301900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>629100</v>
+        <v>643800</v>
       </c>
       <c r="E41" s="3">
-        <v>514900</v>
+        <v>526900</v>
       </c>
       <c r="F41" s="3">
-        <v>1055500</v>
+        <v>1080300</v>
       </c>
       <c r="G41" s="3">
-        <v>1081900</v>
+        <v>1107300</v>
       </c>
       <c r="H41" s="3">
-        <v>1294300</v>
+        <v>1324700</v>
       </c>
       <c r="I41" s="3">
-        <v>1581500</v>
+        <v>1618600</v>
       </c>
       <c r="J41" s="3">
-        <v>1319100</v>
+        <v>1350000</v>
       </c>
       <c r="K41" s="3">
         <v>1704800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E42" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F42" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I42" s="3">
         <v>5700</v>
       </c>
-      <c r="G42" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I42" s="3">
-        <v>5600</v>
-      </c>
       <c r="J42" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="K42" s="3">
         <v>4200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>601300</v>
+        <v>615400</v>
       </c>
       <c r="E43" s="3">
-        <v>511400</v>
+        <v>523400</v>
       </c>
       <c r="F43" s="3">
-        <v>716500</v>
+        <v>733300</v>
       </c>
       <c r="G43" s="3">
-        <v>722900</v>
+        <v>739900</v>
       </c>
       <c r="H43" s="3">
-        <v>717800</v>
+        <v>734700</v>
       </c>
       <c r="I43" s="3">
-        <v>728600</v>
+        <v>745700</v>
       </c>
       <c r="J43" s="3">
-        <v>726700</v>
+        <v>743800</v>
       </c>
       <c r="K43" s="3">
         <v>773300</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="E44" s="3">
-        <v>26800</v>
+        <v>27500</v>
       </c>
       <c r="F44" s="3">
-        <v>51200</v>
+        <v>52400</v>
       </c>
       <c r="G44" s="3">
-        <v>81800</v>
+        <v>83700</v>
       </c>
       <c r="H44" s="3">
-        <v>91100</v>
+        <v>93200</v>
       </c>
       <c r="I44" s="3">
-        <v>95700</v>
+        <v>97900</v>
       </c>
       <c r="J44" s="3">
-        <v>96900</v>
+        <v>99200</v>
       </c>
       <c r="K44" s="3">
         <v>99200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>114500</v>
+        <v>117200</v>
       </c>
       <c r="E45" s="3">
-        <v>95000</v>
+        <v>97200</v>
       </c>
       <c r="F45" s="3">
-        <v>143000</v>
+        <v>146400</v>
       </c>
       <c r="G45" s="3">
-        <v>165600</v>
+        <v>169500</v>
       </c>
       <c r="H45" s="3">
-        <v>262900</v>
+        <v>269100</v>
       </c>
       <c r="I45" s="3">
-        <v>310400</v>
+        <v>317700</v>
       </c>
       <c r="J45" s="3">
-        <v>254500</v>
+        <v>260500</v>
       </c>
       <c r="K45" s="3">
         <v>234300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1388400</v>
+        <v>1421000</v>
       </c>
       <c r="E46" s="3">
-        <v>1153400</v>
+        <v>1180500</v>
       </c>
       <c r="F46" s="3">
-        <v>1972000</v>
+        <v>2018200</v>
       </c>
       <c r="G46" s="3">
-        <v>2057200</v>
+        <v>2105500</v>
       </c>
       <c r="H46" s="3">
-        <v>2372000</v>
+        <v>2427700</v>
       </c>
       <c r="I46" s="3">
-        <v>2721700</v>
+        <v>2785600</v>
       </c>
       <c r="J46" s="3">
-        <v>2404000</v>
+        <v>2460400</v>
       </c>
       <c r="K46" s="3">
         <v>2815900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>92900</v>
+        <v>95000</v>
       </c>
       <c r="E47" s="3">
-        <v>96900</v>
+        <v>99200</v>
       </c>
       <c r="F47" s="3">
-        <v>124800</v>
+        <v>127700</v>
       </c>
       <c r="G47" s="3">
-        <v>163500</v>
+        <v>167300</v>
       </c>
       <c r="H47" s="3">
-        <v>82400</v>
+        <v>84300</v>
       </c>
       <c r="I47" s="3">
-        <v>85500</v>
+        <v>87500</v>
       </c>
       <c r="J47" s="3">
-        <v>88100</v>
+        <v>90100</v>
       </c>
       <c r="K47" s="3">
         <v>118100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2338900</v>
+        <v>2393800</v>
       </c>
       <c r="E48" s="3">
-        <v>2416400</v>
+        <v>2473100</v>
       </c>
       <c r="F48" s="3">
-        <v>2752700</v>
+        <v>2817300</v>
       </c>
       <c r="G48" s="3">
-        <v>2734000</v>
+        <v>2798100</v>
       </c>
       <c r="H48" s="3">
-        <v>2733800</v>
+        <v>2797900</v>
       </c>
       <c r="I48" s="3">
-        <v>2845100</v>
+        <v>2911800</v>
       </c>
       <c r="J48" s="3">
-        <v>2942900</v>
+        <v>3012000</v>
       </c>
       <c r="K48" s="3">
         <v>3503900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1110300</v>
+        <v>1136400</v>
       </c>
       <c r="E49" s="3">
-        <v>1142600</v>
+        <v>1169400</v>
       </c>
       <c r="F49" s="3">
-        <v>1125200</v>
+        <v>1151600</v>
       </c>
       <c r="G49" s="3">
-        <v>1324100</v>
+        <v>1355200</v>
       </c>
       <c r="H49" s="3">
-        <v>1471100</v>
+        <v>1505600</v>
       </c>
       <c r="I49" s="3">
-        <v>1484800</v>
+        <v>1519700</v>
       </c>
       <c r="J49" s="3">
-        <v>1578700</v>
+        <v>1615700</v>
       </c>
       <c r="K49" s="3">
         <v>1862500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>273000</v>
+        <v>279400</v>
       </c>
       <c r="E52" s="3">
-        <v>1043300</v>
+        <v>1067800</v>
       </c>
       <c r="F52" s="3">
-        <v>364800</v>
+        <v>373400</v>
       </c>
       <c r="G52" s="3">
-        <v>403600</v>
+        <v>413100</v>
       </c>
       <c r="H52" s="3">
-        <v>424500</v>
+        <v>434500</v>
       </c>
       <c r="I52" s="3">
-        <v>414800</v>
+        <v>424600</v>
       </c>
       <c r="J52" s="3">
-        <v>427100</v>
+        <v>437100</v>
       </c>
       <c r="K52" s="3">
         <v>511500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5203400</v>
+        <v>5325500</v>
       </c>
       <c r="E54" s="3">
-        <v>5852600</v>
+        <v>5990000</v>
       </c>
       <c r="F54" s="3">
-        <v>6339500</v>
+        <v>6488200</v>
       </c>
       <c r="G54" s="3">
-        <v>6682500</v>
+        <v>6839300</v>
       </c>
       <c r="H54" s="3">
-        <v>7083700</v>
+        <v>7249900</v>
       </c>
       <c r="I54" s="3">
-        <v>7551900</v>
+        <v>7729100</v>
       </c>
       <c r="J54" s="3">
-        <v>7440800</v>
+        <v>7615400</v>
       </c>
       <c r="K54" s="3">
         <v>8811800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>816400</v>
+        <v>835500</v>
       </c>
       <c r="E57" s="3">
-        <v>717900</v>
+        <v>734800</v>
       </c>
       <c r="F57" s="3">
-        <v>933600</v>
+        <v>955500</v>
       </c>
       <c r="G57" s="3">
-        <v>1031300</v>
+        <v>1055500</v>
       </c>
       <c r="H57" s="3">
-        <v>1159400</v>
+        <v>1186600</v>
       </c>
       <c r="I57" s="3">
-        <v>1360600</v>
+        <v>1392500</v>
       </c>
       <c r="J57" s="3">
-        <v>1199400</v>
+        <v>1227500</v>
       </c>
       <c r="K57" s="3">
         <v>1101000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>467800</v>
+        <v>478800</v>
       </c>
       <c r="E58" s="3">
-        <v>289400</v>
+        <v>296200</v>
       </c>
       <c r="F58" s="3">
-        <v>777300</v>
+        <v>795500</v>
       </c>
       <c r="G58" s="3">
-        <v>546600</v>
+        <v>559400</v>
       </c>
       <c r="H58" s="3">
-        <v>762500</v>
+        <v>780400</v>
       </c>
       <c r="I58" s="3">
-        <v>183600</v>
+        <v>187900</v>
       </c>
       <c r="J58" s="3">
-        <v>432400</v>
+        <v>442500</v>
       </c>
       <c r="K58" s="3">
         <v>525500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>648600</v>
+        <v>663800</v>
       </c>
       <c r="E59" s="3">
-        <v>741700</v>
+        <v>759100</v>
       </c>
       <c r="F59" s="3">
-        <v>701300</v>
+        <v>717700</v>
       </c>
       <c r="G59" s="3">
-        <v>751800</v>
+        <v>769500</v>
       </c>
       <c r="H59" s="3">
-        <v>792000</v>
+        <v>810600</v>
       </c>
       <c r="I59" s="3">
-        <v>889700</v>
+        <v>910600</v>
       </c>
       <c r="J59" s="3">
-        <v>850700</v>
+        <v>870600</v>
       </c>
       <c r="K59" s="3">
         <v>1122800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1932800</v>
+        <v>1978100</v>
       </c>
       <c r="E60" s="3">
-        <v>1749000</v>
+        <v>1790100</v>
       </c>
       <c r="F60" s="3">
-        <v>2412100</v>
+        <v>2468700</v>
       </c>
       <c r="G60" s="3">
-        <v>2329700</v>
+        <v>2384400</v>
       </c>
       <c r="H60" s="3">
-        <v>2713900</v>
+        <v>2777600</v>
       </c>
       <c r="I60" s="3">
-        <v>2433900</v>
+        <v>2491000</v>
       </c>
       <c r="J60" s="3">
-        <v>2482400</v>
+        <v>2540700</v>
       </c>
       <c r="K60" s="3">
         <v>2749200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>940400</v>
+        <v>962500</v>
       </c>
       <c r="E61" s="3">
-        <v>1262100</v>
+        <v>1291700</v>
       </c>
       <c r="F61" s="3">
-        <v>1327400</v>
+        <v>1358600</v>
       </c>
       <c r="G61" s="3">
-        <v>1277300</v>
+        <v>1307200</v>
       </c>
       <c r="H61" s="3">
-        <v>1272900</v>
+        <v>1302700</v>
       </c>
       <c r="I61" s="3">
-        <v>1936000</v>
+        <v>1981400</v>
       </c>
       <c r="J61" s="3">
-        <v>1751000</v>
+        <v>1792100</v>
       </c>
       <c r="K61" s="3">
         <v>2453600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>363200</v>
+        <v>371700</v>
       </c>
       <c r="E62" s="3">
-        <v>396900</v>
+        <v>406200</v>
       </c>
       <c r="F62" s="3">
-        <v>422500</v>
+        <v>432400</v>
       </c>
       <c r="G62" s="3">
-        <v>468900</v>
+        <v>479900</v>
       </c>
       <c r="H62" s="3">
-        <v>514300</v>
+        <v>526300</v>
       </c>
       <c r="I62" s="3">
-        <v>537300</v>
+        <v>549900</v>
       </c>
       <c r="J62" s="3">
-        <v>604900</v>
+        <v>619100</v>
       </c>
       <c r="K62" s="3">
         <v>788000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3238100</v>
+        <v>3314000</v>
       </c>
       <c r="E66" s="3">
-        <v>3862000</v>
+        <v>3952600</v>
       </c>
       <c r="F66" s="3">
-        <v>4292800</v>
+        <v>4393500</v>
       </c>
       <c r="G66" s="3">
-        <v>4355300</v>
+        <v>4457500</v>
       </c>
       <c r="H66" s="3">
-        <v>4745400</v>
+        <v>4856800</v>
       </c>
       <c r="I66" s="3">
-        <v>5202000</v>
+        <v>5324100</v>
       </c>
       <c r="J66" s="3">
-        <v>5189700</v>
+        <v>5311400</v>
       </c>
       <c r="K66" s="3">
         <v>6415900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3809700</v>
+        <v>3899000</v>
       </c>
       <c r="E72" s="3">
-        <v>3797000</v>
+        <v>3886100</v>
       </c>
       <c r="F72" s="3">
-        <v>3763800</v>
+        <v>3852100</v>
       </c>
       <c r="G72" s="3">
-        <v>3972000</v>
+        <v>4065200</v>
       </c>
       <c r="H72" s="3">
-        <v>3779600</v>
+        <v>3868300</v>
       </c>
       <c r="I72" s="3">
-        <v>3791200</v>
+        <v>3880200</v>
       </c>
       <c r="J72" s="3">
-        <v>3692800</v>
+        <v>3779400</v>
       </c>
       <c r="K72" s="3">
         <v>4027600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1965400</v>
+        <v>2011500</v>
       </c>
       <c r="E76" s="3">
-        <v>1990600</v>
+        <v>2037300</v>
       </c>
       <c r="F76" s="3">
-        <v>2046700</v>
+        <v>2094700</v>
       </c>
       <c r="G76" s="3">
-        <v>2327100</v>
+        <v>2381700</v>
       </c>
       <c r="H76" s="3">
-        <v>2338300</v>
+        <v>2393200</v>
       </c>
       <c r="I76" s="3">
-        <v>2349900</v>
+        <v>2405000</v>
       </c>
       <c r="J76" s="3">
-        <v>2251100</v>
+        <v>2303900</v>
       </c>
       <c r="K76" s="3">
         <v>2396000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>556200</v>
+        <v>569200</v>
       </c>
       <c r="E81" s="3">
-        <v>359000</v>
+        <v>367400</v>
       </c>
       <c r="F81" s="3">
-        <v>204600</v>
+        <v>209400</v>
       </c>
       <c r="G81" s="3">
-        <v>174500</v>
+        <v>178600</v>
       </c>
       <c r="H81" s="3">
-        <v>67000</v>
+        <v>68600</v>
       </c>
       <c r="I81" s="3">
-        <v>139600</v>
+        <v>142900</v>
       </c>
       <c r="J81" s="3">
-        <v>151500</v>
+        <v>155100</v>
       </c>
       <c r="K81" s="3">
         <v>301900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>665900</v>
+        <v>681500</v>
       </c>
       <c r="E83" s="3">
-        <v>831000</v>
+        <v>850500</v>
       </c>
       <c r="F83" s="3">
-        <v>1204500</v>
+        <v>1232700</v>
       </c>
       <c r="G83" s="3">
-        <v>753700</v>
+        <v>771400</v>
       </c>
       <c r="H83" s="3">
-        <v>837700</v>
+        <v>857400</v>
       </c>
       <c r="I83" s="3">
-        <v>879100</v>
+        <v>899700</v>
       </c>
       <c r="J83" s="3">
-        <v>827200</v>
+        <v>846700</v>
       </c>
       <c r="K83" s="3">
         <v>899200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1294100</v>
+        <v>1324500</v>
       </c>
       <c r="E89" s="3">
-        <v>1171500</v>
+        <v>1199000</v>
       </c>
       <c r="F89" s="3">
-        <v>1157300</v>
+        <v>1184400</v>
       </c>
       <c r="G89" s="3">
-        <v>985400</v>
+        <v>1008600</v>
       </c>
       <c r="H89" s="3">
-        <v>798500</v>
+        <v>817300</v>
       </c>
       <c r="I89" s="3">
-        <v>1022400</v>
+        <v>1046400</v>
       </c>
       <c r="J89" s="3">
-        <v>940700</v>
+        <v>962800</v>
       </c>
       <c r="K89" s="3">
         <v>1128800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-584500</v>
+        <v>-598200</v>
       </c>
       <c r="E91" s="3">
-        <v>-666100</v>
+        <v>-681700</v>
       </c>
       <c r="F91" s="3">
-        <v>-660100</v>
+        <v>-675600</v>
       </c>
       <c r="G91" s="3">
-        <v>-718000</v>
+        <v>-734900</v>
       </c>
       <c r="H91" s="3">
-        <v>-901800</v>
+        <v>-923000</v>
       </c>
       <c r="I91" s="3">
-        <v>-651300</v>
+        <v>-666600</v>
       </c>
       <c r="J91" s="3">
-        <v>-656700</v>
+        <v>-672100</v>
       </c>
       <c r="K91" s="3">
         <v>-681900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-434400</v>
+        <v>-444600</v>
       </c>
       <c r="E94" s="3">
-        <v>-728200</v>
+        <v>-745300</v>
       </c>
       <c r="F94" s="3">
-        <v>-629000</v>
+        <v>-643700</v>
       </c>
       <c r="G94" s="3">
-        <v>-719400</v>
+        <v>-736300</v>
       </c>
       <c r="H94" s="3">
-        <v>-910300</v>
+        <v>-931700</v>
       </c>
       <c r="I94" s="3">
-        <v>-645300</v>
+        <v>-660500</v>
       </c>
       <c r="J94" s="3">
-        <v>-643700</v>
+        <v>-658800</v>
       </c>
       <c r="K94" s="3">
         <v>-650400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-744600</v>
+        <v>-762000</v>
       </c>
       <c r="E100" s="3">
-        <v>-981200</v>
+        <v>-1004300</v>
       </c>
       <c r="F100" s="3">
-        <v>-552700</v>
+        <v>-565600</v>
       </c>
       <c r="G100" s="3">
-        <v>-478800</v>
+        <v>-490000</v>
       </c>
       <c r="H100" s="3">
-        <v>-170700</v>
+        <v>-174700</v>
       </c>
       <c r="I100" s="3">
-        <v>-114100</v>
+        <v>-116800</v>
       </c>
       <c r="J100" s="3">
-        <v>-488800</v>
+        <v>-500300</v>
       </c>
       <c r="K100" s="3">
         <v>-403700</v>
@@ -3962,7 +3962,7 @@
         <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
         <v>-2000</v>
@@ -3971,13 +3971,13 @@
         <v>300</v>
       </c>
       <c r="H101" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="I101" s="3">
         <v>-600</v>
       </c>
       <c r="J101" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K101" s="3">
         <v>-700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>114200</v>
+        <v>116900</v>
       </c>
       <c r="E102" s="3">
-        <v>-540700</v>
+        <v>-553400</v>
       </c>
       <c r="F102" s="3">
-        <v>-26300</v>
+        <v>-26900</v>
       </c>
       <c r="G102" s="3">
-        <v>-212400</v>
+        <v>-217400</v>
       </c>
       <c r="H102" s="3">
-        <v>-287200</v>
+        <v>-293900</v>
       </c>
       <c r="I102" s="3">
-        <v>262400</v>
+        <v>268600</v>
       </c>
       <c r="J102" s="3">
-        <v>-186900</v>
+        <v>-191300</v>
       </c>
       <c r="K102" s="3">
         <v>74100</v>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>HLTOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3438400</v>
+        <v>3655700</v>
       </c>
       <c r="E8" s="3">
-        <v>3326700</v>
+        <v>3529800</v>
       </c>
       <c r="F8" s="3">
-        <v>3371700</v>
+        <v>3447900</v>
       </c>
       <c r="G8" s="3">
-        <v>3877700</v>
+        <v>3494600</v>
       </c>
       <c r="H8" s="3">
-        <v>3875900</v>
+        <v>4019000</v>
       </c>
       <c r="I8" s="3">
-        <v>3989400</v>
+        <v>4017100</v>
       </c>
       <c r="J8" s="3">
+        <v>4134800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3984100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4424300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4849500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4754700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5914000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>181300</v>
+        <v>231800</v>
       </c>
       <c r="E9" s="3">
-        <v>167900</v>
+        <v>182400</v>
       </c>
       <c r="F9" s="3">
-        <v>142800</v>
+        <v>174000</v>
       </c>
       <c r="G9" s="3">
-        <v>153700</v>
+        <v>148000</v>
       </c>
       <c r="H9" s="3">
-        <v>166900</v>
+        <v>159300</v>
       </c>
       <c r="I9" s="3">
-        <v>182600</v>
+        <v>173000</v>
       </c>
       <c r="J9" s="3">
+        <v>189300</v>
+      </c>
+      <c r="K9" s="3">
         <v>168300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>146400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>148100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1009900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1272100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3257100</v>
+        <v>3423900</v>
       </c>
       <c r="E10" s="3">
-        <v>3158800</v>
+        <v>3347400</v>
       </c>
       <c r="F10" s="3">
-        <v>3228900</v>
+        <v>3273900</v>
       </c>
       <c r="G10" s="3">
-        <v>3724000</v>
+        <v>3346600</v>
       </c>
       <c r="H10" s="3">
-        <v>3709000</v>
+        <v>3859700</v>
       </c>
       <c r="I10" s="3">
-        <v>3806800</v>
+        <v>3844100</v>
       </c>
       <c r="J10" s="3">
+        <v>3945500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3815800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4277800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4701400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3744700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4641900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>51400</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-10000</v>
+        <v>53300</v>
       </c>
       <c r="F14" s="3">
-        <v>42700</v>
+        <v>-10400</v>
       </c>
       <c r="G14" s="3">
-        <v>-2200</v>
+        <v>44200</v>
       </c>
       <c r="H14" s="3">
-        <v>40600</v>
+        <v>-2300</v>
       </c>
       <c r="I14" s="3">
-        <v>-18700</v>
+        <v>42100</v>
       </c>
       <c r="J14" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K14" s="3">
         <v>20300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>681500</v>
+        <v>841200</v>
       </c>
       <c r="E15" s="3">
-        <v>829000</v>
+        <v>706300</v>
       </c>
       <c r="F15" s="3">
-        <v>1164300</v>
+        <v>859200</v>
       </c>
       <c r="G15" s="3">
-        <v>832500</v>
+        <v>1206800</v>
       </c>
       <c r="H15" s="3">
-        <v>896500</v>
+        <v>862800</v>
       </c>
       <c r="I15" s="3">
-        <v>899700</v>
+        <v>929100</v>
       </c>
       <c r="J15" s="3">
+        <v>932500</v>
+      </c>
+      <c r="K15" s="3">
         <v>846700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>899200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1007800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>898600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1537900</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2660600</v>
+        <v>3031000</v>
       </c>
       <c r="E17" s="3">
-        <v>2978400</v>
+        <v>2723700</v>
       </c>
       <c r="F17" s="3">
-        <v>2877300</v>
+        <v>3086900</v>
       </c>
       <c r="G17" s="3">
-        <v>3370000</v>
+        <v>2982200</v>
       </c>
       <c r="H17" s="3">
-        <v>3451500</v>
+        <v>3492800</v>
       </c>
       <c r="I17" s="3">
-        <v>3577100</v>
+        <v>3577300</v>
       </c>
       <c r="J17" s="3">
+        <v>3707400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3605200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3759100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4448200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4123900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>777700</v>
+        <v>624700</v>
       </c>
       <c r="E18" s="3">
-        <v>348300</v>
+        <v>806100</v>
       </c>
       <c r="F18" s="3">
-        <v>494400</v>
+        <v>361000</v>
       </c>
       <c r="G18" s="3">
-        <v>507700</v>
+        <v>512400</v>
       </c>
       <c r="H18" s="3">
-        <v>424300</v>
+        <v>526200</v>
       </c>
       <c r="I18" s="3">
-        <v>412300</v>
+        <v>439800</v>
       </c>
       <c r="J18" s="3">
+        <v>427300</v>
+      </c>
+      <c r="K18" s="3">
         <v>378900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>665200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>401300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>630800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>413900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
-        <v>-1900</v>
-      </c>
       <c r="F20" s="3">
-        <v>18300</v>
+        <v>-2000</v>
       </c>
       <c r="G20" s="3">
-        <v>2100</v>
+        <v>18900</v>
       </c>
       <c r="H20" s="3">
-        <v>-4000</v>
+        <v>2200</v>
       </c>
       <c r="I20" s="3">
-        <v>-2100</v>
+        <v>-4100</v>
       </c>
       <c r="J20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K20" s="3">
         <v>33400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>273100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>265800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>61700</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1448600</v>
+        <v>1467700</v>
       </c>
       <c r="E21" s="3">
-        <v>1180500</v>
+        <v>1512700</v>
       </c>
       <c r="F21" s="3">
-        <v>1721600</v>
+        <v>1237500</v>
       </c>
       <c r="G21" s="3">
-        <v>1266400</v>
+        <v>1804600</v>
       </c>
       <c r="H21" s="3">
-        <v>1261200</v>
+        <v>1325300</v>
       </c>
       <c r="I21" s="3">
-        <v>1292500</v>
+        <v>1321300</v>
       </c>
       <c r="J21" s="3">
+        <v>1354500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1242600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1576600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1678100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1796600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2014600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45900</v>
+        <v>42200</v>
       </c>
       <c r="E22" s="3">
-        <v>57400</v>
+        <v>47600</v>
       </c>
       <c r="F22" s="3">
-        <v>94700</v>
+        <v>59500</v>
       </c>
       <c r="G22" s="3">
-        <v>87900</v>
+        <v>98200</v>
       </c>
       <c r="H22" s="3">
-        <v>142000</v>
+        <v>91100</v>
       </c>
       <c r="I22" s="3">
-        <v>152500</v>
+        <v>147200</v>
       </c>
       <c r="J22" s="3">
+        <v>158100</v>
+      </c>
+      <c r="K22" s="3">
         <v>160700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>228900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>297900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>271500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>340500</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>734400</v>
+        <v>587100</v>
       </c>
       <c r="E23" s="3">
-        <v>289000</v>
+        <v>761100</v>
       </c>
       <c r="F23" s="3">
-        <v>417900</v>
+        <v>299500</v>
       </c>
       <c r="G23" s="3">
-        <v>422000</v>
+        <v>433100</v>
       </c>
       <c r="H23" s="3">
-        <v>278400</v>
+        <v>437400</v>
       </c>
       <c r="I23" s="3">
-        <v>257600</v>
+        <v>288500</v>
       </c>
       <c r="J23" s="3">
+        <v>267000</v>
+      </c>
+      <c r="K23" s="3">
         <v>251600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>446400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>376600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>625100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>135100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>238500</v>
+        <v>175800</v>
       </c>
       <c r="E24" s="3">
-        <v>46900</v>
+        <v>247100</v>
       </c>
       <c r="F24" s="3">
-        <v>94200</v>
+        <v>48600</v>
       </c>
       <c r="G24" s="3">
-        <v>169200</v>
+        <v>97700</v>
       </c>
       <c r="H24" s="3">
-        <v>150700</v>
+        <v>175400</v>
       </c>
       <c r="I24" s="3">
-        <v>171900</v>
+        <v>156200</v>
       </c>
       <c r="J24" s="3">
+        <v>178200</v>
+      </c>
+      <c r="K24" s="3">
         <v>120300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>139900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>114100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>151100</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>495900</v>
+        <v>411200</v>
       </c>
       <c r="E26" s="3">
-        <v>242100</v>
+        <v>514000</v>
       </c>
       <c r="F26" s="3">
-        <v>323700</v>
+        <v>251000</v>
       </c>
       <c r="G26" s="3">
-        <v>252800</v>
+        <v>335500</v>
       </c>
       <c r="H26" s="3">
-        <v>127700</v>
+        <v>262000</v>
       </c>
       <c r="I26" s="3">
-        <v>85700</v>
+        <v>132400</v>
       </c>
       <c r="J26" s="3">
+        <v>88900</v>
+      </c>
+      <c r="K26" s="3">
         <v>131400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>306600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>351600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>511000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>463100</v>
+        <v>411100</v>
       </c>
       <c r="E27" s="3">
-        <v>226000</v>
+        <v>480000</v>
       </c>
       <c r="F27" s="3">
-        <v>489300</v>
+        <v>234200</v>
       </c>
       <c r="G27" s="3">
-        <v>262000</v>
+        <v>507100</v>
       </c>
       <c r="H27" s="3">
-        <v>173000</v>
+        <v>271600</v>
       </c>
       <c r="I27" s="3">
-        <v>142900</v>
+        <v>179300</v>
       </c>
       <c r="J27" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K27" s="3">
         <v>155100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>301900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>344300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>483300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>140500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,48 +1523,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>106100</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>141400</v>
+        <v>109900</v>
       </c>
       <c r="F29" s="3">
-        <v>-279900</v>
+        <v>146500</v>
       </c>
       <c r="G29" s="3">
-        <v>-83400</v>
+        <v>-290100</v>
       </c>
       <c r="H29" s="3">
-        <v>-104400</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>-86400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-108200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>34600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>34800</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
-        <v>1900</v>
-      </c>
       <c r="F32" s="3">
-        <v>-18300</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="3">
-        <v>-2100</v>
+        <v>-18900</v>
       </c>
       <c r="H32" s="3">
-        <v>4000</v>
+        <v>-2200</v>
       </c>
       <c r="I32" s="3">
-        <v>2100</v>
+        <v>4100</v>
       </c>
       <c r="J32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-33400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-273100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-265800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-61700</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>569200</v>
+        <v>411100</v>
       </c>
       <c r="E33" s="3">
-        <v>367400</v>
+        <v>589900</v>
       </c>
       <c r="F33" s="3">
-        <v>209400</v>
+        <v>380800</v>
       </c>
       <c r="G33" s="3">
-        <v>178600</v>
+        <v>217000</v>
       </c>
       <c r="H33" s="3">
-        <v>68600</v>
+        <v>185200</v>
       </c>
       <c r="I33" s="3">
-        <v>142900</v>
+        <v>71100</v>
       </c>
       <c r="J33" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K33" s="3">
         <v>155100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>301900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>378800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>518100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>140500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>569200</v>
+        <v>411100</v>
       </c>
       <c r="E35" s="3">
-        <v>367400</v>
+        <v>589900</v>
       </c>
       <c r="F35" s="3">
-        <v>209400</v>
+        <v>380800</v>
       </c>
       <c r="G35" s="3">
-        <v>178600</v>
+        <v>217000</v>
       </c>
       <c r="H35" s="3">
-        <v>68600</v>
+        <v>185200</v>
       </c>
       <c r="I35" s="3">
-        <v>142900</v>
+        <v>71100</v>
       </c>
       <c r="J35" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K35" s="3">
         <v>155100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>301900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>378800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>518100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>140500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>643800</v>
+        <v>624300</v>
       </c>
       <c r="E41" s="3">
-        <v>526900</v>
+        <v>667300</v>
       </c>
       <c r="F41" s="3">
-        <v>1080300</v>
+        <v>546100</v>
       </c>
       <c r="G41" s="3">
-        <v>1107300</v>
+        <v>1119700</v>
       </c>
       <c r="H41" s="3">
-        <v>1324700</v>
+        <v>1147600</v>
       </c>
       <c r="I41" s="3">
-        <v>1618600</v>
+        <v>1373000</v>
       </c>
       <c r="J41" s="3">
+        <v>1677600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1350000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1704800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3455300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1278500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F42" s="3">
         <v>5700</v>
       </c>
-      <c r="E42" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5800</v>
-      </c>
       <c r="G42" s="3">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="H42" s="3">
-        <v>6000</v>
+        <v>5400</v>
       </c>
       <c r="I42" s="3">
-        <v>5700</v>
+        <v>6200</v>
       </c>
       <c r="J42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K42" s="3">
         <v>6900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1286700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1212500</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>615400</v>
+        <v>577800</v>
       </c>
       <c r="E43" s="3">
-        <v>523400</v>
+        <v>637900</v>
       </c>
       <c r="F43" s="3">
-        <v>733300</v>
+        <v>542400</v>
       </c>
       <c r="G43" s="3">
-        <v>739900</v>
+        <v>760100</v>
       </c>
       <c r="H43" s="3">
-        <v>734700</v>
+        <v>766800</v>
       </c>
       <c r="I43" s="3">
-        <v>745700</v>
+        <v>761400</v>
       </c>
       <c r="J43" s="3">
+        <v>772900</v>
+      </c>
+      <c r="K43" s="3">
         <v>743800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>773300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1682600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1007700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1203500</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38800</v>
+        <v>57100</v>
       </c>
       <c r="E44" s="3">
-        <v>27500</v>
+        <v>40200</v>
       </c>
       <c r="F44" s="3">
-        <v>52400</v>
+        <v>28500</v>
       </c>
       <c r="G44" s="3">
-        <v>83700</v>
+        <v>54300</v>
       </c>
       <c r="H44" s="3">
-        <v>93200</v>
+        <v>86800</v>
       </c>
       <c r="I44" s="3">
-        <v>97900</v>
+        <v>96600</v>
       </c>
       <c r="J44" s="3">
-        <v>99200</v>
+        <v>101500</v>
       </c>
       <c r="K44" s="3">
         <v>99200</v>
       </c>
       <c r="L44" s="3">
+        <v>99200</v>
+      </c>
+      <c r="M44" s="3">
         <v>232100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>244600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>146700</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>117200</v>
+        <v>106000</v>
       </c>
       <c r="E45" s="3">
-        <v>97200</v>
+        <v>121500</v>
       </c>
       <c r="F45" s="3">
-        <v>146400</v>
+        <v>100700</v>
       </c>
       <c r="G45" s="3">
-        <v>169500</v>
+        <v>151700</v>
       </c>
       <c r="H45" s="3">
-        <v>269100</v>
+        <v>175600</v>
       </c>
       <c r="I45" s="3">
-        <v>317700</v>
+        <v>278900</v>
       </c>
       <c r="J45" s="3">
+        <v>329200</v>
+      </c>
+      <c r="K45" s="3">
         <v>260500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>234300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>552000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>497900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>136600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1421000</v>
+        <v>1370300</v>
       </c>
       <c r="E46" s="3">
-        <v>1180500</v>
+        <v>1472700</v>
       </c>
       <c r="F46" s="3">
-        <v>2018200</v>
+        <v>1223500</v>
       </c>
       <c r="G46" s="3">
-        <v>2105500</v>
+        <v>2091800</v>
       </c>
       <c r="H46" s="3">
-        <v>2427700</v>
+        <v>2182200</v>
       </c>
       <c r="I46" s="3">
-        <v>2785600</v>
+        <v>2516100</v>
       </c>
       <c r="J46" s="3">
+        <v>2887100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2460400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2815900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2983400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2614700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2704000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95000</v>
+        <v>100500</v>
       </c>
       <c r="E47" s="3">
-        <v>99200</v>
+        <v>98500</v>
       </c>
       <c r="F47" s="3">
-        <v>127700</v>
+        <v>102800</v>
       </c>
       <c r="G47" s="3">
-        <v>167300</v>
+        <v>132400</v>
       </c>
       <c r="H47" s="3">
-        <v>84300</v>
+        <v>173400</v>
       </c>
       <c r="I47" s="3">
-        <v>87500</v>
+        <v>87400</v>
       </c>
       <c r="J47" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K47" s="3">
         <v>90100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>118100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>132800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>243500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>169600</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2393800</v>
+        <v>2483900</v>
       </c>
       <c r="E48" s="3">
-        <v>2473100</v>
+        <v>2481000</v>
       </c>
       <c r="F48" s="3">
-        <v>2817300</v>
+        <v>2563200</v>
       </c>
       <c r="G48" s="3">
-        <v>2798100</v>
+        <v>2920000</v>
       </c>
       <c r="H48" s="3">
-        <v>2797900</v>
+        <v>2900100</v>
       </c>
       <c r="I48" s="3">
-        <v>2911800</v>
+        <v>2899900</v>
       </c>
       <c r="J48" s="3">
+        <v>3017900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3012000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3503900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7844400</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5080200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1136400</v>
+        <v>1066300</v>
       </c>
       <c r="E49" s="3">
-        <v>1169400</v>
+        <v>1177800</v>
       </c>
       <c r="F49" s="3">
-        <v>1151600</v>
+        <v>1212000</v>
       </c>
       <c r="G49" s="3">
-        <v>1355200</v>
+        <v>1193500</v>
       </c>
       <c r="H49" s="3">
-        <v>1505600</v>
+        <v>1404600</v>
       </c>
       <c r="I49" s="3">
-        <v>1519700</v>
+        <v>1560400</v>
       </c>
       <c r="J49" s="3">
+        <v>1575000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1615700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1862500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2953200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3338100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1767200</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>279400</v>
+        <v>268200</v>
       </c>
       <c r="E52" s="3">
-        <v>1067800</v>
+        <v>289600</v>
       </c>
       <c r="F52" s="3">
-        <v>373400</v>
+        <v>1106700</v>
       </c>
       <c r="G52" s="3">
-        <v>413100</v>
+        <v>387000</v>
       </c>
       <c r="H52" s="3">
-        <v>434500</v>
+        <v>428200</v>
       </c>
       <c r="I52" s="3">
-        <v>424600</v>
+        <v>450300</v>
       </c>
       <c r="J52" s="3">
+        <v>440000</v>
+      </c>
+      <c r="K52" s="3">
         <v>437100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>511500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>564500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>676100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>950000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5325500</v>
+        <v>5289200</v>
       </c>
       <c r="E54" s="3">
-        <v>5990000</v>
+        <v>5519600</v>
       </c>
       <c r="F54" s="3">
-        <v>6488200</v>
+        <v>6208200</v>
       </c>
       <c r="G54" s="3">
-        <v>6839300</v>
+        <v>6724600</v>
       </c>
       <c r="H54" s="3">
-        <v>7249900</v>
+        <v>7088500</v>
       </c>
       <c r="I54" s="3">
-        <v>7729100</v>
+        <v>7514100</v>
       </c>
       <c r="J54" s="3">
+        <v>8010800</v>
+      </c>
+      <c r="K54" s="3">
         <v>7615400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8811800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9382200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9185900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10671000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>835500</v>
+        <v>924700</v>
       </c>
       <c r="E57" s="3">
-        <v>734800</v>
+        <v>866000</v>
       </c>
       <c r="F57" s="3">
-        <v>955500</v>
+        <v>761500</v>
       </c>
       <c r="G57" s="3">
-        <v>1055500</v>
+        <v>990300</v>
       </c>
       <c r="H57" s="3">
-        <v>1186600</v>
+        <v>1094000</v>
       </c>
       <c r="I57" s="3">
-        <v>1392500</v>
+        <v>1229800</v>
       </c>
       <c r="J57" s="3">
+        <v>1443200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1227500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1101000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1104900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>861400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>879900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>478800</v>
+        <v>263700</v>
       </c>
       <c r="E58" s="3">
-        <v>296200</v>
+        <v>496200</v>
       </c>
       <c r="F58" s="3">
-        <v>795500</v>
+        <v>307000</v>
       </c>
       <c r="G58" s="3">
-        <v>559400</v>
+        <v>824500</v>
       </c>
       <c r="H58" s="3">
-        <v>780400</v>
+        <v>579800</v>
       </c>
       <c r="I58" s="3">
-        <v>187900</v>
+        <v>808800</v>
       </c>
       <c r="J58" s="3">
+        <v>194800</v>
+      </c>
+      <c r="K58" s="3">
         <v>442500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>525500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>478400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1554300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>895500</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>663800</v>
+        <v>723500</v>
       </c>
       <c r="E59" s="3">
-        <v>759100</v>
+        <v>688000</v>
       </c>
       <c r="F59" s="3">
-        <v>717700</v>
+        <v>786700</v>
       </c>
       <c r="G59" s="3">
-        <v>769500</v>
+        <v>743900</v>
       </c>
       <c r="H59" s="3">
-        <v>810600</v>
+        <v>797500</v>
       </c>
       <c r="I59" s="3">
-        <v>910600</v>
+        <v>840200</v>
       </c>
       <c r="J59" s="3">
+        <v>943700</v>
+      </c>
+      <c r="K59" s="3">
         <v>870600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1122800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1296700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1550400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1110200</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1978100</v>
+        <v>1911800</v>
       </c>
       <c r="E60" s="3">
-        <v>1790100</v>
+        <v>2050200</v>
       </c>
       <c r="F60" s="3">
-        <v>2468700</v>
+        <v>1855300</v>
       </c>
       <c r="G60" s="3">
-        <v>2384400</v>
+        <v>2558700</v>
       </c>
       <c r="H60" s="3">
-        <v>2777600</v>
+        <v>2471300</v>
       </c>
       <c r="I60" s="3">
-        <v>2491000</v>
+        <v>2878800</v>
       </c>
       <c r="J60" s="3">
+        <v>2581700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2540700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2749200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2880000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3367700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2885600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>962500</v>
+        <v>1125300</v>
       </c>
       <c r="E61" s="3">
-        <v>1291700</v>
+        <v>997600</v>
       </c>
       <c r="F61" s="3">
-        <v>1358600</v>
+        <v>1338800</v>
       </c>
       <c r="G61" s="3">
-        <v>1307200</v>
+        <v>1408100</v>
       </c>
       <c r="H61" s="3">
-        <v>1302700</v>
+        <v>1354900</v>
       </c>
       <c r="I61" s="3">
-        <v>1981400</v>
+        <v>1350200</v>
       </c>
       <c r="J61" s="3">
+        <v>2053600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1792100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2453600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3058100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2893400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4858500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>371700</v>
+        <v>295900</v>
       </c>
       <c r="E62" s="3">
-        <v>406200</v>
+        <v>385200</v>
       </c>
       <c r="F62" s="3">
-        <v>432400</v>
+        <v>421000</v>
       </c>
       <c r="G62" s="3">
-        <v>479900</v>
+        <v>448200</v>
       </c>
       <c r="H62" s="3">
-        <v>526300</v>
+        <v>497400</v>
       </c>
       <c r="I62" s="3">
-        <v>549900</v>
+        <v>545500</v>
       </c>
       <c r="J62" s="3">
+        <v>569900</v>
+      </c>
+      <c r="K62" s="3">
         <v>619100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>788000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>858000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>868400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>864200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3314000</v>
+        <v>3333500</v>
       </c>
       <c r="E66" s="3">
-        <v>3952600</v>
+        <v>3434800</v>
       </c>
       <c r="F66" s="3">
-        <v>4393500</v>
+        <v>4096700</v>
       </c>
       <c r="G66" s="3">
-        <v>4457500</v>
+        <v>4553600</v>
       </c>
       <c r="H66" s="3">
-        <v>4856800</v>
+        <v>4620000</v>
       </c>
       <c r="I66" s="3">
-        <v>5324100</v>
+        <v>5033800</v>
       </c>
       <c r="J66" s="3">
+        <v>5518100</v>
+      </c>
+      <c r="K66" s="3">
         <v>5311400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6415900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7085100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7430400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9047000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3899000</v>
+        <v>3918400</v>
       </c>
       <c r="E72" s="3">
-        <v>3886100</v>
+        <v>4041100</v>
       </c>
       <c r="F72" s="3">
-        <v>3852100</v>
+        <v>4027700</v>
       </c>
       <c r="G72" s="3">
-        <v>4065200</v>
+        <v>3992500</v>
       </c>
       <c r="H72" s="3">
-        <v>3868300</v>
+        <v>4213400</v>
       </c>
       <c r="I72" s="3">
-        <v>3880200</v>
+        <v>4009300</v>
       </c>
       <c r="J72" s="3">
+        <v>4021600</v>
+      </c>
+      <c r="K72" s="3">
         <v>3779400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4027600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4004500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6941000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3466400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2011500</v>
+        <v>1955600</v>
       </c>
       <c r="E76" s="3">
-        <v>2037300</v>
+        <v>2084800</v>
       </c>
       <c r="F76" s="3">
-        <v>2094700</v>
+        <v>2111600</v>
       </c>
       <c r="G76" s="3">
-        <v>2381700</v>
+        <v>2171000</v>
       </c>
       <c r="H76" s="3">
-        <v>2393200</v>
+        <v>2468500</v>
       </c>
       <c r="I76" s="3">
-        <v>2405000</v>
+        <v>2480400</v>
       </c>
       <c r="J76" s="3">
+        <v>2492600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2303900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2396000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2297100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1755500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1624000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>569200</v>
+        <v>411100</v>
       </c>
       <c r="E81" s="3">
-        <v>367400</v>
+        <v>589900</v>
       </c>
       <c r="F81" s="3">
-        <v>209400</v>
+        <v>380800</v>
       </c>
       <c r="G81" s="3">
-        <v>178600</v>
+        <v>217000</v>
       </c>
       <c r="H81" s="3">
-        <v>68600</v>
+        <v>185200</v>
       </c>
       <c r="I81" s="3">
-        <v>142900</v>
+        <v>71100</v>
       </c>
       <c r="J81" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K81" s="3">
         <v>155100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>301900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>378800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>518100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>140500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>681500</v>
+        <v>841200</v>
       </c>
       <c r="E83" s="3">
-        <v>850500</v>
+        <v>706300</v>
       </c>
       <c r="F83" s="3">
-        <v>1232700</v>
+        <v>881500</v>
       </c>
       <c r="G83" s="3">
-        <v>771400</v>
+        <v>1277600</v>
       </c>
       <c r="H83" s="3">
-        <v>857400</v>
+        <v>799500</v>
       </c>
       <c r="I83" s="3">
-        <v>899700</v>
+        <v>888600</v>
       </c>
       <c r="J83" s="3">
+        <v>932500</v>
+      </c>
+      <c r="K83" s="3">
         <v>846700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>899200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1007800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>898600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1537900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1324500</v>
+        <v>1393600</v>
       </c>
       <c r="E89" s="3">
-        <v>1199000</v>
+        <v>1372800</v>
       </c>
       <c r="F89" s="3">
-        <v>1184400</v>
+        <v>1242700</v>
       </c>
       <c r="G89" s="3">
-        <v>1008600</v>
+        <v>1227600</v>
       </c>
       <c r="H89" s="3">
-        <v>817300</v>
+        <v>1045300</v>
       </c>
       <c r="I89" s="3">
-        <v>1046400</v>
+        <v>847000</v>
       </c>
       <c r="J89" s="3">
+        <v>1084600</v>
+      </c>
+      <c r="K89" s="3">
         <v>962800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1128800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1306100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1281300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1418200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-598200</v>
+        <v>-676600</v>
       </c>
       <c r="E91" s="3">
-        <v>-681700</v>
+        <v>-620000</v>
       </c>
       <c r="F91" s="3">
-        <v>-675600</v>
+        <v>-706500</v>
       </c>
       <c r="G91" s="3">
-        <v>-734900</v>
+        <v>-700200</v>
       </c>
       <c r="H91" s="3">
-        <v>-923000</v>
+        <v>-761700</v>
       </c>
       <c r="I91" s="3">
-        <v>-666600</v>
+        <v>-956600</v>
       </c>
       <c r="J91" s="3">
+        <v>-690900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-672100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-681900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-723300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1166300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-841000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-444600</v>
+        <v>-675500</v>
       </c>
       <c r="E94" s="3">
-        <v>-745300</v>
+        <v>-460800</v>
       </c>
       <c r="F94" s="3">
-        <v>-643700</v>
+        <v>-772400</v>
       </c>
       <c r="G94" s="3">
-        <v>-736300</v>
+        <v>-667200</v>
       </c>
       <c r="H94" s="3">
-        <v>-931700</v>
+        <v>-763100</v>
       </c>
       <c r="I94" s="3">
-        <v>-660500</v>
+        <v>-965600</v>
       </c>
       <c r="J94" s="3">
+        <v>-684500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-658800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-650400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>191800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>165100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1210200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-762000</v>
+        <v>-763200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1004300</v>
+        <v>-789800</v>
       </c>
       <c r="F100" s="3">
-        <v>-565600</v>
+        <v>-1040900</v>
       </c>
       <c r="G100" s="3">
-        <v>-490000</v>
+        <v>-586200</v>
       </c>
       <c r="H100" s="3">
-        <v>-174700</v>
+        <v>-507800</v>
       </c>
       <c r="I100" s="3">
-        <v>-116800</v>
+        <v>-181000</v>
       </c>
       <c r="J100" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-403700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1155800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-914600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-581200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>-2900</v>
+        <v>-1100</v>
       </c>
       <c r="F101" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-4800</v>
-      </c>
       <c r="I101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3500</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>116900</v>
+        <v>-43000</v>
       </c>
       <c r="E102" s="3">
-        <v>-553400</v>
+        <v>121100</v>
       </c>
       <c r="F102" s="3">
-        <v>-26900</v>
+        <v>-573500</v>
       </c>
       <c r="G102" s="3">
-        <v>-217400</v>
+        <v>-27900</v>
       </c>
       <c r="H102" s="3">
-        <v>-293900</v>
+        <v>-225400</v>
       </c>
       <c r="I102" s="3">
-        <v>268600</v>
+        <v>-304600</v>
       </c>
       <c r="J102" s="3">
+        <v>278400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-191300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>74100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>338200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>525100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-376700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3655700</v>
+        <v>3721000</v>
       </c>
       <c r="E8" s="3">
-        <v>3529800</v>
+        <v>3592900</v>
       </c>
       <c r="F8" s="3">
-        <v>3447900</v>
+        <v>3509500</v>
       </c>
       <c r="G8" s="3">
-        <v>3494600</v>
+        <v>3557000</v>
       </c>
       <c r="H8" s="3">
-        <v>4019000</v>
+        <v>4090800</v>
       </c>
       <c r="I8" s="3">
-        <v>4017100</v>
+        <v>4088900</v>
       </c>
       <c r="J8" s="3">
-        <v>4134800</v>
+        <v>4208600</v>
       </c>
       <c r="K8" s="3">
         <v>3984100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>231800</v>
+        <v>235900</v>
       </c>
       <c r="E9" s="3">
-        <v>182400</v>
+        <v>185700</v>
       </c>
       <c r="F9" s="3">
-        <v>174000</v>
+        <v>177200</v>
       </c>
       <c r="G9" s="3">
-        <v>148000</v>
+        <v>150700</v>
       </c>
       <c r="H9" s="3">
-        <v>159300</v>
+        <v>162200</v>
       </c>
       <c r="I9" s="3">
-        <v>173000</v>
+        <v>176100</v>
       </c>
       <c r="J9" s="3">
-        <v>189300</v>
+        <v>192700</v>
       </c>
       <c r="K9" s="3">
         <v>168300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3423900</v>
+        <v>3485100</v>
       </c>
       <c r="E10" s="3">
-        <v>3347400</v>
+        <v>3407200</v>
       </c>
       <c r="F10" s="3">
-        <v>3273900</v>
+        <v>3332400</v>
       </c>
       <c r="G10" s="3">
-        <v>3346600</v>
+        <v>3406300</v>
       </c>
       <c r="H10" s="3">
-        <v>3859700</v>
+        <v>3928600</v>
       </c>
       <c r="I10" s="3">
-        <v>3844100</v>
+        <v>3912800</v>
       </c>
       <c r="J10" s="3">
-        <v>3945500</v>
+        <v>4016000</v>
       </c>
       <c r="K10" s="3">
         <v>3815800</v>
@@ -957,22 +957,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>53300</v>
+        <v>54300</v>
       </c>
       <c r="F14" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="G14" s="3">
-        <v>44200</v>
+        <v>45000</v>
       </c>
       <c r="H14" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="I14" s="3">
-        <v>42100</v>
+        <v>42900</v>
       </c>
       <c r="J14" s="3">
-        <v>-19400</v>
+        <v>-19700</v>
       </c>
       <c r="K14" s="3">
         <v>20300</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>841200</v>
+        <v>856200</v>
       </c>
       <c r="E15" s="3">
-        <v>706300</v>
+        <v>718900</v>
       </c>
       <c r="F15" s="3">
-        <v>859200</v>
+        <v>874600</v>
       </c>
       <c r="G15" s="3">
-        <v>1206800</v>
+        <v>1228300</v>
       </c>
       <c r="H15" s="3">
-        <v>862800</v>
+        <v>878200</v>
       </c>
       <c r="I15" s="3">
-        <v>929100</v>
+        <v>945700</v>
       </c>
       <c r="J15" s="3">
-        <v>932500</v>
+        <v>949200</v>
       </c>
       <c r="K15" s="3">
         <v>846700</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3031000</v>
+        <v>3085100</v>
       </c>
       <c r="E17" s="3">
-        <v>2723700</v>
+        <v>2772400</v>
       </c>
       <c r="F17" s="3">
-        <v>3086900</v>
+        <v>3142100</v>
       </c>
       <c r="G17" s="3">
-        <v>2982200</v>
+        <v>3035500</v>
       </c>
       <c r="H17" s="3">
-        <v>3492800</v>
+        <v>3555200</v>
       </c>
       <c r="I17" s="3">
-        <v>3577300</v>
+        <v>3641200</v>
       </c>
       <c r="J17" s="3">
-        <v>3707400</v>
+        <v>3773700</v>
       </c>
       <c r="K17" s="3">
         <v>3605200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>624700</v>
+        <v>635900</v>
       </c>
       <c r="E18" s="3">
-        <v>806100</v>
+        <v>820500</v>
       </c>
       <c r="F18" s="3">
-        <v>361000</v>
+        <v>367400</v>
       </c>
       <c r="G18" s="3">
-        <v>512400</v>
+        <v>521500</v>
       </c>
       <c r="H18" s="3">
-        <v>526200</v>
+        <v>535700</v>
       </c>
       <c r="I18" s="3">
-        <v>439800</v>
+        <v>447700</v>
       </c>
       <c r="J18" s="3">
-        <v>427300</v>
+        <v>435000</v>
       </c>
       <c r="K18" s="3">
         <v>378900</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F20" s="3">
         <v>-2000</v>
       </c>
       <c r="G20" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="H20" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I20" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="J20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K20" s="3">
         <v>33400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1467700</v>
+        <v>1502400</v>
       </c>
       <c r="E21" s="3">
-        <v>1512700</v>
+        <v>1546800</v>
       </c>
       <c r="F21" s="3">
-        <v>1237500</v>
+        <v>1268500</v>
       </c>
       <c r="G21" s="3">
-        <v>1804600</v>
+        <v>1849700</v>
       </c>
       <c r="H21" s="3">
-        <v>1325300</v>
+        <v>1357000</v>
       </c>
       <c r="I21" s="3">
-        <v>1321300</v>
+        <v>1353800</v>
       </c>
       <c r="J21" s="3">
-        <v>1354500</v>
+        <v>1388100</v>
       </c>
       <c r="K21" s="3">
         <v>1242600</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42200</v>
+        <v>43000</v>
       </c>
       <c r="E22" s="3">
-        <v>47600</v>
+        <v>48500</v>
       </c>
       <c r="F22" s="3">
-        <v>59500</v>
+        <v>60500</v>
       </c>
       <c r="G22" s="3">
-        <v>98200</v>
+        <v>99900</v>
       </c>
       <c r="H22" s="3">
-        <v>91100</v>
+        <v>92700</v>
       </c>
       <c r="I22" s="3">
-        <v>147200</v>
+        <v>149800</v>
       </c>
       <c r="J22" s="3">
-        <v>158100</v>
+        <v>160900</v>
       </c>
       <c r="K22" s="3">
         <v>160700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>587100</v>
+        <v>597600</v>
       </c>
       <c r="E23" s="3">
-        <v>761100</v>
+        <v>774700</v>
       </c>
       <c r="F23" s="3">
-        <v>299500</v>
+        <v>304900</v>
       </c>
       <c r="G23" s="3">
-        <v>433100</v>
+        <v>440900</v>
       </c>
       <c r="H23" s="3">
-        <v>437400</v>
+        <v>445200</v>
       </c>
       <c r="I23" s="3">
-        <v>288500</v>
+        <v>293700</v>
       </c>
       <c r="J23" s="3">
-        <v>267000</v>
+        <v>271800</v>
       </c>
       <c r="K23" s="3">
         <v>251600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>175800</v>
+        <v>179000</v>
       </c>
       <c r="E24" s="3">
-        <v>247100</v>
+        <v>251600</v>
       </c>
       <c r="F24" s="3">
-        <v>48600</v>
+        <v>49400</v>
       </c>
       <c r="G24" s="3">
-        <v>97700</v>
+        <v>99400</v>
       </c>
       <c r="H24" s="3">
-        <v>175400</v>
+        <v>178600</v>
       </c>
       <c r="I24" s="3">
-        <v>156200</v>
+        <v>159000</v>
       </c>
       <c r="J24" s="3">
-        <v>178200</v>
+        <v>181300</v>
       </c>
       <c r="K24" s="3">
         <v>120300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>411200</v>
+        <v>418600</v>
       </c>
       <c r="E26" s="3">
-        <v>514000</v>
+        <v>523200</v>
       </c>
       <c r="F26" s="3">
-        <v>251000</v>
+        <v>255400</v>
       </c>
       <c r="G26" s="3">
-        <v>335500</v>
+        <v>341500</v>
       </c>
       <c r="H26" s="3">
-        <v>262000</v>
+        <v>266600</v>
       </c>
       <c r="I26" s="3">
-        <v>132400</v>
+        <v>134700</v>
       </c>
       <c r="J26" s="3">
-        <v>88900</v>
+        <v>90500</v>
       </c>
       <c r="K26" s="3">
         <v>131400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>411100</v>
+        <v>418500</v>
       </c>
       <c r="E27" s="3">
-        <v>480000</v>
+        <v>488600</v>
       </c>
       <c r="F27" s="3">
-        <v>234200</v>
+        <v>238400</v>
       </c>
       <c r="G27" s="3">
-        <v>507100</v>
+        <v>516200</v>
       </c>
       <c r="H27" s="3">
-        <v>271600</v>
+        <v>276400</v>
       </c>
       <c r="I27" s="3">
-        <v>179300</v>
+        <v>182500</v>
       </c>
       <c r="J27" s="3">
-        <v>148100</v>
+        <v>150800</v>
       </c>
       <c r="K27" s="3">
         <v>155100</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>109900</v>
+        <v>111900</v>
       </c>
       <c r="F29" s="3">
-        <v>146500</v>
+        <v>149200</v>
       </c>
       <c r="G29" s="3">
-        <v>-290100</v>
+        <v>-295300</v>
       </c>
       <c r="H29" s="3">
-        <v>-86400</v>
+        <v>-88000</v>
       </c>
       <c r="I29" s="3">
-        <v>-108200</v>
+        <v>-110200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="E32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F32" s="3">
         <v>2000</v>
       </c>
       <c r="G32" s="3">
-        <v>-18900</v>
+        <v>-19300</v>
       </c>
       <c r="H32" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="I32" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K32" s="3">
         <v>-33400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>411100</v>
+        <v>418500</v>
       </c>
       <c r="E33" s="3">
-        <v>589900</v>
+        <v>600500</v>
       </c>
       <c r="F33" s="3">
-        <v>380800</v>
+        <v>387600</v>
       </c>
       <c r="G33" s="3">
-        <v>217000</v>
+        <v>220900</v>
       </c>
       <c r="H33" s="3">
-        <v>185200</v>
+        <v>188500</v>
       </c>
       <c r="I33" s="3">
-        <v>71100</v>
+        <v>72400</v>
       </c>
       <c r="J33" s="3">
-        <v>148100</v>
+        <v>150800</v>
       </c>
       <c r="K33" s="3">
         <v>155100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>411100</v>
+        <v>418500</v>
       </c>
       <c r="E35" s="3">
-        <v>589900</v>
+        <v>600500</v>
       </c>
       <c r="F35" s="3">
-        <v>380800</v>
+        <v>387600</v>
       </c>
       <c r="G35" s="3">
-        <v>217000</v>
+        <v>220900</v>
       </c>
       <c r="H35" s="3">
-        <v>185200</v>
+        <v>188500</v>
       </c>
       <c r="I35" s="3">
-        <v>71100</v>
+        <v>72400</v>
       </c>
       <c r="J35" s="3">
-        <v>148100</v>
+        <v>150800</v>
       </c>
       <c r="K35" s="3">
         <v>155100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>624300</v>
+        <v>635500</v>
       </c>
       <c r="E41" s="3">
-        <v>667300</v>
+        <v>679200</v>
       </c>
       <c r="F41" s="3">
-        <v>546100</v>
+        <v>555900</v>
       </c>
       <c r="G41" s="3">
-        <v>1119700</v>
+        <v>1139700</v>
       </c>
       <c r="H41" s="3">
-        <v>1147600</v>
+        <v>1168100</v>
       </c>
       <c r="I41" s="3">
-        <v>1373000</v>
+        <v>1397500</v>
       </c>
       <c r="J41" s="3">
-        <v>1677600</v>
+        <v>1707500</v>
       </c>
       <c r="K41" s="3">
         <v>1350000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E42" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F42" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G42" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J42" s="3">
         <v>6000</v>
-      </c>
-      <c r="H42" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I42" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J42" s="3">
-        <v>5900</v>
       </c>
       <c r="K42" s="3">
         <v>6900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>577800</v>
+        <v>588100</v>
       </c>
       <c r="E43" s="3">
-        <v>637900</v>
+        <v>649300</v>
       </c>
       <c r="F43" s="3">
-        <v>542400</v>
+        <v>552100</v>
       </c>
       <c r="G43" s="3">
-        <v>760100</v>
+        <v>773600</v>
       </c>
       <c r="H43" s="3">
-        <v>766800</v>
+        <v>780500</v>
       </c>
       <c r="I43" s="3">
-        <v>761400</v>
+        <v>775000</v>
       </c>
       <c r="J43" s="3">
-        <v>772900</v>
+        <v>786700</v>
       </c>
       <c r="K43" s="3">
         <v>743800</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57100</v>
+        <v>58200</v>
       </c>
       <c r="E44" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="F44" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="G44" s="3">
-        <v>54300</v>
+        <v>55200</v>
       </c>
       <c r="H44" s="3">
-        <v>86800</v>
+        <v>88300</v>
       </c>
       <c r="I44" s="3">
-        <v>96600</v>
+        <v>98300</v>
       </c>
       <c r="J44" s="3">
-        <v>101500</v>
+        <v>103300</v>
       </c>
       <c r="K44" s="3">
         <v>99200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>106000</v>
+        <v>107900</v>
       </c>
       <c r="E45" s="3">
-        <v>121500</v>
+        <v>123600</v>
       </c>
       <c r="F45" s="3">
-        <v>100700</v>
+        <v>102500</v>
       </c>
       <c r="G45" s="3">
-        <v>151700</v>
+        <v>154400</v>
       </c>
       <c r="H45" s="3">
-        <v>175600</v>
+        <v>178800</v>
       </c>
       <c r="I45" s="3">
-        <v>278900</v>
+        <v>283900</v>
       </c>
       <c r="J45" s="3">
-        <v>329200</v>
+        <v>335100</v>
       </c>
       <c r="K45" s="3">
         <v>260500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1370300</v>
+        <v>1394800</v>
       </c>
       <c r="E46" s="3">
-        <v>1472700</v>
+        <v>1499000</v>
       </c>
       <c r="F46" s="3">
-        <v>1223500</v>
+        <v>1245300</v>
       </c>
       <c r="G46" s="3">
-        <v>2091800</v>
+        <v>2129100</v>
       </c>
       <c r="H46" s="3">
-        <v>2182200</v>
+        <v>2221200</v>
       </c>
       <c r="I46" s="3">
-        <v>2516100</v>
+        <v>2561100</v>
       </c>
       <c r="J46" s="3">
-        <v>2887100</v>
+        <v>2938600</v>
       </c>
       <c r="K46" s="3">
         <v>2460400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100500</v>
+        <v>102300</v>
       </c>
       <c r="E47" s="3">
-        <v>98500</v>
+        <v>100300</v>
       </c>
       <c r="F47" s="3">
-        <v>102800</v>
+        <v>104700</v>
       </c>
       <c r="G47" s="3">
-        <v>132400</v>
+        <v>134700</v>
       </c>
       <c r="H47" s="3">
-        <v>173400</v>
+        <v>176500</v>
       </c>
       <c r="I47" s="3">
-        <v>87400</v>
+        <v>89000</v>
       </c>
       <c r="J47" s="3">
-        <v>90700</v>
+        <v>92300</v>
       </c>
       <c r="K47" s="3">
         <v>90100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2483900</v>
+        <v>2528200</v>
       </c>
       <c r="E48" s="3">
-        <v>2481000</v>
+        <v>2525300</v>
       </c>
       <c r="F48" s="3">
-        <v>2563200</v>
+        <v>2609000</v>
       </c>
       <c r="G48" s="3">
-        <v>2920000</v>
+        <v>2972100</v>
       </c>
       <c r="H48" s="3">
-        <v>2900100</v>
+        <v>2951900</v>
       </c>
       <c r="I48" s="3">
-        <v>2899900</v>
+        <v>2951700</v>
       </c>
       <c r="J48" s="3">
-        <v>3017900</v>
+        <v>3071900</v>
       </c>
       <c r="K48" s="3">
         <v>3012000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1066300</v>
+        <v>1085300</v>
       </c>
       <c r="E49" s="3">
-        <v>1177800</v>
+        <v>1198800</v>
       </c>
       <c r="F49" s="3">
-        <v>1212000</v>
+        <v>1233700</v>
       </c>
       <c r="G49" s="3">
-        <v>1193500</v>
+        <v>1214900</v>
       </c>
       <c r="H49" s="3">
-        <v>1404600</v>
+        <v>1429700</v>
       </c>
       <c r="I49" s="3">
-        <v>1560400</v>
+        <v>1588300</v>
       </c>
       <c r="J49" s="3">
-        <v>1575000</v>
+        <v>1603200</v>
       </c>
       <c r="K49" s="3">
         <v>1615700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>268200</v>
+        <v>273000</v>
       </c>
       <c r="E52" s="3">
-        <v>289600</v>
+        <v>294700</v>
       </c>
       <c r="F52" s="3">
-        <v>1106700</v>
+        <v>1126400</v>
       </c>
       <c r="G52" s="3">
-        <v>387000</v>
+        <v>393900</v>
       </c>
       <c r="H52" s="3">
-        <v>428200</v>
+        <v>435800</v>
       </c>
       <c r="I52" s="3">
-        <v>450300</v>
+        <v>458300</v>
       </c>
       <c r="J52" s="3">
-        <v>440000</v>
+        <v>447900</v>
       </c>
       <c r="K52" s="3">
         <v>437100</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5289200</v>
+        <v>5383600</v>
       </c>
       <c r="E54" s="3">
-        <v>5519600</v>
+        <v>5618200</v>
       </c>
       <c r="F54" s="3">
-        <v>6208200</v>
+        <v>6319100</v>
       </c>
       <c r="G54" s="3">
-        <v>6724600</v>
+        <v>6844800</v>
       </c>
       <c r="H54" s="3">
-        <v>7088500</v>
+        <v>7215100</v>
       </c>
       <c r="I54" s="3">
-        <v>7514100</v>
+        <v>7648400</v>
       </c>
       <c r="J54" s="3">
-        <v>8010800</v>
+        <v>8153900</v>
       </c>
       <c r="K54" s="3">
         <v>7615400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>924700</v>
+        <v>941200</v>
       </c>
       <c r="E57" s="3">
-        <v>866000</v>
+        <v>881400</v>
       </c>
       <c r="F57" s="3">
-        <v>761500</v>
+        <v>775200</v>
       </c>
       <c r="G57" s="3">
-        <v>990300</v>
+        <v>1008000</v>
       </c>
       <c r="H57" s="3">
-        <v>1094000</v>
+        <v>1113500</v>
       </c>
       <c r="I57" s="3">
-        <v>1229800</v>
+        <v>1251800</v>
       </c>
       <c r="J57" s="3">
-        <v>1443200</v>
+        <v>1469000</v>
       </c>
       <c r="K57" s="3">
         <v>1227500</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>263700</v>
+        <v>268400</v>
       </c>
       <c r="E58" s="3">
-        <v>496200</v>
+        <v>505100</v>
       </c>
       <c r="F58" s="3">
-        <v>307000</v>
+        <v>312500</v>
       </c>
       <c r="G58" s="3">
-        <v>824500</v>
+        <v>839200</v>
       </c>
       <c r="H58" s="3">
-        <v>579800</v>
+        <v>590100</v>
       </c>
       <c r="I58" s="3">
-        <v>808800</v>
+        <v>823300</v>
       </c>
       <c r="J58" s="3">
-        <v>194800</v>
+        <v>198300</v>
       </c>
       <c r="K58" s="3">
         <v>442500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>723500</v>
+        <v>736400</v>
       </c>
       <c r="E59" s="3">
-        <v>688000</v>
+        <v>700300</v>
       </c>
       <c r="F59" s="3">
-        <v>786700</v>
+        <v>800800</v>
       </c>
       <c r="G59" s="3">
-        <v>743900</v>
+        <v>757200</v>
       </c>
       <c r="H59" s="3">
-        <v>797500</v>
+        <v>811800</v>
       </c>
       <c r="I59" s="3">
-        <v>840200</v>
+        <v>855200</v>
       </c>
       <c r="J59" s="3">
-        <v>943700</v>
+        <v>960600</v>
       </c>
       <c r="K59" s="3">
         <v>870600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1911800</v>
+        <v>1946000</v>
       </c>
       <c r="E60" s="3">
-        <v>2050200</v>
+        <v>2086800</v>
       </c>
       <c r="F60" s="3">
-        <v>1855300</v>
+        <v>1888500</v>
       </c>
       <c r="G60" s="3">
-        <v>2558700</v>
+        <v>2604400</v>
       </c>
       <c r="H60" s="3">
-        <v>2471300</v>
+        <v>2515400</v>
       </c>
       <c r="I60" s="3">
-        <v>2878800</v>
+        <v>2930200</v>
       </c>
       <c r="J60" s="3">
-        <v>2581700</v>
+        <v>2627900</v>
       </c>
       <c r="K60" s="3">
         <v>2540700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1125300</v>
+        <v>1145400</v>
       </c>
       <c r="E61" s="3">
-        <v>997600</v>
+        <v>1015400</v>
       </c>
       <c r="F61" s="3">
-        <v>1338800</v>
+        <v>1362700</v>
       </c>
       <c r="G61" s="3">
-        <v>1408100</v>
+        <v>1433200</v>
       </c>
       <c r="H61" s="3">
-        <v>1354900</v>
+        <v>1379100</v>
       </c>
       <c r="I61" s="3">
-        <v>1350200</v>
+        <v>1374300</v>
       </c>
       <c r="J61" s="3">
-        <v>2053600</v>
+        <v>2090300</v>
       </c>
       <c r="K61" s="3">
         <v>1792100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>295900</v>
+        <v>301200</v>
       </c>
       <c r="E62" s="3">
-        <v>385200</v>
+        <v>392100</v>
       </c>
       <c r="F62" s="3">
-        <v>421000</v>
+        <v>428500</v>
       </c>
       <c r="G62" s="3">
-        <v>448200</v>
+        <v>456200</v>
       </c>
       <c r="H62" s="3">
-        <v>497400</v>
+        <v>506300</v>
       </c>
       <c r="I62" s="3">
-        <v>545500</v>
+        <v>555200</v>
       </c>
       <c r="J62" s="3">
-        <v>569900</v>
+        <v>580100</v>
       </c>
       <c r="K62" s="3">
         <v>619100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3333500</v>
+        <v>3393100</v>
       </c>
       <c r="E66" s="3">
-        <v>3434800</v>
+        <v>3496200</v>
       </c>
       <c r="F66" s="3">
-        <v>4096700</v>
+        <v>4169900</v>
       </c>
       <c r="G66" s="3">
-        <v>4553600</v>
+        <v>4635000</v>
       </c>
       <c r="H66" s="3">
-        <v>4620000</v>
+        <v>4702500</v>
       </c>
       <c r="I66" s="3">
-        <v>5033800</v>
+        <v>5123700</v>
       </c>
       <c r="J66" s="3">
-        <v>5518100</v>
+        <v>5616700</v>
       </c>
       <c r="K66" s="3">
         <v>5311400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3918400</v>
+        <v>3988400</v>
       </c>
       <c r="E72" s="3">
-        <v>4041100</v>
+        <v>4113300</v>
       </c>
       <c r="F72" s="3">
-        <v>4027700</v>
+        <v>4099700</v>
       </c>
       <c r="G72" s="3">
-        <v>3992500</v>
+        <v>4063800</v>
       </c>
       <c r="H72" s="3">
-        <v>4213400</v>
+        <v>4288600</v>
       </c>
       <c r="I72" s="3">
-        <v>4009300</v>
+        <v>4080900</v>
       </c>
       <c r="J72" s="3">
-        <v>4021600</v>
+        <v>4093400</v>
       </c>
       <c r="K72" s="3">
         <v>3779400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1955600</v>
+        <v>1990500</v>
       </c>
       <c r="E76" s="3">
-        <v>2084800</v>
+        <v>2122000</v>
       </c>
       <c r="F76" s="3">
-        <v>2111600</v>
+        <v>2149300</v>
       </c>
       <c r="G76" s="3">
-        <v>2171000</v>
+        <v>2209800</v>
       </c>
       <c r="H76" s="3">
-        <v>2468500</v>
+        <v>2512600</v>
       </c>
       <c r="I76" s="3">
-        <v>2480400</v>
+        <v>2524700</v>
       </c>
       <c r="J76" s="3">
-        <v>2492600</v>
+        <v>2537200</v>
       </c>
       <c r="K76" s="3">
         <v>2303900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>411100</v>
+        <v>418500</v>
       </c>
       <c r="E81" s="3">
-        <v>589900</v>
+        <v>600500</v>
       </c>
       <c r="F81" s="3">
-        <v>380800</v>
+        <v>387600</v>
       </c>
       <c r="G81" s="3">
-        <v>217000</v>
+        <v>220900</v>
       </c>
       <c r="H81" s="3">
-        <v>185200</v>
+        <v>188500</v>
       </c>
       <c r="I81" s="3">
-        <v>71100</v>
+        <v>72400</v>
       </c>
       <c r="J81" s="3">
-        <v>148100</v>
+        <v>150800</v>
       </c>
       <c r="K81" s="3">
         <v>155100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>841200</v>
+        <v>856200</v>
       </c>
       <c r="E83" s="3">
-        <v>706300</v>
+        <v>718900</v>
       </c>
       <c r="F83" s="3">
-        <v>881500</v>
+        <v>897300</v>
       </c>
       <c r="G83" s="3">
-        <v>1277600</v>
+        <v>1300500</v>
       </c>
       <c r="H83" s="3">
-        <v>799500</v>
+        <v>813800</v>
       </c>
       <c r="I83" s="3">
-        <v>888600</v>
+        <v>904500</v>
       </c>
       <c r="J83" s="3">
-        <v>932500</v>
+        <v>949200</v>
       </c>
       <c r="K83" s="3">
         <v>846700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1393600</v>
+        <v>1418500</v>
       </c>
       <c r="E89" s="3">
-        <v>1372800</v>
+        <v>1397300</v>
       </c>
       <c r="F89" s="3">
-        <v>1242700</v>
+        <v>1264900</v>
       </c>
       <c r="G89" s="3">
-        <v>1227600</v>
+        <v>1249500</v>
       </c>
       <c r="H89" s="3">
-        <v>1045300</v>
+        <v>1064000</v>
       </c>
       <c r="I89" s="3">
-        <v>847000</v>
+        <v>862200</v>
       </c>
       <c r="J89" s="3">
-        <v>1084600</v>
+        <v>1103900</v>
       </c>
       <c r="K89" s="3">
         <v>962800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-676600</v>
+        <v>-688700</v>
       </c>
       <c r="E91" s="3">
-        <v>-620000</v>
+        <v>-631100</v>
       </c>
       <c r="F91" s="3">
-        <v>-706500</v>
+        <v>-719200</v>
       </c>
       <c r="G91" s="3">
-        <v>-700200</v>
+        <v>-712700</v>
       </c>
       <c r="H91" s="3">
-        <v>-761700</v>
+        <v>-775300</v>
       </c>
       <c r="I91" s="3">
-        <v>-956600</v>
+        <v>-973700</v>
       </c>
       <c r="J91" s="3">
-        <v>-690900</v>
+        <v>-703200</v>
       </c>
       <c r="K91" s="3">
         <v>-672100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-675500</v>
+        <v>-687600</v>
       </c>
       <c r="E94" s="3">
-        <v>-460800</v>
+        <v>-469000</v>
       </c>
       <c r="F94" s="3">
-        <v>-772400</v>
+        <v>-786200</v>
       </c>
       <c r="G94" s="3">
-        <v>-667200</v>
+        <v>-679100</v>
       </c>
       <c r="H94" s="3">
-        <v>-763100</v>
+        <v>-776800</v>
       </c>
       <c r="I94" s="3">
-        <v>-965600</v>
+        <v>-982900</v>
       </c>
       <c r="J94" s="3">
-        <v>-684500</v>
+        <v>-696800</v>
       </c>
       <c r="K94" s="3">
         <v>-658800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-763200</v>
+        <v>-776900</v>
       </c>
       <c r="E100" s="3">
-        <v>-789800</v>
+        <v>-803900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1040900</v>
+        <v>-1059500</v>
       </c>
       <c r="G100" s="3">
-        <v>-586200</v>
+        <v>-596700</v>
       </c>
       <c r="H100" s="3">
-        <v>-507800</v>
+        <v>-516900</v>
       </c>
       <c r="I100" s="3">
-        <v>-181000</v>
+        <v>-184300</v>
       </c>
       <c r="J100" s="3">
-        <v>-121000</v>
+        <v>-123200</v>
       </c>
       <c r="K100" s="3">
         <v>-500300</v>
@@ -4207,7 +4207,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
         <v>-1100</v>
@@ -4216,13 +4216,13 @@
         <v>-3000</v>
       </c>
       <c r="G101" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="H101" s="3">
         <v>300</v>
       </c>
       <c r="I101" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="J101" s="3">
         <v>-600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-43000</v>
+        <v>-43700</v>
       </c>
       <c r="E102" s="3">
-        <v>121100</v>
+        <v>123300</v>
       </c>
       <c r="F102" s="3">
-        <v>-573500</v>
+        <v>-583800</v>
       </c>
       <c r="G102" s="3">
-        <v>-27900</v>
+        <v>-28400</v>
       </c>
       <c r="H102" s="3">
-        <v>-225400</v>
+        <v>-229400</v>
       </c>
       <c r="I102" s="3">
-        <v>-304600</v>
+        <v>-310000</v>
       </c>
       <c r="J102" s="3">
-        <v>278400</v>
+        <v>283300</v>
       </c>
       <c r="K102" s="3">
         <v>-191300</v>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3721000</v>
+        <v>3745900</v>
       </c>
       <c r="E8" s="3">
-        <v>3592900</v>
+        <v>3616900</v>
       </c>
       <c r="F8" s="3">
-        <v>3509500</v>
+        <v>3533000</v>
       </c>
       <c r="G8" s="3">
-        <v>3557000</v>
+        <v>3580800</v>
       </c>
       <c r="H8" s="3">
-        <v>4090800</v>
+        <v>4118200</v>
       </c>
       <c r="I8" s="3">
-        <v>4088900</v>
+        <v>4116200</v>
       </c>
       <c r="J8" s="3">
-        <v>4208600</v>
+        <v>4236800</v>
       </c>
       <c r="K8" s="3">
         <v>3984100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>235900</v>
+        <v>237500</v>
       </c>
       <c r="E9" s="3">
-        <v>185700</v>
+        <v>186900</v>
       </c>
       <c r="F9" s="3">
-        <v>177200</v>
+        <v>178300</v>
       </c>
       <c r="G9" s="3">
-        <v>150700</v>
+        <v>151700</v>
       </c>
       <c r="H9" s="3">
-        <v>162200</v>
+        <v>163300</v>
       </c>
       <c r="I9" s="3">
-        <v>176100</v>
+        <v>177300</v>
       </c>
       <c r="J9" s="3">
-        <v>192700</v>
+        <v>193900</v>
       </c>
       <c r="K9" s="3">
         <v>168300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3485100</v>
+        <v>3508400</v>
       </c>
       <c r="E10" s="3">
-        <v>3407200</v>
+        <v>3430000</v>
       </c>
       <c r="F10" s="3">
-        <v>3332400</v>
+        <v>3354600</v>
       </c>
       <c r="G10" s="3">
-        <v>3406300</v>
+        <v>3429100</v>
       </c>
       <c r="H10" s="3">
-        <v>3928600</v>
+        <v>3954900</v>
       </c>
       <c r="I10" s="3">
-        <v>3912800</v>
+        <v>3939000</v>
       </c>
       <c r="J10" s="3">
-        <v>4016000</v>
+        <v>4042800</v>
       </c>
       <c r="K10" s="3">
         <v>3815800</v>
@@ -957,22 +957,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>54300</v>
+        <v>54600</v>
       </c>
       <c r="F14" s="3">
         <v>-10600</v>
       </c>
       <c r="G14" s="3">
-        <v>45000</v>
+        <v>45300</v>
       </c>
       <c r="H14" s="3">
         <v>-2400</v>
       </c>
       <c r="I14" s="3">
-        <v>42900</v>
+        <v>43100</v>
       </c>
       <c r="J14" s="3">
-        <v>-19700</v>
+        <v>-19800</v>
       </c>
       <c r="K14" s="3">
         <v>20300</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>856200</v>
+        <v>862000</v>
       </c>
       <c r="E15" s="3">
-        <v>718900</v>
+        <v>723700</v>
       </c>
       <c r="F15" s="3">
-        <v>874600</v>
+        <v>880400</v>
       </c>
       <c r="G15" s="3">
-        <v>1228300</v>
+        <v>1236500</v>
       </c>
       <c r="H15" s="3">
-        <v>878200</v>
+        <v>884100</v>
       </c>
       <c r="I15" s="3">
-        <v>945700</v>
+        <v>952100</v>
       </c>
       <c r="J15" s="3">
-        <v>949200</v>
+        <v>955500</v>
       </c>
       <c r="K15" s="3">
         <v>846700</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3085100</v>
+        <v>3105700</v>
       </c>
       <c r="E17" s="3">
-        <v>2772400</v>
+        <v>2790900</v>
       </c>
       <c r="F17" s="3">
-        <v>3142100</v>
+        <v>3163100</v>
       </c>
       <c r="G17" s="3">
-        <v>3035500</v>
+        <v>3055800</v>
       </c>
       <c r="H17" s="3">
-        <v>3555200</v>
+        <v>3578900</v>
       </c>
       <c r="I17" s="3">
-        <v>3641200</v>
+        <v>3665600</v>
       </c>
       <c r="J17" s="3">
-        <v>3773700</v>
+        <v>3798900</v>
       </c>
       <c r="K17" s="3">
         <v>3605200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>635900</v>
+        <v>640200</v>
       </c>
       <c r="E18" s="3">
-        <v>820500</v>
+        <v>826000</v>
       </c>
       <c r="F18" s="3">
-        <v>367400</v>
+        <v>369900</v>
       </c>
       <c r="G18" s="3">
-        <v>521500</v>
+        <v>525000</v>
       </c>
       <c r="H18" s="3">
-        <v>535700</v>
+        <v>539200</v>
       </c>
       <c r="I18" s="3">
-        <v>447700</v>
+        <v>450700</v>
       </c>
       <c r="J18" s="3">
-        <v>435000</v>
+        <v>437900</v>
       </c>
       <c r="K18" s="3">
         <v>378900</v>
@@ -1155,16 +1155,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E20" s="3">
         <v>2700</v>
       </c>
       <c r="F20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="G20" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="H20" s="3">
         <v>2300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1502400</v>
+        <v>1506800</v>
       </c>
       <c r="E21" s="3">
-        <v>1546800</v>
+        <v>1552400</v>
       </c>
       <c r="F21" s="3">
-        <v>1268500</v>
+        <v>1271100</v>
       </c>
       <c r="G21" s="3">
-        <v>1849700</v>
+        <v>1853600</v>
       </c>
       <c r="H21" s="3">
+        <v>1360800</v>
+      </c>
+      <c r="I21" s="3">
         <v>1357000</v>
       </c>
-      <c r="I21" s="3">
-        <v>1353800</v>
-      </c>
       <c r="J21" s="3">
-        <v>1388100</v>
+        <v>1391100</v>
       </c>
       <c r="K21" s="3">
         <v>1242600</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43000</v>
+        <v>43300</v>
       </c>
       <c r="E22" s="3">
-        <v>48500</v>
+        <v>48800</v>
       </c>
       <c r="F22" s="3">
-        <v>60500</v>
+        <v>60900</v>
       </c>
       <c r="G22" s="3">
-        <v>99900</v>
+        <v>100600</v>
       </c>
       <c r="H22" s="3">
-        <v>92700</v>
+        <v>93300</v>
       </c>
       <c r="I22" s="3">
-        <v>149800</v>
+        <v>150800</v>
       </c>
       <c r="J22" s="3">
-        <v>160900</v>
+        <v>162000</v>
       </c>
       <c r="K22" s="3">
         <v>160700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>597600</v>
+        <v>601600</v>
       </c>
       <c r="E23" s="3">
-        <v>774700</v>
+        <v>779900</v>
       </c>
       <c r="F23" s="3">
-        <v>304900</v>
+        <v>306900</v>
       </c>
       <c r="G23" s="3">
-        <v>440900</v>
+        <v>443800</v>
       </c>
       <c r="H23" s="3">
-        <v>445200</v>
+        <v>448200</v>
       </c>
       <c r="I23" s="3">
-        <v>293700</v>
+        <v>295600</v>
       </c>
       <c r="J23" s="3">
-        <v>271800</v>
+        <v>273600</v>
       </c>
       <c r="K23" s="3">
         <v>251600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>179000</v>
+        <v>180200</v>
       </c>
       <c r="E24" s="3">
-        <v>251600</v>
+        <v>253200</v>
       </c>
       <c r="F24" s="3">
-        <v>49400</v>
+        <v>49800</v>
       </c>
       <c r="G24" s="3">
-        <v>99400</v>
+        <v>100100</v>
       </c>
       <c r="H24" s="3">
-        <v>178600</v>
+        <v>179700</v>
       </c>
       <c r="I24" s="3">
-        <v>159000</v>
+        <v>160000</v>
       </c>
       <c r="J24" s="3">
-        <v>181300</v>
+        <v>182600</v>
       </c>
       <c r="K24" s="3">
         <v>120300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>418600</v>
+        <v>421400</v>
       </c>
       <c r="E26" s="3">
-        <v>523200</v>
+        <v>526700</v>
       </c>
       <c r="F26" s="3">
-        <v>255400</v>
+        <v>257100</v>
       </c>
       <c r="G26" s="3">
-        <v>341500</v>
+        <v>343800</v>
       </c>
       <c r="H26" s="3">
-        <v>266600</v>
+        <v>268400</v>
       </c>
       <c r="I26" s="3">
-        <v>134700</v>
+        <v>135600</v>
       </c>
       <c r="J26" s="3">
-        <v>90500</v>
+        <v>91100</v>
       </c>
       <c r="K26" s="3">
         <v>131400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>418500</v>
+        <v>421300</v>
       </c>
       <c r="E27" s="3">
-        <v>488600</v>
+        <v>491900</v>
       </c>
       <c r="F27" s="3">
-        <v>238400</v>
+        <v>240000</v>
       </c>
       <c r="G27" s="3">
-        <v>516200</v>
+        <v>519600</v>
       </c>
       <c r="H27" s="3">
-        <v>276400</v>
+        <v>278300</v>
       </c>
       <c r="I27" s="3">
-        <v>182500</v>
+        <v>183800</v>
       </c>
       <c r="J27" s="3">
-        <v>150800</v>
+        <v>151800</v>
       </c>
       <c r="K27" s="3">
         <v>155100</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>111900</v>
+        <v>112600</v>
       </c>
       <c r="F29" s="3">
-        <v>149200</v>
+        <v>150100</v>
       </c>
       <c r="G29" s="3">
-        <v>-295300</v>
+        <v>-297300</v>
       </c>
       <c r="H29" s="3">
-        <v>-88000</v>
+        <v>-88600</v>
       </c>
       <c r="I29" s="3">
-        <v>-110200</v>
+        <v>-110900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,16 +1659,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="E32" s="3">
         <v>-2700</v>
       </c>
       <c r="F32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G32" s="3">
-        <v>-19300</v>
+        <v>-19400</v>
       </c>
       <c r="H32" s="3">
         <v>-2300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>418500</v>
+        <v>421300</v>
       </c>
       <c r="E33" s="3">
-        <v>600500</v>
+        <v>604500</v>
       </c>
       <c r="F33" s="3">
-        <v>387600</v>
+        <v>390200</v>
       </c>
       <c r="G33" s="3">
-        <v>220900</v>
+        <v>222300</v>
       </c>
       <c r="H33" s="3">
-        <v>188500</v>
+        <v>189700</v>
       </c>
       <c r="I33" s="3">
-        <v>72400</v>
+        <v>72900</v>
       </c>
       <c r="J33" s="3">
-        <v>150800</v>
+        <v>151800</v>
       </c>
       <c r="K33" s="3">
         <v>155100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>418500</v>
+        <v>421300</v>
       </c>
       <c r="E35" s="3">
-        <v>600500</v>
+        <v>604500</v>
       </c>
       <c r="F35" s="3">
-        <v>387600</v>
+        <v>390200</v>
       </c>
       <c r="G35" s="3">
-        <v>220900</v>
+        <v>222300</v>
       </c>
       <c r="H35" s="3">
-        <v>188500</v>
+        <v>189700</v>
       </c>
       <c r="I35" s="3">
-        <v>72400</v>
+        <v>72900</v>
       </c>
       <c r="J35" s="3">
-        <v>150800</v>
+        <v>151800</v>
       </c>
       <c r="K35" s="3">
         <v>155100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>635500</v>
+        <v>639700</v>
       </c>
       <c r="E41" s="3">
-        <v>679200</v>
+        <v>683700</v>
       </c>
       <c r="F41" s="3">
-        <v>555900</v>
+        <v>559600</v>
       </c>
       <c r="G41" s="3">
-        <v>1139700</v>
+        <v>1147300</v>
       </c>
       <c r="H41" s="3">
-        <v>1168100</v>
+        <v>1175900</v>
       </c>
       <c r="I41" s="3">
-        <v>1397500</v>
+        <v>1406800</v>
       </c>
       <c r="J41" s="3">
-        <v>1707500</v>
+        <v>1718900</v>
       </c>
       <c r="K41" s="3">
         <v>1350000</v>
@@ -1955,13 +1955,13 @@
         <v>5200</v>
       </c>
       <c r="E42" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="F42" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G42" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H42" s="3">
         <v>5500</v>
@@ -1970,7 +1970,7 @@
         <v>6400</v>
       </c>
       <c r="J42" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K42" s="3">
         <v>6900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>588100</v>
+        <v>592000</v>
       </c>
       <c r="E43" s="3">
-        <v>649300</v>
+        <v>653600</v>
       </c>
       <c r="F43" s="3">
-        <v>552100</v>
+        <v>555800</v>
       </c>
       <c r="G43" s="3">
-        <v>773600</v>
+        <v>778800</v>
       </c>
       <c r="H43" s="3">
-        <v>780500</v>
+        <v>785800</v>
       </c>
       <c r="I43" s="3">
-        <v>775000</v>
+        <v>780200</v>
       </c>
       <c r="J43" s="3">
-        <v>786700</v>
+        <v>791900</v>
       </c>
       <c r="K43" s="3">
         <v>743800</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58200</v>
+        <v>58500</v>
       </c>
       <c r="E44" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="F44" s="3">
-        <v>29000</v>
+        <v>29200</v>
       </c>
       <c r="G44" s="3">
-        <v>55200</v>
+        <v>55600</v>
       </c>
       <c r="H44" s="3">
-        <v>88300</v>
+        <v>88900</v>
       </c>
       <c r="I44" s="3">
-        <v>98300</v>
+        <v>99000</v>
       </c>
       <c r="J44" s="3">
-        <v>103300</v>
+        <v>104000</v>
       </c>
       <c r="K44" s="3">
         <v>99200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>107900</v>
+        <v>108600</v>
       </c>
       <c r="E45" s="3">
-        <v>123600</v>
+        <v>124500</v>
       </c>
       <c r="F45" s="3">
-        <v>102500</v>
+        <v>103200</v>
       </c>
       <c r="G45" s="3">
-        <v>154400</v>
+        <v>155500</v>
       </c>
       <c r="H45" s="3">
-        <v>178800</v>
+        <v>180000</v>
       </c>
       <c r="I45" s="3">
-        <v>283900</v>
+        <v>285800</v>
       </c>
       <c r="J45" s="3">
-        <v>335100</v>
+        <v>337400</v>
       </c>
       <c r="K45" s="3">
         <v>260500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1394800</v>
+        <v>1404100</v>
       </c>
       <c r="E46" s="3">
-        <v>1499000</v>
+        <v>1509100</v>
       </c>
       <c r="F46" s="3">
-        <v>1245300</v>
+        <v>1253700</v>
       </c>
       <c r="G46" s="3">
-        <v>2129100</v>
+        <v>2143400</v>
       </c>
       <c r="H46" s="3">
-        <v>2221200</v>
+        <v>2236100</v>
       </c>
       <c r="I46" s="3">
-        <v>2561100</v>
+        <v>2578200</v>
       </c>
       <c r="J46" s="3">
-        <v>2938600</v>
+        <v>2958300</v>
       </c>
       <c r="K46" s="3">
         <v>2460400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>102300</v>
+        <v>103000</v>
       </c>
       <c r="E47" s="3">
-        <v>100300</v>
+        <v>100900</v>
       </c>
       <c r="F47" s="3">
-        <v>104700</v>
+        <v>105400</v>
       </c>
       <c r="G47" s="3">
-        <v>134700</v>
+        <v>135600</v>
       </c>
       <c r="H47" s="3">
-        <v>176500</v>
+        <v>177700</v>
       </c>
       <c r="I47" s="3">
-        <v>89000</v>
+        <v>89500</v>
       </c>
       <c r="J47" s="3">
-        <v>92300</v>
+        <v>92900</v>
       </c>
       <c r="K47" s="3">
         <v>90100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2528200</v>
+        <v>2545100</v>
       </c>
       <c r="E48" s="3">
-        <v>2525300</v>
+        <v>2542200</v>
       </c>
       <c r="F48" s="3">
-        <v>2609000</v>
+        <v>2626400</v>
       </c>
       <c r="G48" s="3">
-        <v>2972100</v>
+        <v>2992000</v>
       </c>
       <c r="H48" s="3">
-        <v>2951900</v>
+        <v>2971600</v>
       </c>
       <c r="I48" s="3">
-        <v>2951700</v>
+        <v>2971400</v>
       </c>
       <c r="J48" s="3">
-        <v>3071900</v>
+        <v>3092400</v>
       </c>
       <c r="K48" s="3">
         <v>3012000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1085300</v>
+        <v>1092600</v>
       </c>
       <c r="E49" s="3">
-        <v>1198800</v>
+        <v>1206800</v>
       </c>
       <c r="F49" s="3">
-        <v>1233700</v>
+        <v>1241900</v>
       </c>
       <c r="G49" s="3">
-        <v>1214900</v>
+        <v>1223000</v>
       </c>
       <c r="H49" s="3">
-        <v>1429700</v>
+        <v>1439300</v>
       </c>
       <c r="I49" s="3">
-        <v>1588300</v>
+        <v>1598900</v>
       </c>
       <c r="J49" s="3">
-        <v>1603200</v>
+        <v>1613900</v>
       </c>
       <c r="K49" s="3">
         <v>1615700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>273000</v>
+        <v>274800</v>
       </c>
       <c r="E52" s="3">
-        <v>294700</v>
+        <v>296700</v>
       </c>
       <c r="F52" s="3">
-        <v>1126400</v>
+        <v>1134000</v>
       </c>
       <c r="G52" s="3">
-        <v>393900</v>
+        <v>396600</v>
       </c>
       <c r="H52" s="3">
-        <v>435800</v>
+        <v>438700</v>
       </c>
       <c r="I52" s="3">
-        <v>458300</v>
+        <v>461400</v>
       </c>
       <c r="J52" s="3">
-        <v>447900</v>
+        <v>450900</v>
       </c>
       <c r="K52" s="3">
         <v>437100</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5383600</v>
+        <v>5419600</v>
       </c>
       <c r="E54" s="3">
-        <v>5618200</v>
+        <v>5655700</v>
       </c>
       <c r="F54" s="3">
-        <v>6319100</v>
+        <v>6361400</v>
       </c>
       <c r="G54" s="3">
-        <v>6844800</v>
+        <v>6890500</v>
       </c>
       <c r="H54" s="3">
-        <v>7215100</v>
+        <v>7263400</v>
       </c>
       <c r="I54" s="3">
-        <v>7648400</v>
+        <v>7699500</v>
       </c>
       <c r="J54" s="3">
-        <v>8153900</v>
+        <v>8208400</v>
       </c>
       <c r="K54" s="3">
         <v>7615400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>941200</v>
+        <v>947500</v>
       </c>
       <c r="E57" s="3">
-        <v>881400</v>
+        <v>887300</v>
       </c>
       <c r="F57" s="3">
-        <v>775200</v>
+        <v>780300</v>
       </c>
       <c r="G57" s="3">
-        <v>1008000</v>
+        <v>1014700</v>
       </c>
       <c r="H57" s="3">
-        <v>1113500</v>
+        <v>1121000</v>
       </c>
       <c r="I57" s="3">
-        <v>1251800</v>
+        <v>1260200</v>
       </c>
       <c r="J57" s="3">
-        <v>1469000</v>
+        <v>1478800</v>
       </c>
       <c r="K57" s="3">
         <v>1227500</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>268400</v>
+        <v>270200</v>
       </c>
       <c r="E58" s="3">
-        <v>505100</v>
+        <v>508400</v>
       </c>
       <c r="F58" s="3">
-        <v>312500</v>
+        <v>314600</v>
       </c>
       <c r="G58" s="3">
-        <v>839200</v>
+        <v>844800</v>
       </c>
       <c r="H58" s="3">
-        <v>590100</v>
+        <v>594100</v>
       </c>
       <c r="I58" s="3">
-        <v>823300</v>
+        <v>828800</v>
       </c>
       <c r="J58" s="3">
-        <v>198300</v>
+        <v>199600</v>
       </c>
       <c r="K58" s="3">
         <v>442500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>736400</v>
+        <v>741300</v>
       </c>
       <c r="E59" s="3">
-        <v>700300</v>
+        <v>705000</v>
       </c>
       <c r="F59" s="3">
-        <v>800800</v>
+        <v>806100</v>
       </c>
       <c r="G59" s="3">
-        <v>757200</v>
+        <v>762200</v>
       </c>
       <c r="H59" s="3">
-        <v>811800</v>
+        <v>817200</v>
       </c>
       <c r="I59" s="3">
-        <v>855200</v>
+        <v>860900</v>
       </c>
       <c r="J59" s="3">
-        <v>960600</v>
+        <v>967000</v>
       </c>
       <c r="K59" s="3">
         <v>870600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1946000</v>
+        <v>1959000</v>
       </c>
       <c r="E60" s="3">
-        <v>2086800</v>
+        <v>2100800</v>
       </c>
       <c r="F60" s="3">
-        <v>1888500</v>
+        <v>1901100</v>
       </c>
       <c r="G60" s="3">
-        <v>2604400</v>
+        <v>2621800</v>
       </c>
       <c r="H60" s="3">
-        <v>2515400</v>
+        <v>2532200</v>
       </c>
       <c r="I60" s="3">
-        <v>2930200</v>
+        <v>2949800</v>
       </c>
       <c r="J60" s="3">
-        <v>2627900</v>
+        <v>2645400</v>
       </c>
       <c r="K60" s="3">
         <v>2540700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1145400</v>
+        <v>1153000</v>
       </c>
       <c r="E61" s="3">
-        <v>1015400</v>
+        <v>1022200</v>
       </c>
       <c r="F61" s="3">
-        <v>1362700</v>
+        <v>1371800</v>
       </c>
       <c r="G61" s="3">
-        <v>1433200</v>
+        <v>1442800</v>
       </c>
       <c r="H61" s="3">
-        <v>1379100</v>
+        <v>1388300</v>
       </c>
       <c r="I61" s="3">
-        <v>1374300</v>
+        <v>1383500</v>
       </c>
       <c r="J61" s="3">
-        <v>2090300</v>
+        <v>2104200</v>
       </c>
       <c r="K61" s="3">
         <v>1792100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>301200</v>
+        <v>303200</v>
       </c>
       <c r="E62" s="3">
-        <v>392100</v>
+        <v>394700</v>
       </c>
       <c r="F62" s="3">
-        <v>428500</v>
+        <v>431400</v>
       </c>
       <c r="G62" s="3">
-        <v>456200</v>
+        <v>459200</v>
       </c>
       <c r="H62" s="3">
-        <v>506300</v>
+        <v>509600</v>
       </c>
       <c r="I62" s="3">
-        <v>555200</v>
+        <v>559000</v>
       </c>
       <c r="J62" s="3">
-        <v>580100</v>
+        <v>584000</v>
       </c>
       <c r="K62" s="3">
         <v>619100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3393100</v>
+        <v>3415800</v>
       </c>
       <c r="E66" s="3">
-        <v>3496200</v>
+        <v>3519500</v>
       </c>
       <c r="F66" s="3">
-        <v>4169900</v>
+        <v>4197700</v>
       </c>
       <c r="G66" s="3">
-        <v>4635000</v>
+        <v>4666000</v>
       </c>
       <c r="H66" s="3">
-        <v>4702500</v>
+        <v>4733900</v>
       </c>
       <c r="I66" s="3">
-        <v>5123700</v>
+        <v>5157900</v>
       </c>
       <c r="J66" s="3">
-        <v>5616700</v>
+        <v>5654200</v>
       </c>
       <c r="K66" s="3">
         <v>5311400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3988400</v>
+        <v>4015100</v>
       </c>
       <c r="E72" s="3">
-        <v>4113300</v>
+        <v>4140800</v>
       </c>
       <c r="F72" s="3">
-        <v>4099700</v>
+        <v>4127100</v>
       </c>
       <c r="G72" s="3">
-        <v>4063800</v>
+        <v>4091000</v>
       </c>
       <c r="H72" s="3">
-        <v>4288600</v>
+        <v>4317300</v>
       </c>
       <c r="I72" s="3">
-        <v>4080900</v>
+        <v>4108200</v>
       </c>
       <c r="J72" s="3">
-        <v>4093400</v>
+        <v>4120800</v>
       </c>
       <c r="K72" s="3">
         <v>3779400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1990500</v>
+        <v>2003900</v>
       </c>
       <c r="E76" s="3">
-        <v>2122000</v>
+        <v>2136200</v>
       </c>
       <c r="F76" s="3">
-        <v>2149300</v>
+        <v>2163600</v>
       </c>
       <c r="G76" s="3">
-        <v>2209800</v>
+        <v>2224600</v>
       </c>
       <c r="H76" s="3">
-        <v>2512600</v>
+        <v>2529400</v>
       </c>
       <c r="I76" s="3">
-        <v>2524700</v>
+        <v>2541600</v>
       </c>
       <c r="J76" s="3">
-        <v>2537200</v>
+        <v>2554100</v>
       </c>
       <c r="K76" s="3">
         <v>2303900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>418500</v>
+        <v>421300</v>
       </c>
       <c r="E81" s="3">
-        <v>600500</v>
+        <v>604500</v>
       </c>
       <c r="F81" s="3">
-        <v>387600</v>
+        <v>390200</v>
       </c>
       <c r="G81" s="3">
-        <v>220900</v>
+        <v>222300</v>
       </c>
       <c r="H81" s="3">
-        <v>188500</v>
+        <v>189700</v>
       </c>
       <c r="I81" s="3">
-        <v>72400</v>
+        <v>72900</v>
       </c>
       <c r="J81" s="3">
-        <v>150800</v>
+        <v>151800</v>
       </c>
       <c r="K81" s="3">
         <v>155100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>856200</v>
+        <v>862000</v>
       </c>
       <c r="E83" s="3">
-        <v>718900</v>
+        <v>723700</v>
       </c>
       <c r="F83" s="3">
-        <v>897300</v>
+        <v>903300</v>
       </c>
       <c r="G83" s="3">
-        <v>1300500</v>
+        <v>1309200</v>
       </c>
       <c r="H83" s="3">
-        <v>813800</v>
+        <v>819300</v>
       </c>
       <c r="I83" s="3">
-        <v>904500</v>
+        <v>910500</v>
       </c>
       <c r="J83" s="3">
-        <v>949200</v>
+        <v>955500</v>
       </c>
       <c r="K83" s="3">
         <v>846700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1418500</v>
+        <v>1428000</v>
       </c>
       <c r="E89" s="3">
-        <v>1397300</v>
+        <v>1406600</v>
       </c>
       <c r="F89" s="3">
-        <v>1264900</v>
+        <v>1273400</v>
       </c>
       <c r="G89" s="3">
-        <v>1249500</v>
+        <v>1257900</v>
       </c>
       <c r="H89" s="3">
-        <v>1064000</v>
+        <v>1071100</v>
       </c>
       <c r="I89" s="3">
-        <v>862200</v>
+        <v>867900</v>
       </c>
       <c r="J89" s="3">
-        <v>1103900</v>
+        <v>1111300</v>
       </c>
       <c r="K89" s="3">
         <v>962800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-688700</v>
+        <v>-693300</v>
       </c>
       <c r="E91" s="3">
-        <v>-631100</v>
+        <v>-635300</v>
       </c>
       <c r="F91" s="3">
-        <v>-719200</v>
+        <v>-724000</v>
       </c>
       <c r="G91" s="3">
-        <v>-712700</v>
+        <v>-717500</v>
       </c>
       <c r="H91" s="3">
-        <v>-775300</v>
+        <v>-780400</v>
       </c>
       <c r="I91" s="3">
-        <v>-973700</v>
+        <v>-980200</v>
       </c>
       <c r="J91" s="3">
-        <v>-703200</v>
+        <v>-707900</v>
       </c>
       <c r="K91" s="3">
         <v>-672100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-687600</v>
+        <v>-692200</v>
       </c>
       <c r="E94" s="3">
-        <v>-469000</v>
+        <v>-472100</v>
       </c>
       <c r="F94" s="3">
-        <v>-786200</v>
+        <v>-791500</v>
       </c>
       <c r="G94" s="3">
-        <v>-679100</v>
+        <v>-683600</v>
       </c>
       <c r="H94" s="3">
-        <v>-776800</v>
+        <v>-782000</v>
       </c>
       <c r="I94" s="3">
-        <v>-982900</v>
+        <v>-989500</v>
       </c>
       <c r="J94" s="3">
-        <v>-696800</v>
+        <v>-701400</v>
       </c>
       <c r="K94" s="3">
         <v>-658800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-270900</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-461900</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-279600</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-269900</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-185500</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-84700</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-53000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-776900</v>
+        <v>-782100</v>
       </c>
       <c r="E100" s="3">
-        <v>-803900</v>
+        <v>-809300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1059500</v>
+        <v>-1066500</v>
       </c>
       <c r="G100" s="3">
-        <v>-596700</v>
+        <v>-600700</v>
       </c>
       <c r="H100" s="3">
-        <v>-516900</v>
+        <v>-520400</v>
       </c>
       <c r="I100" s="3">
-        <v>-184300</v>
+        <v>-185500</v>
       </c>
       <c r="J100" s="3">
-        <v>-123200</v>
+        <v>-124000</v>
       </c>
       <c r="K100" s="3">
         <v>-500300</v>
@@ -4225,7 +4225,7 @@
         <v>-5100</v>
       </c>
       <c r="J101" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K101" s="3">
         <v>5000</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-43700</v>
+        <v>-44000</v>
       </c>
       <c r="E102" s="3">
-        <v>123300</v>
+        <v>124100</v>
       </c>
       <c r="F102" s="3">
-        <v>-583800</v>
+        <v>-587700</v>
       </c>
       <c r="G102" s="3">
-        <v>-28400</v>
+        <v>-28600</v>
       </c>
       <c r="H102" s="3">
-        <v>-229400</v>
+        <v>-230900</v>
       </c>
       <c r="I102" s="3">
-        <v>-310000</v>
+        <v>-312100</v>
       </c>
       <c r="J102" s="3">
-        <v>283300</v>
+        <v>285200</v>
       </c>
       <c r="K102" s="3">
         <v>-191300</v>

--- a/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLTOY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3745900</v>
+        <v>3749000</v>
       </c>
       <c r="E8" s="3">
-        <v>3616900</v>
+        <v>3619900</v>
       </c>
       <c r="F8" s="3">
-        <v>3533000</v>
+        <v>3535900</v>
       </c>
       <c r="G8" s="3">
-        <v>3580800</v>
+        <v>3583800</v>
       </c>
       <c r="H8" s="3">
-        <v>4118200</v>
+        <v>4121600</v>
       </c>
       <c r="I8" s="3">
-        <v>4116200</v>
+        <v>4119600</v>
       </c>
       <c r="J8" s="3">
-        <v>4236800</v>
+        <v>4240300</v>
       </c>
       <c r="K8" s="3">
         <v>3984100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>237500</v>
+        <v>237700</v>
       </c>
       <c r="E9" s="3">
-        <v>186900</v>
+        <v>187100</v>
       </c>
       <c r="F9" s="3">
-        <v>178300</v>
+        <v>178500</v>
       </c>
       <c r="G9" s="3">
-        <v>151700</v>
+        <v>151800</v>
       </c>
       <c r="H9" s="3">
-        <v>163300</v>
+        <v>163400</v>
       </c>
       <c r="I9" s="3">
-        <v>177300</v>
+        <v>177400</v>
       </c>
       <c r="J9" s="3">
-        <v>193900</v>
+        <v>194100</v>
       </c>
       <c r="K9" s="3">
         <v>168300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3508400</v>
+        <v>3511300</v>
       </c>
       <c r="E10" s="3">
-        <v>3430000</v>
+        <v>3432800</v>
       </c>
       <c r="F10" s="3">
-        <v>3354600</v>
+        <v>3357400</v>
       </c>
       <c r="G10" s="3">
-        <v>3429100</v>
+        <v>3432000</v>
       </c>
       <c r="H10" s="3">
-        <v>3954900</v>
+        <v>3958200</v>
       </c>
       <c r="I10" s="3">
-        <v>3939000</v>
+        <v>3942200</v>
       </c>
       <c r="J10" s="3">
-        <v>4042800</v>
+        <v>4046200</v>
       </c>
       <c r="K10" s="3">
         <v>3815800</v>
@@ -957,22 +957,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>54600</v>
+        <v>54700</v>
       </c>
       <c r="F14" s="3">
         <v>-10600</v>
       </c>
       <c r="G14" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="H14" s="3">
         <v>-2400</v>
       </c>
       <c r="I14" s="3">
-        <v>43100</v>
+        <v>43200</v>
       </c>
       <c r="J14" s="3">
-        <v>-19800</v>
+        <v>-19900</v>
       </c>
       <c r="K14" s="3">
         <v>20300</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>862000</v>
+        <v>862700</v>
       </c>
       <c r="E15" s="3">
-        <v>723700</v>
+        <v>724300</v>
       </c>
       <c r="F15" s="3">
-        <v>880400</v>
+        <v>881100</v>
       </c>
       <c r="G15" s="3">
-        <v>1236500</v>
+        <v>1237600</v>
       </c>
       <c r="H15" s="3">
-        <v>884100</v>
+        <v>884800</v>
       </c>
       <c r="I15" s="3">
-        <v>952100</v>
+        <v>952800</v>
       </c>
       <c r="J15" s="3">
-        <v>955500</v>
+        <v>956300</v>
       </c>
       <c r="K15" s="3">
         <v>846700</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3105700</v>
+        <v>3108300</v>
       </c>
       <c r="E17" s="3">
-        <v>2790900</v>
+        <v>2793200</v>
       </c>
       <c r="F17" s="3">
-        <v>3163100</v>
+        <v>3165700</v>
       </c>
       <c r="G17" s="3">
-        <v>3055800</v>
+        <v>3058300</v>
       </c>
       <c r="H17" s="3">
-        <v>3578900</v>
+        <v>3581900</v>
       </c>
       <c r="I17" s="3">
-        <v>3665600</v>
+        <v>3668600</v>
       </c>
       <c r="J17" s="3">
-        <v>3798900</v>
+        <v>3802100</v>
       </c>
       <c r="K17" s="3">
         <v>3605200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>640200</v>
+        <v>640700</v>
       </c>
       <c r="E18" s="3">
-        <v>826000</v>
+        <v>826700</v>
       </c>
       <c r="F18" s="3">
-        <v>369900</v>
+        <v>370200</v>
       </c>
       <c r="G18" s="3">
-        <v>525000</v>
+        <v>525500</v>
       </c>
       <c r="H18" s="3">
-        <v>539200</v>
+        <v>539700</v>
       </c>
       <c r="I18" s="3">
-        <v>450700</v>
+        <v>451000</v>
       </c>
       <c r="J18" s="3">
-        <v>437900</v>
+        <v>438200</v>
       </c>
       <c r="K18" s="3">
         <v>378900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1506800</v>
+        <v>1507700</v>
       </c>
       <c r="E21" s="3">
-        <v>1552400</v>
+        <v>1553500</v>
       </c>
       <c r="F21" s="3">
-        <v>1271100</v>
+        <v>1271800</v>
       </c>
       <c r="G21" s="3">
-        <v>1853600</v>
+        <v>1854600</v>
       </c>
       <c r="H21" s="3">
-        <v>1360800</v>
+        <v>1361600</v>
       </c>
       <c r="I21" s="3">
-        <v>1357000</v>
+        <v>1357800</v>
       </c>
       <c r="J21" s="3">
-        <v>1391100</v>
+        <v>1391900</v>
       </c>
       <c r="K21" s="3">
         <v>1242600</v>
@@ -1245,19 +1245,19 @@
         <v>48800</v>
       </c>
       <c r="F22" s="3">
-        <v>60900</v>
+        <v>61000</v>
       </c>
       <c r="G22" s="3">
-        <v>100600</v>
+        <v>100700</v>
       </c>
       <c r="H22" s="3">
-        <v>93300</v>
+        <v>93400</v>
       </c>
       <c r="I22" s="3">
-        <v>150800</v>
+        <v>150900</v>
       </c>
       <c r="J22" s="3">
-        <v>162000</v>
+        <v>162100</v>
       </c>
       <c r="K22" s="3">
         <v>160700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>601600</v>
+        <v>602100</v>
       </c>
       <c r="E23" s="3">
-        <v>779900</v>
+        <v>780500</v>
       </c>
       <c r="F23" s="3">
-        <v>306900</v>
+        <v>307200</v>
       </c>
       <c r="G23" s="3">
-        <v>443800</v>
+        <v>444200</v>
       </c>
       <c r="H23" s="3">
-        <v>448200</v>
+        <v>448500</v>
       </c>
       <c r="I23" s="3">
-        <v>295600</v>
+        <v>295900</v>
       </c>
       <c r="J23" s="3">
-        <v>273600</v>
+        <v>273900</v>
       </c>
       <c r="K23" s="3">
         <v>251600</v>
@@ -1323,10 +1323,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>180200</v>
+        <v>180300</v>
       </c>
       <c r="E24" s="3">
-        <v>253200</v>
+        <v>253500</v>
       </c>
       <c r="F24" s="3">
         <v>49800</v>
@@ -1335,13 +1335,13 @@
         <v>100100</v>
       </c>
       <c r="H24" s="3">
-        <v>179700</v>
+        <v>179900</v>
       </c>
       <c r="I24" s="3">
-        <v>160000</v>
+        <v>160100</v>
       </c>
       <c r="J24" s="3">
-        <v>182600</v>
+        <v>182700</v>
       </c>
       <c r="K24" s="3">
         <v>120300</v>
@@ -1407,22 +1407,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>421400</v>
+        <v>421700</v>
       </c>
       <c r="E26" s="3">
-        <v>526700</v>
+        <v>527100</v>
       </c>
       <c r="F26" s="3">
-        <v>257100</v>
+        <v>257400</v>
       </c>
       <c r="G26" s="3">
-        <v>343800</v>
+        <v>344100</v>
       </c>
       <c r="H26" s="3">
-        <v>268400</v>
+        <v>268600</v>
       </c>
       <c r="I26" s="3">
-        <v>135600</v>
+        <v>135700</v>
       </c>
       <c r="J26" s="3">
         <v>91100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>421300</v>
+        <v>421600</v>
       </c>
       <c r="E27" s="3">
-        <v>491900</v>
+        <v>492300</v>
       </c>
       <c r="F27" s="3">
-        <v>240000</v>
+        <v>240200</v>
       </c>
       <c r="G27" s="3">
-        <v>519600</v>
+        <v>520000</v>
       </c>
       <c r="H27" s="3">
-        <v>278300</v>
+        <v>278500</v>
       </c>
       <c r="I27" s="3">
-        <v>183800</v>
+        <v>183900</v>
       </c>
       <c r="J27" s="3">
-        <v>151800</v>
+        <v>151900</v>
       </c>
       <c r="K27" s="3">
         <v>155100</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>112600</v>
+        <v>112700</v>
       </c>
       <c r="F29" s="3">
-        <v>150100</v>
+        <v>150300</v>
       </c>
       <c r="G29" s="3">
-        <v>-297300</v>
+        <v>-297500</v>
       </c>
       <c r="H29" s="3">
         <v>-88600</v>
       </c>
       <c r="I29" s="3">
-        <v>-110900</v>
+        <v>-111000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>421300</v>
+        <v>421600</v>
       </c>
       <c r="E33" s="3">
-        <v>604500</v>
+        <v>605000</v>
       </c>
       <c r="F33" s="3">
-        <v>390200</v>
+        <v>390500</v>
       </c>
       <c r="G33" s="3">
-        <v>222300</v>
+        <v>222500</v>
       </c>
       <c r="H33" s="3">
-        <v>189700</v>
+        <v>189900</v>
       </c>
       <c r="I33" s="3">
         <v>72900</v>
       </c>
       <c r="J33" s="3">
-        <v>151800</v>
+        <v>151900</v>
       </c>
       <c r="K33" s="3">
         <v>155100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>421300</v>
+        <v>421600</v>
       </c>
       <c r="E35" s="3">
-        <v>604500</v>
+        <v>605000</v>
       </c>
       <c r="F35" s="3">
-        <v>390200</v>
+        <v>390500</v>
       </c>
       <c r="G35" s="3">
-        <v>222300</v>
+        <v>222500</v>
       </c>
       <c r="H35" s="3">
-        <v>189700</v>
+        <v>189900</v>
       </c>
       <c r="I35" s="3">
         <v>72900</v>
       </c>
       <c r="J35" s="3">
-        <v>151800</v>
+        <v>151900</v>
       </c>
       <c r="K35" s="3">
         <v>155100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>639700</v>
+        <v>640300</v>
       </c>
       <c r="E41" s="3">
-        <v>683700</v>
+        <v>684300</v>
       </c>
       <c r="F41" s="3">
-        <v>559600</v>
+        <v>560100</v>
       </c>
       <c r="G41" s="3">
-        <v>1147300</v>
+        <v>1148300</v>
       </c>
       <c r="H41" s="3">
-        <v>1175900</v>
+        <v>1176900</v>
       </c>
       <c r="I41" s="3">
-        <v>1406800</v>
+        <v>1408000</v>
       </c>
       <c r="J41" s="3">
-        <v>1718900</v>
+        <v>1720400</v>
       </c>
       <c r="K41" s="3">
         <v>1350000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>592000</v>
+        <v>592500</v>
       </c>
       <c r="E43" s="3">
-        <v>653600</v>
+        <v>654100</v>
       </c>
       <c r="F43" s="3">
-        <v>555800</v>
+        <v>556300</v>
       </c>
       <c r="G43" s="3">
-        <v>778800</v>
+        <v>779500</v>
       </c>
       <c r="H43" s="3">
-        <v>785800</v>
+        <v>786400</v>
       </c>
       <c r="I43" s="3">
-        <v>780200</v>
+        <v>780900</v>
       </c>
       <c r="J43" s="3">
-        <v>791900</v>
+        <v>792600</v>
       </c>
       <c r="K43" s="3">
         <v>743800</v>
@@ -2036,7 +2036,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58500</v>
+        <v>58600</v>
       </c>
       <c r="E44" s="3">
         <v>41200</v>
@@ -2045,16 +2045,16 @@
         <v>29200</v>
       </c>
       <c r="G44" s="3">
-        <v>55600</v>
+        <v>55700</v>
       </c>
       <c r="H44" s="3">
-        <v>88900</v>
+        <v>89000</v>
       </c>
       <c r="I44" s="3">
-        <v>99000</v>
+        <v>99100</v>
       </c>
       <c r="J44" s="3">
-        <v>104000</v>
+        <v>104100</v>
       </c>
       <c r="K44" s="3">
         <v>99200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>108600</v>
+        <v>108700</v>
       </c>
       <c r="E45" s="3">
-        <v>124500</v>
+        <v>124600</v>
       </c>
       <c r="F45" s="3">
-        <v>103200</v>
+        <v>103300</v>
       </c>
       <c r="G45" s="3">
-        <v>155500</v>
+        <v>155600</v>
       </c>
       <c r="H45" s="3">
-        <v>180000</v>
+        <v>180100</v>
       </c>
       <c r="I45" s="3">
-        <v>285800</v>
+        <v>286000</v>
       </c>
       <c r="J45" s="3">
-        <v>337400</v>
+        <v>337700</v>
       </c>
       <c r="K45" s="3">
         <v>260500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1404100</v>
+        <v>1405300</v>
       </c>
       <c r="E46" s="3">
-        <v>1509100</v>
+        <v>1510300</v>
       </c>
       <c r="F46" s="3">
-        <v>1253700</v>
+        <v>1254700</v>
       </c>
       <c r="G46" s="3">
-        <v>2143400</v>
+        <v>2145200</v>
       </c>
       <c r="H46" s="3">
-        <v>2236100</v>
+        <v>2237900</v>
       </c>
       <c r="I46" s="3">
-        <v>2578200</v>
+        <v>2580300</v>
       </c>
       <c r="J46" s="3">
-        <v>2958300</v>
+        <v>2960700</v>
       </c>
       <c r="K46" s="3">
         <v>2460400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>103000</v>
+        <v>103100</v>
       </c>
       <c r="E47" s="3">
-        <v>100900</v>
+        <v>101000</v>
       </c>
       <c r="F47" s="3">
-        <v>105400</v>
+        <v>105500</v>
       </c>
       <c r="G47" s="3">
-        <v>135600</v>
+        <v>135700</v>
       </c>
       <c r="H47" s="3">
-        <v>177700</v>
+        <v>177800</v>
       </c>
       <c r="I47" s="3">
-        <v>89500</v>
+        <v>89600</v>
       </c>
       <c r="J47" s="3">
-        <v>92900</v>
+        <v>93000</v>
       </c>
       <c r="K47" s="3">
         <v>90100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2545100</v>
+        <v>2547300</v>
       </c>
       <c r="E48" s="3">
-        <v>2542200</v>
+        <v>2544300</v>
       </c>
       <c r="F48" s="3">
-        <v>2626400</v>
+        <v>2628600</v>
       </c>
       <c r="G48" s="3">
-        <v>2992000</v>
+        <v>2994500</v>
       </c>
       <c r="H48" s="3">
-        <v>2971600</v>
+        <v>2974100</v>
       </c>
       <c r="I48" s="3">
-        <v>2971400</v>
+        <v>2973900</v>
       </c>
       <c r="J48" s="3">
-        <v>3092400</v>
+        <v>3095000</v>
       </c>
       <c r="K48" s="3">
         <v>3012000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1092600</v>
+        <v>1093500</v>
       </c>
       <c r="E49" s="3">
-        <v>1206800</v>
+        <v>1207800</v>
       </c>
       <c r="F49" s="3">
-        <v>1241900</v>
+        <v>1243000</v>
       </c>
       <c r="G49" s="3">
-        <v>1223000</v>
+        <v>1224000</v>
       </c>
       <c r="H49" s="3">
-        <v>1439300</v>
+        <v>1440400</v>
       </c>
       <c r="I49" s="3">
-        <v>1598900</v>
+        <v>1600300</v>
       </c>
       <c r="J49" s="3">
-        <v>1613900</v>
+        <v>1615200</v>
       </c>
       <c r="K49" s="3">
         <v>1615700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>274800</v>
+        <v>275000</v>
       </c>
       <c r="E52" s="3">
-        <v>296700</v>
+        <v>297000</v>
       </c>
       <c r="F52" s="3">
-        <v>1134000</v>
+        <v>1134900</v>
       </c>
       <c r="G52" s="3">
-        <v>396600</v>
+        <v>396900</v>
       </c>
       <c r="H52" s="3">
-        <v>438700</v>
+        <v>439100</v>
       </c>
       <c r="I52" s="3">
-        <v>461400</v>
+        <v>461800</v>
       </c>
       <c r="J52" s="3">
-        <v>450900</v>
+        <v>451300</v>
       </c>
       <c r="K52" s="3">
         <v>437100</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5419600</v>
+        <v>5424100</v>
       </c>
       <c r="E54" s="3">
-        <v>5655700</v>
+        <v>5660400</v>
       </c>
       <c r="F54" s="3">
-        <v>6361400</v>
+        <v>6366700</v>
       </c>
       <c r="G54" s="3">
-        <v>6890500</v>
+        <v>6896300</v>
       </c>
       <c r="H54" s="3">
-        <v>7263400</v>
+        <v>7269400</v>
       </c>
       <c r="I54" s="3">
-        <v>7699500</v>
+        <v>7705900</v>
       </c>
       <c r="J54" s="3">
-        <v>8208400</v>
+        <v>8215200</v>
       </c>
       <c r="K54" s="3">
         <v>7615400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>947500</v>
+        <v>948300</v>
       </c>
       <c r="E57" s="3">
-        <v>887300</v>
+        <v>888100</v>
       </c>
       <c r="F57" s="3">
-        <v>780300</v>
+        <v>781000</v>
       </c>
       <c r="G57" s="3">
-        <v>1014700</v>
+        <v>1015600</v>
       </c>
       <c r="H57" s="3">
-        <v>1121000</v>
+        <v>1121900</v>
       </c>
       <c r="I57" s="3">
-        <v>1260200</v>
+        <v>1261200</v>
       </c>
       <c r="J57" s="3">
-        <v>1478800</v>
+        <v>1480000</v>
       </c>
       <c r="K57" s="3">
         <v>1227500</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>270200</v>
+        <v>270400</v>
       </c>
       <c r="E58" s="3">
-        <v>508400</v>
+        <v>508900</v>
       </c>
       <c r="F58" s="3">
-        <v>314600</v>
+        <v>314900</v>
       </c>
       <c r="G58" s="3">
-        <v>844800</v>
+        <v>845500</v>
       </c>
       <c r="H58" s="3">
-        <v>594100</v>
+        <v>594600</v>
       </c>
       <c r="I58" s="3">
-        <v>828800</v>
+        <v>829500</v>
       </c>
       <c r="J58" s="3">
-        <v>199600</v>
+        <v>199700</v>
       </c>
       <c r="K58" s="3">
         <v>442500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>741300</v>
+        <v>741900</v>
       </c>
       <c r="E59" s="3">
-        <v>705000</v>
+        <v>705600</v>
       </c>
       <c r="F59" s="3">
-        <v>806100</v>
+        <v>806800</v>
       </c>
       <c r="G59" s="3">
-        <v>762200</v>
+        <v>762900</v>
       </c>
       <c r="H59" s="3">
-        <v>817200</v>
+        <v>817900</v>
       </c>
       <c r="I59" s="3">
-        <v>860900</v>
+        <v>861600</v>
       </c>
       <c r="J59" s="3">
-        <v>967000</v>
+        <v>967800</v>
       </c>
       <c r="K59" s="3">
         <v>870600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1959000</v>
+        <v>1960600</v>
       </c>
       <c r="E60" s="3">
-        <v>2100800</v>
+        <v>2102500</v>
       </c>
       <c r="F60" s="3">
-        <v>1901100</v>
+        <v>1902700</v>
       </c>
       <c r="G60" s="3">
-        <v>2621800</v>
+        <v>2624000</v>
       </c>
       <c r="H60" s="3">
-        <v>2532200</v>
+        <v>2534300</v>
       </c>
       <c r="I60" s="3">
-        <v>2949800</v>
+        <v>2952300</v>
       </c>
       <c r="J60" s="3">
-        <v>2645400</v>
+        <v>2647600</v>
       </c>
       <c r="K60" s="3">
         <v>2540700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1153000</v>
+        <v>1154000</v>
       </c>
       <c r="E61" s="3">
-        <v>1022200</v>
+        <v>1023000</v>
       </c>
       <c r="F61" s="3">
-        <v>1371800</v>
+        <v>1373000</v>
       </c>
       <c r="G61" s="3">
-        <v>1442800</v>
+        <v>1444000</v>
       </c>
       <c r="H61" s="3">
-        <v>1388300</v>
+        <v>1389500</v>
       </c>
       <c r="I61" s="3">
-        <v>1383500</v>
+        <v>1384700</v>
       </c>
       <c r="J61" s="3">
-        <v>2104200</v>
+        <v>2106000</v>
       </c>
       <c r="K61" s="3">
         <v>1792100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>303200</v>
+        <v>303500</v>
       </c>
       <c r="E62" s="3">
-        <v>394700</v>
+        <v>395000</v>
       </c>
       <c r="F62" s="3">
-        <v>431400</v>
+        <v>431700</v>
       </c>
       <c r="G62" s="3">
-        <v>459200</v>
+        <v>459600</v>
       </c>
       <c r="H62" s="3">
-        <v>509600</v>
+        <v>510100</v>
       </c>
       <c r="I62" s="3">
-        <v>559000</v>
+        <v>559400</v>
       </c>
       <c r="J62" s="3">
-        <v>584000</v>
+        <v>584500</v>
       </c>
       <c r="K62" s="3">
         <v>619100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3415800</v>
+        <v>3418600</v>
       </c>
       <c r="E66" s="3">
-        <v>3519500</v>
+        <v>3522500</v>
       </c>
       <c r="F66" s="3">
-        <v>4197700</v>
+        <v>4201200</v>
       </c>
       <c r="G66" s="3">
-        <v>4666000</v>
+        <v>4669800</v>
       </c>
       <c r="H66" s="3">
-        <v>4733900</v>
+        <v>4737900</v>
       </c>
       <c r="I66" s="3">
-        <v>5157900</v>
+        <v>5162200</v>
       </c>
       <c r="J66" s="3">
-        <v>5654200</v>
+        <v>5658900</v>
       </c>
       <c r="K66" s="3">
         <v>5311400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4015100</v>
+        <v>4018400</v>
       </c>
       <c r="E72" s="3">
-        <v>4140800</v>
+        <v>4144300</v>
       </c>
       <c r="F72" s="3">
-        <v>4127100</v>
+        <v>4130500</v>
       </c>
       <c r="G72" s="3">
-        <v>4091000</v>
+        <v>4094400</v>
       </c>
       <c r="H72" s="3">
-        <v>4317300</v>
+        <v>4320900</v>
       </c>
       <c r="I72" s="3">
-        <v>4108200</v>
+        <v>4111600</v>
       </c>
       <c r="J72" s="3">
-        <v>4120800</v>
+        <v>4124200</v>
       </c>
       <c r="K72" s="3">
         <v>3779400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2003900</v>
+        <v>2005500</v>
       </c>
       <c r="E76" s="3">
-        <v>2136200</v>
+        <v>2138000</v>
       </c>
       <c r="F76" s="3">
-        <v>2163600</v>
+        <v>2165400</v>
       </c>
       <c r="G76" s="3">
-        <v>2224600</v>
+        <v>2226400</v>
       </c>
       <c r="H76" s="3">
-        <v>2529400</v>
+        <v>2531500</v>
       </c>
       <c r="I76" s="3">
-        <v>2541600</v>
+        <v>2543700</v>
       </c>
       <c r="J76" s="3">
-        <v>2554100</v>
+        <v>2556300</v>
       </c>
       <c r="K76" s="3">
         <v>2303900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>421300</v>
+        <v>421600</v>
       </c>
       <c r="E81" s="3">
-        <v>604500</v>
+        <v>605000</v>
       </c>
       <c r="F81" s="3">
-        <v>390200</v>
+        <v>390500</v>
       </c>
       <c r="G81" s="3">
-        <v>222300</v>
+        <v>222500</v>
       </c>
       <c r="H81" s="3">
-        <v>189700</v>
+        <v>189900</v>
       </c>
       <c r="I81" s="3">
         <v>72900</v>
       </c>
       <c r="J81" s="3">
-        <v>151800</v>
+        <v>151900</v>
       </c>
       <c r="K81" s="3">
         <v>155100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>862000</v>
+        <v>862700</v>
       </c>
       <c r="E83" s="3">
-        <v>723700</v>
+        <v>724300</v>
       </c>
       <c r="F83" s="3">
-        <v>903300</v>
+        <v>904000</v>
       </c>
       <c r="G83" s="3">
-        <v>1309200</v>
+        <v>1310200</v>
       </c>
       <c r="H83" s="3">
-        <v>819300</v>
+        <v>819900</v>
       </c>
       <c r="I83" s="3">
-        <v>910500</v>
+        <v>911300</v>
       </c>
       <c r="J83" s="3">
-        <v>955500</v>
+        <v>956300</v>
       </c>
       <c r="K83" s="3">
         <v>846700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1428000</v>
+        <v>1429200</v>
       </c>
       <c r="E89" s="3">
-        <v>1406600</v>
+        <v>1407800</v>
       </c>
       <c r="F89" s="3">
-        <v>1273400</v>
+        <v>1274400</v>
       </c>
       <c r="G89" s="3">
-        <v>1257900</v>
+        <v>1258900</v>
       </c>
       <c r="H89" s="3">
-        <v>1071100</v>
+        <v>1072000</v>
       </c>
       <c r="I89" s="3">
-        <v>867900</v>
+        <v>868700</v>
       </c>
       <c r="J89" s="3">
-        <v>1111300</v>
+        <v>1112200</v>
       </c>
       <c r="K89" s="3">
         <v>962800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-693300</v>
+        <v>-693900</v>
       </c>
       <c r="E91" s="3">
-        <v>-635300</v>
+        <v>-635800</v>
       </c>
       <c r="F91" s="3">
-        <v>-724000</v>
+        <v>-724600</v>
       </c>
       <c r="G91" s="3">
-        <v>-717500</v>
+        <v>-718100</v>
       </c>
       <c r="H91" s="3">
-        <v>-780400</v>
+        <v>-781100</v>
       </c>
       <c r="I91" s="3">
-        <v>-980200</v>
+        <v>-981100</v>
       </c>
       <c r="J91" s="3">
-        <v>-707900</v>
+        <v>-708500</v>
       </c>
       <c r="K91" s="3">
         <v>-672100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-692200</v>
+        <v>-692800</v>
       </c>
       <c r="E94" s="3">
-        <v>-472100</v>
+        <v>-472500</v>
       </c>
       <c r="F94" s="3">
-        <v>-791500</v>
+        <v>-792200</v>
       </c>
       <c r="G94" s="3">
-        <v>-683600</v>
+        <v>-684200</v>
       </c>
       <c r="H94" s="3">
-        <v>-782000</v>
+        <v>-782600</v>
       </c>
       <c r="I94" s="3">
-        <v>-989500</v>
+        <v>-990300</v>
       </c>
       <c r="J94" s="3">
-        <v>-701400</v>
+        <v>-702000</v>
       </c>
       <c r="K94" s="3">
         <v>-658800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-270900</v>
+        <v>-271100</v>
       </c>
       <c r="E96" s="3">
-        <v>-461900</v>
+        <v>-462300</v>
       </c>
       <c r="F96" s="3">
-        <v>-279600</v>
+        <v>-279800</v>
       </c>
       <c r="G96" s="3">
-        <v>-269900</v>
+        <v>-270200</v>
       </c>
       <c r="H96" s="3">
-        <v>-185500</v>
+        <v>-185600</v>
       </c>
       <c r="I96" s="3">
         <v>-84700</v>
       </c>
       <c r="J96" s="3">
-        <v>-53000</v>
+        <v>-53100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-782100</v>
+        <v>-782700</v>
       </c>
       <c r="E100" s="3">
-        <v>-809300</v>
+        <v>-810000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1066500</v>
+        <v>-1067400</v>
       </c>
       <c r="G100" s="3">
-        <v>-600700</v>
+        <v>-601200</v>
       </c>
       <c r="H100" s="3">
-        <v>-520400</v>
+        <v>-520800</v>
       </c>
       <c r="I100" s="3">
-        <v>-185500</v>
+        <v>-185600</v>
       </c>
       <c r="J100" s="3">
-        <v>-124000</v>
+        <v>-124100</v>
       </c>
       <c r="K100" s="3">
         <v>-500300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-44000</v>
+        <v>-44100</v>
       </c>
       <c r="E102" s="3">
-        <v>124100</v>
+        <v>124200</v>
       </c>
       <c r="F102" s="3">
-        <v>-587700</v>
+        <v>-588200</v>
       </c>
       <c r="G102" s="3">
         <v>-28600</v>
       </c>
       <c r="H102" s="3">
-        <v>-230900</v>
+        <v>-231100</v>
       </c>
       <c r="I102" s="3">
-        <v>-312100</v>
+        <v>-312400</v>
       </c>
       <c r="J102" s="3">
-        <v>285200</v>
+        <v>285500</v>
       </c>
       <c r="K102" s="3">
         <v>-191300</v>
